--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -254,7 +254,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="248">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3035,12 +3045,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MN20"/>
+  <dimension ref="A1:MU20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MD1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="MK1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="MJ21" sqref="MJ21"/>
+      <selection pane="topRight" activeCell="MS21" sqref="MS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3071,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4118,8 +4128,29 @@
       <c r="MN1" s="8">
         <v>44285</v>
       </c>
+      <c r="MO1" s="8">
+        <v>44286</v>
+      </c>
+      <c r="MP1" s="8">
+        <v>44287</v>
+      </c>
+      <c r="MQ1" s="8">
+        <v>44288</v>
+      </c>
+      <c r="MR1" s="8">
+        <v>44289</v>
+      </c>
+      <c r="MS1" s="8">
+        <v>44290</v>
+      </c>
+      <c r="MT1" s="8">
+        <v>44291</v>
+      </c>
+      <c r="MU1" s="8">
+        <v>44292</v>
+      </c>
     </row>
-    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5176,8 +5207,29 @@
       <c r="MN2" s="11">
         <v>33</v>
       </c>
+      <c r="MO2" s="11">
+        <v>31</v>
+      </c>
+      <c r="MP2" s="11">
+        <v>32</v>
+      </c>
+      <c r="MQ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MR2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MS2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MT2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MU2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6234,8 +6286,29 @@
       <c r="MN3" s="11">
         <v>62</v>
       </c>
+      <c r="MO3" s="11">
+        <v>62</v>
+      </c>
+      <c r="MP3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MQ3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MR3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MS3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MT3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MU3" s="11">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7292,8 +7365,29 @@
       <c r="MN4" s="11">
         <v>155</v>
       </c>
+      <c r="MO4" s="11">
+        <v>156</v>
+      </c>
+      <c r="MP4" s="11">
+        <v>156</v>
+      </c>
+      <c r="MQ4" s="11">
+        <v>161</v>
+      </c>
+      <c r="MR4" s="11">
+        <v>167</v>
+      </c>
+      <c r="MS4" s="11">
+        <v>167</v>
+      </c>
+      <c r="MT4" s="11">
+        <v>166</v>
+      </c>
+      <c r="MU4" s="11">
+        <v>166</v>
+      </c>
     </row>
-    <row r="5" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8350,8 +8444,29 @@
       <c r="MN5" s="11">
         <v>30</v>
       </c>
+      <c r="MO5" s="11">
+        <v>30</v>
+      </c>
+      <c r="MP5" s="11">
+        <v>30</v>
+      </c>
+      <c r="MQ5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MR5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MS5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MT5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MU5" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -9408,8 +9523,29 @@
       <c r="MN6" s="11">
         <v>133</v>
       </c>
+      <c r="MO6" s="11">
+        <v>133</v>
+      </c>
+      <c r="MP6" s="11">
+        <v>133</v>
+      </c>
+      <c r="MQ6" s="11">
+        <v>136</v>
+      </c>
+      <c r="MR6" s="11">
+        <v>139</v>
+      </c>
+      <c r="MS6" s="11">
+        <v>139</v>
+      </c>
+      <c r="MT6" s="11">
+        <v>139</v>
+      </c>
+      <c r="MU6" s="11">
+        <v>139</v>
+      </c>
     </row>
-    <row r="7" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -10466,8 +10602,29 @@
       <c r="MN7" s="11">
         <v>276</v>
       </c>
+      <c r="MO7" s="11">
+        <v>279</v>
+      </c>
+      <c r="MP7" s="11">
+        <v>288</v>
+      </c>
+      <c r="MQ7" s="11">
+        <v>288</v>
+      </c>
+      <c r="MR7" s="11">
+        <v>290</v>
+      </c>
+      <c r="MS7" s="11">
+        <v>291</v>
+      </c>
+      <c r="MT7" s="11">
+        <v>291</v>
+      </c>
+      <c r="MU7" s="11">
+        <v>291</v>
+      </c>
     </row>
-    <row r="8" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -11524,8 +11681,29 @@
       <c r="MN8" s="11">
         <v>1986</v>
       </c>
+      <c r="MO8" s="11">
+        <v>2027</v>
+      </c>
+      <c r="MP8" s="11">
+        <v>2088</v>
+      </c>
+      <c r="MQ8" s="11">
+        <v>2134</v>
+      </c>
+      <c r="MR8" s="11">
+        <v>2167</v>
+      </c>
+      <c r="MS8" s="11">
+        <v>2177</v>
+      </c>
+      <c r="MT8" s="11">
+        <v>2183</v>
+      </c>
+      <c r="MU8" s="11">
+        <v>2203</v>
+      </c>
     </row>
-    <row r="9" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -12582,8 +12760,29 @@
       <c r="MN9" s="11">
         <v>176</v>
       </c>
+      <c r="MO9" s="11">
+        <v>178</v>
+      </c>
+      <c r="MP9" s="11">
+        <v>178</v>
+      </c>
+      <c r="MQ9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MR9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MS9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MT9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MU9" s="11">
+        <v>184</v>
+      </c>
     </row>
-    <row r="10" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -13640,8 +13839,29 @@
       <c r="MN10" s="11">
         <v>136</v>
       </c>
+      <c r="MO10" s="11">
+        <v>139</v>
+      </c>
+      <c r="MP10" s="11">
+        <v>139</v>
+      </c>
+      <c r="MQ10" s="11">
+        <v>139</v>
+      </c>
+      <c r="MR10" s="11">
+        <v>139</v>
+      </c>
+      <c r="MS10" s="11">
+        <v>140</v>
+      </c>
+      <c r="MT10" s="11">
+        <v>140</v>
+      </c>
+      <c r="MU10" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -14698,8 +14918,29 @@
       <c r="MN11" s="11">
         <v>62</v>
       </c>
+      <c r="MO11" s="11">
+        <v>62</v>
+      </c>
+      <c r="MP11" s="11">
+        <v>63</v>
+      </c>
+      <c r="MQ11" s="11">
+        <v>66</v>
+      </c>
+      <c r="MR11" s="11">
+        <v>73</v>
+      </c>
+      <c r="MS11" s="11">
+        <v>69</v>
+      </c>
+      <c r="MT11" s="11">
+        <v>71</v>
+      </c>
+      <c r="MU11" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -15756,8 +15997,29 @@
       <c r="MN12" s="11">
         <v>283</v>
       </c>
+      <c r="MO12" s="11">
+        <v>287</v>
+      </c>
+      <c r="MP12" s="11">
+        <v>288</v>
+      </c>
+      <c r="MQ12" s="11">
+        <v>290</v>
+      </c>
+      <c r="MR12" s="11">
+        <v>293</v>
+      </c>
+      <c r="MS12" s="11">
+        <v>296</v>
+      </c>
+      <c r="MT12" s="11">
+        <v>298</v>
+      </c>
+      <c r="MU12" s="11">
+        <v>299</v>
+      </c>
     </row>
-    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -16814,8 +17076,29 @@
       <c r="MN13" s="11">
         <v>124</v>
       </c>
+      <c r="MO13" s="11">
+        <v>124</v>
+      </c>
+      <c r="MP13" s="11">
+        <v>125</v>
+      </c>
+      <c r="MQ13" s="11">
+        <v>125</v>
+      </c>
+      <c r="MR13" s="11">
+        <v>125</v>
+      </c>
+      <c r="MS13" s="11">
+        <v>123</v>
+      </c>
+      <c r="MT13" s="11">
+        <v>123</v>
+      </c>
+      <c r="MU13" s="11">
+        <v>125</v>
+      </c>
     </row>
-    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -17872,8 +18155,29 @@
       <c r="MN14" s="11">
         <v>43</v>
       </c>
+      <c r="MO14" s="11">
+        <v>46</v>
+      </c>
+      <c r="MP14" s="11">
+        <v>46</v>
+      </c>
+      <c r="MQ14" s="11">
+        <v>46</v>
+      </c>
+      <c r="MR14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MS14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MT14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MU14" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -18930,8 +19234,29 @@
       <c r="MN15" s="11">
         <v>106</v>
       </c>
+      <c r="MO15" s="11">
+        <v>106</v>
+      </c>
+      <c r="MP15" s="11">
+        <v>106</v>
+      </c>
+      <c r="MQ15" s="11">
+        <v>114</v>
+      </c>
+      <c r="MR15" s="11">
+        <v>114</v>
+      </c>
+      <c r="MS15" s="11">
+        <v>114</v>
+      </c>
+      <c r="MT15" s="11">
+        <v>114</v>
+      </c>
+      <c r="MU15" s="11">
+        <v>114</v>
+      </c>
     </row>
-    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -19988,8 +20313,29 @@
       <c r="MN16" s="11">
         <v>10</v>
       </c>
+      <c r="MO16" s="11">
+        <v>10</v>
+      </c>
+      <c r="MP16" s="11">
+        <v>10</v>
+      </c>
+      <c r="MQ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="MR16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MS16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MT16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MU16" s="11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -21046,8 +21392,29 @@
       <c r="MN17" s="11">
         <v>32</v>
       </c>
+      <c r="MO17" s="11">
+        <v>28</v>
+      </c>
+      <c r="MP17" s="11">
+        <v>30</v>
+      </c>
+      <c r="MQ17" s="11">
+        <v>31</v>
+      </c>
+      <c r="MR17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MS17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MT17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MU17" s="11">
+        <v>37</v>
+      </c>
     </row>
-    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -21951,7 +22318,7 @@
         <v>2488</v>
       </c>
       <c r="KI18" s="6">
-        <f t="shared" ref="KI18:MN18" si="6">SUM(KI2:KI17)</f>
+        <f t="shared" ref="KI18:MT18" si="6">SUM(KI2:KI17)</f>
         <v>2491</v>
       </c>
       <c r="KJ18" s="6">
@@ -22182,13 +22549,41 @@
         <f t="shared" si="6"/>
         <v>3647</v>
       </c>
+      <c r="MO18" s="6">
+        <f t="shared" si="6"/>
+        <v>3698</v>
+      </c>
+      <c r="MP18" s="6">
+        <f t="shared" si="6"/>
+        <v>3776</v>
+      </c>
+      <c r="MQ18" s="6">
+        <f t="shared" si="6"/>
+        <v>3853</v>
+      </c>
+      <c r="MR18" s="6">
+        <f t="shared" si="6"/>
+        <v>3913</v>
+      </c>
+      <c r="MS18" s="6">
+        <f t="shared" si="6"/>
+        <v>3922</v>
+      </c>
+      <c r="MT18" s="6">
+        <f t="shared" si="6"/>
+        <v>3931</v>
+      </c>
+      <c r="MU18" s="6">
+        <f t="shared" ref="MU18" si="7">SUM(MU2:MU17)</f>
+        <v>3954</v>
+      </c>
     </row>
-    <row r="19" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -22206,12 +22601,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MN34"/>
+  <dimension ref="A1:MU34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="MM1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="ML18" sqref="ML18"/>
+      <selection pane="topRight" activeCell="MO18" sqref="MO18:MU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22231,7 +22626,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -23288,8 +23683,29 @@
       <c r="MN1" s="8">
         <v>44285</v>
       </c>
+      <c r="MO1" s="8">
+        <v>44286</v>
+      </c>
+      <c r="MP1" s="8">
+        <v>44287</v>
+      </c>
+      <c r="MQ1" s="8">
+        <v>44288</v>
+      </c>
+      <c r="MR1" s="8">
+        <v>44289</v>
+      </c>
+      <c r="MS1" s="8">
+        <v>44290</v>
+      </c>
+      <c r="MT1" s="8">
+        <v>44291</v>
+      </c>
+      <c r="MU1" s="8">
+        <v>44292</v>
+      </c>
     </row>
-    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -24346,8 +24762,29 @@
       <c r="MN2">
         <v>23</v>
       </c>
+      <c r="MO2">
+        <v>22</v>
+      </c>
+      <c r="MP2">
+        <v>21</v>
+      </c>
+      <c r="MQ2">
+        <v>21</v>
+      </c>
+      <c r="MR2">
+        <v>20</v>
+      </c>
+      <c r="MS2">
+        <v>21</v>
+      </c>
+      <c r="MT2">
+        <v>19</v>
+      </c>
+      <c r="MU2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -25404,8 +25841,29 @@
       <c r="MN3">
         <v>59</v>
       </c>
+      <c r="MO3">
+        <v>59</v>
+      </c>
+      <c r="MP3">
+        <v>61</v>
+      </c>
+      <c r="MQ3">
+        <v>61</v>
+      </c>
+      <c r="MR3">
+        <v>60</v>
+      </c>
+      <c r="MS3">
+        <v>62</v>
+      </c>
+      <c r="MT3">
+        <v>60</v>
+      </c>
+      <c r="MU3">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -26462,8 +26920,29 @@
       <c r="MN4">
         <v>97</v>
       </c>
+      <c r="MO4">
+        <v>101</v>
+      </c>
+      <c r="MP4">
+        <v>101</v>
+      </c>
+      <c r="MQ4">
+        <v>100</v>
+      </c>
+      <c r="MR4">
+        <v>99</v>
+      </c>
+      <c r="MS4">
+        <v>93</v>
+      </c>
+      <c r="MT4">
+        <v>93</v>
+      </c>
+      <c r="MU4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -27520,8 +27999,29 @@
       <c r="MN5">
         <v>21</v>
       </c>
+      <c r="MO5">
+        <v>20</v>
+      </c>
+      <c r="MP5">
+        <v>19</v>
+      </c>
+      <c r="MQ5">
+        <v>19</v>
+      </c>
+      <c r="MR5">
+        <v>20</v>
+      </c>
+      <c r="MS5">
+        <v>18</v>
+      </c>
+      <c r="MT5">
+        <v>18</v>
+      </c>
+      <c r="MU5">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -28578,8 +29078,29 @@
       <c r="MN6">
         <v>108</v>
       </c>
+      <c r="MO6">
+        <v>106</v>
+      </c>
+      <c r="MP6">
+        <v>97</v>
+      </c>
+      <c r="MQ6">
+        <v>99</v>
+      </c>
+      <c r="MR6">
+        <v>101</v>
+      </c>
+      <c r="MS6">
+        <v>101</v>
+      </c>
+      <c r="MT6">
+        <v>102</v>
+      </c>
+      <c r="MU6">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -29636,8 +30157,29 @@
       <c r="MN7">
         <v>205</v>
       </c>
+      <c r="MO7">
+        <v>205</v>
+      </c>
+      <c r="MP7">
+        <v>210</v>
+      </c>
+      <c r="MQ7">
+        <v>218</v>
+      </c>
+      <c r="MR7">
+        <v>215</v>
+      </c>
+      <c r="MS7">
+        <v>220</v>
+      </c>
+      <c r="MT7">
+        <v>216</v>
+      </c>
+      <c r="MU7">
+        <v>219</v>
+      </c>
     </row>
-    <row r="8" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -30694,8 +31236,29 @@
       <c r="MN8">
         <v>1445</v>
       </c>
+      <c r="MO8">
+        <v>1477</v>
+      </c>
+      <c r="MP8">
+        <v>1496</v>
+      </c>
+      <c r="MQ8">
+        <v>1555</v>
+      </c>
+      <c r="MR8">
+        <v>1588</v>
+      </c>
+      <c r="MS8">
+        <v>1611</v>
+      </c>
+      <c r="MT8">
+        <v>1623</v>
+      </c>
+      <c r="MU8">
+        <v>1659</v>
+      </c>
     </row>
-    <row r="9" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -31752,8 +32315,29 @@
       <c r="MN9">
         <v>124</v>
       </c>
+      <c r="MO9">
+        <v>126</v>
+      </c>
+      <c r="MP9">
+        <v>129</v>
+      </c>
+      <c r="MQ9">
+        <v>134</v>
+      </c>
+      <c r="MR9">
+        <v>141</v>
+      </c>
+      <c r="MS9">
+        <v>135</v>
+      </c>
+      <c r="MT9">
+        <v>132</v>
+      </c>
+      <c r="MU9">
+        <v>132</v>
+      </c>
     </row>
-    <row r="10" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -32810,8 +33394,29 @@
       <c r="MN10">
         <v>111</v>
       </c>
+      <c r="MO10">
+        <v>110</v>
+      </c>
+      <c r="MP10">
+        <v>113</v>
+      </c>
+      <c r="MQ10">
+        <v>114</v>
+      </c>
+      <c r="MR10">
+        <v>117</v>
+      </c>
+      <c r="MS10">
+        <v>121</v>
+      </c>
+      <c r="MT10">
+        <v>120</v>
+      </c>
+      <c r="MU10">
+        <v>121</v>
+      </c>
     </row>
-    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -33868,8 +34473,29 @@
       <c r="MN11">
         <v>43</v>
       </c>
+      <c r="MO11">
+        <v>44</v>
+      </c>
+      <c r="MP11">
+        <v>46</v>
+      </c>
+      <c r="MQ11">
+        <v>45</v>
+      </c>
+      <c r="MR11">
+        <v>51</v>
+      </c>
+      <c r="MS11">
+        <v>51</v>
+      </c>
+      <c r="MT11">
+        <v>53</v>
+      </c>
+      <c r="MU11">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -34926,8 +35552,29 @@
       <c r="MN12">
         <v>218</v>
       </c>
+      <c r="MO12">
+        <v>218</v>
+      </c>
+      <c r="MP12">
+        <v>225</v>
+      </c>
+      <c r="MQ12">
+        <v>228</v>
+      </c>
+      <c r="MR12">
+        <v>235</v>
+      </c>
+      <c r="MS12">
+        <v>236</v>
+      </c>
+      <c r="MT12">
+        <v>233</v>
+      </c>
+      <c r="MU12">
+        <v>238</v>
+      </c>
     </row>
-    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -35984,8 +36631,29 @@
       <c r="MN13">
         <v>78</v>
       </c>
+      <c r="MO13">
+        <v>77</v>
+      </c>
+      <c r="MP13">
+        <v>86</v>
+      </c>
+      <c r="MQ13">
+        <v>87</v>
+      </c>
+      <c r="MR13">
+        <v>89</v>
+      </c>
+      <c r="MS13">
+        <v>88</v>
+      </c>
+      <c r="MT13">
+        <v>85</v>
+      </c>
+      <c r="MU13">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -37042,8 +37710,29 @@
       <c r="MN14">
         <v>30</v>
       </c>
+      <c r="MO14">
+        <v>29</v>
+      </c>
+      <c r="MP14">
+        <v>31</v>
+      </c>
+      <c r="MQ14">
+        <v>29</v>
+      </c>
+      <c r="MR14">
+        <v>30</v>
+      </c>
+      <c r="MS14">
+        <v>29</v>
+      </c>
+      <c r="MT14">
+        <v>27</v>
+      </c>
+      <c r="MU14">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -38100,8 +38789,29 @@
       <c r="MN15">
         <v>72</v>
       </c>
+      <c r="MO15">
+        <v>73</v>
+      </c>
+      <c r="MP15">
+        <v>77</v>
+      </c>
+      <c r="MQ15">
+        <v>79</v>
+      </c>
+      <c r="MR15">
+        <v>82</v>
+      </c>
+      <c r="MS15">
+        <v>79</v>
+      </c>
+      <c r="MT15">
+        <v>80</v>
+      </c>
+      <c r="MU15">
+        <v>79</v>
+      </c>
     </row>
-    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -39158,8 +39868,29 @@
       <c r="MN16">
         <v>4</v>
       </c>
+      <c r="MO16">
+        <v>6</v>
+      </c>
+      <c r="MP16">
+        <v>6</v>
+      </c>
+      <c r="MQ16">
+        <v>5</v>
+      </c>
+      <c r="MR16">
+        <v>6</v>
+      </c>
+      <c r="MS16">
+        <v>6</v>
+      </c>
+      <c r="MT16">
+        <v>6</v>
+      </c>
+      <c r="MU16">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -40216,8 +40947,29 @@
       <c r="MN17">
         <v>11</v>
       </c>
+      <c r="MO17">
+        <v>10</v>
+      </c>
+      <c r="MP17">
+        <v>11</v>
+      </c>
+      <c r="MQ17">
+        <v>10</v>
+      </c>
+      <c r="MR17">
+        <v>13</v>
+      </c>
+      <c r="MS17">
+        <v>13</v>
+      </c>
+      <c r="MT17">
+        <v>16</v>
+      </c>
+      <c r="MU17">
+        <v>17</v>
+      </c>
     </row>
-    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -41098,7 +41850,7 @@
         <v>1394</v>
       </c>
       <c r="KG18" s="6">
-        <f t="shared" ref="KG18:MN18" si="0">SUM(KG2:KG17)</f>
+        <f t="shared" ref="KG18:MR18" si="0">SUM(KG2:KG17)</f>
         <v>1410</v>
       </c>
       <c r="KH18" s="6">
@@ -41337,50 +42089,78 @@
         <f t="shared" si="0"/>
         <v>2649</v>
       </c>
+      <c r="MO18" s="6">
+        <f t="shared" si="0"/>
+        <v>2683</v>
+      </c>
+      <c r="MP18" s="6">
+        <f t="shared" si="0"/>
+        <v>2729</v>
+      </c>
+      <c r="MQ18" s="6">
+        <f t="shared" si="0"/>
+        <v>2804</v>
+      </c>
+      <c r="MR18" s="6">
+        <f t="shared" si="0"/>
+        <v>2867</v>
+      </c>
+      <c r="MS18" s="6">
+        <f t="shared" ref="MS18:MU18" si="1">SUM(MS2:MS17)</f>
+        <v>2884</v>
+      </c>
+      <c r="MT18" s="6">
+        <f t="shared" si="1"/>
+        <v>2883</v>
+      </c>
+      <c r="MU18" s="6">
+        <f t="shared" si="1"/>
+        <v>2946</v>
+      </c>
     </row>
-    <row r="19" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:359" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:359" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:359" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -41400,12 +42180,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:MN34"/>
+  <dimension ref="A1:MU34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="ME1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="ML1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="MJ22" sqref="MJ22"/>
+      <selection pane="topRight" activeCell="MO18" sqref="MO18:MU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41422,7 +42202,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -42479,8 +43259,29 @@
       <c r="MN1" s="8">
         <v>44285</v>
       </c>
+      <c r="MO1" s="8">
+        <v>44286</v>
+      </c>
+      <c r="MP1" s="8">
+        <v>44287</v>
+      </c>
+      <c r="MQ1" s="8">
+        <v>44288</v>
+      </c>
+      <c r="MR1" s="8">
+        <v>44289</v>
+      </c>
+      <c r="MS1" s="8">
+        <v>44290</v>
+      </c>
+      <c r="MT1" s="8">
+        <v>44291</v>
+      </c>
+      <c r="MU1" s="8">
+        <v>44292</v>
+      </c>
     </row>
-    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -43537,8 +44338,29 @@
       <c r="MN2">
         <v>6</v>
       </c>
+      <c r="MO2">
+        <v>6</v>
+      </c>
+      <c r="MP2">
+        <v>9</v>
+      </c>
+      <c r="MQ2">
+        <v>9</v>
+      </c>
+      <c r="MR2">
+        <v>10</v>
+      </c>
+      <c r="MS2">
+        <v>8</v>
+      </c>
+      <c r="MT2">
+        <v>10</v>
+      </c>
+      <c r="MU2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -44595,8 +45417,29 @@
       <c r="MN3">
         <v>2</v>
       </c>
+      <c r="MO3">
+        <v>1</v>
+      </c>
+      <c r="MP3">
+        <v>2</v>
+      </c>
+      <c r="MQ3">
+        <v>2</v>
+      </c>
+      <c r="MR3">
+        <v>2</v>
+      </c>
+      <c r="MS3">
+        <v>1</v>
+      </c>
+      <c r="MT3">
+        <v>1</v>
+      </c>
+      <c r="MU3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -45653,8 +46496,29 @@
       <c r="MN4">
         <v>48</v>
       </c>
+      <c r="MO4">
+        <v>49</v>
+      </c>
+      <c r="MP4">
+        <v>51</v>
+      </c>
+      <c r="MQ4">
+        <v>56</v>
+      </c>
+      <c r="MR4">
+        <v>58</v>
+      </c>
+      <c r="MS4">
+        <v>60</v>
+      </c>
+      <c r="MT4">
+        <v>64</v>
+      </c>
+      <c r="MU4">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -46711,8 +47575,29 @@
       <c r="MN5">
         <v>8</v>
       </c>
+      <c r="MO5">
+        <v>9</v>
+      </c>
+      <c r="MP5">
+        <v>9</v>
+      </c>
+      <c r="MQ5">
+        <v>7</v>
+      </c>
+      <c r="MR5">
+        <v>8</v>
+      </c>
+      <c r="MS5">
+        <v>8</v>
+      </c>
+      <c r="MT5">
+        <v>10</v>
+      </c>
+      <c r="MU5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -47769,8 +48654,29 @@
       <c r="MN6">
         <v>20</v>
       </c>
+      <c r="MO6">
+        <v>25</v>
+      </c>
+      <c r="MP6">
+        <v>28</v>
+      </c>
+      <c r="MQ6">
+        <v>26</v>
+      </c>
+      <c r="MR6">
+        <v>27</v>
+      </c>
+      <c r="MS6">
+        <v>32</v>
+      </c>
+      <c r="MT6">
+        <v>30</v>
+      </c>
+      <c r="MU6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -48827,8 +49733,29 @@
       <c r="MN7">
         <v>69</v>
       </c>
+      <c r="MO7">
+        <v>67</v>
+      </c>
+      <c r="MP7">
+        <v>70</v>
+      </c>
+      <c r="MQ7">
+        <v>65</v>
+      </c>
+      <c r="MR7">
+        <v>63</v>
+      </c>
+      <c r="MS7">
+        <v>61</v>
+      </c>
+      <c r="MT7">
+        <v>71</v>
+      </c>
+      <c r="MU7">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -49885,8 +50812,29 @@
       <c r="MN8">
         <v>486</v>
       </c>
+      <c r="MO8">
+        <v>494</v>
+      </c>
+      <c r="MP8">
+        <v>503</v>
+      </c>
+      <c r="MQ8">
+        <v>496</v>
+      </c>
+      <c r="MR8">
+        <v>493</v>
+      </c>
+      <c r="MS8">
+        <v>489</v>
+      </c>
+      <c r="MT8">
+        <v>483</v>
+      </c>
+      <c r="MU8">
+        <v>482</v>
+      </c>
     </row>
-    <row r="9" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -50943,8 +51891,29 @@
       <c r="MN9">
         <v>43</v>
       </c>
+      <c r="MO9">
+        <v>45</v>
+      </c>
+      <c r="MP9">
+        <v>41</v>
+      </c>
+      <c r="MQ9">
+        <v>47</v>
+      </c>
+      <c r="MR9">
+        <v>31</v>
+      </c>
+      <c r="MS9">
+        <v>31</v>
+      </c>
+      <c r="MT9">
+        <v>47</v>
+      </c>
+      <c r="MU9">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -52001,8 +52970,29 @@
       <c r="MN10">
         <v>17</v>
       </c>
+      <c r="MO10">
+        <v>16</v>
+      </c>
+      <c r="MP10">
+        <v>16</v>
+      </c>
+      <c r="MQ10">
+        <v>15</v>
+      </c>
+      <c r="MR10">
+        <v>14</v>
+      </c>
+      <c r="MS10">
+        <v>14</v>
+      </c>
+      <c r="MT10">
+        <v>17</v>
+      </c>
+      <c r="MU10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -53059,8 +54049,29 @@
       <c r="MN11">
         <v>15</v>
       </c>
+      <c r="MO11">
+        <v>16</v>
+      </c>
+      <c r="MP11">
+        <v>14</v>
+      </c>
+      <c r="MQ11">
+        <v>16</v>
+      </c>
+      <c r="MR11">
+        <v>14</v>
+      </c>
+      <c r="MS11">
+        <v>14</v>
+      </c>
+      <c r="MT11">
+        <v>17</v>
+      </c>
+      <c r="MU11">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -54117,8 +55128,29 @@
       <c r="MN12">
         <v>54</v>
       </c>
+      <c r="MO12">
+        <v>56</v>
+      </c>
+      <c r="MP12">
+        <v>55</v>
+      </c>
+      <c r="MQ12">
+        <v>54</v>
+      </c>
+      <c r="MR12">
+        <v>47</v>
+      </c>
+      <c r="MS12">
+        <v>50</v>
+      </c>
+      <c r="MT12">
+        <v>53</v>
+      </c>
+      <c r="MU12">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -55175,8 +56207,29 @@
       <c r="MN13">
         <v>42</v>
       </c>
+      <c r="MO13">
+        <v>37</v>
+      </c>
+      <c r="MP13">
+        <v>34</v>
+      </c>
+      <c r="MQ13">
+        <v>31</v>
+      </c>
+      <c r="MR13">
+        <v>31</v>
+      </c>
+      <c r="MS13">
+        <v>29</v>
+      </c>
+      <c r="MT13">
+        <v>31</v>
+      </c>
+      <c r="MU13">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -56233,8 +57286,29 @@
       <c r="MN14">
         <v>12</v>
       </c>
+      <c r="MO14">
+        <v>11</v>
+      </c>
+      <c r="MP14">
+        <v>14</v>
+      </c>
+      <c r="MQ14">
+        <v>13</v>
+      </c>
+      <c r="MR14">
+        <v>10</v>
+      </c>
+      <c r="MS14">
+        <v>11</v>
+      </c>
+      <c r="MT14">
+        <v>11</v>
+      </c>
+      <c r="MU14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -57291,8 +58365,29 @@
       <c r="MN15">
         <v>26</v>
       </c>
+      <c r="MO15">
+        <v>27</v>
+      </c>
+      <c r="MP15">
+        <v>25</v>
+      </c>
+      <c r="MQ15">
+        <v>26</v>
+      </c>
+      <c r="MR15">
+        <v>22</v>
+      </c>
+      <c r="MS15">
+        <v>25</v>
+      </c>
+      <c r="MT15">
+        <v>22</v>
+      </c>
+      <c r="MU15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -58349,8 +59444,29 @@
       <c r="MN16">
         <v>3</v>
       </c>
+      <c r="MO16">
+        <v>3</v>
+      </c>
+      <c r="MP16">
+        <v>4</v>
+      </c>
+      <c r="MQ16">
+        <v>5</v>
+      </c>
+      <c r="MR16">
+        <v>4</v>
+      </c>
+      <c r="MS16">
+        <v>5</v>
+      </c>
+      <c r="MT16">
+        <v>4</v>
+      </c>
+      <c r="MU16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -59407,8 +60523,29 @@
       <c r="MN17">
         <v>15</v>
       </c>
+      <c r="MO17">
+        <v>14</v>
+      </c>
+      <c r="MP17">
+        <v>13</v>
+      </c>
+      <c r="MQ17">
+        <v>12</v>
+      </c>
+      <c r="MR17">
+        <v>13</v>
+      </c>
+      <c r="MS17">
+        <v>11</v>
+      </c>
+      <c r="MT17">
+        <v>13</v>
+      </c>
+      <c r="MU17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -60465,48 +61602,69 @@
       <c r="MN18" s="7">
         <v>866</v>
       </c>
+      <c r="MO18" s="7">
+        <v>876</v>
+      </c>
+      <c r="MP18" s="7">
+        <v>888</v>
+      </c>
+      <c r="MQ18" s="7">
+        <v>880</v>
+      </c>
+      <c r="MR18" s="7">
+        <v>847</v>
+      </c>
+      <c r="MS18" s="7">
+        <v>849</v>
+      </c>
+      <c r="MT18" s="7">
+        <v>884</v>
+      </c>
+      <c r="MU18" s="7">
+        <v>855</v>
+      </c>
     </row>
-    <row r="19" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:359" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -60517,1177 +61675,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="246" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="245" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="244" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="243" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="242" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="241" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="240" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="239" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="238" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="237" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="236" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="235" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="234" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="233" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="232" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="231" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="230" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="229" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="228" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="227" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="226" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="225" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="224" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="223" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="222" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="221" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="220" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="219" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="218" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="217" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="216" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="215" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="214" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="213" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="212" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="211" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="210" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="209" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="208" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="207" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="206" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="205" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="204" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="203" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="202" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="201" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="200" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="199" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="198" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="197" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="196" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="195" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="194" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="193" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="192" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="191" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="190" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="189" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="188" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="187" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="186" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="185" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="184" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="183" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="182" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="181" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="180" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="179" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="178" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="177" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="176" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="175" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="174" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="173" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="172" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="171" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="170" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="169" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="168" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="167" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="166" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="165" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="164" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="163" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="162" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="161" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="160" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="159" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="158" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="157" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="156" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="155" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="154" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="153" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="152" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="151" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="150" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="149" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="148" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="147" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="146" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="145" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="144" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="143" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="142" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="141" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="140" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="139" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="138" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="137" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="136" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="135" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="134" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="133" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="132" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="131" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="130" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="129" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="128" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="127" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="126" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="125" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="124" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="123" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="122" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="121" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="120" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="119" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="118" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="117" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="116" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="115" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="114" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="113" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="112" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="111" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="110" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="109" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="108" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="107" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="106" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="105" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="104" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="103" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="102" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="101" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="100" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="99" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="98" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="97" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="96" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="94" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="93" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="92" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="91" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="90" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="89" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="88" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="87" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="86" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="85" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="84" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="83" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="81" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="80" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="79" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="78" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="75" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="74" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="72" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="68" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="66" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="65" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="63" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="56" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="45" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61698,10 +62856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MN18"/>
+  <dimension ref="A1:MU18"/>
   <sheetViews>
-    <sheetView topLeftCell="LY1" workbookViewId="0">
-      <selection activeCell="MJ22" sqref="MJ22"/>
+    <sheetView tabSelected="1" topLeftCell="MF1" workbookViewId="0">
+      <selection activeCell="MO21" sqref="MO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61709,7 +62867,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -62766,8 +63924,29 @@
       <c r="MN1" s="8">
         <v>44285</v>
       </c>
+      <c r="MO1" s="8">
+        <v>44286</v>
+      </c>
+      <c r="MP1" s="8">
+        <v>44287</v>
+      </c>
+      <c r="MQ1" s="8">
+        <v>44288</v>
+      </c>
+      <c r="MR1" s="8">
+        <v>44289</v>
+      </c>
+      <c r="MS1" s="8">
+        <v>44290</v>
+      </c>
+      <c r="MT1" s="8">
+        <v>44291</v>
+      </c>
+      <c r="MU1" s="8">
+        <v>44292</v>
+      </c>
     </row>
-    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -63824,8 +65003,29 @@
       <c r="MN2">
         <v>9</v>
       </c>
+      <c r="MO2">
+        <v>9</v>
+      </c>
+      <c r="MP2">
+        <v>9</v>
+      </c>
+      <c r="MQ2">
+        <v>9</v>
+      </c>
+      <c r="MR2">
+        <v>9</v>
+      </c>
+      <c r="MS2">
+        <v>9</v>
+      </c>
+      <c r="MT2">
+        <v>9</v>
+      </c>
+      <c r="MU2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -64882,8 +66082,29 @@
       <c r="MN3">
         <v>12</v>
       </c>
+      <c r="MO3">
+        <v>12</v>
+      </c>
+      <c r="MP3">
+        <v>12</v>
+      </c>
+      <c r="MQ3">
+        <v>12</v>
+      </c>
+      <c r="MR3">
+        <v>12</v>
+      </c>
+      <c r="MS3">
+        <v>12</v>
+      </c>
+      <c r="MT3">
+        <v>12</v>
+      </c>
+      <c r="MU3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -65940,8 +67161,29 @@
       <c r="MN4">
         <v>48</v>
       </c>
+      <c r="MO4">
+        <v>48</v>
+      </c>
+      <c r="MP4">
+        <v>48</v>
+      </c>
+      <c r="MQ4">
+        <v>48</v>
+      </c>
+      <c r="MR4">
+        <v>48</v>
+      </c>
+      <c r="MS4">
+        <v>48</v>
+      </c>
+      <c r="MT4">
+        <v>48</v>
+      </c>
+      <c r="MU4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -66998,8 +68240,29 @@
       <c r="MN5">
         <v>11</v>
       </c>
+      <c r="MO5">
+        <v>11</v>
+      </c>
+      <c r="MP5">
+        <v>11</v>
+      </c>
+      <c r="MQ5">
+        <v>11</v>
+      </c>
+      <c r="MR5">
+        <v>11</v>
+      </c>
+      <c r="MS5">
+        <v>11</v>
+      </c>
+      <c r="MT5">
+        <v>11</v>
+      </c>
+      <c r="MU5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -68056,8 +69319,29 @@
       <c r="MN6">
         <v>29</v>
       </c>
+      <c r="MO6">
+        <v>29</v>
+      </c>
+      <c r="MP6">
+        <v>29</v>
+      </c>
+      <c r="MQ6">
+        <v>29</v>
+      </c>
+      <c r="MR6">
+        <v>29</v>
+      </c>
+      <c r="MS6">
+        <v>29</v>
+      </c>
+      <c r="MT6">
+        <v>29</v>
+      </c>
+      <c r="MU6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -69114,8 +70398,29 @@
       <c r="MN7">
         <v>125</v>
       </c>
+      <c r="MO7">
+        <v>125</v>
+      </c>
+      <c r="MP7">
+        <v>125</v>
+      </c>
+      <c r="MQ7">
+        <v>125</v>
+      </c>
+      <c r="MR7">
+        <v>125</v>
+      </c>
+      <c r="MS7">
+        <v>125</v>
+      </c>
+      <c r="MT7">
+        <v>125</v>
+      </c>
+      <c r="MU7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -70172,8 +71477,29 @@
       <c r="MN8">
         <v>745</v>
       </c>
+      <c r="MO8">
+        <v>745</v>
+      </c>
+      <c r="MP8">
+        <v>745</v>
+      </c>
+      <c r="MQ8">
+        <v>745</v>
+      </c>
+      <c r="MR8">
+        <v>745</v>
+      </c>
+      <c r="MS8">
+        <v>745</v>
+      </c>
+      <c r="MT8">
+        <v>745</v>
+      </c>
+      <c r="MU8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -71230,8 +72556,29 @@
       <c r="MN9">
         <v>61</v>
       </c>
+      <c r="MO9">
+        <v>61</v>
+      </c>
+      <c r="MP9">
+        <v>61</v>
+      </c>
+      <c r="MQ9">
+        <v>61</v>
+      </c>
+      <c r="MR9">
+        <v>61</v>
+      </c>
+      <c r="MS9">
+        <v>61</v>
+      </c>
+      <c r="MT9">
+        <v>61</v>
+      </c>
+      <c r="MU9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -72288,8 +73635,29 @@
       <c r="MN10">
         <v>45</v>
       </c>
+      <c r="MO10">
+        <v>45</v>
+      </c>
+      <c r="MP10">
+        <v>45</v>
+      </c>
+      <c r="MQ10">
+        <v>45</v>
+      </c>
+      <c r="MR10">
+        <v>45</v>
+      </c>
+      <c r="MS10">
+        <v>45</v>
+      </c>
+      <c r="MT10">
+        <v>45</v>
+      </c>
+      <c r="MU10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -73346,8 +74714,29 @@
       <c r="MN11">
         <v>16</v>
       </c>
+      <c r="MO11">
+        <v>16</v>
+      </c>
+      <c r="MP11">
+        <v>16</v>
+      </c>
+      <c r="MQ11">
+        <v>16</v>
+      </c>
+      <c r="MR11">
+        <v>16</v>
+      </c>
+      <c r="MS11">
+        <v>16</v>
+      </c>
+      <c r="MT11">
+        <v>16</v>
+      </c>
+      <c r="MU11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -74404,8 +75793,29 @@
       <c r="MN12">
         <v>97</v>
       </c>
+      <c r="MO12">
+        <v>97</v>
+      </c>
+      <c r="MP12">
+        <v>97</v>
+      </c>
+      <c r="MQ12">
+        <v>97</v>
+      </c>
+      <c r="MR12">
+        <v>97</v>
+      </c>
+      <c r="MS12">
+        <v>97</v>
+      </c>
+      <c r="MT12">
+        <v>97</v>
+      </c>
+      <c r="MU12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -75462,8 +76872,29 @@
       <c r="MN13">
         <v>49</v>
       </c>
+      <c r="MO13">
+        <v>49</v>
+      </c>
+      <c r="MP13">
+        <v>49</v>
+      </c>
+      <c r="MQ13">
+        <v>49</v>
+      </c>
+      <c r="MR13">
+        <v>49</v>
+      </c>
+      <c r="MS13">
+        <v>49</v>
+      </c>
+      <c r="MT13">
+        <v>49</v>
+      </c>
+      <c r="MU13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -76520,8 +77951,29 @@
       <c r="MN14">
         <v>13</v>
       </c>
+      <c r="MO14">
+        <v>13</v>
+      </c>
+      <c r="MP14">
+        <v>13</v>
+      </c>
+      <c r="MQ14">
+        <v>13</v>
+      </c>
+      <c r="MR14">
+        <v>13</v>
+      </c>
+      <c r="MS14">
+        <v>13</v>
+      </c>
+      <c r="MT14">
+        <v>13</v>
+      </c>
+      <c r="MU14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -77578,8 +79030,29 @@
       <c r="MN15">
         <v>49</v>
       </c>
+      <c r="MO15">
+        <v>49</v>
+      </c>
+      <c r="MP15">
+        <v>49</v>
+      </c>
+      <c r="MQ15">
+        <v>49</v>
+      </c>
+      <c r="MR15">
+        <v>49</v>
+      </c>
+      <c r="MS15">
+        <v>49</v>
+      </c>
+      <c r="MT15">
+        <v>49</v>
+      </c>
+      <c r="MU15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -78636,8 +80109,29 @@
       <c r="MN16">
         <v>8</v>
       </c>
+      <c r="MO16">
+        <v>8</v>
+      </c>
+      <c r="MP16">
+        <v>8</v>
+      </c>
+      <c r="MQ16">
+        <v>8</v>
+      </c>
+      <c r="MR16">
+        <v>8</v>
+      </c>
+      <c r="MS16">
+        <v>8</v>
+      </c>
+      <c r="MT16">
+        <v>8</v>
+      </c>
+      <c r="MU16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -79694,8 +81188,29 @@
       <c r="MN17">
         <v>14</v>
       </c>
+      <c r="MO17">
+        <v>14</v>
+      </c>
+      <c r="MP17">
+        <v>14</v>
+      </c>
+      <c r="MQ17">
+        <v>14</v>
+      </c>
+      <c r="MR17">
+        <v>14</v>
+      </c>
+      <c r="MS17">
+        <v>14</v>
+      </c>
+      <c r="MT17">
+        <v>14</v>
+      </c>
+      <c r="MU17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -81103,59 +82618,92 @@
         <f t="shared" si="7"/>
         <v>1331</v>
       </c>
+      <c r="MO18" s="6">
+        <f t="shared" ref="MO18:MU18" si="8">SUM(MO2:MO17)</f>
+        <v>1331</v>
+      </c>
+      <c r="MP18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
+      <c r="MQ18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
+      <c r="MR18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
+      <c r="MS18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
+      <c r="MT18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
+      <c r="MU18" s="6">
+        <f t="shared" si="8"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="11" priority="243" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="244" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="11" priority="242" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="10" priority="241" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="9" priority="240" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -3045,12 +3045,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MU20"/>
+  <dimension ref="A1:NB20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MK1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="MT1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="MS21" sqref="MS21"/>
+      <selection pane="topRight" activeCell="MV18" sqref="MV18:NB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3071,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4149,8 +4149,29 @@
       <c r="MU1" s="8">
         <v>44292</v>
       </c>
+      <c r="MV1" s="8">
+        <v>44293</v>
+      </c>
+      <c r="MW1" s="8">
+        <v>44294</v>
+      </c>
+      <c r="MX1" s="8">
+        <v>44295</v>
+      </c>
+      <c r="MY1" s="8">
+        <v>44296</v>
+      </c>
+      <c r="MZ1" s="8">
+        <v>44297</v>
+      </c>
+      <c r="NA1" s="8">
+        <v>44298</v>
+      </c>
+      <c r="NB1" s="8">
+        <v>44299</v>
+      </c>
     </row>
-    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5228,8 +5249,29 @@
       <c r="MU2" s="11">
         <v>33</v>
       </c>
+      <c r="MV2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MW2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MX2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MY2" s="11">
+        <v>33</v>
+      </c>
+      <c r="MZ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="NA2" s="11">
+        <v>33</v>
+      </c>
+      <c r="NB2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6307,8 +6349,29 @@
       <c r="MU3" s="11">
         <v>64</v>
       </c>
+      <c r="MV3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MW3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MX3" s="11">
+        <v>64</v>
+      </c>
+      <c r="MY3" s="11">
+        <v>62</v>
+      </c>
+      <c r="MZ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NA3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NB3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7386,8 +7449,29 @@
       <c r="MU4" s="11">
         <v>166</v>
       </c>
+      <c r="MV4" s="11">
+        <v>167</v>
+      </c>
+      <c r="MW4" s="11">
+        <v>168</v>
+      </c>
+      <c r="MX4" s="11">
+        <v>170</v>
+      </c>
+      <c r="MY4" s="11">
+        <v>170</v>
+      </c>
+      <c r="MZ4" s="11">
+        <v>171</v>
+      </c>
+      <c r="NA4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NB4" s="11">
+        <v>172</v>
+      </c>
     </row>
-    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8465,8 +8549,29 @@
       <c r="MU5" s="11">
         <v>33</v>
       </c>
+      <c r="MV5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MW5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MX5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MY5" s="11">
+        <v>32</v>
+      </c>
+      <c r="MZ5" s="11">
+        <v>32</v>
+      </c>
+      <c r="NA5" s="11">
+        <v>32</v>
+      </c>
+      <c r="NB5" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -9544,8 +9649,29 @@
       <c r="MU6" s="11">
         <v>139</v>
       </c>
+      <c r="MV6" s="11">
+        <v>139</v>
+      </c>
+      <c r="MW6" s="11">
+        <v>142</v>
+      </c>
+      <c r="MX6" s="11">
+        <v>142</v>
+      </c>
+      <c r="MY6" s="11">
+        <v>142</v>
+      </c>
+      <c r="MZ6" s="11">
+        <v>142</v>
+      </c>
+      <c r="NA6" s="11">
+        <v>143</v>
+      </c>
+      <c r="NB6" s="11">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -10623,8 +10749,29 @@
       <c r="MU7" s="11">
         <v>291</v>
       </c>
+      <c r="MV7" s="11">
+        <v>298</v>
+      </c>
+      <c r="MW7" s="11">
+        <v>303</v>
+      </c>
+      <c r="MX7" s="11">
+        <v>311</v>
+      </c>
+      <c r="MY7" s="11">
+        <v>306</v>
+      </c>
+      <c r="MZ7" s="11">
+        <v>310</v>
+      </c>
+      <c r="NA7" s="11">
+        <v>307</v>
+      </c>
+      <c r="NB7" s="11">
+        <v>306</v>
+      </c>
     </row>
-    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -11702,8 +11849,29 @@
       <c r="MU8" s="11">
         <v>2203</v>
       </c>
+      <c r="MV8" s="11">
+        <v>2252</v>
+      </c>
+      <c r="MW8" s="11">
+        <v>2289</v>
+      </c>
+      <c r="MX8" s="11">
+        <v>2307</v>
+      </c>
+      <c r="MY8" s="11">
+        <v>2321</v>
+      </c>
+      <c r="MZ8" s="11">
+        <v>2330</v>
+      </c>
+      <c r="NA8" s="11">
+        <v>2339</v>
+      </c>
+      <c r="NB8" s="11">
+        <v>2360</v>
+      </c>
     </row>
-    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -12781,8 +12949,29 @@
       <c r="MU9" s="11">
         <v>184</v>
       </c>
+      <c r="MV9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MW9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MX9" s="11">
+        <v>184</v>
+      </c>
+      <c r="MY9" s="11">
+        <v>185</v>
+      </c>
+      <c r="MZ9" s="11">
+        <v>189</v>
+      </c>
+      <c r="NA9" s="11">
+        <v>189</v>
+      </c>
+      <c r="NB9" s="11">
+        <v>189</v>
+      </c>
     </row>
-    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -13860,8 +14049,29 @@
       <c r="MU10" s="11">
         <v>140</v>
       </c>
+      <c r="MV10" s="11">
+        <v>140</v>
+      </c>
+      <c r="MW10" s="11">
+        <v>139</v>
+      </c>
+      <c r="MX10" s="11">
+        <v>141</v>
+      </c>
+      <c r="MY10" s="11">
+        <v>143</v>
+      </c>
+      <c r="MZ10" s="11">
+        <v>151</v>
+      </c>
+      <c r="NA10" s="11">
+        <v>151</v>
+      </c>
+      <c r="NB10" s="11">
+        <v>151</v>
+      </c>
     </row>
-    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -14939,8 +15149,29 @@
       <c r="MU11" s="11">
         <v>70</v>
       </c>
+      <c r="MV11" s="11">
+        <v>70</v>
+      </c>
+      <c r="MW11" s="11">
+        <v>73</v>
+      </c>
+      <c r="MX11" s="11">
+        <v>73</v>
+      </c>
+      <c r="MY11" s="11">
+        <v>74</v>
+      </c>
+      <c r="MZ11" s="11">
+        <v>74</v>
+      </c>
+      <c r="NA11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NB11" s="11">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -16018,8 +16249,29 @@
       <c r="MU12" s="11">
         <v>299</v>
       </c>
+      <c r="MV12" s="11">
+        <v>301</v>
+      </c>
+      <c r="MW12" s="11">
+        <v>301</v>
+      </c>
+      <c r="MX12" s="11">
+        <v>301</v>
+      </c>
+      <c r="MY12" s="11">
+        <v>310</v>
+      </c>
+      <c r="MZ12" s="11">
+        <v>310</v>
+      </c>
+      <c r="NA12" s="11">
+        <v>311</v>
+      </c>
+      <c r="NB12" s="11">
+        <v>307</v>
+      </c>
     </row>
-    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -17097,8 +17349,29 @@
       <c r="MU13" s="11">
         <v>125</v>
       </c>
+      <c r="MV13" s="11">
+        <v>128</v>
+      </c>
+      <c r="MW13" s="11">
+        <v>132</v>
+      </c>
+      <c r="MX13" s="11">
+        <v>132</v>
+      </c>
+      <c r="MY13" s="11">
+        <v>132</v>
+      </c>
+      <c r="MZ13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NA13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NB13" s="11">
+        <v>132</v>
+      </c>
     </row>
-    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -18176,8 +18449,29 @@
       <c r="MU14" s="11">
         <v>44</v>
       </c>
+      <c r="MV14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MW14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MX14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MY14" s="11">
+        <v>44</v>
+      </c>
+      <c r="MZ14" s="11">
+        <v>44</v>
+      </c>
+      <c r="NA14" s="11">
+        <v>44</v>
+      </c>
+      <c r="NB14" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -19255,8 +19549,29 @@
       <c r="MU15" s="11">
         <v>114</v>
       </c>
+      <c r="MV15" s="11">
+        <v>114</v>
+      </c>
+      <c r="MW15" s="11">
+        <v>120</v>
+      </c>
+      <c r="MX15" s="11">
+        <v>120</v>
+      </c>
+      <c r="MY15" s="11">
+        <v>120</v>
+      </c>
+      <c r="MZ15" s="11">
+        <v>121</v>
+      </c>
+      <c r="NA15" s="11">
+        <v>121</v>
+      </c>
+      <c r="NB15" s="11">
+        <v>121</v>
+      </c>
     </row>
-    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -20334,8 +20649,29 @@
       <c r="MU16" s="11">
         <v>12</v>
       </c>
+      <c r="MV16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MW16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MX16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MY16" s="11">
+        <v>12</v>
+      </c>
+      <c r="MZ16" s="11">
+        <v>12</v>
+      </c>
+      <c r="NA16" s="11">
+        <v>12</v>
+      </c>
+      <c r="NB16" s="11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -21413,8 +21749,29 @@
       <c r="MU17" s="11">
         <v>37</v>
       </c>
+      <c r="MV17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MW17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MX17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MY17" s="11">
+        <v>37</v>
+      </c>
+      <c r="MZ17" s="11">
+        <v>37</v>
+      </c>
+      <c r="NA17" s="11">
+        <v>37</v>
+      </c>
+      <c r="NB17" s="11">
+        <v>37</v>
+      </c>
     </row>
-    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -22574,16 +22931,44 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:NB18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
+      <c r="MV18" s="6">
+        <f t="shared" si="7"/>
+        <v>4015</v>
+      </c>
+      <c r="MW18" s="6">
+        <f t="shared" si="7"/>
+        <v>4073</v>
+      </c>
+      <c r="MX18" s="6">
+        <f t="shared" si="7"/>
+        <v>4103</v>
+      </c>
+      <c r="MY18" s="6">
+        <f t="shared" si="7"/>
+        <v>4123</v>
+      </c>
+      <c r="MZ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4150</v>
+      </c>
+      <c r="NA18" s="6">
+        <f t="shared" si="7"/>
+        <v>4158</v>
+      </c>
+      <c r="NB18" s="6">
+        <f t="shared" si="7"/>
+        <v>4175</v>
+      </c>
     </row>
-    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -22601,12 +22986,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MU34"/>
+  <dimension ref="A1:NB34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="MR1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="MO18" sqref="MO18:MU18"/>
+      <selection pane="topRight" activeCell="MV17" sqref="MV2:MV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22626,7 +23011,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -23704,8 +24089,29 @@
       <c r="MU1" s="8">
         <v>44292</v>
       </c>
+      <c r="MV1" s="8">
+        <v>44293</v>
+      </c>
+      <c r="MW1" s="8">
+        <v>44294</v>
+      </c>
+      <c r="MX1" s="8">
+        <v>44295</v>
+      </c>
+      <c r="MY1" s="8">
+        <v>44296</v>
+      </c>
+      <c r="MZ1" s="8">
+        <v>44297</v>
+      </c>
+      <c r="NA1" s="8">
+        <v>44298</v>
+      </c>
+      <c r="NB1" s="8">
+        <v>44299</v>
+      </c>
     </row>
-    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -24783,8 +25189,29 @@
       <c r="MU2">
         <v>19</v>
       </c>
+      <c r="MV2">
+        <v>23</v>
+      </c>
+      <c r="MW2">
+        <v>25</v>
+      </c>
+      <c r="MX2">
+        <v>25</v>
+      </c>
+      <c r="MY2">
+        <v>24</v>
+      </c>
+      <c r="MZ2">
+        <v>24</v>
+      </c>
+      <c r="NA2">
+        <v>24</v>
+      </c>
+      <c r="NB2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -25862,8 +26289,29 @@
       <c r="MU3">
         <v>61</v>
       </c>
+      <c r="MV3">
+        <v>59</v>
+      </c>
+      <c r="MW3">
+        <v>57</v>
+      </c>
+      <c r="MX3">
+        <v>57</v>
+      </c>
+      <c r="MY3">
+        <v>56</v>
+      </c>
+      <c r="MZ3">
+        <v>55</v>
+      </c>
+      <c r="NA3">
+        <v>55</v>
+      </c>
+      <c r="NB3">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -26941,8 +27389,29 @@
       <c r="MU4">
         <v>99</v>
       </c>
+      <c r="MV4">
+        <v>101</v>
+      </c>
+      <c r="MW4">
+        <v>100</v>
+      </c>
+      <c r="MX4">
+        <v>95</v>
+      </c>
+      <c r="MY4">
+        <v>103</v>
+      </c>
+      <c r="MZ4">
+        <v>109</v>
+      </c>
+      <c r="NA4">
+        <v>109</v>
+      </c>
+      <c r="NB4">
+        <v>108</v>
+      </c>
     </row>
-    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -28020,8 +28489,29 @@
       <c r="MU5">
         <v>17</v>
       </c>
+      <c r="MV5">
+        <v>19</v>
+      </c>
+      <c r="MW5">
+        <v>20</v>
+      </c>
+      <c r="MX5">
+        <v>22</v>
+      </c>
+      <c r="MY5">
+        <v>26</v>
+      </c>
+      <c r="MZ5">
+        <v>26</v>
+      </c>
+      <c r="NA5">
+        <v>25</v>
+      </c>
+      <c r="NB5">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -29099,8 +29589,29 @@
       <c r="MU6">
         <v>104</v>
       </c>
+      <c r="MV6">
+        <v>106</v>
+      </c>
+      <c r="MW6">
+        <v>103</v>
+      </c>
+      <c r="MX6">
+        <v>102</v>
+      </c>
+      <c r="MY6">
+        <v>102</v>
+      </c>
+      <c r="MZ6">
+        <v>105</v>
+      </c>
+      <c r="NA6">
+        <v>106</v>
+      </c>
+      <c r="NB6">
+        <v>109</v>
+      </c>
     </row>
-    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -30178,8 +30689,29 @@
       <c r="MU7">
         <v>219</v>
       </c>
+      <c r="MV7">
+        <v>225</v>
+      </c>
+      <c r="MW7">
+        <v>222</v>
+      </c>
+      <c r="MX7">
+        <v>241</v>
+      </c>
+      <c r="MY7">
+        <v>241</v>
+      </c>
+      <c r="MZ7">
+        <v>238</v>
+      </c>
+      <c r="NA7">
+        <v>246</v>
+      </c>
+      <c r="NB7">
+        <v>245</v>
+      </c>
     </row>
-    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -31257,8 +31789,29 @@
       <c r="MU8">
         <v>1659</v>
       </c>
+      <c r="MV8">
+        <v>1727</v>
+      </c>
+      <c r="MW8">
+        <v>1731</v>
+      </c>
+      <c r="MX8">
+        <v>1750</v>
+      </c>
+      <c r="MY8">
+        <v>1792</v>
+      </c>
+      <c r="MZ8">
+        <v>1801</v>
+      </c>
+      <c r="NA8">
+        <v>1826</v>
+      </c>
+      <c r="NB8">
+        <v>1822</v>
+      </c>
     </row>
-    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -32336,8 +32889,29 @@
       <c r="MU9">
         <v>132</v>
       </c>
+      <c r="MV9">
+        <v>138</v>
+      </c>
+      <c r="MW9">
+        <v>138</v>
+      </c>
+      <c r="MX9">
+        <v>145</v>
+      </c>
+      <c r="MY9">
+        <v>145</v>
+      </c>
+      <c r="MZ9">
+        <v>150</v>
+      </c>
+      <c r="NA9">
+        <v>155</v>
+      </c>
+      <c r="NB9">
+        <v>158</v>
+      </c>
     </row>
-    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -33415,8 +33989,29 @@
       <c r="MU10">
         <v>121</v>
       </c>
+      <c r="MV10">
+        <v>118</v>
+      </c>
+      <c r="MW10">
+        <v>120</v>
+      </c>
+      <c r="MX10">
+        <v>120</v>
+      </c>
+      <c r="MY10">
+        <v>126</v>
+      </c>
+      <c r="MZ10">
+        <v>127</v>
+      </c>
+      <c r="NA10">
+        <v>129</v>
+      </c>
+      <c r="NB10">
+        <v>133</v>
+      </c>
     </row>
-    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -34494,8 +35089,29 @@
       <c r="MU11">
         <v>51</v>
       </c>
+      <c r="MV11">
+        <v>50</v>
+      </c>
+      <c r="MW11">
+        <v>53</v>
+      </c>
+      <c r="MX11">
+        <v>49</v>
+      </c>
+      <c r="MY11">
+        <v>53</v>
+      </c>
+      <c r="MZ11">
+        <v>53</v>
+      </c>
+      <c r="NA11">
+        <v>54</v>
+      </c>
+      <c r="NB11">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -35573,8 +36189,29 @@
       <c r="MU12">
         <v>238</v>
       </c>
+      <c r="MV12">
+        <v>238</v>
+      </c>
+      <c r="MW12">
+        <v>240</v>
+      </c>
+      <c r="MX12">
+        <v>233</v>
+      </c>
+      <c r="MY12">
+        <v>237</v>
+      </c>
+      <c r="MZ12">
+        <v>236</v>
+      </c>
+      <c r="NA12">
+        <v>239</v>
+      </c>
+      <c r="NB12">
+        <v>239</v>
+      </c>
     </row>
-    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -36652,8 +37289,29 @@
       <c r="MU13">
         <v>94</v>
       </c>
+      <c r="MV13">
+        <v>92</v>
+      </c>
+      <c r="MW13">
+        <v>104</v>
+      </c>
+      <c r="MX13">
+        <v>104</v>
+      </c>
+      <c r="MY13">
+        <v>106</v>
+      </c>
+      <c r="MZ13">
+        <v>102</v>
+      </c>
+      <c r="NA13">
+        <v>103</v>
+      </c>
+      <c r="NB13">
+        <v>110</v>
+      </c>
     </row>
-    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -37731,8 +38389,29 @@
       <c r="MU14">
         <v>30</v>
       </c>
+      <c r="MV14">
+        <v>31</v>
+      </c>
+      <c r="MW14">
+        <v>29</v>
+      </c>
+      <c r="MX14">
+        <v>29</v>
+      </c>
+      <c r="MY14">
+        <v>28</v>
+      </c>
+      <c r="MZ14">
+        <v>32</v>
+      </c>
+      <c r="NA14">
+        <v>32</v>
+      </c>
+      <c r="NB14">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -38810,8 +39489,29 @@
       <c r="MU15">
         <v>79</v>
       </c>
+      <c r="MV15">
+        <v>80</v>
+      </c>
+      <c r="MW15">
+        <v>78</v>
+      </c>
+      <c r="MX15">
+        <v>83</v>
+      </c>
+      <c r="MY15">
+        <v>80</v>
+      </c>
+      <c r="MZ15">
+        <v>78</v>
+      </c>
+      <c r="NA15">
+        <v>79</v>
+      </c>
+      <c r="NB15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -39889,8 +40589,29 @@
       <c r="MU16">
         <v>6</v>
       </c>
+      <c r="MV16">
+        <v>4</v>
+      </c>
+      <c r="MW16">
+        <v>5</v>
+      </c>
+      <c r="MX16">
+        <v>4</v>
+      </c>
+      <c r="MY16">
+        <v>3</v>
+      </c>
+      <c r="MZ16">
+        <v>4</v>
+      </c>
+      <c r="NA16">
+        <v>4</v>
+      </c>
+      <c r="NB16">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -40968,8 +41689,29 @@
       <c r="MU17">
         <v>17</v>
       </c>
+      <c r="MV17">
+        <v>18</v>
+      </c>
+      <c r="MW17">
+        <v>19</v>
+      </c>
+      <c r="MX17">
+        <v>16</v>
+      </c>
+      <c r="MY17">
+        <v>17</v>
+      </c>
+      <c r="MZ17">
+        <v>15</v>
+      </c>
+      <c r="NA17">
+        <v>17</v>
+      </c>
+      <c r="NB17">
+        <v>17</v>
+      </c>
     </row>
-    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -42106,7 +42848,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:MU18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:NB18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -42117,50 +42859,78 @@
         <f t="shared" si="1"/>
         <v>2946</v>
       </c>
+      <c r="MV18" s="6">
+        <f t="shared" si="1"/>
+        <v>3029</v>
+      </c>
+      <c r="MW18" s="6">
+        <f t="shared" si="1"/>
+        <v>3044</v>
+      </c>
+      <c r="MX18" s="6">
+        <f t="shared" si="1"/>
+        <v>3075</v>
+      </c>
+      <c r="MY18" s="6">
+        <f t="shared" si="1"/>
+        <v>3139</v>
+      </c>
+      <c r="MZ18" s="6">
+        <f t="shared" si="1"/>
+        <v>3155</v>
+      </c>
+      <c r="NA18" s="6">
+        <f t="shared" si="1"/>
+        <v>3203</v>
+      </c>
+      <c r="NB18" s="6">
+        <f t="shared" si="1"/>
+        <v>3213</v>
+      </c>
     </row>
-    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:366" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:366" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:366" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -42180,12 +42950,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:MU34"/>
+  <dimension ref="A1:NB34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="ML1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="MU1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="MO18" sqref="MO18:MU18"/>
+      <selection pane="topRight" activeCell="NB2" sqref="NB2:NB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42202,7 +42972,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -43280,8 +44050,29 @@
       <c r="MU1" s="8">
         <v>44292</v>
       </c>
+      <c r="MV1" s="8">
+        <v>44293</v>
+      </c>
+      <c r="MW1" s="8">
+        <v>44294</v>
+      </c>
+      <c r="MX1" s="8">
+        <v>44295</v>
+      </c>
+      <c r="MY1" s="8">
+        <v>44296</v>
+      </c>
+      <c r="MZ1" s="8">
+        <v>44297</v>
+      </c>
+      <c r="NA1" s="8">
+        <v>44298</v>
+      </c>
+      <c r="NB1" s="8">
+        <v>44299</v>
+      </c>
     </row>
-    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -44359,8 +45150,29 @@
       <c r="MU2">
         <v>9</v>
       </c>
+      <c r="MV2">
+        <v>7</v>
+      </c>
+      <c r="MW2">
+        <v>7</v>
+      </c>
+      <c r="MX2">
+        <v>6</v>
+      </c>
+      <c r="MY2">
+        <v>6</v>
+      </c>
+      <c r="MZ2">
+        <v>7</v>
+      </c>
+      <c r="NA2">
+        <v>6</v>
+      </c>
+      <c r="NB2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -45438,8 +46250,29 @@
       <c r="MU3">
         <v>1</v>
       </c>
+      <c r="MV3">
+        <v>1</v>
+      </c>
+      <c r="MW3">
+        <v>1</v>
+      </c>
+      <c r="MX3">
+        <v>2</v>
+      </c>
+      <c r="MY3">
+        <v>1</v>
+      </c>
+      <c r="MZ3">
+        <v>0</v>
+      </c>
+      <c r="NA3">
+        <v>1</v>
+      </c>
+      <c r="NB3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -46517,8 +47350,29 @@
       <c r="MU4">
         <v>63</v>
       </c>
+      <c r="MV4">
+        <v>60</v>
+      </c>
+      <c r="MW4">
+        <v>61</v>
+      </c>
+      <c r="MX4">
+        <v>64</v>
+      </c>
+      <c r="MY4">
+        <v>62</v>
+      </c>
+      <c r="MZ4">
+        <v>57</v>
+      </c>
+      <c r="NA4">
+        <v>60</v>
+      </c>
+      <c r="NB4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -47596,8 +48450,29 @@
       <c r="MU5">
         <v>10</v>
       </c>
+      <c r="MV5">
+        <v>9</v>
+      </c>
+      <c r="MW5">
+        <v>7</v>
+      </c>
+      <c r="MX5">
+        <v>6</v>
+      </c>
+      <c r="MY5">
+        <v>2</v>
+      </c>
+      <c r="MZ5">
+        <v>1</v>
+      </c>
+      <c r="NA5">
+        <v>2</v>
+      </c>
+      <c r="NB5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -48675,8 +49550,29 @@
       <c r="MU6">
         <v>29</v>
       </c>
+      <c r="MV6">
+        <v>26</v>
+      </c>
+      <c r="MW6">
+        <v>32</v>
+      </c>
+      <c r="MX6">
+        <v>31</v>
+      </c>
+      <c r="MY6">
+        <v>30</v>
+      </c>
+      <c r="MZ6">
+        <v>34</v>
+      </c>
+      <c r="NA6">
+        <v>33</v>
+      </c>
+      <c r="NB6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -49754,8 +50650,29 @@
       <c r="MU7">
         <v>66</v>
       </c>
+      <c r="MV7">
+        <v>65</v>
+      </c>
+      <c r="MW7">
+        <v>72</v>
+      </c>
+      <c r="MX7">
+        <v>65</v>
+      </c>
+      <c r="MY7">
+        <v>59</v>
+      </c>
+      <c r="MZ7">
+        <v>64</v>
+      </c>
+      <c r="NA7">
+        <v>59</v>
+      </c>
+      <c r="NB7">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -50833,8 +51750,29 @@
       <c r="MU8">
         <v>482</v>
       </c>
+      <c r="MV8">
+        <v>447</v>
+      </c>
+      <c r="MW8">
+        <v>463</v>
+      </c>
+      <c r="MX8">
+        <v>470</v>
+      </c>
+      <c r="MY8">
+        <v>461</v>
+      </c>
+      <c r="MZ8">
+        <v>470</v>
+      </c>
+      <c r="NA8">
+        <v>463</v>
+      </c>
+      <c r="NB8">
+        <v>475</v>
+      </c>
     </row>
-    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -51912,8 +52850,29 @@
       <c r="MU9">
         <v>36</v>
       </c>
+      <c r="MV9">
+        <v>28</v>
+      </c>
+      <c r="MW9">
+        <v>32</v>
+      </c>
+      <c r="MX9">
+        <v>23</v>
+      </c>
+      <c r="MY9">
+        <v>22</v>
+      </c>
+      <c r="MZ9">
+        <v>22</v>
+      </c>
+      <c r="NA9">
+        <v>28</v>
+      </c>
+      <c r="NB9">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -52991,8 +53950,29 @@
       <c r="MU10">
         <v>15</v>
       </c>
+      <c r="MV10">
+        <v>15</v>
+      </c>
+      <c r="MW10">
+        <v>14</v>
+      </c>
+      <c r="MX10">
+        <v>15</v>
+      </c>
+      <c r="MY10">
+        <v>16</v>
+      </c>
+      <c r="MZ10">
+        <v>18</v>
+      </c>
+      <c r="NA10">
+        <v>16</v>
+      </c>
+      <c r="NB10">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -54070,8 +55050,29 @@
       <c r="MU11">
         <v>15</v>
       </c>
+      <c r="MV11">
+        <v>13</v>
+      </c>
+      <c r="MW11">
+        <v>15</v>
+      </c>
+      <c r="MX11">
+        <v>15</v>
+      </c>
+      <c r="MY11">
+        <v>14</v>
+      </c>
+      <c r="MZ11">
+        <v>12</v>
+      </c>
+      <c r="NA11">
+        <v>12</v>
+      </c>
+      <c r="NB11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -55149,8 +56150,29 @@
       <c r="MU12">
         <v>48</v>
       </c>
+      <c r="MV12">
+        <v>50</v>
+      </c>
+      <c r="MW12">
+        <v>50</v>
+      </c>
+      <c r="MX12">
+        <v>47</v>
+      </c>
+      <c r="MY12">
+        <v>52</v>
+      </c>
+      <c r="MZ12">
+        <v>51</v>
+      </c>
+      <c r="NA12">
+        <v>53</v>
+      </c>
+      <c r="NB12">
+        <v>51</v>
+      </c>
     </row>
-    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -56228,8 +57250,29 @@
       <c r="MU13">
         <v>25</v>
       </c>
+      <c r="MV13">
+        <v>30</v>
+      </c>
+      <c r="MW13">
+        <v>21</v>
+      </c>
+      <c r="MX13">
+        <v>21</v>
+      </c>
+      <c r="MY13">
+        <v>22</v>
+      </c>
+      <c r="MZ13">
+        <v>26</v>
+      </c>
+      <c r="NA13">
+        <v>24</v>
+      </c>
+      <c r="NB13">
+        <v>17</v>
+      </c>
     </row>
-    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -57307,8 +58350,29 @@
       <c r="MU14">
         <v>9</v>
       </c>
+      <c r="MV14">
+        <v>8</v>
+      </c>
+      <c r="MW14">
+        <v>10</v>
+      </c>
+      <c r="MX14">
+        <v>7</v>
+      </c>
+      <c r="MY14">
+        <v>9</v>
+      </c>
+      <c r="MZ14">
+        <v>8</v>
+      </c>
+      <c r="NA14">
+        <v>8</v>
+      </c>
+      <c r="NB14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -58386,8 +59450,29 @@
       <c r="MU15">
         <v>27</v>
       </c>
+      <c r="MV15">
+        <v>26</v>
+      </c>
+      <c r="MW15">
+        <v>35</v>
+      </c>
+      <c r="MX15">
+        <v>30</v>
+      </c>
+      <c r="MY15">
+        <v>33</v>
+      </c>
+      <c r="MZ15">
+        <v>29</v>
+      </c>
+      <c r="NA15">
+        <v>33</v>
+      </c>
+      <c r="NB15">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -59465,8 +60550,29 @@
       <c r="MU16">
         <v>5</v>
       </c>
+      <c r="MV16">
+        <v>4</v>
+      </c>
+      <c r="MW16">
+        <v>5</v>
+      </c>
+      <c r="MX16">
+        <v>1</v>
+      </c>
+      <c r="MY16">
+        <v>5</v>
+      </c>
+      <c r="MZ16">
+        <v>7</v>
+      </c>
+      <c r="NA16">
+        <v>7</v>
+      </c>
+      <c r="NB16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -60544,8 +61650,29 @@
       <c r="MU17">
         <v>15</v>
       </c>
+      <c r="MV17">
+        <v>17</v>
+      </c>
+      <c r="MW17">
+        <v>15</v>
+      </c>
+      <c r="MX17">
+        <v>16</v>
+      </c>
+      <c r="MY17">
+        <v>17</v>
+      </c>
+      <c r="MZ17">
+        <v>15</v>
+      </c>
+      <c r="NA17">
+        <v>15</v>
+      </c>
+      <c r="NB17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -61623,48 +62750,69 @@
       <c r="MU18" s="7">
         <v>855</v>
       </c>
+      <c r="MV18" s="7">
+        <v>806</v>
+      </c>
+      <c r="MW18" s="7">
+        <v>840</v>
+      </c>
+      <c r="MX18" s="7">
+        <v>819</v>
+      </c>
+      <c r="MY18" s="7">
+        <v>811</v>
+      </c>
+      <c r="MZ18" s="7">
+        <v>821</v>
+      </c>
+      <c r="NA18" s="7">
+        <v>820</v>
+      </c>
+      <c r="NB18" s="7">
+        <v>812</v>
+      </c>
     </row>
-    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:366" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -62856,10 +64004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:MU18"/>
+  <dimension ref="A1:NB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MF1" workbookViewId="0">
-      <selection activeCell="MO21" sqref="MO21"/>
+    <sheetView topLeftCell="MN1" workbookViewId="0">
+      <selection activeCell="NB18" sqref="NB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62867,7 +64015,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -63945,8 +65093,29 @@
       <c r="MU1" s="8">
         <v>44292</v>
       </c>
+      <c r="MV1" s="8">
+        <v>44293</v>
+      </c>
+      <c r="MW1" s="8">
+        <v>44294</v>
+      </c>
+      <c r="MX1" s="8">
+        <v>44295</v>
+      </c>
+      <c r="MY1" s="8">
+        <v>44296</v>
+      </c>
+      <c r="MZ1" s="8">
+        <v>44297</v>
+      </c>
+      <c r="NA1" s="8">
+        <v>44298</v>
+      </c>
+      <c r="NB1" s="8">
+        <v>44299</v>
+      </c>
     </row>
-    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -65024,8 +66193,29 @@
       <c r="MU2">
         <v>9</v>
       </c>
+      <c r="MV2">
+        <v>9</v>
+      </c>
+      <c r="MW2">
+        <v>9</v>
+      </c>
+      <c r="MX2">
+        <v>9</v>
+      </c>
+      <c r="MY2">
+        <v>9</v>
+      </c>
+      <c r="MZ2">
+        <v>9</v>
+      </c>
+      <c r="NA2">
+        <v>9</v>
+      </c>
+      <c r="NB2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -66103,8 +67293,29 @@
       <c r="MU3">
         <v>12</v>
       </c>
+      <c r="MV3">
+        <v>12</v>
+      </c>
+      <c r="MW3">
+        <v>12</v>
+      </c>
+      <c r="MX3">
+        <v>12</v>
+      </c>
+      <c r="MY3">
+        <v>12</v>
+      </c>
+      <c r="MZ3">
+        <v>12</v>
+      </c>
+      <c r="NA3">
+        <v>12</v>
+      </c>
+      <c r="NB3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -67182,8 +68393,29 @@
       <c r="MU4">
         <v>48</v>
       </c>
+      <c r="MV4">
+        <v>48</v>
+      </c>
+      <c r="MW4">
+        <v>48</v>
+      </c>
+      <c r="MX4">
+        <v>48</v>
+      </c>
+      <c r="MY4">
+        <v>48</v>
+      </c>
+      <c r="MZ4">
+        <v>48</v>
+      </c>
+      <c r="NA4">
+        <v>48</v>
+      </c>
+      <c r="NB4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -68261,8 +69493,29 @@
       <c r="MU5">
         <v>11</v>
       </c>
+      <c r="MV5">
+        <v>11</v>
+      </c>
+      <c r="MW5">
+        <v>11</v>
+      </c>
+      <c r="MX5">
+        <v>11</v>
+      </c>
+      <c r="MY5">
+        <v>11</v>
+      </c>
+      <c r="MZ5">
+        <v>11</v>
+      </c>
+      <c r="NA5">
+        <v>11</v>
+      </c>
+      <c r="NB5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -69340,8 +70593,29 @@
       <c r="MU6">
         <v>29</v>
       </c>
+      <c r="MV6">
+        <v>29</v>
+      </c>
+      <c r="MW6">
+        <v>29</v>
+      </c>
+      <c r="MX6">
+        <v>29</v>
+      </c>
+      <c r="MY6">
+        <v>29</v>
+      </c>
+      <c r="MZ6">
+        <v>29</v>
+      </c>
+      <c r="NA6">
+        <v>29</v>
+      </c>
+      <c r="NB6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -70419,8 +71693,29 @@
       <c r="MU7">
         <v>125</v>
       </c>
+      <c r="MV7">
+        <v>125</v>
+      </c>
+      <c r="MW7">
+        <v>125</v>
+      </c>
+      <c r="MX7">
+        <v>125</v>
+      </c>
+      <c r="MY7">
+        <v>125</v>
+      </c>
+      <c r="MZ7">
+        <v>125</v>
+      </c>
+      <c r="NA7">
+        <v>125</v>
+      </c>
+      <c r="NB7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -71498,8 +72793,29 @@
       <c r="MU8">
         <v>745</v>
       </c>
+      <c r="MV8">
+        <v>745</v>
+      </c>
+      <c r="MW8">
+        <v>745</v>
+      </c>
+      <c r="MX8">
+        <v>745</v>
+      </c>
+      <c r="MY8">
+        <v>745</v>
+      </c>
+      <c r="MZ8">
+        <v>745</v>
+      </c>
+      <c r="NA8">
+        <v>745</v>
+      </c>
+      <c r="NB8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -72577,8 +73893,29 @@
       <c r="MU9">
         <v>61</v>
       </c>
+      <c r="MV9">
+        <v>61</v>
+      </c>
+      <c r="MW9">
+        <v>61</v>
+      </c>
+      <c r="MX9">
+        <v>61</v>
+      </c>
+      <c r="MY9">
+        <v>61</v>
+      </c>
+      <c r="MZ9">
+        <v>61</v>
+      </c>
+      <c r="NA9">
+        <v>61</v>
+      </c>
+      <c r="NB9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -73656,8 +74993,29 @@
       <c r="MU10">
         <v>45</v>
       </c>
+      <c r="MV10">
+        <v>45</v>
+      </c>
+      <c r="MW10">
+        <v>45</v>
+      </c>
+      <c r="MX10">
+        <v>45</v>
+      </c>
+      <c r="MY10">
+        <v>45</v>
+      </c>
+      <c r="MZ10">
+        <v>45</v>
+      </c>
+      <c r="NA10">
+        <v>45</v>
+      </c>
+      <c r="NB10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -74735,8 +76093,29 @@
       <c r="MU11">
         <v>16</v>
       </c>
+      <c r="MV11">
+        <v>16</v>
+      </c>
+      <c r="MW11">
+        <v>16</v>
+      </c>
+      <c r="MX11">
+        <v>16</v>
+      </c>
+      <c r="MY11">
+        <v>16</v>
+      </c>
+      <c r="MZ11">
+        <v>16</v>
+      </c>
+      <c r="NA11">
+        <v>16</v>
+      </c>
+      <c r="NB11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -75814,8 +77193,29 @@
       <c r="MU12">
         <v>97</v>
       </c>
+      <c r="MV12">
+        <v>97</v>
+      </c>
+      <c r="MW12">
+        <v>97</v>
+      </c>
+      <c r="MX12">
+        <v>97</v>
+      </c>
+      <c r="MY12">
+        <v>97</v>
+      </c>
+      <c r="MZ12">
+        <v>97</v>
+      </c>
+      <c r="NA12">
+        <v>97</v>
+      </c>
+      <c r="NB12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -76893,8 +78293,29 @@
       <c r="MU13">
         <v>49</v>
       </c>
+      <c r="MV13">
+        <v>49</v>
+      </c>
+      <c r="MW13">
+        <v>49</v>
+      </c>
+      <c r="MX13">
+        <v>49</v>
+      </c>
+      <c r="MY13">
+        <v>49</v>
+      </c>
+      <c r="MZ13">
+        <v>49</v>
+      </c>
+      <c r="NA13">
+        <v>49</v>
+      </c>
+      <c r="NB13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -77972,8 +79393,29 @@
       <c r="MU14">
         <v>13</v>
       </c>
+      <c r="MV14">
+        <v>13</v>
+      </c>
+      <c r="MW14">
+        <v>13</v>
+      </c>
+      <c r="MX14">
+        <v>13</v>
+      </c>
+      <c r="MY14">
+        <v>13</v>
+      </c>
+      <c r="MZ14">
+        <v>13</v>
+      </c>
+      <c r="NA14">
+        <v>13</v>
+      </c>
+      <c r="NB14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -79051,8 +80493,29 @@
       <c r="MU15">
         <v>49</v>
       </c>
+      <c r="MV15">
+        <v>49</v>
+      </c>
+      <c r="MW15">
+        <v>49</v>
+      </c>
+      <c r="MX15">
+        <v>49</v>
+      </c>
+      <c r="MY15">
+        <v>49</v>
+      </c>
+      <c r="MZ15">
+        <v>49</v>
+      </c>
+      <c r="NA15">
+        <v>49</v>
+      </c>
+      <c r="NB15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -80130,8 +81593,29 @@
       <c r="MU16">
         <v>8</v>
       </c>
+      <c r="MV16">
+        <v>8</v>
+      </c>
+      <c r="MW16">
+        <v>8</v>
+      </c>
+      <c r="MX16">
+        <v>8</v>
+      </c>
+      <c r="MY16">
+        <v>8</v>
+      </c>
+      <c r="MZ16">
+        <v>8</v>
+      </c>
+      <c r="NA16">
+        <v>8</v>
+      </c>
+      <c r="NB16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -81209,8 +82693,29 @@
       <c r="MU17">
         <v>14</v>
       </c>
+      <c r="MV17">
+        <v>14</v>
+      </c>
+      <c r="MW17">
+        <v>14</v>
+      </c>
+      <c r="MX17">
+        <v>14</v>
+      </c>
+      <c r="MY17">
+        <v>14</v>
+      </c>
+      <c r="MZ17">
+        <v>14</v>
+      </c>
+      <c r="NA17">
+        <v>14</v>
+      </c>
+      <c r="NB17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -82646,65 +84151,98 @@
         <f t="shared" si="8"/>
         <v>1331</v>
       </c>
+      <c r="MV18" s="6">
+        <f t="shared" ref="MV18:NB18" si="9">SUM(MV2:MV17)</f>
+        <v>1331</v>
+      </c>
+      <c r="MW18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
+      <c r="MX18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
+      <c r="MY18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
+      <c r="MZ18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
+      <c r="NA18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
+      <c r="NB18" s="6">
+        <f t="shared" si="9"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="12" priority="244" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="245" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="11" priority="242" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="243" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="10" priority="241" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="242" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MV18:NB18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -254,7 +254,27 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="250">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3045,12 +3065,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NB20"/>
+  <dimension ref="A1:NI20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MT1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="MZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="MV18" sqref="MV18:NB18"/>
+      <selection pane="topRight" activeCell="ND20" sqref="ND20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3091,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4170,8 +4190,29 @@
       <c r="NB1" s="8">
         <v>44299</v>
       </c>
+      <c r="NC1" s="8">
+        <v>44300</v>
+      </c>
+      <c r="ND1" s="8">
+        <v>44301</v>
+      </c>
+      <c r="NE1" s="8">
+        <v>44302</v>
+      </c>
+      <c r="NF1" s="8">
+        <v>44303</v>
+      </c>
+      <c r="NG1" s="8">
+        <v>44304</v>
+      </c>
+      <c r="NH1" s="8">
+        <v>44305</v>
+      </c>
+      <c r="NI1" s="8">
+        <v>44306</v>
+      </c>
     </row>
-    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5270,8 +5311,29 @@
       <c r="NB2" s="11">
         <v>33</v>
       </c>
+      <c r="NC2" s="11">
+        <v>36</v>
+      </c>
+      <c r="ND2" s="11">
+        <v>36</v>
+      </c>
+      <c r="NE2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NF2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NG2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NH2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NI2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6370,8 +6432,29 @@
       <c r="NB3" s="11">
         <v>62</v>
       </c>
+      <c r="NC3" s="11">
+        <v>62</v>
+      </c>
+      <c r="ND3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NE3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NF3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NG3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NH3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NI3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7470,8 +7553,29 @@
       <c r="NB4" s="11">
         <v>172</v>
       </c>
+      <c r="NC4" s="11">
+        <v>172</v>
+      </c>
+      <c r="ND4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NE4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NF4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NG4" s="11">
+        <v>171</v>
+      </c>
+      <c r="NH4" s="11">
+        <v>170</v>
+      </c>
+      <c r="NI4" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8570,8 +8674,29 @@
       <c r="NB5" s="11">
         <v>33</v>
       </c>
+      <c r="NC5" s="11">
+        <v>34</v>
+      </c>
+      <c r="ND5" s="11">
+        <v>33</v>
+      </c>
+      <c r="NE5" s="11">
+        <v>33</v>
+      </c>
+      <c r="NF5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NG5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NH5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NI5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -9670,8 +9795,29 @@
       <c r="NB6" s="11">
         <v>144</v>
       </c>
+      <c r="NC6" s="11">
+        <v>144</v>
+      </c>
+      <c r="ND6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NE6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NF6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NG6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NH6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NI6" s="11">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -10770,8 +10916,29 @@
       <c r="NB7" s="11">
         <v>306</v>
       </c>
+      <c r="NC7" s="11">
+        <v>306</v>
+      </c>
+      <c r="ND7" s="11">
+        <v>311</v>
+      </c>
+      <c r="NE7" s="11">
+        <v>316</v>
+      </c>
+      <c r="NF7" s="11">
+        <v>318</v>
+      </c>
+      <c r="NG7" s="11">
+        <v>321</v>
+      </c>
+      <c r="NH7" s="11">
+        <v>321</v>
+      </c>
+      <c r="NI7" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -11870,8 +12037,29 @@
       <c r="NB8" s="11">
         <v>2360</v>
       </c>
+      <c r="NC8" s="11">
+        <v>2436</v>
+      </c>
+      <c r="ND8" s="11">
+        <v>2454</v>
+      </c>
+      <c r="NE8" s="11">
+        <v>2484</v>
+      </c>
+      <c r="NF8" s="11">
+        <v>2493</v>
+      </c>
+      <c r="NG8" s="11">
+        <v>2498</v>
+      </c>
+      <c r="NH8" s="11">
+        <v>2512</v>
+      </c>
+      <c r="NI8" s="11">
+        <v>2517</v>
+      </c>
     </row>
-    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -12970,8 +13158,29 @@
       <c r="NB9" s="11">
         <v>189</v>
       </c>
+      <c r="NC9" s="11">
+        <v>189</v>
+      </c>
+      <c r="ND9" s="11">
+        <v>192</v>
+      </c>
+      <c r="NE9" s="11">
+        <v>192</v>
+      </c>
+      <c r="NF9" s="11">
+        <v>196</v>
+      </c>
+      <c r="NG9" s="11">
+        <v>199</v>
+      </c>
+      <c r="NH9" s="11">
+        <v>199</v>
+      </c>
+      <c r="NI9" s="11">
+        <v>199</v>
+      </c>
     </row>
-    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -14070,8 +14279,29 @@
       <c r="NB10" s="11">
         <v>151</v>
       </c>
+      <c r="NC10" s="11">
+        <v>155</v>
+      </c>
+      <c r="ND10" s="11">
+        <v>155</v>
+      </c>
+      <c r="NE10" s="11">
+        <v>155</v>
+      </c>
+      <c r="NF10" s="11">
+        <v>161</v>
+      </c>
+      <c r="NG10" s="11">
+        <v>163</v>
+      </c>
+      <c r="NH10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NI10" s="11">
+        <v>163</v>
+      </c>
     </row>
-    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -15170,8 +15400,29 @@
       <c r="NB11" s="11">
         <v>72</v>
       </c>
+      <c r="NC11" s="11">
+        <v>73</v>
+      </c>
+      <c r="ND11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NE11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NF11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NG11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NH11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NI11" s="11">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -16270,8 +16521,29 @@
       <c r="NB12" s="11">
         <v>307</v>
       </c>
+      <c r="NC12" s="11">
+        <v>310</v>
+      </c>
+      <c r="ND12" s="11">
+        <v>310</v>
+      </c>
+      <c r="NE12" s="11">
+        <v>310</v>
+      </c>
+      <c r="NF12" s="11">
+        <v>310</v>
+      </c>
+      <c r="NG12" s="11">
+        <v>312</v>
+      </c>
+      <c r="NH12" s="11">
+        <v>312</v>
+      </c>
+      <c r="NI12" s="11">
+        <v>313</v>
+      </c>
     </row>
-    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -17370,8 +17642,29 @@
       <c r="NB13" s="11">
         <v>132</v>
       </c>
+      <c r="NC13" s="11">
+        <v>132</v>
+      </c>
+      <c r="ND13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NE13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NF13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NG13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NH13" s="11">
+        <v>132</v>
+      </c>
+      <c r="NI13" s="11">
+        <v>132</v>
+      </c>
     </row>
-    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -18470,8 +18763,29 @@
       <c r="NB14" s="11">
         <v>44</v>
       </c>
+      <c r="NC14" s="11">
+        <v>44</v>
+      </c>
+      <c r="ND14" s="11">
+        <v>44</v>
+      </c>
+      <c r="NE14" s="11">
+        <v>44</v>
+      </c>
+      <c r="NF14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NG14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NH14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NI14" s="11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -19570,8 +19884,29 @@
       <c r="NB15" s="11">
         <v>121</v>
       </c>
+      <c r="NC15" s="11">
+        <v>129</v>
+      </c>
+      <c r="ND15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NE15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NF15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NG15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NH15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NI15" s="11">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -20670,8 +21005,29 @@
       <c r="NB16" s="11">
         <v>12</v>
       </c>
+      <c r="NC16" s="11">
+        <v>12</v>
+      </c>
+      <c r="ND16" s="11">
+        <v>12</v>
+      </c>
+      <c r="NE16" s="11">
+        <v>12</v>
+      </c>
+      <c r="NF16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NG16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NH16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NI16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -21770,8 +22126,29 @@
       <c r="NB17" s="11">
         <v>37</v>
       </c>
+      <c r="NC17" s="11">
+        <v>38</v>
+      </c>
+      <c r="ND17" s="11">
+        <v>38</v>
+      </c>
+      <c r="NE17" s="11">
+        <v>38</v>
+      </c>
+      <c r="NF17" s="11">
+        <v>38</v>
+      </c>
+      <c r="NG17" s="11">
+        <v>40</v>
+      </c>
+      <c r="NH17" s="11">
+        <v>40</v>
+      </c>
+      <c r="NI17" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -22931,7 +23308,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:NB18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:NI18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -22962,13 +23339,41 @@
         <f t="shared" si="7"/>
         <v>4175</v>
       </c>
+      <c r="NC18" s="6">
+        <f t="shared" si="7"/>
+        <v>4272</v>
+      </c>
+      <c r="ND18" s="6">
+        <f t="shared" si="7"/>
+        <v>4296</v>
+      </c>
+      <c r="NE18" s="6">
+        <f t="shared" si="7"/>
+        <v>4335</v>
+      </c>
+      <c r="NF18" s="6">
+        <f t="shared" si="7"/>
+        <v>4357</v>
+      </c>
+      <c r="NG18" s="6">
+        <f t="shared" si="7"/>
+        <v>4373</v>
+      </c>
+      <c r="NH18" s="6">
+        <f t="shared" si="7"/>
+        <v>4389</v>
+      </c>
+      <c r="NI18" s="6">
+        <f t="shared" si="7"/>
+        <v>4390</v>
+      </c>
     </row>
-    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -22986,12 +23391,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NB34"/>
+  <dimension ref="A1:NI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MR1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="NB1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="MV17" sqref="MV2:MV17"/>
+      <selection pane="topRight" activeCell="NG21" sqref="NG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23011,7 +23416,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -24110,8 +24515,29 @@
       <c r="NB1" s="8">
         <v>44299</v>
       </c>
+      <c r="NC1" s="8">
+        <v>44300</v>
+      </c>
+      <c r="ND1" s="8">
+        <v>44301</v>
+      </c>
+      <c r="NE1" s="8">
+        <v>44302</v>
+      </c>
+      <c r="NF1" s="8">
+        <v>44303</v>
+      </c>
+      <c r="NG1" s="8">
+        <v>44304</v>
+      </c>
+      <c r="NH1" s="8">
+        <v>44305</v>
+      </c>
+      <c r="NI1" s="8">
+        <v>44306</v>
+      </c>
     </row>
-    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -25210,8 +25636,29 @@
       <c r="NB2">
         <v>24</v>
       </c>
+      <c r="NC2">
+        <v>27</v>
+      </c>
+      <c r="ND2">
+        <v>28</v>
+      </c>
+      <c r="NE2">
+        <v>28</v>
+      </c>
+      <c r="NF2">
+        <v>30</v>
+      </c>
+      <c r="NG2">
+        <v>30</v>
+      </c>
+      <c r="NH2">
+        <v>28</v>
+      </c>
+      <c r="NI2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -26310,8 +26757,29 @@
       <c r="NB3">
         <v>58</v>
       </c>
+      <c r="NC3">
+        <v>60</v>
+      </c>
+      <c r="ND3">
+        <v>60</v>
+      </c>
+      <c r="NE3">
+        <v>60</v>
+      </c>
+      <c r="NF3">
+        <v>61</v>
+      </c>
+      <c r="NG3">
+        <v>58</v>
+      </c>
+      <c r="NH3">
+        <v>58</v>
+      </c>
+      <c r="NI3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -27410,8 +27878,29 @@
       <c r="NB4">
         <v>108</v>
       </c>
+      <c r="NC4">
+        <v>109</v>
+      </c>
+      <c r="ND4">
+        <v>108</v>
+      </c>
+      <c r="NE4">
+        <v>105</v>
+      </c>
+      <c r="NF4">
+        <v>104</v>
+      </c>
+      <c r="NG4">
+        <v>108</v>
+      </c>
+      <c r="NH4">
+        <v>107</v>
+      </c>
+      <c r="NI4">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -28510,8 +28999,29 @@
       <c r="NB5">
         <v>27</v>
       </c>
+      <c r="NC5">
+        <v>27</v>
+      </c>
+      <c r="ND5">
+        <v>26</v>
+      </c>
+      <c r="NE5">
+        <v>26</v>
+      </c>
+      <c r="NF5">
+        <v>27</v>
+      </c>
+      <c r="NG5">
+        <v>29</v>
+      </c>
+      <c r="NH5">
+        <v>30</v>
+      </c>
+      <c r="NI5">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -29610,8 +30120,29 @@
       <c r="NB6">
         <v>109</v>
       </c>
+      <c r="NC6">
+        <v>108</v>
+      </c>
+      <c r="ND6">
+        <v>107</v>
+      </c>
+      <c r="NE6">
+        <v>102</v>
+      </c>
+      <c r="NF6">
+        <v>104</v>
+      </c>
+      <c r="NG6">
+        <v>105</v>
+      </c>
+      <c r="NH6">
+        <v>105</v>
+      </c>
+      <c r="NI6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -30710,8 +31241,29 @@
       <c r="NB7">
         <v>245</v>
       </c>
+      <c r="NC7">
+        <v>250</v>
+      </c>
+      <c r="ND7">
+        <v>246</v>
+      </c>
+      <c r="NE7">
+        <v>250</v>
+      </c>
+      <c r="NF7">
+        <v>252</v>
+      </c>
+      <c r="NG7">
+        <v>257</v>
+      </c>
+      <c r="NH7">
+        <v>257</v>
+      </c>
+      <c r="NI7">
+        <v>262</v>
+      </c>
     </row>
-    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -31810,8 +32362,29 @@
       <c r="NB8">
         <v>1822</v>
       </c>
+      <c r="NC8">
+        <v>1878</v>
+      </c>
+      <c r="ND8">
+        <v>1879</v>
+      </c>
+      <c r="NE8">
+        <v>1899</v>
+      </c>
+      <c r="NF8">
+        <v>1909</v>
+      </c>
+      <c r="NG8">
+        <v>1937</v>
+      </c>
+      <c r="NH8">
+        <v>1952</v>
+      </c>
+      <c r="NI8">
+        <v>1958</v>
+      </c>
     </row>
-    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -32910,8 +33483,29 @@
       <c r="NB9">
         <v>158</v>
       </c>
+      <c r="NC9">
+        <v>150</v>
+      </c>
+      <c r="ND9">
+        <v>145</v>
+      </c>
+      <c r="NE9">
+        <v>146</v>
+      </c>
+      <c r="NF9">
+        <v>152</v>
+      </c>
+      <c r="NG9">
+        <v>152</v>
+      </c>
+      <c r="NH9">
+        <v>150</v>
+      </c>
+      <c r="NI9">
+        <v>156</v>
+      </c>
     </row>
-    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -34010,8 +34604,29 @@
       <c r="NB10">
         <v>133</v>
       </c>
+      <c r="NC10">
+        <v>136</v>
+      </c>
+      <c r="ND10">
+        <v>132</v>
+      </c>
+      <c r="NE10">
+        <v>137</v>
+      </c>
+      <c r="NF10">
+        <v>144</v>
+      </c>
+      <c r="NG10">
+        <v>145</v>
+      </c>
+      <c r="NH10">
+        <v>145</v>
+      </c>
+      <c r="NI10">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -35110,8 +35725,29 @@
       <c r="NB11">
         <v>51</v>
       </c>
+      <c r="NC11">
+        <v>51</v>
+      </c>
+      <c r="ND11">
+        <v>51</v>
+      </c>
+      <c r="NE11">
+        <v>54</v>
+      </c>
+      <c r="NF11">
+        <v>52</v>
+      </c>
+      <c r="NG11">
+        <v>51</v>
+      </c>
+      <c r="NH11">
+        <v>48</v>
+      </c>
+      <c r="NI11">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -36210,8 +36846,29 @@
       <c r="NB12">
         <v>239</v>
       </c>
+      <c r="NC12">
+        <v>237</v>
+      </c>
+      <c r="ND12">
+        <v>238</v>
+      </c>
+      <c r="NE12">
+        <v>234</v>
+      </c>
+      <c r="NF12">
+        <v>232</v>
+      </c>
+      <c r="NG12">
+        <v>228</v>
+      </c>
+      <c r="NH12">
+        <v>237</v>
+      </c>
+      <c r="NI12">
+        <v>238</v>
+      </c>
     </row>
-    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -37310,8 +37967,29 @@
       <c r="NB13">
         <v>110</v>
       </c>
+      <c r="NC13">
+        <v>110</v>
+      </c>
+      <c r="ND13">
+        <v>109</v>
+      </c>
+      <c r="NE13">
+        <v>109</v>
+      </c>
+      <c r="NF13">
+        <v>105</v>
+      </c>
+      <c r="NG13">
+        <v>107</v>
+      </c>
+      <c r="NH13">
+        <v>107</v>
+      </c>
+      <c r="NI13">
+        <v>107</v>
+      </c>
     </row>
-    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -38410,8 +39088,29 @@
       <c r="NB14">
         <v>30</v>
       </c>
+      <c r="NC14">
+        <v>32</v>
+      </c>
+      <c r="ND14">
+        <v>30</v>
+      </c>
+      <c r="NE14">
+        <v>29</v>
+      </c>
+      <c r="NF14">
+        <v>31</v>
+      </c>
+      <c r="NG14">
+        <v>31</v>
+      </c>
+      <c r="NH14">
+        <v>31</v>
+      </c>
+      <c r="NI14">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -39510,8 +40209,29 @@
       <c r="NB15">
         <v>78</v>
       </c>
+      <c r="NC15">
+        <v>77</v>
+      </c>
+      <c r="ND15">
+        <v>79</v>
+      </c>
+      <c r="NE15">
+        <v>78</v>
+      </c>
+      <c r="NF15">
+        <v>83</v>
+      </c>
+      <c r="NG15">
+        <v>86</v>
+      </c>
+      <c r="NH15">
+        <v>88</v>
+      </c>
+      <c r="NI15">
+        <v>90</v>
+      </c>
     </row>
-    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -40610,8 +41330,29 @@
       <c r="NB16">
         <v>4</v>
       </c>
+      <c r="NC16">
+        <v>4</v>
+      </c>
+      <c r="ND16">
+        <v>5</v>
+      </c>
+      <c r="NE16">
+        <v>4</v>
+      </c>
+      <c r="NF16">
+        <v>5</v>
+      </c>
+      <c r="NG16">
+        <v>6</v>
+      </c>
+      <c r="NH16">
+        <v>7</v>
+      </c>
+      <c r="NI16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -41710,8 +42451,29 @@
       <c r="NB17">
         <v>17</v>
       </c>
+      <c r="NC17">
+        <v>15</v>
+      </c>
+      <c r="ND17">
+        <v>14</v>
+      </c>
+      <c r="NE17">
+        <v>16</v>
+      </c>
+      <c r="NF17">
+        <v>17</v>
+      </c>
+      <c r="NG17">
+        <v>14</v>
+      </c>
+      <c r="NH17">
+        <v>14</v>
+      </c>
+      <c r="NI17">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -42848,7 +43610,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:NB18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:NI18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -42887,50 +43649,78 @@
         <f t="shared" si="1"/>
         <v>3213</v>
       </c>
+      <c r="NC18" s="6">
+        <f t="shared" si="1"/>
+        <v>3271</v>
+      </c>
+      <c r="ND18" s="6">
+        <f t="shared" si="1"/>
+        <v>3257</v>
+      </c>
+      <c r="NE18" s="6">
+        <f t="shared" si="1"/>
+        <v>3277</v>
+      </c>
+      <c r="NF18" s="6">
+        <f t="shared" si="1"/>
+        <v>3308</v>
+      </c>
+      <c r="NG18" s="6">
+        <f t="shared" si="1"/>
+        <v>3344</v>
+      </c>
+      <c r="NH18" s="6">
+        <f t="shared" si="1"/>
+        <v>3364</v>
+      </c>
+      <c r="NI18" s="6">
+        <f t="shared" si="1"/>
+        <v>3372</v>
+      </c>
     </row>
-    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:373" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:373" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:373" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -42950,12 +43740,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:NB34"/>
+  <dimension ref="A1:NI34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MU1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NA1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="NB2" sqref="NB2:NB17"/>
+      <selection pane="topRight" activeCell="NK14" sqref="NJ14:NK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42972,7 +43762,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -44071,8 +44861,29 @@
       <c r="NB1" s="8">
         <v>44299</v>
       </c>
+      <c r="NC1" s="8">
+        <v>44300</v>
+      </c>
+      <c r="ND1" s="8">
+        <v>44301</v>
+      </c>
+      <c r="NE1" s="8">
+        <v>44302</v>
+      </c>
+      <c r="NF1" s="8">
+        <v>44303</v>
+      </c>
+      <c r="NG1" s="8">
+        <v>44304</v>
+      </c>
+      <c r="NH1" s="8">
+        <v>44305</v>
+      </c>
+      <c r="NI1" s="8">
+        <v>44306</v>
+      </c>
     </row>
-    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -45171,8 +45982,29 @@
       <c r="NB2">
         <v>6</v>
       </c>
+      <c r="NC2">
+        <v>6</v>
+      </c>
+      <c r="ND2">
+        <v>6</v>
+      </c>
+      <c r="NE2">
+        <v>8</v>
+      </c>
+      <c r="NF2">
+        <v>8</v>
+      </c>
+      <c r="NG2">
+        <v>7</v>
+      </c>
+      <c r="NH2">
+        <v>10</v>
+      </c>
+      <c r="NI2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -46271,8 +47103,29 @@
       <c r="NB3">
         <v>2</v>
       </c>
+      <c r="NC3">
+        <v>1</v>
+      </c>
+      <c r="ND3">
+        <v>2</v>
+      </c>
+      <c r="NE3">
+        <v>2</v>
+      </c>
+      <c r="NF3">
+        <v>1</v>
+      </c>
+      <c r="NG3">
+        <v>1</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -47371,8 +48224,29 @@
       <c r="NB4">
         <v>58</v>
       </c>
+      <c r="NC4">
+        <v>57</v>
+      </c>
+      <c r="ND4">
+        <v>60</v>
+      </c>
+      <c r="NE4">
+        <v>58</v>
+      </c>
+      <c r="NF4">
+        <v>60</v>
+      </c>
+      <c r="NG4">
+        <v>56</v>
+      </c>
+      <c r="NH4">
+        <v>56</v>
+      </c>
+      <c r="NI4">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -48471,8 +49345,29 @@
       <c r="NB5">
         <v>3</v>
       </c>
+      <c r="NC5">
+        <v>4</v>
+      </c>
+      <c r="ND5">
+        <v>4</v>
+      </c>
+      <c r="NE5">
+        <v>4</v>
+      </c>
+      <c r="NF5">
+        <v>4</v>
+      </c>
+      <c r="NG5">
+        <v>2</v>
+      </c>
+      <c r="NH5">
+        <v>2</v>
+      </c>
+      <c r="NI5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -49571,8 +50466,29 @@
       <c r="NB6">
         <v>29</v>
       </c>
+      <c r="NC6">
+        <v>32</v>
+      </c>
+      <c r="ND6">
+        <v>31</v>
+      </c>
+      <c r="NE6">
+        <v>32</v>
+      </c>
+      <c r="NF6">
+        <v>32</v>
+      </c>
+      <c r="NG6">
+        <v>30</v>
+      </c>
+      <c r="NH6">
+        <v>32</v>
+      </c>
+      <c r="NI6">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -50671,8 +51587,29 @@
       <c r="NB7">
         <v>60</v>
       </c>
+      <c r="NC7">
+        <v>54</v>
+      </c>
+      <c r="ND7">
+        <v>56</v>
+      </c>
+      <c r="NE7">
+        <v>60</v>
+      </c>
+      <c r="NF7">
+        <v>57</v>
+      </c>
+      <c r="NG7">
+        <v>50</v>
+      </c>
+      <c r="NH7">
+        <v>50</v>
+      </c>
+      <c r="NI7">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -51771,8 +52708,29 @@
       <c r="NB8">
         <v>475</v>
       </c>
+      <c r="NC8">
+        <v>484</v>
+      </c>
+      <c r="ND8">
+        <v>487</v>
+      </c>
+      <c r="NE8">
+        <v>506</v>
+      </c>
+      <c r="NF8">
+        <v>505</v>
+      </c>
+      <c r="NG8">
+        <v>491</v>
+      </c>
+      <c r="NH8">
+        <v>486</v>
+      </c>
+      <c r="NI8">
+        <v>489</v>
+      </c>
     </row>
-    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -52871,8 +53829,29 @@
       <c r="NB9">
         <v>23</v>
       </c>
+      <c r="NC9">
+        <v>25</v>
+      </c>
+      <c r="ND9">
+        <v>23</v>
+      </c>
+      <c r="NE9">
+        <v>31</v>
+      </c>
+      <c r="NF9">
+        <v>22</v>
+      </c>
+      <c r="NG9">
+        <v>25</v>
+      </c>
+      <c r="NH9">
+        <v>22</v>
+      </c>
+      <c r="NI9">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -53971,8 +54950,29 @@
       <c r="NB10">
         <v>14</v>
       </c>
+      <c r="NC10">
+        <v>15</v>
+      </c>
+      <c r="ND10">
+        <v>15</v>
+      </c>
+      <c r="NE10">
+        <v>16</v>
+      </c>
+      <c r="NF10">
+        <v>12</v>
+      </c>
+      <c r="NG10">
+        <v>14</v>
+      </c>
+      <c r="NH10">
+        <v>18</v>
+      </c>
+      <c r="NI10">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -55071,8 +56071,29 @@
       <c r="NB11">
         <v>13</v>
       </c>
+      <c r="NC11">
+        <v>16</v>
+      </c>
+      <c r="ND11">
+        <v>14</v>
+      </c>
+      <c r="NE11">
+        <v>15</v>
+      </c>
+      <c r="NF11">
+        <v>13</v>
+      </c>
+      <c r="NG11">
+        <v>14</v>
+      </c>
+      <c r="NH11">
+        <v>16</v>
+      </c>
+      <c r="NI11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -56171,8 +57192,29 @@
       <c r="NB12">
         <v>51</v>
       </c>
+      <c r="NC12">
+        <v>50</v>
+      </c>
+      <c r="ND12">
+        <v>49</v>
+      </c>
+      <c r="NE12">
+        <v>48</v>
+      </c>
+      <c r="NF12">
+        <v>57</v>
+      </c>
+      <c r="NG12">
+        <v>58</v>
+      </c>
+      <c r="NH12">
+        <v>53</v>
+      </c>
+      <c r="NI12">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -57271,8 +58313,29 @@
       <c r="NB13">
         <v>17</v>
       </c>
+      <c r="NC13">
+        <v>17</v>
+      </c>
+      <c r="ND13">
+        <v>19</v>
+      </c>
+      <c r="NE13">
+        <v>18</v>
+      </c>
+      <c r="NF13">
+        <v>22</v>
+      </c>
+      <c r="NG13">
+        <v>23</v>
+      </c>
+      <c r="NH13">
+        <v>24</v>
+      </c>
+      <c r="NI13">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -58371,8 +59434,29 @@
       <c r="NB14">
         <v>8</v>
       </c>
+      <c r="NC14">
+        <v>7</v>
+      </c>
+      <c r="ND14">
+        <v>9</v>
+      </c>
+      <c r="NE14">
+        <v>12</v>
+      </c>
+      <c r="NF14">
+        <v>12</v>
+      </c>
+      <c r="NG14">
+        <v>13</v>
+      </c>
+      <c r="NH14">
+        <v>14</v>
+      </c>
+      <c r="NI14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -59471,8 +60555,29 @@
       <c r="NB15">
         <v>38</v>
       </c>
+      <c r="NC15">
+        <v>42</v>
+      </c>
+      <c r="ND15">
+        <v>35</v>
+      </c>
+      <c r="NE15">
+        <v>34</v>
+      </c>
+      <c r="NF15">
+        <v>37</v>
+      </c>
+      <c r="NG15">
+        <v>31</v>
+      </c>
+      <c r="NH15">
+        <v>29</v>
+      </c>
+      <c r="NI15">
+        <v>28</v>
+      </c>
     </row>
-    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -60571,8 +61676,29 @@
       <c r="NB16">
         <v>1</v>
       </c>
+      <c r="NC16">
+        <v>6</v>
+      </c>
+      <c r="ND16">
+        <v>3</v>
+      </c>
+      <c r="NE16">
+        <v>4</v>
+      </c>
+      <c r="NF16">
+        <v>1</v>
+      </c>
+      <c r="NG16">
+        <v>2</v>
+      </c>
+      <c r="NH16">
+        <v>2</v>
+      </c>
+      <c r="NI16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -61671,8 +62797,29 @@
       <c r="NB17">
         <v>14</v>
       </c>
+      <c r="NC17">
+        <v>13</v>
+      </c>
+      <c r="ND17">
+        <v>12</v>
+      </c>
+      <c r="NE17">
+        <v>12</v>
+      </c>
+      <c r="NF17">
+        <v>13</v>
+      </c>
+      <c r="NG17">
+        <v>14</v>
+      </c>
+      <c r="NH17">
+        <v>13</v>
+      </c>
+      <c r="NI17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -62771,48 +63918,69 @@
       <c r="NB18" s="7">
         <v>812</v>
       </c>
+      <c r="NC18" s="7">
+        <v>829</v>
+      </c>
+      <c r="ND18" s="7">
+        <v>825</v>
+      </c>
+      <c r="NE18" s="7">
+        <v>860</v>
+      </c>
+      <c r="NF18" s="7">
+        <v>856</v>
+      </c>
+      <c r="NG18" s="7">
+        <v>831</v>
+      </c>
+      <c r="NH18" s="7">
+        <v>827</v>
+      </c>
+      <c r="NI18" s="7">
+        <v>842</v>
+      </c>
     </row>
-    <row r="19" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:373" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -62823,1177 +63991,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="247" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="246" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="245" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="244" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="243" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="242" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="241" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="240" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="239" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="238" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="237" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="236" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="235" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="234" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="233" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="232" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="231" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="230" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="229" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="228" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="227" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="226" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="225" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="224" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="223" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="222" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="221" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="220" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="219" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="218" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="217" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="216" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="215" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="214" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="213" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="212" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="211" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="210" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="209" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="208" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="207" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="206" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="205" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="204" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="203" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="202" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="201" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="200" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="199" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="198" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="197" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="196" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="195" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="194" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="193" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="192" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="191" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="190" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="189" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="188" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="187" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="186" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="185" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="184" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="183" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="182" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="181" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="180" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="179" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="178" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="177" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="176" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="175" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="174" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="173" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="172" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="171" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="170" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="169" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="168" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="167" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="166" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="165" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="164" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="163" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="162" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="161" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="160" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="159" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="158" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="157" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="156" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="155" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="154" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="153" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="152" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="151" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="150" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="149" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="148" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="147" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="146" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="145" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="144" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="143" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="142" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="141" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="140" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="139" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="138" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="137" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="136" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="135" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="134" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="133" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="132" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="131" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="130" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="129" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="128" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="127" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="126" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="125" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="124" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="123" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="122" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="121" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="120" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="119" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="118" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="117" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="116" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="115" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="114" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="113" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="112" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="111" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="110" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="109" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="108" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="107" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="106" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="105" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="104" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="103" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="102" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="101" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="100" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="99" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="98" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="97" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="96" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="95" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="94" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="93" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="92" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="91" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="89" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="88" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="86" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="85" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="84" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="83" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="82" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="81" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="80" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="77" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="75" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="74" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="73" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="71" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="69" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="67" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="66" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="65" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="64" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="63" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="57" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="56" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="53" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="50" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="49" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64004,10 +65172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NB18"/>
+  <dimension ref="A1:NI18"/>
   <sheetViews>
-    <sheetView topLeftCell="MN1" workbookViewId="0">
-      <selection activeCell="NB18" sqref="NB18"/>
+    <sheetView topLeftCell="MU1" workbookViewId="0">
+      <selection activeCell="NC22" sqref="NC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64015,7 +65183,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -65114,8 +66282,29 @@
       <c r="NB1" s="8">
         <v>44299</v>
       </c>
+      <c r="NC1" s="8">
+        <v>44300</v>
+      </c>
+      <c r="ND1" s="8">
+        <v>44301</v>
+      </c>
+      <c r="NE1" s="8">
+        <v>44302</v>
+      </c>
+      <c r="NF1" s="8">
+        <v>44303</v>
+      </c>
+      <c r="NG1" s="8">
+        <v>44304</v>
+      </c>
+      <c r="NH1" s="8">
+        <v>44305</v>
+      </c>
+      <c r="NI1" s="8">
+        <v>44306</v>
+      </c>
     </row>
-    <row r="2" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -66214,8 +67403,29 @@
       <c r="NB2">
         <v>9</v>
       </c>
+      <c r="NC2">
+        <v>9</v>
+      </c>
+      <c r="ND2">
+        <v>9</v>
+      </c>
+      <c r="NE2">
+        <v>9</v>
+      </c>
+      <c r="NF2">
+        <v>9</v>
+      </c>
+      <c r="NG2">
+        <v>9</v>
+      </c>
+      <c r="NH2">
+        <v>9</v>
+      </c>
+      <c r="NI2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -67314,8 +68524,29 @@
       <c r="NB3">
         <v>12</v>
       </c>
+      <c r="NC3">
+        <v>12</v>
+      </c>
+      <c r="ND3">
+        <v>12</v>
+      </c>
+      <c r="NE3">
+        <v>12</v>
+      </c>
+      <c r="NF3">
+        <v>12</v>
+      </c>
+      <c r="NG3">
+        <v>12</v>
+      </c>
+      <c r="NH3">
+        <v>12</v>
+      </c>
+      <c r="NI3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -68414,8 +69645,29 @@
       <c r="NB4">
         <v>48</v>
       </c>
+      <c r="NC4">
+        <v>48</v>
+      </c>
+      <c r="ND4">
+        <v>48</v>
+      </c>
+      <c r="NE4">
+        <v>48</v>
+      </c>
+      <c r="NF4">
+        <v>48</v>
+      </c>
+      <c r="NG4">
+        <v>48</v>
+      </c>
+      <c r="NH4">
+        <v>48</v>
+      </c>
+      <c r="NI4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -69514,8 +70766,29 @@
       <c r="NB5">
         <v>11</v>
       </c>
+      <c r="NC5">
+        <v>11</v>
+      </c>
+      <c r="ND5">
+        <v>11</v>
+      </c>
+      <c r="NE5">
+        <v>11</v>
+      </c>
+      <c r="NF5">
+        <v>11</v>
+      </c>
+      <c r="NG5">
+        <v>11</v>
+      </c>
+      <c r="NH5">
+        <v>11</v>
+      </c>
+      <c r="NI5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -70614,8 +71887,29 @@
       <c r="NB6">
         <v>29</v>
       </c>
+      <c r="NC6">
+        <v>29</v>
+      </c>
+      <c r="ND6">
+        <v>29</v>
+      </c>
+      <c r="NE6">
+        <v>29</v>
+      </c>
+      <c r="NF6">
+        <v>29</v>
+      </c>
+      <c r="NG6">
+        <v>29</v>
+      </c>
+      <c r="NH6">
+        <v>29</v>
+      </c>
+      <c r="NI6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -71714,8 +73008,29 @@
       <c r="NB7">
         <v>125</v>
       </c>
+      <c r="NC7">
+        <v>125</v>
+      </c>
+      <c r="ND7">
+        <v>125</v>
+      </c>
+      <c r="NE7">
+        <v>125</v>
+      </c>
+      <c r="NF7">
+        <v>125</v>
+      </c>
+      <c r="NG7">
+        <v>125</v>
+      </c>
+      <c r="NH7">
+        <v>125</v>
+      </c>
+      <c r="NI7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -72814,8 +74129,29 @@
       <c r="NB8">
         <v>745</v>
       </c>
+      <c r="NC8">
+        <v>745</v>
+      </c>
+      <c r="ND8">
+        <v>745</v>
+      </c>
+      <c r="NE8">
+        <v>745</v>
+      </c>
+      <c r="NF8">
+        <v>745</v>
+      </c>
+      <c r="NG8">
+        <v>745</v>
+      </c>
+      <c r="NH8">
+        <v>745</v>
+      </c>
+      <c r="NI8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -73914,8 +75250,29 @@
       <c r="NB9">
         <v>61</v>
       </c>
+      <c r="NC9">
+        <v>61</v>
+      </c>
+      <c r="ND9">
+        <v>61</v>
+      </c>
+      <c r="NE9">
+        <v>61</v>
+      </c>
+      <c r="NF9">
+        <v>61</v>
+      </c>
+      <c r="NG9">
+        <v>61</v>
+      </c>
+      <c r="NH9">
+        <v>61</v>
+      </c>
+      <c r="NI9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -75014,8 +76371,29 @@
       <c r="NB10">
         <v>45</v>
       </c>
+      <c r="NC10">
+        <v>45</v>
+      </c>
+      <c r="ND10">
+        <v>45</v>
+      </c>
+      <c r="NE10">
+        <v>45</v>
+      </c>
+      <c r="NF10">
+        <v>45</v>
+      </c>
+      <c r="NG10">
+        <v>45</v>
+      </c>
+      <c r="NH10">
+        <v>45</v>
+      </c>
+      <c r="NI10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -76114,8 +77492,29 @@
       <c r="NB11">
         <v>16</v>
       </c>
+      <c r="NC11">
+        <v>16</v>
+      </c>
+      <c r="ND11">
+        <v>16</v>
+      </c>
+      <c r="NE11">
+        <v>16</v>
+      </c>
+      <c r="NF11">
+        <v>16</v>
+      </c>
+      <c r="NG11">
+        <v>16</v>
+      </c>
+      <c r="NH11">
+        <v>16</v>
+      </c>
+      <c r="NI11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -77214,8 +78613,29 @@
       <c r="NB12">
         <v>97</v>
       </c>
+      <c r="NC12">
+        <v>97</v>
+      </c>
+      <c r="ND12">
+        <v>97</v>
+      </c>
+      <c r="NE12">
+        <v>97</v>
+      </c>
+      <c r="NF12">
+        <v>97</v>
+      </c>
+      <c r="NG12">
+        <v>97</v>
+      </c>
+      <c r="NH12">
+        <v>97</v>
+      </c>
+      <c r="NI12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -78314,8 +79734,29 @@
       <c r="NB13">
         <v>49</v>
       </c>
+      <c r="NC13">
+        <v>49</v>
+      </c>
+      <c r="ND13">
+        <v>49</v>
+      </c>
+      <c r="NE13">
+        <v>49</v>
+      </c>
+      <c r="NF13">
+        <v>49</v>
+      </c>
+      <c r="NG13">
+        <v>49</v>
+      </c>
+      <c r="NH13">
+        <v>49</v>
+      </c>
+      <c r="NI13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -79414,8 +80855,29 @@
       <c r="NB14">
         <v>13</v>
       </c>
+      <c r="NC14">
+        <v>13</v>
+      </c>
+      <c r="ND14">
+        <v>13</v>
+      </c>
+      <c r="NE14">
+        <v>13</v>
+      </c>
+      <c r="NF14">
+        <v>13</v>
+      </c>
+      <c r="NG14">
+        <v>13</v>
+      </c>
+      <c r="NH14">
+        <v>13</v>
+      </c>
+      <c r="NI14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -80514,8 +81976,29 @@
       <c r="NB15">
         <v>49</v>
       </c>
+      <c r="NC15">
+        <v>49</v>
+      </c>
+      <c r="ND15">
+        <v>49</v>
+      </c>
+      <c r="NE15">
+        <v>49</v>
+      </c>
+      <c r="NF15">
+        <v>49</v>
+      </c>
+      <c r="NG15">
+        <v>49</v>
+      </c>
+      <c r="NH15">
+        <v>49</v>
+      </c>
+      <c r="NI15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -81614,8 +83097,29 @@
       <c r="NB16">
         <v>8</v>
       </c>
+      <c r="NC16">
+        <v>8</v>
+      </c>
+      <c r="ND16">
+        <v>8</v>
+      </c>
+      <c r="NE16">
+        <v>8</v>
+      </c>
+      <c r="NF16">
+        <v>8</v>
+      </c>
+      <c r="NG16">
+        <v>8</v>
+      </c>
+      <c r="NH16">
+        <v>8</v>
+      </c>
+      <c r="NI16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -82714,8 +84218,29 @@
       <c r="NB17">
         <v>14</v>
       </c>
+      <c r="NC17">
+        <v>14</v>
+      </c>
+      <c r="ND17">
+        <v>14</v>
+      </c>
+      <c r="NE17">
+        <v>14</v>
+      </c>
+      <c r="NF17">
+        <v>14</v>
+      </c>
+      <c r="NG17">
+        <v>14</v>
+      </c>
+      <c r="NH17">
+        <v>14</v>
+      </c>
+      <c r="NI17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -84179,70 +85704,103 @@
         <f t="shared" si="9"/>
         <v>1331</v>
       </c>
+      <c r="NC18" s="6">
+        <f t="shared" ref="NC18:NI18" si="10">SUM(NC2:NC17)</f>
+        <v>1331</v>
+      </c>
+      <c r="ND18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
+      <c r="NE18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
+      <c r="NF18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
+      <c r="NG18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
+      <c r="NH18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
+      <c r="NI18" s="6">
+        <f t="shared" si="10"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="12" priority="245" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="246" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="11" priority="243" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="244" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="10" priority="242" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="243" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV18:NB18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="NC18:NI18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -254,7 +254,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="251">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3065,12 +3075,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NI20"/>
+  <dimension ref="A1:NP20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="MZ1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="NF1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="ND20" sqref="ND20"/>
+      <selection pane="topRight" activeCell="NJ19" sqref="NJ19:NP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3101,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4211,8 +4221,29 @@
       <c r="NI1" s="8">
         <v>44306</v>
       </c>
+      <c r="NJ1" s="8">
+        <v>44307</v>
+      </c>
+      <c r="NK1" s="8">
+        <v>44308</v>
+      </c>
+      <c r="NL1" s="8">
+        <v>44309</v>
+      </c>
+      <c r="NM1" s="8">
+        <v>44310</v>
+      </c>
+      <c r="NN1" s="8">
+        <v>44311</v>
+      </c>
+      <c r="NO1" s="8">
+        <v>44312</v>
+      </c>
+      <c r="NP1" s="8">
+        <v>44313</v>
+      </c>
     </row>
-    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5332,8 +5363,29 @@
       <c r="NI2" s="11">
         <v>40</v>
       </c>
+      <c r="NJ2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NK2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NL2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NM2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NN2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NO2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NP2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6453,8 +6505,29 @@
       <c r="NI3" s="11">
         <v>62</v>
       </c>
+      <c r="NJ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NK3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NL3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NM3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NN3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NO3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NP3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7574,8 +7647,29 @@
       <c r="NI4" s="11">
         <v>170</v>
       </c>
+      <c r="NJ4" s="11">
+        <v>173</v>
+      </c>
+      <c r="NK4" s="11">
+        <v>173</v>
+      </c>
+      <c r="NL4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NM4" s="11">
+        <v>170</v>
+      </c>
+      <c r="NN4" s="11">
+        <v>168</v>
+      </c>
+      <c r="NO4" s="11">
+        <v>172</v>
+      </c>
+      <c r="NP4" s="11">
+        <v>172</v>
+      </c>
     </row>
-    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8695,8 +8789,29 @@
       <c r="NI5" s="11">
         <v>34</v>
       </c>
+      <c r="NJ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NK5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NL5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NM5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NN5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NO5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NP5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -9816,8 +9931,29 @@
       <c r="NI6" s="11">
         <v>144</v>
       </c>
+      <c r="NJ6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NK6" s="11">
+        <v>143</v>
+      </c>
+      <c r="NL6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NM6" s="11">
+        <v>143</v>
+      </c>
+      <c r="NN6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NO6" s="11">
+        <v>144</v>
+      </c>
+      <c r="NP6" s="11">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -10937,8 +11073,29 @@
       <c r="NI7" s="11">
         <v>320</v>
       </c>
+      <c r="NJ7" s="11">
+        <v>320</v>
+      </c>
+      <c r="NK7" s="11">
+        <v>325</v>
+      </c>
+      <c r="NL7" s="11">
+        <v>328</v>
+      </c>
+      <c r="NM7" s="11">
+        <v>330</v>
+      </c>
+      <c r="NN7" s="11">
+        <v>344</v>
+      </c>
+      <c r="NO7" s="11">
+        <v>344</v>
+      </c>
+      <c r="NP7" s="11">
+        <v>344</v>
+      </c>
     </row>
-    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12058,8 +12215,29 @@
       <c r="NI8" s="11">
         <v>2517</v>
       </c>
+      <c r="NJ8" s="11">
+        <v>2530</v>
+      </c>
+      <c r="NK8" s="11">
+        <v>2560</v>
+      </c>
+      <c r="NL8" s="11">
+        <v>2586</v>
+      </c>
+      <c r="NM8" s="11">
+        <v>2583</v>
+      </c>
+      <c r="NN8" s="11">
+        <v>2582</v>
+      </c>
+      <c r="NO8" s="11">
+        <v>2579</v>
+      </c>
+      <c r="NP8" s="11">
+        <v>2590</v>
+      </c>
     </row>
-    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -13179,8 +13357,29 @@
       <c r="NI9" s="11">
         <v>199</v>
       </c>
+      <c r="NJ9" s="11">
+        <v>207</v>
+      </c>
+      <c r="NK9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NL9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NM9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NN9" s="11">
+        <v>207</v>
+      </c>
+      <c r="NO9" s="11">
+        <v>203</v>
+      </c>
+      <c r="NP9" s="11">
+        <v>203</v>
+      </c>
     </row>
-    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -14300,8 +14499,29 @@
       <c r="NI10" s="11">
         <v>163</v>
       </c>
+      <c r="NJ10" s="11">
+        <v>165</v>
+      </c>
+      <c r="NK10" s="11">
+        <v>165</v>
+      </c>
+      <c r="NL10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NM10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NN10" s="11">
+        <v>161</v>
+      </c>
+      <c r="NO10" s="11">
+        <v>162</v>
+      </c>
+      <c r="NP10" s="11">
+        <v>166</v>
+      </c>
     </row>
-    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -15421,8 +15641,29 @@
       <c r="NI11" s="11">
         <v>72</v>
       </c>
+      <c r="NJ11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NK11" s="11">
+        <v>72</v>
+      </c>
+      <c r="NL11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NM11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NN11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NO11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NP11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -16542,8 +16783,29 @@
       <c r="NI12" s="11">
         <v>313</v>
       </c>
+      <c r="NJ12" s="11">
+        <v>312</v>
+      </c>
+      <c r="NK12" s="11">
+        <v>313</v>
+      </c>
+      <c r="NL12" s="11">
+        <v>313</v>
+      </c>
+      <c r="NM12" s="11">
+        <v>313</v>
+      </c>
+      <c r="NN12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NO12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NP12" s="11">
+        <v>315</v>
+      </c>
     </row>
-    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -17663,8 +17925,29 @@
       <c r="NI13" s="11">
         <v>132</v>
       </c>
+      <c r="NJ13" s="11">
+        <v>136</v>
+      </c>
+      <c r="NK13" s="11">
+        <v>141</v>
+      </c>
+      <c r="NL13" s="11">
+        <v>140</v>
+      </c>
+      <c r="NM13" s="11">
+        <v>141</v>
+      </c>
+      <c r="NN13" s="11">
+        <v>142</v>
+      </c>
+      <c r="NO13" s="11">
+        <v>143</v>
+      </c>
+      <c r="NP13" s="11">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -18784,8 +19067,29 @@
       <c r="NI14" s="11">
         <v>46</v>
       </c>
+      <c r="NJ14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NK14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NL14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NM14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NN14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NO14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NP14" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -19905,8 +20209,29 @@
       <c r="NI15" s="11">
         <v>128</v>
       </c>
+      <c r="NJ15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NK15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NL15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NM15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NN15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NO15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NP15" s="11">
+        <v>129</v>
+      </c>
     </row>
-    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -21026,8 +21351,29 @@
       <c r="NI16" s="11">
         <v>10</v>
       </c>
+      <c r="NJ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NK16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NL16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NM16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NN16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NO16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NP16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -22147,8 +22493,29 @@
       <c r="NI17" s="11">
         <v>40</v>
       </c>
+      <c r="NJ17" s="11">
+        <v>40</v>
+      </c>
+      <c r="NK17" s="11">
+        <v>40</v>
+      </c>
+      <c r="NL17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NM17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NN17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NO17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NP17" s="11">
+        <v>42</v>
+      </c>
     </row>
-    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -23308,7 +23675,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:NI18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:NP18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -23367,13 +23734,41 @@
         <f t="shared" si="7"/>
         <v>4390</v>
       </c>
+      <c r="NJ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4420</v>
+      </c>
+      <c r="NK18" s="6">
+        <f t="shared" si="7"/>
+        <v>4459</v>
+      </c>
+      <c r="NL18" s="6">
+        <f t="shared" si="7"/>
+        <v>4491</v>
+      </c>
+      <c r="NM18" s="6">
+        <f t="shared" si="7"/>
+        <v>4488</v>
+      </c>
+      <c r="NN18" s="6">
+        <f t="shared" si="7"/>
+        <v>4499</v>
+      </c>
+      <c r="NO18" s="6">
+        <f t="shared" si="7"/>
+        <v>4495</v>
+      </c>
+      <c r="NP18" s="6">
+        <f t="shared" si="7"/>
+        <v>4512</v>
+      </c>
     </row>
-    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -23391,12 +23786,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NI34"/>
+  <dimension ref="A1:NP34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NB1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="NG1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NG21" sqref="NG21"/>
+      <selection pane="topRight" activeCell="NJ19" sqref="NJ19:NP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23416,7 +23811,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -24536,8 +24931,29 @@
       <c r="NI1" s="8">
         <v>44306</v>
       </c>
+      <c r="NJ1" s="8">
+        <v>44307</v>
+      </c>
+      <c r="NK1" s="8">
+        <v>44308</v>
+      </c>
+      <c r="NL1" s="8">
+        <v>44309</v>
+      </c>
+      <c r="NM1" s="8">
+        <v>44310</v>
+      </c>
+      <c r="NN1" s="8">
+        <v>44311</v>
+      </c>
+      <c r="NO1" s="8">
+        <v>44312</v>
+      </c>
+      <c r="NP1" s="8">
+        <v>44313</v>
+      </c>
     </row>
-    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -25657,8 +26073,29 @@
       <c r="NI2">
         <v>30</v>
       </c>
+      <c r="NJ2">
+        <v>28</v>
+      </c>
+      <c r="NK2">
+        <v>29</v>
+      </c>
+      <c r="NL2">
+        <v>30</v>
+      </c>
+      <c r="NM2">
+        <v>32</v>
+      </c>
+      <c r="NN2">
+        <v>31</v>
+      </c>
+      <c r="NO2">
+        <v>33</v>
+      </c>
+      <c r="NP2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -26778,8 +27215,29 @@
       <c r="NI3">
         <v>50</v>
       </c>
+      <c r="NJ3">
+        <v>56</v>
+      </c>
+      <c r="NK3">
+        <v>56</v>
+      </c>
+      <c r="NL3">
+        <v>59</v>
+      </c>
+      <c r="NM3">
+        <v>58</v>
+      </c>
+      <c r="NN3">
+        <v>58</v>
+      </c>
+      <c r="NO3">
+        <v>56</v>
+      </c>
+      <c r="NP3">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -27899,8 +28357,29 @@
       <c r="NI4">
         <v>106</v>
       </c>
+      <c r="NJ4">
+        <v>103</v>
+      </c>
+      <c r="NK4">
+        <v>105</v>
+      </c>
+      <c r="NL4">
+        <v>99</v>
+      </c>
+      <c r="NM4">
+        <v>97</v>
+      </c>
+      <c r="NN4">
+        <v>92</v>
+      </c>
+      <c r="NO4">
+        <v>94</v>
+      </c>
+      <c r="NP4">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -29020,8 +29499,29 @@
       <c r="NI5">
         <v>31</v>
       </c>
+      <c r="NJ5">
+        <v>30</v>
+      </c>
+      <c r="NK5">
+        <v>28</v>
+      </c>
+      <c r="NL5">
+        <v>28</v>
+      </c>
+      <c r="NM5">
+        <v>31</v>
+      </c>
+      <c r="NN5">
+        <v>31</v>
+      </c>
+      <c r="NO5">
+        <v>30</v>
+      </c>
+      <c r="NP5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -30141,8 +30641,29 @@
       <c r="NI6">
         <v>100</v>
       </c>
+      <c r="NJ6">
+        <v>103</v>
+      </c>
+      <c r="NK6">
+        <v>100</v>
+      </c>
+      <c r="NL6">
+        <v>99</v>
+      </c>
+      <c r="NM6">
+        <v>100</v>
+      </c>
+      <c r="NN6">
+        <v>100</v>
+      </c>
+      <c r="NO6">
+        <v>102</v>
+      </c>
+      <c r="NP6">
+        <v>106</v>
+      </c>
     </row>
-    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -31262,8 +31783,29 @@
       <c r="NI7">
         <v>262</v>
       </c>
+      <c r="NJ7">
+        <v>260</v>
+      </c>
+      <c r="NK7">
+        <v>273</v>
+      </c>
+      <c r="NL7">
+        <v>271</v>
+      </c>
+      <c r="NM7">
+        <v>266</v>
+      </c>
+      <c r="NN7">
+        <v>274</v>
+      </c>
+      <c r="NO7">
+        <v>278</v>
+      </c>
+      <c r="NP7">
+        <v>272</v>
+      </c>
     </row>
-    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -32383,8 +32925,29 @@
       <c r="NI8">
         <v>1958</v>
       </c>
+      <c r="NJ8">
+        <v>1984</v>
+      </c>
+      <c r="NK8">
+        <v>1939</v>
+      </c>
+      <c r="NL8">
+        <v>1969</v>
+      </c>
+      <c r="NM8">
+        <v>1963</v>
+      </c>
+      <c r="NN8">
+        <v>1937</v>
+      </c>
+      <c r="NO8">
+        <v>1942</v>
+      </c>
+      <c r="NP8">
+        <v>1987</v>
+      </c>
     </row>
-    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -33504,8 +34067,29 @@
       <c r="NI9">
         <v>156</v>
       </c>
+      <c r="NJ9">
+        <v>157</v>
+      </c>
+      <c r="NK9">
+        <v>156</v>
+      </c>
+      <c r="NL9">
+        <v>157</v>
+      </c>
+      <c r="NM9">
+        <v>153</v>
+      </c>
+      <c r="NN9">
+        <v>156</v>
+      </c>
+      <c r="NO9">
+        <v>160</v>
+      </c>
+      <c r="NP9">
+        <v>156</v>
+      </c>
     </row>
-    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -34625,8 +35209,29 @@
       <c r="NI10">
         <v>143</v>
       </c>
+      <c r="NJ10">
+        <v>144</v>
+      </c>
+      <c r="NK10">
+        <v>146</v>
+      </c>
+      <c r="NL10">
+        <v>144</v>
+      </c>
+      <c r="NM10">
+        <v>137</v>
+      </c>
+      <c r="NN10">
+        <v>137</v>
+      </c>
+      <c r="NO10">
+        <v>134</v>
+      </c>
+      <c r="NP10">
+        <v>136</v>
+      </c>
     </row>
-    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -35746,8 +36351,29 @@
       <c r="NI11">
         <v>48</v>
       </c>
+      <c r="NJ11">
+        <v>44</v>
+      </c>
+      <c r="NK11">
+        <v>49</v>
+      </c>
+      <c r="NL11">
+        <v>49</v>
+      </c>
+      <c r="NM11">
+        <v>51</v>
+      </c>
+      <c r="NN11">
+        <v>49</v>
+      </c>
+      <c r="NO11">
+        <v>54</v>
+      </c>
+      <c r="NP11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -36867,8 +37493,29 @@
       <c r="NI12">
         <v>238</v>
       </c>
+      <c r="NJ12">
+        <v>235</v>
+      </c>
+      <c r="NK12">
+        <v>233</v>
+      </c>
+      <c r="NL12">
+        <v>232</v>
+      </c>
+      <c r="NM12">
+        <v>229</v>
+      </c>
+      <c r="NN12">
+        <v>226</v>
+      </c>
+      <c r="NO12">
+        <v>224</v>
+      </c>
+      <c r="NP12">
+        <v>226</v>
+      </c>
     </row>
-    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -37988,8 +38635,29 @@
       <c r="NI13">
         <v>107</v>
       </c>
+      <c r="NJ13">
+        <v>111</v>
+      </c>
+      <c r="NK13">
+        <v>116</v>
+      </c>
+      <c r="NL13">
+        <v>113</v>
+      </c>
+      <c r="NM13">
+        <v>114</v>
+      </c>
+      <c r="NN13">
+        <v>117</v>
+      </c>
+      <c r="NO13">
+        <v>110</v>
+      </c>
+      <c r="NP13">
+        <v>113</v>
+      </c>
     </row>
-    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -39109,8 +39777,29 @@
       <c r="NI14">
         <v>30</v>
       </c>
+      <c r="NJ14">
+        <v>30</v>
+      </c>
+      <c r="NK14">
+        <v>29</v>
+      </c>
+      <c r="NL14">
+        <v>28</v>
+      </c>
+      <c r="NM14">
+        <v>30</v>
+      </c>
+      <c r="NN14">
+        <v>29</v>
+      </c>
+      <c r="NO14">
+        <v>29</v>
+      </c>
+      <c r="NP14">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -40230,8 +40919,29 @@
       <c r="NI15">
         <v>90</v>
       </c>
+      <c r="NJ15">
+        <v>92</v>
+      </c>
+      <c r="NK15">
+        <v>92</v>
+      </c>
+      <c r="NL15">
+        <v>88</v>
+      </c>
+      <c r="NM15">
+        <v>86</v>
+      </c>
+      <c r="NN15">
+        <v>86</v>
+      </c>
+      <c r="NO15">
+        <v>88</v>
+      </c>
+      <c r="NP15">
+        <v>87</v>
+      </c>
     </row>
-    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -41351,8 +42061,29 @@
       <c r="NI16">
         <v>7</v>
       </c>
+      <c r="NJ16">
+        <v>7</v>
+      </c>
+      <c r="NK16">
+        <v>6</v>
+      </c>
+      <c r="NL16">
+        <v>6</v>
+      </c>
+      <c r="NM16">
+        <v>7</v>
+      </c>
+      <c r="NN16">
+        <v>8</v>
+      </c>
+      <c r="NO16">
+        <v>8</v>
+      </c>
+      <c r="NP16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -42472,8 +43203,29 @@
       <c r="NI17">
         <v>16</v>
       </c>
+      <c r="NJ17">
+        <v>17</v>
+      </c>
+      <c r="NK17">
+        <v>18</v>
+      </c>
+      <c r="NL17">
+        <v>19</v>
+      </c>
+      <c r="NM17">
+        <v>20</v>
+      </c>
+      <c r="NN17">
+        <v>22</v>
+      </c>
+      <c r="NO17">
+        <v>21</v>
+      </c>
+      <c r="NP17">
+        <v>24</v>
+      </c>
     </row>
-    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -43610,7 +44362,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:NI18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:NP18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -43677,50 +44429,78 @@
         <f t="shared" si="1"/>
         <v>3372</v>
       </c>
+      <c r="NJ18" s="6">
+        <f t="shared" si="1"/>
+        <v>3401</v>
+      </c>
+      <c r="NK18" s="6">
+        <f t="shared" si="1"/>
+        <v>3375</v>
+      </c>
+      <c r="NL18" s="6">
+        <f t="shared" si="1"/>
+        <v>3391</v>
+      </c>
+      <c r="NM18" s="6">
+        <f t="shared" si="1"/>
+        <v>3374</v>
+      </c>
+      <c r="NN18" s="6">
+        <f t="shared" si="1"/>
+        <v>3353</v>
+      </c>
+      <c r="NO18" s="6">
+        <f t="shared" si="1"/>
+        <v>3363</v>
+      </c>
+      <c r="NP18" s="6">
+        <f t="shared" si="1"/>
+        <v>3406</v>
+      </c>
     </row>
-    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:380" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:380" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:380" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -43740,12 +44520,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:NI34"/>
+  <dimension ref="A1:NP34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NG1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="NK14" sqref="NJ14:NK14"/>
+      <selection pane="topRight" activeCell="NQ6" sqref="NQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43762,7 +44542,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -44882,8 +45662,29 @@
       <c r="NI1" s="8">
         <v>44306</v>
       </c>
+      <c r="NJ1" s="8">
+        <v>44307</v>
+      </c>
+      <c r="NK1" s="8">
+        <v>44308</v>
+      </c>
+      <c r="NL1" s="8">
+        <v>44309</v>
+      </c>
+      <c r="NM1" s="8">
+        <v>44310</v>
+      </c>
+      <c r="NN1" s="8">
+        <v>44311</v>
+      </c>
+      <c r="NO1" s="8">
+        <v>44312</v>
+      </c>
+      <c r="NP1" s="8">
+        <v>44313</v>
+      </c>
     </row>
-    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -46003,8 +46804,29 @@
       <c r="NI2">
         <v>6</v>
       </c>
+      <c r="NJ2">
+        <v>5</v>
+      </c>
+      <c r="NK2">
+        <v>5</v>
+      </c>
+      <c r="NL2">
+        <v>7</v>
+      </c>
+      <c r="NM2">
+        <v>4</v>
+      </c>
+      <c r="NN2">
+        <v>4</v>
+      </c>
+      <c r="NO2">
+        <v>4</v>
+      </c>
+      <c r="NP2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -47124,8 +47946,29 @@
       <c r="NI3">
         <v>2</v>
       </c>
+      <c r="NJ3">
+        <v>2</v>
+      </c>
+      <c r="NK3">
+        <v>3</v>
+      </c>
+      <c r="NL3">
+        <v>2</v>
+      </c>
+      <c r="NM3">
+        <v>2</v>
+      </c>
+      <c r="NN3">
+        <v>2</v>
+      </c>
+      <c r="NO3">
+        <v>2</v>
+      </c>
+      <c r="NP3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -48245,8 +49088,29 @@
       <c r="NI4">
         <v>58</v>
       </c>
+      <c r="NJ4">
+        <v>55</v>
+      </c>
+      <c r="NK4">
+        <v>54</v>
+      </c>
+      <c r="NL4">
+        <v>57</v>
+      </c>
+      <c r="NM4">
+        <v>51</v>
+      </c>
+      <c r="NN4">
+        <v>55</v>
+      </c>
+      <c r="NO4">
+        <v>62</v>
+      </c>
+      <c r="NP4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -49366,8 +50230,29 @@
       <c r="NI5">
         <v>3</v>
       </c>
+      <c r="NJ5">
+        <v>3</v>
+      </c>
+      <c r="NK5">
+        <v>3</v>
+      </c>
+      <c r="NL5">
+        <v>3</v>
+      </c>
+      <c r="NM5">
+        <v>2</v>
+      </c>
+      <c r="NN5">
+        <v>2</v>
+      </c>
+      <c r="NO5">
+        <v>2</v>
+      </c>
+      <c r="NP5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -50487,8 +51372,29 @@
       <c r="NI6">
         <v>37</v>
       </c>
+      <c r="NJ6">
+        <v>30</v>
+      </c>
+      <c r="NK6">
+        <v>27</v>
+      </c>
+      <c r="NL6">
+        <v>28</v>
+      </c>
+      <c r="NM6">
+        <v>30</v>
+      </c>
+      <c r="NN6">
+        <v>28</v>
+      </c>
+      <c r="NO6">
+        <v>30</v>
+      </c>
+      <c r="NP6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -51608,8 +52514,29 @@
       <c r="NI7">
         <v>49</v>
       </c>
+      <c r="NJ7">
+        <v>53</v>
+      </c>
+      <c r="NK7">
+        <v>46</v>
+      </c>
+      <c r="NL7">
+        <v>47</v>
+      </c>
+      <c r="NM7">
+        <v>49</v>
+      </c>
+      <c r="NN7">
+        <v>64</v>
+      </c>
+      <c r="NO7">
+        <v>60</v>
+      </c>
+      <c r="NP7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -52729,8 +53656,29 @@
       <c r="NI8">
         <v>489</v>
       </c>
+      <c r="NJ8">
+        <v>463</v>
+      </c>
+      <c r="NK8">
+        <v>533</v>
+      </c>
+      <c r="NL8">
+        <v>523</v>
+      </c>
+      <c r="NM8">
+        <v>531</v>
+      </c>
+      <c r="NN8">
+        <v>537</v>
+      </c>
+      <c r="NO8">
+        <v>550</v>
+      </c>
+      <c r="NP8">
+        <v>521</v>
+      </c>
     </row>
-    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -53850,8 +54798,29 @@
       <c r="NI9">
         <v>29</v>
       </c>
+      <c r="NJ9">
+        <v>27</v>
+      </c>
+      <c r="NK9">
+        <v>28</v>
+      </c>
+      <c r="NL9">
+        <v>26</v>
+      </c>
+      <c r="NM9">
+        <v>31</v>
+      </c>
+      <c r="NN9">
+        <v>24</v>
+      </c>
+      <c r="NO9">
+        <v>22</v>
+      </c>
+      <c r="NP9">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -54971,8 +55940,29 @@
       <c r="NI10">
         <v>17</v>
       </c>
+      <c r="NJ10">
+        <v>17</v>
+      </c>
+      <c r="NK10">
+        <v>17</v>
+      </c>
+      <c r="NL10">
+        <v>16</v>
+      </c>
+      <c r="NM10">
+        <v>19</v>
+      </c>
+      <c r="NN10">
+        <v>22</v>
+      </c>
+      <c r="NO10">
+        <v>21</v>
+      </c>
+      <c r="NP10">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -56092,8 +57082,29 @@
       <c r="NI11">
         <v>16</v>
       </c>
+      <c r="NJ11">
+        <v>17</v>
+      </c>
+      <c r="NK11">
+        <v>14</v>
+      </c>
+      <c r="NL11">
+        <v>15</v>
+      </c>
+      <c r="NM11">
+        <v>16</v>
+      </c>
+      <c r="NN11">
+        <v>16</v>
+      </c>
+      <c r="NO11">
+        <v>15</v>
+      </c>
+      <c r="NP11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -57213,8 +58224,29 @@
       <c r="NI12">
         <v>56</v>
       </c>
+      <c r="NJ12">
+        <v>59</v>
+      </c>
+      <c r="NK12">
+        <v>62</v>
+      </c>
+      <c r="NL12">
+        <v>64</v>
+      </c>
+      <c r="NM12">
+        <v>65</v>
+      </c>
+      <c r="NN12">
+        <v>67</v>
+      </c>
+      <c r="NO12">
+        <v>65</v>
+      </c>
+      <c r="NP12">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -58334,8 +59366,29 @@
       <c r="NI13">
         <v>22</v>
       </c>
+      <c r="NJ13">
+        <v>21</v>
+      </c>
+      <c r="NK13">
+        <v>19</v>
+      </c>
+      <c r="NL13">
+        <v>24</v>
+      </c>
+      <c r="NM13">
+        <v>23</v>
+      </c>
+      <c r="NN13">
+        <v>20</v>
+      </c>
+      <c r="NO13">
+        <v>26</v>
+      </c>
+      <c r="NP13">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -59455,8 +60508,29 @@
       <c r="NI14">
         <v>12</v>
       </c>
+      <c r="NJ14">
+        <v>14</v>
+      </c>
+      <c r="NK14">
+        <v>13</v>
+      </c>
+      <c r="NL14">
+        <v>15</v>
+      </c>
+      <c r="NM14">
+        <v>10</v>
+      </c>
+      <c r="NN14">
+        <v>11</v>
+      </c>
+      <c r="NO14">
+        <v>11</v>
+      </c>
+      <c r="NP14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -60576,8 +61650,29 @@
       <c r="NI15">
         <v>28</v>
       </c>
+      <c r="NJ15">
+        <v>27</v>
+      </c>
+      <c r="NK15">
+        <v>30</v>
+      </c>
+      <c r="NL15">
+        <v>28</v>
+      </c>
+      <c r="NM15">
+        <v>32</v>
+      </c>
+      <c r="NN15">
+        <v>36</v>
+      </c>
+      <c r="NO15">
+        <v>34</v>
+      </c>
+      <c r="NP15">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -61697,8 +62792,29 @@
       <c r="NI16">
         <v>3</v>
       </c>
+      <c r="NJ16">
+        <v>0</v>
+      </c>
+      <c r="NK16">
+        <v>4</v>
+      </c>
+      <c r="NL16">
+        <v>4</v>
+      </c>
+      <c r="NM16">
+        <v>3</v>
+      </c>
+      <c r="NN16">
+        <v>2</v>
+      </c>
+      <c r="NO16">
+        <v>2</v>
+      </c>
+      <c r="NP16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -62818,8 +63934,29 @@
       <c r="NI17">
         <v>15</v>
       </c>
+      <c r="NJ17">
+        <v>13</v>
+      </c>
+      <c r="NK17">
+        <v>12</v>
+      </c>
+      <c r="NL17">
+        <v>15</v>
+      </c>
+      <c r="NM17">
+        <v>14</v>
+      </c>
+      <c r="NN17">
+        <v>12</v>
+      </c>
+      <c r="NO17">
+        <v>9</v>
+      </c>
+      <c r="NP17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -63939,48 +65076,69 @@
       <c r="NI18" s="7">
         <v>842</v>
       </c>
+      <c r="NJ18" s="7">
+        <v>806</v>
+      </c>
+      <c r="NK18" s="7">
+        <v>870</v>
+      </c>
+      <c r="NL18" s="7">
+        <v>874</v>
+      </c>
+      <c r="NM18" s="7">
+        <v>882</v>
+      </c>
+      <c r="NN18" s="7">
+        <v>902</v>
+      </c>
+      <c r="NO18" s="7">
+        <v>915</v>
+      </c>
+      <c r="NP18" s="7">
+        <v>889</v>
+      </c>
     </row>
-    <row r="19" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:380" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -63991,1177 +65149,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="249" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="248" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="247" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="246" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="245" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="244" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="243" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="242" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="241" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="240" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="239" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="238" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="237" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="236" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="235" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="234" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="233" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="232" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="231" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="230" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="229" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="228" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="227" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="226" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="225" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="224" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="223" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="222" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="221" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="220" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="219" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="218" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="217" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="216" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="215" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="214" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="213" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="212" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="211" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="210" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="209" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="208" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="207" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="206" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="205" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="204" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="203" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="202" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="201" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="200" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="199" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="198" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="197" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="196" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="195" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="194" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="193" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="192" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="191" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="190" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="189" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="188" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="187" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="186" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="185" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="184" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="183" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="182" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="181" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="180" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="179" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="178" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="177" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="176" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="175" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="174" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="173" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="172" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="171" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="170" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="169" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="168" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="167" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="166" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="165" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="164" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="163" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="162" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="161" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="160" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="159" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="158" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="157" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="156" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="155" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="154" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="153" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="152" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="151" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="150" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="149" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="148" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="147" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="146" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="145" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="144" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="143" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="142" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="141" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="140" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="139" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="138" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="137" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="136" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="135" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="134" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="133" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="132" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="131" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="130" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="129" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="128" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="127" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="126" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="125" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="124" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="123" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="122" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="121" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="120" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="119" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="118" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="117" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="116" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="115" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="114" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="113" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="112" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="111" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="110" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="109" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="108" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="107" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="106" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="105" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="104" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="103" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="102" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="101" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="100" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="99" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="98" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="97" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="96" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="95" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="94" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="93" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="92" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="91" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="90" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="89" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="87" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="86" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="85" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="84" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="83" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="82" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="81" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="80" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="79" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="78" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="76" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="75" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="74" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="71" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="69" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="68" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="67" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="66" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="65" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="64" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="62" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="60" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="58" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="54" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65172,10 +66330,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NI18"/>
+  <dimension ref="A1:NP18"/>
   <sheetViews>
-    <sheetView topLeftCell="MU1" workbookViewId="0">
-      <selection activeCell="NC22" sqref="NC22"/>
+    <sheetView topLeftCell="NI1" workbookViewId="0">
+      <selection activeCell="NJ2" sqref="NJ2:NP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65183,7 +66341,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -66303,8 +67461,29 @@
       <c r="NI1" s="8">
         <v>44306</v>
       </c>
+      <c r="NJ1" s="8">
+        <v>44307</v>
+      </c>
+      <c r="NK1" s="8">
+        <v>44308</v>
+      </c>
+      <c r="NL1" s="8">
+        <v>44309</v>
+      </c>
+      <c r="NM1" s="8">
+        <v>44310</v>
+      </c>
+      <c r="NN1" s="8">
+        <v>44311</v>
+      </c>
+      <c r="NO1" s="8">
+        <v>44312</v>
+      </c>
+      <c r="NP1" s="8">
+        <v>44313</v>
+      </c>
     </row>
-    <row r="2" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -67424,8 +68603,29 @@
       <c r="NI2">
         <v>9</v>
       </c>
+      <c r="NJ2">
+        <v>9</v>
+      </c>
+      <c r="NK2">
+        <v>9</v>
+      </c>
+      <c r="NL2">
+        <v>9</v>
+      </c>
+      <c r="NM2">
+        <v>9</v>
+      </c>
+      <c r="NN2">
+        <v>9</v>
+      </c>
+      <c r="NO2">
+        <v>9</v>
+      </c>
+      <c r="NP2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -68545,8 +69745,29 @@
       <c r="NI3">
         <v>12</v>
       </c>
+      <c r="NJ3">
+        <v>12</v>
+      </c>
+      <c r="NK3">
+        <v>12</v>
+      </c>
+      <c r="NL3">
+        <v>12</v>
+      </c>
+      <c r="NM3">
+        <v>12</v>
+      </c>
+      <c r="NN3">
+        <v>12</v>
+      </c>
+      <c r="NO3">
+        <v>12</v>
+      </c>
+      <c r="NP3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -69666,8 +70887,29 @@
       <c r="NI4">
         <v>48</v>
       </c>
+      <c r="NJ4">
+        <v>48</v>
+      </c>
+      <c r="NK4">
+        <v>48</v>
+      </c>
+      <c r="NL4">
+        <v>48</v>
+      </c>
+      <c r="NM4">
+        <v>48</v>
+      </c>
+      <c r="NN4">
+        <v>48</v>
+      </c>
+      <c r="NO4">
+        <v>48</v>
+      </c>
+      <c r="NP4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -70787,8 +72029,29 @@
       <c r="NI5">
         <v>11</v>
       </c>
+      <c r="NJ5">
+        <v>11</v>
+      </c>
+      <c r="NK5">
+        <v>11</v>
+      </c>
+      <c r="NL5">
+        <v>11</v>
+      </c>
+      <c r="NM5">
+        <v>11</v>
+      </c>
+      <c r="NN5">
+        <v>11</v>
+      </c>
+      <c r="NO5">
+        <v>11</v>
+      </c>
+      <c r="NP5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -71908,8 +73171,29 @@
       <c r="NI6">
         <v>29</v>
       </c>
+      <c r="NJ6">
+        <v>29</v>
+      </c>
+      <c r="NK6">
+        <v>29</v>
+      </c>
+      <c r="NL6">
+        <v>29</v>
+      </c>
+      <c r="NM6">
+        <v>29</v>
+      </c>
+      <c r="NN6">
+        <v>29</v>
+      </c>
+      <c r="NO6">
+        <v>29</v>
+      </c>
+      <c r="NP6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -73029,8 +74313,29 @@
       <c r="NI7">
         <v>125</v>
       </c>
+      <c r="NJ7">
+        <v>125</v>
+      </c>
+      <c r="NK7">
+        <v>125</v>
+      </c>
+      <c r="NL7">
+        <v>125</v>
+      </c>
+      <c r="NM7">
+        <v>125</v>
+      </c>
+      <c r="NN7">
+        <v>125</v>
+      </c>
+      <c r="NO7">
+        <v>125</v>
+      </c>
+      <c r="NP7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -74150,8 +75455,29 @@
       <c r="NI8">
         <v>745</v>
       </c>
+      <c r="NJ8">
+        <v>745</v>
+      </c>
+      <c r="NK8">
+        <v>745</v>
+      </c>
+      <c r="NL8">
+        <v>745</v>
+      </c>
+      <c r="NM8">
+        <v>745</v>
+      </c>
+      <c r="NN8">
+        <v>745</v>
+      </c>
+      <c r="NO8">
+        <v>745</v>
+      </c>
+      <c r="NP8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -75271,8 +76597,29 @@
       <c r="NI9">
         <v>61</v>
       </c>
+      <c r="NJ9">
+        <v>61</v>
+      </c>
+      <c r="NK9">
+        <v>61</v>
+      </c>
+      <c r="NL9">
+        <v>61</v>
+      </c>
+      <c r="NM9">
+        <v>61</v>
+      </c>
+      <c r="NN9">
+        <v>61</v>
+      </c>
+      <c r="NO9">
+        <v>61</v>
+      </c>
+      <c r="NP9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -76392,8 +77739,29 @@
       <c r="NI10">
         <v>45</v>
       </c>
+      <c r="NJ10">
+        <v>45</v>
+      </c>
+      <c r="NK10">
+        <v>45</v>
+      </c>
+      <c r="NL10">
+        <v>45</v>
+      </c>
+      <c r="NM10">
+        <v>45</v>
+      </c>
+      <c r="NN10">
+        <v>45</v>
+      </c>
+      <c r="NO10">
+        <v>45</v>
+      </c>
+      <c r="NP10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -77513,8 +78881,29 @@
       <c r="NI11">
         <v>16</v>
       </c>
+      <c r="NJ11">
+        <v>16</v>
+      </c>
+      <c r="NK11">
+        <v>16</v>
+      </c>
+      <c r="NL11">
+        <v>16</v>
+      </c>
+      <c r="NM11">
+        <v>16</v>
+      </c>
+      <c r="NN11">
+        <v>16</v>
+      </c>
+      <c r="NO11">
+        <v>16</v>
+      </c>
+      <c r="NP11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -78634,8 +80023,29 @@
       <c r="NI12">
         <v>97</v>
       </c>
+      <c r="NJ12">
+        <v>97</v>
+      </c>
+      <c r="NK12">
+        <v>97</v>
+      </c>
+      <c r="NL12">
+        <v>97</v>
+      </c>
+      <c r="NM12">
+        <v>97</v>
+      </c>
+      <c r="NN12">
+        <v>97</v>
+      </c>
+      <c r="NO12">
+        <v>97</v>
+      </c>
+      <c r="NP12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -79755,8 +81165,29 @@
       <c r="NI13">
         <v>49</v>
       </c>
+      <c r="NJ13">
+        <v>49</v>
+      </c>
+      <c r="NK13">
+        <v>49</v>
+      </c>
+      <c r="NL13">
+        <v>49</v>
+      </c>
+      <c r="NM13">
+        <v>49</v>
+      </c>
+      <c r="NN13">
+        <v>49</v>
+      </c>
+      <c r="NO13">
+        <v>49</v>
+      </c>
+      <c r="NP13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -80876,8 +82307,29 @@
       <c r="NI14">
         <v>13</v>
       </c>
+      <c r="NJ14">
+        <v>13</v>
+      </c>
+      <c r="NK14">
+        <v>13</v>
+      </c>
+      <c r="NL14">
+        <v>13</v>
+      </c>
+      <c r="NM14">
+        <v>13</v>
+      </c>
+      <c r="NN14">
+        <v>13</v>
+      </c>
+      <c r="NO14">
+        <v>13</v>
+      </c>
+      <c r="NP14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -81997,8 +83449,29 @@
       <c r="NI15">
         <v>49</v>
       </c>
+      <c r="NJ15">
+        <v>49</v>
+      </c>
+      <c r="NK15">
+        <v>49</v>
+      </c>
+      <c r="NL15">
+        <v>49</v>
+      </c>
+      <c r="NM15">
+        <v>49</v>
+      </c>
+      <c r="NN15">
+        <v>49</v>
+      </c>
+      <c r="NO15">
+        <v>49</v>
+      </c>
+      <c r="NP15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -83118,8 +84591,29 @@
       <c r="NI16">
         <v>8</v>
       </c>
+      <c r="NJ16">
+        <v>8</v>
+      </c>
+      <c r="NK16">
+        <v>8</v>
+      </c>
+      <c r="NL16">
+        <v>8</v>
+      </c>
+      <c r="NM16">
+        <v>8</v>
+      </c>
+      <c r="NN16">
+        <v>8</v>
+      </c>
+      <c r="NO16">
+        <v>8</v>
+      </c>
+      <c r="NP16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -84239,8 +85733,29 @@
       <c r="NI17">
         <v>14</v>
       </c>
+      <c r="NJ17">
+        <v>14</v>
+      </c>
+      <c r="NK17">
+        <v>14</v>
+      </c>
+      <c r="NL17">
+        <v>14</v>
+      </c>
+      <c r="NM17">
+        <v>14</v>
+      </c>
+      <c r="NN17">
+        <v>14</v>
+      </c>
+      <c r="NO17">
+        <v>14</v>
+      </c>
+      <c r="NP17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -85732,74 +87247,107 @@
         <f t="shared" si="10"/>
         <v>1331</v>
       </c>
+      <c r="NJ18" s="6">
+        <f t="shared" ref="NJ18:NP18" si="11">SUM(NJ2:NJ17)</f>
+        <v>1331</v>
+      </c>
+      <c r="NK18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
+      <c r="NL18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
+      <c r="NM18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
+      <c r="NN18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
+      <c r="NO18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
+      <c r="NP18" s="6">
+        <f t="shared" si="11"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="14" priority="246" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="247" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="14" priority="245" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="13" priority="244" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="12" priority="243" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -157,9 +157,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -208,12 +210,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,8 +251,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,12 +3080,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NP20"/>
+  <dimension ref="A1:NW20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NF1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NN1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NJ19" sqref="NJ19:NP19"/>
+      <selection pane="topRight" activeCell="NQ19" sqref="NQ19:NW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3106,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4242,8 +4247,29 @@
       <c r="NP1" s="8">
         <v>44313</v>
       </c>
+      <c r="NQ1" s="8">
+        <v>44314</v>
+      </c>
+      <c r="NR1" s="8">
+        <v>44315</v>
+      </c>
+      <c r="NS1" s="8">
+        <v>44316</v>
+      </c>
+      <c r="NT1" s="8">
+        <v>44317</v>
+      </c>
+      <c r="NU1" s="8">
+        <v>44318</v>
+      </c>
+      <c r="NV1" s="8">
+        <v>44319</v>
+      </c>
+      <c r="NW1" s="8">
+        <v>44320</v>
+      </c>
     </row>
-    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5384,8 +5410,29 @@
       <c r="NP2" s="11">
         <v>40</v>
       </c>
+      <c r="NQ2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NR2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NS2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NT2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NU2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NV2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NW2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6526,8 +6573,29 @@
       <c r="NP3" s="11">
         <v>62</v>
       </c>
+      <c r="NQ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NR3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NS3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NT3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NU3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NV3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NW3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7668,8 +7736,29 @@
       <c r="NP4" s="11">
         <v>172</v>
       </c>
+      <c r="NQ4" s="11">
+        <v>173</v>
+      </c>
+      <c r="NR4" s="11">
+        <v>173</v>
+      </c>
+      <c r="NS4" s="11">
+        <v>173</v>
+      </c>
+      <c r="NT4" s="11">
+        <v>170</v>
+      </c>
+      <c r="NU4" s="11">
+        <v>170</v>
+      </c>
+      <c r="NV4" s="11">
+        <v>170</v>
+      </c>
+      <c r="NW4" s="11">
+        <v>168</v>
+      </c>
     </row>
-    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8810,8 +8899,29 @@
       <c r="NP5" s="11">
         <v>34</v>
       </c>
+      <c r="NQ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NR5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NS5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NT5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NU5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NV5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NW5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -9952,8 +10062,29 @@
       <c r="NP6" s="11">
         <v>144</v>
       </c>
+      <c r="NQ6" s="11">
+        <v>143</v>
+      </c>
+      <c r="NR6" s="11">
+        <v>142</v>
+      </c>
+      <c r="NS6" s="11">
+        <v>143</v>
+      </c>
+      <c r="NT6" s="11">
+        <v>140</v>
+      </c>
+      <c r="NU6" s="11">
+        <v>140</v>
+      </c>
+      <c r="NV6" s="11">
+        <v>140</v>
+      </c>
+      <c r="NW6" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11094,8 +11225,29 @@
       <c r="NP7" s="11">
         <v>344</v>
       </c>
+      <c r="NQ7" s="11">
+        <v>345</v>
+      </c>
+      <c r="NR7" s="11">
+        <v>345</v>
+      </c>
+      <c r="NS7" s="11">
+        <v>345</v>
+      </c>
+      <c r="NT7" s="11">
+        <v>345</v>
+      </c>
+      <c r="NU7" s="11">
+        <v>345</v>
+      </c>
+      <c r="NV7" s="11">
+        <v>344</v>
+      </c>
+      <c r="NW7" s="11">
+        <v>345</v>
+      </c>
     </row>
-    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12236,8 +12388,29 @@
       <c r="NP8" s="11">
         <v>2590</v>
       </c>
+      <c r="NQ8" s="11">
+        <v>2592</v>
+      </c>
+      <c r="NR8" s="11">
+        <v>2599</v>
+      </c>
+      <c r="NS8" s="11">
+        <v>2611</v>
+      </c>
+      <c r="NT8" s="11">
+        <v>2622</v>
+      </c>
+      <c r="NU8" s="11">
+        <v>2620</v>
+      </c>
+      <c r="NV8" s="11">
+        <v>2619</v>
+      </c>
+      <c r="NW8" s="11">
+        <v>2619</v>
+      </c>
     </row>
-    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -13378,8 +13551,29 @@
       <c r="NP9" s="11">
         <v>203</v>
       </c>
+      <c r="NQ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NR9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NS9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NT9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NU9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NV9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NW9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -14520,8 +14714,29 @@
       <c r="NP10" s="11">
         <v>166</v>
       </c>
+      <c r="NQ10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NR10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NS10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NT10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NU10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NV10" s="11">
+        <v>162</v>
+      </c>
+      <c r="NW10" s="11">
+        <v>162</v>
+      </c>
     </row>
-    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -15662,8 +15877,29 @@
       <c r="NP11" s="11">
         <v>73</v>
       </c>
+      <c r="NQ11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NR11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NS11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NT11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NU11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NV11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NW11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -16804,8 +17040,29 @@
       <c r="NP12" s="11">
         <v>315</v>
       </c>
+      <c r="NQ12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NR12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NS12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NT12" s="11">
+        <v>316</v>
+      </c>
+      <c r="NU12" s="11">
+        <v>316</v>
+      </c>
+      <c r="NV12" s="11">
+        <v>314</v>
+      </c>
+      <c r="NW12" s="11">
+        <v>314</v>
+      </c>
     </row>
-    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -17946,8 +18203,29 @@
       <c r="NP13" s="11">
         <v>145</v>
       </c>
+      <c r="NQ13" s="11">
+        <v>145</v>
+      </c>
+      <c r="NR13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NS13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NT13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NU13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NV13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NW13" s="11">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -19088,8 +19366,29 @@
       <c r="NP14" s="11">
         <v>43</v>
       </c>
+      <c r="NQ14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NR14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NS14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NT14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NU14" s="11">
+        <v>43</v>
+      </c>
+      <c r="NV14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NW14" s="11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -20230,8 +20529,29 @@
       <c r="NP15" s="11">
         <v>129</v>
       </c>
+      <c r="NQ15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NR15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NS15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NT15" s="11">
+        <v>124</v>
+      </c>
+      <c r="NU15" s="11">
+        <v>128</v>
+      </c>
+      <c r="NV15" s="11">
+        <v>128</v>
+      </c>
+      <c r="NW15" s="11">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -21372,8 +21692,29 @@
       <c r="NP16" s="11">
         <v>10</v>
       </c>
+      <c r="NQ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NR16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NS16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NT16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NU16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NV16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NW16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -22514,8 +22855,29 @@
       <c r="NP17" s="11">
         <v>42</v>
       </c>
+      <c r="NQ17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NR17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NS17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NT17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NU17" s="11">
+        <v>42</v>
+      </c>
+      <c r="NV17" s="11">
+        <v>41</v>
+      </c>
+      <c r="NW17" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -23675,7 +24037,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:NP18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:NW18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -23762,13 +24124,41 @@
         <f t="shared" si="7"/>
         <v>4512</v>
       </c>
+      <c r="NQ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4518</v>
+      </c>
+      <c r="NR18" s="6">
+        <f t="shared" si="7"/>
+        <v>4525</v>
+      </c>
+      <c r="NS18" s="6">
+        <f t="shared" si="7"/>
+        <v>4538</v>
+      </c>
+      <c r="NT18" s="6">
+        <f t="shared" si="7"/>
+        <v>4539</v>
+      </c>
+      <c r="NU18" s="6">
+        <f t="shared" si="7"/>
+        <v>4541</v>
+      </c>
+      <c r="NV18" s="6">
+        <f t="shared" si="7"/>
+        <v>4535</v>
+      </c>
+      <c r="NW18" s="6">
+        <f t="shared" si="7"/>
+        <v>4536</v>
+      </c>
     </row>
-    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -23786,12 +24176,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NP34"/>
+  <dimension ref="A1:NZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NG1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NR1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NJ19" sqref="NJ19:NP19"/>
+      <selection pane="topRight" activeCell="NX1" sqref="NX1:NZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23811,7 +24201,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -24952,8 +25342,32 @@
       <c r="NP1" s="8">
         <v>44313</v>
       </c>
+      <c r="NQ1" s="8">
+        <v>44314</v>
+      </c>
+      <c r="NR1" s="8">
+        <v>44315</v>
+      </c>
+      <c r="NS1" s="8">
+        <v>44316</v>
+      </c>
+      <c r="NT1" s="8">
+        <v>44317</v>
+      </c>
+      <c r="NU1" s="8">
+        <v>44318</v>
+      </c>
+      <c r="NV1" s="8">
+        <v>44319</v>
+      </c>
+      <c r="NW1" s="8">
+        <v>44320</v>
+      </c>
+      <c r="NX1" s="8"/>
+      <c r="NY1" s="8"/>
+      <c r="NZ1" s="8"/>
     </row>
-    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26094,8 +26508,29 @@
       <c r="NP2">
         <v>32</v>
       </c>
+      <c r="NQ2">
+        <v>31</v>
+      </c>
+      <c r="NR2">
+        <v>29</v>
+      </c>
+      <c r="NS2">
+        <v>31</v>
+      </c>
+      <c r="NT2">
+        <v>32</v>
+      </c>
+      <c r="NU2">
+        <v>32</v>
+      </c>
+      <c r="NV2">
+        <v>31</v>
+      </c>
+      <c r="NW2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -27236,8 +27671,29 @@
       <c r="NP3">
         <v>58</v>
       </c>
+      <c r="NQ3">
+        <v>55</v>
+      </c>
+      <c r="NR3">
+        <v>55</v>
+      </c>
+      <c r="NS3">
+        <v>54</v>
+      </c>
+      <c r="NT3">
+        <v>56</v>
+      </c>
+      <c r="NU3">
+        <v>54</v>
+      </c>
+      <c r="NV3">
+        <v>54</v>
+      </c>
+      <c r="NW3">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -28378,8 +28834,29 @@
       <c r="NP4">
         <v>95</v>
       </c>
+      <c r="NQ4">
+        <v>103</v>
+      </c>
+      <c r="NR4">
+        <v>113</v>
+      </c>
+      <c r="NS4">
+        <v>103</v>
+      </c>
+      <c r="NT4">
+        <v>102</v>
+      </c>
+      <c r="NU4">
+        <v>104</v>
+      </c>
+      <c r="NV4">
+        <v>103</v>
+      </c>
+      <c r="NW4">
+        <v>105</v>
+      </c>
     </row>
-    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -29520,8 +29997,29 @@
       <c r="NP5">
         <v>25</v>
       </c>
+      <c r="NQ5">
+        <v>25</v>
+      </c>
+      <c r="NR5">
+        <v>26</v>
+      </c>
+      <c r="NS5">
+        <v>27</v>
+      </c>
+      <c r="NT5">
+        <v>25</v>
+      </c>
+      <c r="NU5">
+        <v>24</v>
+      </c>
+      <c r="NV5">
+        <v>22</v>
+      </c>
+      <c r="NW5">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -30662,8 +31160,29 @@
       <c r="NP6">
         <v>106</v>
       </c>
+      <c r="NQ6">
+        <v>100</v>
+      </c>
+      <c r="NR6">
+        <v>104</v>
+      </c>
+      <c r="NS6">
+        <v>101</v>
+      </c>
+      <c r="NT6">
+        <v>102</v>
+      </c>
+      <c r="NU6">
+        <v>103</v>
+      </c>
+      <c r="NV6">
+        <v>102</v>
+      </c>
+      <c r="NW6">
+        <v>103</v>
+      </c>
     </row>
-    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -31804,8 +32323,29 @@
       <c r="NP7">
         <v>272</v>
       </c>
+      <c r="NQ7">
+        <v>273</v>
+      </c>
+      <c r="NR7">
+        <v>273</v>
+      </c>
+      <c r="NS7">
+        <v>272</v>
+      </c>
+      <c r="NT7">
+        <v>274</v>
+      </c>
+      <c r="NU7">
+        <v>266</v>
+      </c>
+      <c r="NV7">
+        <v>265</v>
+      </c>
+      <c r="NW7">
+        <v>266</v>
+      </c>
     </row>
-    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -32946,8 +33486,29 @@
       <c r="NP8">
         <v>1987</v>
       </c>
+      <c r="NQ8">
+        <v>1964</v>
+      </c>
+      <c r="NR8">
+        <v>1976</v>
+      </c>
+      <c r="NS8">
+        <v>1947</v>
+      </c>
+      <c r="NT8">
+        <v>1918</v>
+      </c>
+      <c r="NU8">
+        <v>1930</v>
+      </c>
+      <c r="NV8">
+        <v>1912</v>
+      </c>
+      <c r="NW8">
+        <v>1913</v>
+      </c>
     </row>
-    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -34088,8 +34649,29 @@
       <c r="NP9">
         <v>156</v>
       </c>
+      <c r="NQ9">
+        <v>157</v>
+      </c>
+      <c r="NR9">
+        <v>157</v>
+      </c>
+      <c r="NS9">
+        <v>155</v>
+      </c>
+      <c r="NT9">
+        <v>159</v>
+      </c>
+      <c r="NU9">
+        <v>151</v>
+      </c>
+      <c r="NV9">
+        <v>151</v>
+      </c>
+      <c r="NW9">
+        <v>149</v>
+      </c>
     </row>
-    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -35230,8 +35812,29 @@
       <c r="NP10">
         <v>136</v>
       </c>
+      <c r="NQ10">
+        <v>138</v>
+      </c>
+      <c r="NR10">
+        <v>139</v>
+      </c>
+      <c r="NS10">
+        <v>137</v>
+      </c>
+      <c r="NT10">
+        <v>140</v>
+      </c>
+      <c r="NU10">
+        <v>135</v>
+      </c>
+      <c r="NV10">
+        <v>136</v>
+      </c>
+      <c r="NW10">
+        <v>135</v>
+      </c>
     </row>
-    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -36372,8 +36975,29 @@
       <c r="NP11">
         <v>52</v>
       </c>
+      <c r="NQ11">
+        <v>51</v>
+      </c>
+      <c r="NR11">
+        <v>50</v>
+      </c>
+      <c r="NS11">
+        <v>51</v>
+      </c>
+      <c r="NT11">
+        <v>52</v>
+      </c>
+      <c r="NU11">
+        <v>49</v>
+      </c>
+      <c r="NV11">
+        <v>51</v>
+      </c>
+      <c r="NW11">
+        <v>53</v>
+      </c>
     </row>
-    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -37514,8 +38138,29 @@
       <c r="NP12">
         <v>226</v>
       </c>
+      <c r="NQ12">
+        <v>221</v>
+      </c>
+      <c r="NR12">
+        <v>213</v>
+      </c>
+      <c r="NS12">
+        <v>203</v>
+      </c>
+      <c r="NT12">
+        <v>212</v>
+      </c>
+      <c r="NU12">
+        <v>209</v>
+      </c>
+      <c r="NV12">
+        <v>214</v>
+      </c>
+      <c r="NW12">
+        <v>218</v>
+      </c>
     </row>
-    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -38656,8 +39301,29 @@
       <c r="NP13">
         <v>113</v>
       </c>
+      <c r="NQ13">
+        <v>112</v>
+      </c>
+      <c r="NR13">
+        <v>112</v>
+      </c>
+      <c r="NS13">
+        <v>116</v>
+      </c>
+      <c r="NT13">
+        <v>114</v>
+      </c>
+      <c r="NU13">
+        <v>115</v>
+      </c>
+      <c r="NV13">
+        <v>115</v>
+      </c>
+      <c r="NW13">
+        <v>106</v>
+      </c>
     </row>
-    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -39798,8 +40464,29 @@
       <c r="NP14">
         <v>29</v>
       </c>
+      <c r="NQ14">
+        <v>26</v>
+      </c>
+      <c r="NR14">
+        <v>30</v>
+      </c>
+      <c r="NS14">
+        <v>28</v>
+      </c>
+      <c r="NT14">
+        <v>31</v>
+      </c>
+      <c r="NU14">
+        <v>29</v>
+      </c>
+      <c r="NV14">
+        <v>31</v>
+      </c>
+      <c r="NW14">
+        <v>27</v>
+      </c>
     </row>
-    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -40940,8 +41627,29 @@
       <c r="NP15">
         <v>87</v>
       </c>
+      <c r="NQ15">
+        <v>88</v>
+      </c>
+      <c r="NR15">
+        <v>86</v>
+      </c>
+      <c r="NS15">
+        <v>87</v>
+      </c>
+      <c r="NT15">
+        <v>85</v>
+      </c>
+      <c r="NU15">
+        <v>85</v>
+      </c>
+      <c r="NV15">
+        <v>84</v>
+      </c>
+      <c r="NW15">
+        <v>83</v>
+      </c>
     </row>
-    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -42082,8 +42790,29 @@
       <c r="NP16">
         <v>8</v>
       </c>
+      <c r="NQ16">
+        <v>7</v>
+      </c>
+      <c r="NR16">
+        <v>6</v>
+      </c>
+      <c r="NS16">
+        <v>7</v>
+      </c>
+      <c r="NT16">
+        <v>7</v>
+      </c>
+      <c r="NU16">
+        <v>6</v>
+      </c>
+      <c r="NV16">
+        <v>6</v>
+      </c>
+      <c r="NW16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -43224,8 +43953,29 @@
       <c r="NP17">
         <v>24</v>
       </c>
+      <c r="NQ17">
+        <v>25</v>
+      </c>
+      <c r="NR17">
+        <v>27</v>
+      </c>
+      <c r="NS17">
+        <v>26</v>
+      </c>
+      <c r="NT17">
+        <v>27</v>
+      </c>
+      <c r="NU17">
+        <v>26</v>
+      </c>
+      <c r="NV17">
+        <v>26</v>
+      </c>
+      <c r="NW17">
+        <v>28</v>
+      </c>
     </row>
-    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -44362,7 +45112,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:NP18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:NW18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -44457,50 +45207,78 @@
         <f t="shared" si="1"/>
         <v>3406</v>
       </c>
+      <c r="NQ18" s="6">
+        <f t="shared" si="1"/>
+        <v>3376</v>
+      </c>
+      <c r="NR18" s="6">
+        <f t="shared" si="1"/>
+        <v>3396</v>
+      </c>
+      <c r="NS18" s="6">
+        <f t="shared" si="1"/>
+        <v>3345</v>
+      </c>
+      <c r="NT18" s="6">
+        <f t="shared" si="1"/>
+        <v>3336</v>
+      </c>
+      <c r="NU18" s="6">
+        <f t="shared" si="1"/>
+        <v>3318</v>
+      </c>
+      <c r="NV18" s="6">
+        <f t="shared" si="1"/>
+        <v>3303</v>
+      </c>
+      <c r="NW18" s="6">
+        <f t="shared" si="1"/>
+        <v>3303</v>
+      </c>
     </row>
-    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:387" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:387" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:387" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -44520,12 +45298,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:NP34"/>
+  <dimension ref="A1:NZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NG1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NP1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="NQ6" sqref="NQ6"/>
+      <selection pane="topRight" activeCell="NW18" sqref="NW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44542,7 +45320,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -45683,8 +46461,32 @@
       <c r="NP1" s="8">
         <v>44313</v>
       </c>
+      <c r="NQ1" s="8">
+        <v>44314</v>
+      </c>
+      <c r="NR1" s="8">
+        <v>44315</v>
+      </c>
+      <c r="NS1" s="8">
+        <v>44316</v>
+      </c>
+      <c r="NT1" s="8">
+        <v>44317</v>
+      </c>
+      <c r="NU1" s="8">
+        <v>44318</v>
+      </c>
+      <c r="NV1" s="8">
+        <v>44319</v>
+      </c>
+      <c r="NW1" s="8">
+        <v>44320</v>
+      </c>
+      <c r="NX1" s="8"/>
+      <c r="NY1" s="8"/>
+      <c r="NZ1" s="8"/>
     </row>
-    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -46825,8 +47627,29 @@
       <c r="NP2">
         <v>4</v>
       </c>
+      <c r="NQ2">
+        <v>7</v>
+      </c>
+      <c r="NR2">
+        <v>6</v>
+      </c>
+      <c r="NS2">
+        <v>5</v>
+      </c>
+      <c r="NT2">
+        <v>6</v>
+      </c>
+      <c r="NU2">
+        <v>6</v>
+      </c>
+      <c r="NV2">
+        <v>6</v>
+      </c>
+      <c r="NW2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -47967,8 +48790,29 @@
       <c r="NP3">
         <v>2</v>
       </c>
+      <c r="NQ3">
+        <v>4</v>
+      </c>
+      <c r="NR3">
+        <v>3</v>
+      </c>
+      <c r="NS3">
+        <v>4</v>
+      </c>
+      <c r="NT3">
+        <v>1</v>
+      </c>
+      <c r="NU3">
+        <v>3</v>
+      </c>
+      <c r="NV3">
+        <v>4</v>
+      </c>
+      <c r="NW3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -49109,8 +49953,29 @@
       <c r="NP4">
         <v>57</v>
       </c>
+      <c r="NQ4">
+        <v>60</v>
+      </c>
+      <c r="NR4">
+        <v>50</v>
+      </c>
+      <c r="NS4">
+        <v>58</v>
+      </c>
+      <c r="NT4">
+        <v>60</v>
+      </c>
+      <c r="NU4">
+        <v>55</v>
+      </c>
+      <c r="NV4">
+        <v>56</v>
+      </c>
+      <c r="NW4">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -50251,8 +51116,29 @@
       <c r="NP5">
         <v>3</v>
       </c>
+      <c r="NQ5">
+        <v>4</v>
+      </c>
+      <c r="NR5">
+        <v>4</v>
+      </c>
+      <c r="NS5">
+        <v>4</v>
+      </c>
+      <c r="NT5">
+        <v>4</v>
+      </c>
+      <c r="NU5">
+        <v>5</v>
+      </c>
+      <c r="NV5">
+        <v>7</v>
+      </c>
+      <c r="NW5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -51393,8 +52279,29 @@
       <c r="NP6">
         <v>29</v>
       </c>
+      <c r="NQ6">
+        <v>35</v>
+      </c>
+      <c r="NR6">
+        <v>26</v>
+      </c>
+      <c r="NS6">
+        <v>27</v>
+      </c>
+      <c r="NT6">
+        <v>29</v>
+      </c>
+      <c r="NU6">
+        <v>23</v>
+      </c>
+      <c r="NV6">
+        <v>25</v>
+      </c>
+      <c r="NW6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -52535,8 +53442,29 @@
       <c r="NP7">
         <v>62</v>
       </c>
+      <c r="NQ7">
+        <v>62</v>
+      </c>
+      <c r="NR7">
+        <v>66</v>
+      </c>
+      <c r="NS7">
+        <v>60</v>
+      </c>
+      <c r="NT7">
+        <v>62</v>
+      </c>
+      <c r="NU7">
+        <v>66</v>
+      </c>
+      <c r="NV7">
+        <v>66</v>
+      </c>
+      <c r="NW7">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -53677,8 +54605,29 @@
       <c r="NP8">
         <v>521</v>
       </c>
+      <c r="NQ8">
+        <v>541</v>
+      </c>
+      <c r="NR8">
+        <v>545</v>
+      </c>
+      <c r="NS8">
+        <v>566</v>
+      </c>
+      <c r="NT8">
+        <v>586</v>
+      </c>
+      <c r="NU8">
+        <v>586</v>
+      </c>
+      <c r="NV8">
+        <v>601</v>
+      </c>
+      <c r="NW8">
+        <v>609</v>
+      </c>
     </row>
-    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -54819,8 +55768,29 @@
       <c r="NP9">
         <v>23</v>
       </c>
+      <c r="NQ9">
+        <v>23</v>
+      </c>
+      <c r="NR9">
+        <v>26</v>
+      </c>
+      <c r="NS9">
+        <v>34</v>
+      </c>
+      <c r="NT9">
+        <v>22</v>
+      </c>
+      <c r="NU9">
+        <v>27</v>
+      </c>
+      <c r="NV9">
+        <v>24</v>
+      </c>
+      <c r="NW9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -55961,8 +56931,29 @@
       <c r="NP10">
         <v>22</v>
       </c>
+      <c r="NQ10">
+        <v>21</v>
+      </c>
+      <c r="NR10">
+        <v>19</v>
+      </c>
+      <c r="NS10">
+        <v>21</v>
+      </c>
+      <c r="NT10">
+        <v>21</v>
+      </c>
+      <c r="NU10">
+        <v>24</v>
+      </c>
+      <c r="NV10">
+        <v>19</v>
+      </c>
+      <c r="NW10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -57103,8 +58094,29 @@
       <c r="NP11">
         <v>16</v>
       </c>
+      <c r="NQ11">
+        <v>16</v>
+      </c>
+      <c r="NR11">
+        <v>16</v>
+      </c>
+      <c r="NS11">
+        <v>16</v>
+      </c>
+      <c r="NT11">
+        <v>17</v>
+      </c>
+      <c r="NU11">
+        <v>17</v>
+      </c>
+      <c r="NV11">
+        <v>17</v>
+      </c>
+      <c r="NW11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -58245,8 +59257,29 @@
       <c r="NP12">
         <v>66</v>
       </c>
+      <c r="NQ12">
+        <v>68</v>
+      </c>
+      <c r="NR12">
+        <v>72</v>
+      </c>
+      <c r="NS12">
+        <v>74</v>
+      </c>
+      <c r="NT12">
+        <v>74</v>
+      </c>
+      <c r="NU12">
+        <v>73</v>
+      </c>
+      <c r="NV12">
+        <v>77</v>
+      </c>
+      <c r="NW12">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -59387,8 +60420,29 @@
       <c r="NP13">
         <v>27</v>
       </c>
+      <c r="NQ13">
+        <v>29</v>
+      </c>
+      <c r="NR13">
+        <v>26</v>
+      </c>
+      <c r="NS13">
+        <v>24</v>
+      </c>
+      <c r="NT13">
+        <v>30</v>
+      </c>
+      <c r="NU13">
+        <v>27</v>
+      </c>
+      <c r="NV13">
+        <v>28</v>
+      </c>
+      <c r="NW13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -60529,8 +61583,29 @@
       <c r="NP14">
         <v>12</v>
       </c>
+      <c r="NQ14">
+        <v>12</v>
+      </c>
+      <c r="NR14">
+        <v>12</v>
+      </c>
+      <c r="NS14">
+        <v>10</v>
+      </c>
+      <c r="NT14">
+        <v>10</v>
+      </c>
+      <c r="NU14">
+        <v>11</v>
+      </c>
+      <c r="NV14">
+        <v>11</v>
+      </c>
+      <c r="NW14">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -61671,8 +62746,29 @@
       <c r="NP15">
         <v>31</v>
       </c>
+      <c r="NQ15">
+        <v>35</v>
+      </c>
+      <c r="NR15">
+        <v>38</v>
+      </c>
+      <c r="NS15">
+        <v>28</v>
+      </c>
+      <c r="NT15">
+        <v>34</v>
+      </c>
+      <c r="NU15">
+        <v>31</v>
+      </c>
+      <c r="NV15">
+        <v>36</v>
+      </c>
+      <c r="NW15">
+        <v>37</v>
+      </c>
     </row>
-    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -62813,8 +63909,29 @@
       <c r="NP16">
         <v>2</v>
       </c>
+      <c r="NQ16">
+        <v>2</v>
+      </c>
+      <c r="NR16">
+        <v>2</v>
+      </c>
+      <c r="NS16">
+        <v>2</v>
+      </c>
+      <c r="NT16">
+        <v>2</v>
+      </c>
+      <c r="NU16">
+        <v>4</v>
+      </c>
+      <c r="NV16">
+        <v>4</v>
+      </c>
+      <c r="NW16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -63955,8 +65072,29 @@
       <c r="NP17">
         <v>12</v>
       </c>
+      <c r="NQ17">
+        <v>9</v>
+      </c>
+      <c r="NR17">
+        <v>8</v>
+      </c>
+      <c r="NS17">
+        <v>8</v>
+      </c>
+      <c r="NT17">
+        <v>7</v>
+      </c>
+      <c r="NU17">
+        <v>8</v>
+      </c>
+      <c r="NV17">
+        <v>11</v>
+      </c>
+      <c r="NW17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -65097,48 +66235,69 @@
       <c r="NP18" s="7">
         <v>889</v>
       </c>
+      <c r="NQ18" s="7">
+        <v>928</v>
+      </c>
+      <c r="NR18" s="7">
+        <v>919</v>
+      </c>
+      <c r="NS18" s="7">
+        <v>941</v>
+      </c>
+      <c r="NT18" s="7">
+        <v>965</v>
+      </c>
+      <c r="NU18" s="7">
+        <v>966</v>
+      </c>
+      <c r="NV18" s="7">
+        <v>992</v>
+      </c>
+      <c r="NW18" s="20">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="19" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:387" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -66330,10 +67489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NP18"/>
+  <dimension ref="A1:NZ18"/>
   <sheetViews>
-    <sheetView topLeftCell="NI1" workbookViewId="0">
-      <selection activeCell="NJ2" sqref="NJ2:NP18"/>
+    <sheetView topLeftCell="NP1" workbookViewId="0">
+      <selection activeCell="NS20" sqref="NS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66341,7 +67500,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -67482,8 +68641,32 @@
       <c r="NP1" s="8">
         <v>44313</v>
       </c>
+      <c r="NQ1" s="8">
+        <v>44314</v>
+      </c>
+      <c r="NR1" s="8">
+        <v>44315</v>
+      </c>
+      <c r="NS1" s="8">
+        <v>44316</v>
+      </c>
+      <c r="NT1" s="8">
+        <v>44317</v>
+      </c>
+      <c r="NU1" s="8">
+        <v>44318</v>
+      </c>
+      <c r="NV1" s="8">
+        <v>44319</v>
+      </c>
+      <c r="NW1" s="8">
+        <v>44320</v>
+      </c>
+      <c r="NX1" s="8"/>
+      <c r="NY1" s="8"/>
+      <c r="NZ1" s="8"/>
     </row>
-    <row r="2" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -68624,8 +69807,29 @@
       <c r="NP2">
         <v>9</v>
       </c>
+      <c r="NQ2">
+        <v>9</v>
+      </c>
+      <c r="NR2">
+        <v>9</v>
+      </c>
+      <c r="NS2">
+        <v>9</v>
+      </c>
+      <c r="NT2">
+        <v>9</v>
+      </c>
+      <c r="NU2">
+        <v>9</v>
+      </c>
+      <c r="NV2">
+        <v>9</v>
+      </c>
+      <c r="NW2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -69766,8 +70970,29 @@
       <c r="NP3">
         <v>12</v>
       </c>
+      <c r="NQ3">
+        <v>12</v>
+      </c>
+      <c r="NR3">
+        <v>12</v>
+      </c>
+      <c r="NS3">
+        <v>12</v>
+      </c>
+      <c r="NT3">
+        <v>12</v>
+      </c>
+      <c r="NU3">
+        <v>12</v>
+      </c>
+      <c r="NV3">
+        <v>12</v>
+      </c>
+      <c r="NW3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -70908,8 +72133,29 @@
       <c r="NP4">
         <v>48</v>
       </c>
+      <c r="NQ4">
+        <v>48</v>
+      </c>
+      <c r="NR4">
+        <v>48</v>
+      </c>
+      <c r="NS4">
+        <v>48</v>
+      </c>
+      <c r="NT4">
+        <v>48</v>
+      </c>
+      <c r="NU4">
+        <v>48</v>
+      </c>
+      <c r="NV4">
+        <v>48</v>
+      </c>
+      <c r="NW4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -72050,8 +73296,29 @@
       <c r="NP5">
         <v>11</v>
       </c>
+      <c r="NQ5">
+        <v>11</v>
+      </c>
+      <c r="NR5">
+        <v>11</v>
+      </c>
+      <c r="NS5">
+        <v>11</v>
+      </c>
+      <c r="NT5">
+        <v>11</v>
+      </c>
+      <c r="NU5">
+        <v>11</v>
+      </c>
+      <c r="NV5">
+        <v>11</v>
+      </c>
+      <c r="NW5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -73192,8 +74459,29 @@
       <c r="NP6">
         <v>29</v>
       </c>
+      <c r="NQ6">
+        <v>29</v>
+      </c>
+      <c r="NR6">
+        <v>29</v>
+      </c>
+      <c r="NS6">
+        <v>29</v>
+      </c>
+      <c r="NT6">
+        <v>29</v>
+      </c>
+      <c r="NU6">
+        <v>29</v>
+      </c>
+      <c r="NV6">
+        <v>29</v>
+      </c>
+      <c r="NW6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -74334,8 +75622,29 @@
       <c r="NP7">
         <v>125</v>
       </c>
+      <c r="NQ7">
+        <v>125</v>
+      </c>
+      <c r="NR7">
+        <v>125</v>
+      </c>
+      <c r="NS7">
+        <v>125</v>
+      </c>
+      <c r="NT7">
+        <v>125</v>
+      </c>
+      <c r="NU7">
+        <v>125</v>
+      </c>
+      <c r="NV7">
+        <v>125</v>
+      </c>
+      <c r="NW7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -75476,8 +76785,29 @@
       <c r="NP8">
         <v>745</v>
       </c>
+      <c r="NQ8">
+        <v>745</v>
+      </c>
+      <c r="NR8">
+        <v>745</v>
+      </c>
+      <c r="NS8">
+        <v>745</v>
+      </c>
+      <c r="NT8">
+        <v>745</v>
+      </c>
+      <c r="NU8">
+        <v>745</v>
+      </c>
+      <c r="NV8">
+        <v>745</v>
+      </c>
+      <c r="NW8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -76618,8 +77948,29 @@
       <c r="NP9">
         <v>61</v>
       </c>
+      <c r="NQ9">
+        <v>61</v>
+      </c>
+      <c r="NR9">
+        <v>61</v>
+      </c>
+      <c r="NS9">
+        <v>61</v>
+      </c>
+      <c r="NT9">
+        <v>61</v>
+      </c>
+      <c r="NU9">
+        <v>61</v>
+      </c>
+      <c r="NV9">
+        <v>61</v>
+      </c>
+      <c r="NW9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -77760,8 +79111,29 @@
       <c r="NP10">
         <v>45</v>
       </c>
+      <c r="NQ10">
+        <v>45</v>
+      </c>
+      <c r="NR10">
+        <v>45</v>
+      </c>
+      <c r="NS10">
+        <v>45</v>
+      </c>
+      <c r="NT10">
+        <v>45</v>
+      </c>
+      <c r="NU10">
+        <v>45</v>
+      </c>
+      <c r="NV10">
+        <v>45</v>
+      </c>
+      <c r="NW10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -78902,8 +80274,29 @@
       <c r="NP11">
         <v>16</v>
       </c>
+      <c r="NQ11">
+        <v>16</v>
+      </c>
+      <c r="NR11">
+        <v>16</v>
+      </c>
+      <c r="NS11">
+        <v>16</v>
+      </c>
+      <c r="NT11">
+        <v>16</v>
+      </c>
+      <c r="NU11">
+        <v>16</v>
+      </c>
+      <c r="NV11">
+        <v>16</v>
+      </c>
+      <c r="NW11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -80044,8 +81437,29 @@
       <c r="NP12">
         <v>97</v>
       </c>
+      <c r="NQ12">
+        <v>97</v>
+      </c>
+      <c r="NR12">
+        <v>97</v>
+      </c>
+      <c r="NS12">
+        <v>97</v>
+      </c>
+      <c r="NT12">
+        <v>97</v>
+      </c>
+      <c r="NU12">
+        <v>97</v>
+      </c>
+      <c r="NV12">
+        <v>97</v>
+      </c>
+      <c r="NW12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -81186,8 +82600,29 @@
       <c r="NP13">
         <v>49</v>
       </c>
+      <c r="NQ13">
+        <v>49</v>
+      </c>
+      <c r="NR13">
+        <v>49</v>
+      </c>
+      <c r="NS13">
+        <v>49</v>
+      </c>
+      <c r="NT13">
+        <v>49</v>
+      </c>
+      <c r="NU13">
+        <v>49</v>
+      </c>
+      <c r="NV13">
+        <v>49</v>
+      </c>
+      <c r="NW13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -82328,8 +83763,29 @@
       <c r="NP14">
         <v>13</v>
       </c>
+      <c r="NQ14">
+        <v>13</v>
+      </c>
+      <c r="NR14">
+        <v>13</v>
+      </c>
+      <c r="NS14">
+        <v>13</v>
+      </c>
+      <c r="NT14">
+        <v>13</v>
+      </c>
+      <c r="NU14">
+        <v>13</v>
+      </c>
+      <c r="NV14">
+        <v>13</v>
+      </c>
+      <c r="NW14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -83470,8 +84926,29 @@
       <c r="NP15">
         <v>49</v>
       </c>
+      <c r="NQ15">
+        <v>49</v>
+      </c>
+      <c r="NR15">
+        <v>49</v>
+      </c>
+      <c r="NS15">
+        <v>49</v>
+      </c>
+      <c r="NT15">
+        <v>49</v>
+      </c>
+      <c r="NU15">
+        <v>49</v>
+      </c>
+      <c r="NV15">
+        <v>49</v>
+      </c>
+      <c r="NW15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -84612,8 +86089,29 @@
       <c r="NP16">
         <v>8</v>
       </c>
+      <c r="NQ16">
+        <v>8</v>
+      </c>
+      <c r="NR16">
+        <v>8</v>
+      </c>
+      <c r="NS16">
+        <v>8</v>
+      </c>
+      <c r="NT16">
+        <v>8</v>
+      </c>
+      <c r="NU16">
+        <v>8</v>
+      </c>
+      <c r="NV16">
+        <v>8</v>
+      </c>
+      <c r="NW16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -85754,8 +87252,29 @@
       <c r="NP17">
         <v>14</v>
       </c>
+      <c r="NQ17">
+        <v>14</v>
+      </c>
+      <c r="NR17">
+        <v>14</v>
+      </c>
+      <c r="NS17">
+        <v>14</v>
+      </c>
+      <c r="NT17">
+        <v>14</v>
+      </c>
+      <c r="NU17">
+        <v>14</v>
+      </c>
+      <c r="NV17">
+        <v>14</v>
+      </c>
+      <c r="NW17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:380" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -87275,80 +88794,113 @@
         <f t="shared" si="11"/>
         <v>1331</v>
       </c>
+      <c r="NQ18" s="6">
+        <f t="shared" ref="NQ18:NW18" si="12">SUM(NQ2:NQ17)</f>
+        <v>1331</v>
+      </c>
+      <c r="NR18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
+      <c r="NS18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
+      <c r="NT18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
+      <c r="NU18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
+      <c r="NV18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
+      <c r="NW18" s="6">
+        <f t="shared" si="12"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="15" priority="247" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="248" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="14" priority="245" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="246" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="13" priority="244" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="245" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV18:NB18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NC18:NI18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NJ18:NP18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="NQ18:NW18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -259,7 +259,27 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="251">
+  <dxfs count="253">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3080,12 +3100,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NW20"/>
+  <dimension ref="A1:OD20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NN1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NV1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NQ19" sqref="NQ19:NW19"/>
+      <selection pane="topRight" activeCell="OF6" sqref="OF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3126,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4268,8 +4288,29 @@
       <c r="NW1" s="8">
         <v>44320</v>
       </c>
+      <c r="NX1" s="8">
+        <v>44321</v>
+      </c>
+      <c r="NY1" s="8">
+        <v>44322</v>
+      </c>
+      <c r="NZ1" s="8">
+        <v>44323</v>
+      </c>
+      <c r="OA1" s="8">
+        <v>44324</v>
+      </c>
+      <c r="OB1" s="8">
+        <v>44325</v>
+      </c>
+      <c r="OC1" s="8">
+        <v>44326</v>
+      </c>
+      <c r="OD1" s="8">
+        <v>44327</v>
+      </c>
     </row>
-    <row r="2" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5431,8 +5472,29 @@
       <c r="NW2" s="11">
         <v>40</v>
       </c>
+      <c r="NX2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NY2" s="11">
+        <v>40</v>
+      </c>
+      <c r="NZ2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OA2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OB2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OC2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OD2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6594,8 +6656,29 @@
       <c r="NW3" s="11">
         <v>62</v>
       </c>
+      <c r="NX3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NY3" s="11">
+        <v>62</v>
+      </c>
+      <c r="NZ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OA3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OB3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OC3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OD3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7757,8 +7840,29 @@
       <c r="NW4" s="11">
         <v>168</v>
       </c>
+      <c r="NX4" s="11">
+        <v>165</v>
+      </c>
+      <c r="NY4" s="11">
+        <v>166</v>
+      </c>
+      <c r="NZ4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OA4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OB4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OC4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OD4" s="11">
+        <v>165</v>
+      </c>
     </row>
-    <row r="5" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -8920,8 +9024,29 @@
       <c r="NW5" s="11">
         <v>34</v>
       </c>
+      <c r="NX5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NY5" s="11">
+        <v>34</v>
+      </c>
+      <c r="NZ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OA5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OB5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OC5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OD5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10083,8 +10208,29 @@
       <c r="NW6" s="11">
         <v>140</v>
       </c>
+      <c r="NX6" s="11">
+        <v>140</v>
+      </c>
+      <c r="NY6" s="11">
+        <v>140</v>
+      </c>
+      <c r="NZ6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OA6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OB6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OC6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OD6" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11246,8 +11392,29 @@
       <c r="NW7" s="11">
         <v>345</v>
       </c>
+      <c r="NX7" s="11">
+        <v>343</v>
+      </c>
+      <c r="NY7" s="11">
+        <v>343</v>
+      </c>
+      <c r="NZ7" s="11">
+        <v>342</v>
+      </c>
+      <c r="OA7" s="11">
+        <v>342</v>
+      </c>
+      <c r="OB7" s="11">
+        <v>342</v>
+      </c>
+      <c r="OC7" s="11">
+        <v>342</v>
+      </c>
+      <c r="OD7" s="11">
+        <v>342</v>
+      </c>
     </row>
-    <row r="8" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12409,8 +12576,29 @@
       <c r="NW8" s="11">
         <v>2619</v>
       </c>
+      <c r="NX8" s="11">
+        <v>2621</v>
+      </c>
+      <c r="NY8" s="11">
+        <v>2621</v>
+      </c>
+      <c r="NZ8" s="11">
+        <v>2621</v>
+      </c>
+      <c r="OA8" s="11">
+        <v>2615</v>
+      </c>
+      <c r="OB8" s="11">
+        <v>2611</v>
+      </c>
+      <c r="OC8" s="11">
+        <v>2608</v>
+      </c>
+      <c r="OD8" s="11">
+        <v>2607</v>
+      </c>
     </row>
-    <row r="9" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -13572,8 +13760,29 @@
       <c r="NW9" s="11">
         <v>206</v>
       </c>
+      <c r="NX9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NY9" s="11">
+        <v>206</v>
+      </c>
+      <c r="NZ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OA9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OB9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OC9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OD9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -14735,8 +14944,29 @@
       <c r="NW10" s="11">
         <v>162</v>
       </c>
+      <c r="NX10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NY10" s="11">
+        <v>166</v>
+      </c>
+      <c r="NZ10" s="11">
+        <v>166</v>
+      </c>
+      <c r="OA10" s="11">
+        <v>166</v>
+      </c>
+      <c r="OB10" s="11">
+        <v>166</v>
+      </c>
+      <c r="OC10" s="11">
+        <v>166</v>
+      </c>
+      <c r="OD10" s="11">
+        <v>166</v>
+      </c>
     </row>
-    <row r="11" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -15898,8 +16128,29 @@
       <c r="NW11" s="11">
         <v>73</v>
       </c>
+      <c r="NX11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NY11" s="11">
+        <v>73</v>
+      </c>
+      <c r="NZ11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OA11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OB11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OC11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OD11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -17061,8 +17312,29 @@
       <c r="NW12" s="11">
         <v>314</v>
       </c>
+      <c r="NX12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NY12" s="11">
+        <v>315</v>
+      </c>
+      <c r="NZ12" s="11">
+        <v>317</v>
+      </c>
+      <c r="OA12" s="11">
+        <v>317</v>
+      </c>
+      <c r="OB12" s="11">
+        <v>317</v>
+      </c>
+      <c r="OC12" s="11">
+        <v>317</v>
+      </c>
+      <c r="OD12" s="11">
+        <v>316</v>
+      </c>
     </row>
-    <row r="13" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -18224,8 +18496,29 @@
       <c r="NW13" s="11">
         <v>145</v>
       </c>
+      <c r="NX13" s="11">
+        <v>146</v>
+      </c>
+      <c r="NY13" s="11">
+        <v>148</v>
+      </c>
+      <c r="NZ13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OA13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OB13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OC13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OD13" s="11">
+        <v>151</v>
+      </c>
     </row>
-    <row r="14" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -19387,8 +19680,29 @@
       <c r="NW14" s="11">
         <v>46</v>
       </c>
+      <c r="NX14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NY14" s="11">
+        <v>46</v>
+      </c>
+      <c r="NZ14" s="11">
+        <v>46</v>
+      </c>
+      <c r="OA14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OB14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OC14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OD14" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -20550,8 +20864,29 @@
       <c r="NW15" s="11">
         <v>128</v>
       </c>
+      <c r="NX15" s="11">
+        <v>128</v>
+      </c>
+      <c r="NY15" s="11">
+        <v>129</v>
+      </c>
+      <c r="NZ15" s="11">
+        <v>129</v>
+      </c>
+      <c r="OA15" s="11">
+        <v>128</v>
+      </c>
+      <c r="OB15" s="11">
+        <v>128</v>
+      </c>
+      <c r="OC15" s="11">
+        <v>128</v>
+      </c>
+      <c r="OD15" s="11">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -21713,8 +22048,29 @@
       <c r="NW16" s="11">
         <v>10</v>
       </c>
+      <c r="NX16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NY16" s="11">
+        <v>10</v>
+      </c>
+      <c r="NZ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OA16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OB16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OC16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OD16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -22876,8 +23232,29 @@
       <c r="NW17" s="11">
         <v>44</v>
       </c>
+      <c r="NX17" s="11">
+        <v>44</v>
+      </c>
+      <c r="NY17" s="11">
+        <v>44</v>
+      </c>
+      <c r="NZ17" s="11">
+        <v>44</v>
+      </c>
+      <c r="OA17" s="11">
+        <v>44</v>
+      </c>
+      <c r="OB17" s="11">
+        <v>44</v>
+      </c>
+      <c r="OC17" s="11">
+        <v>43</v>
+      </c>
+      <c r="OD17" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -24037,7 +24414,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:NW18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:OD18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -24152,13 +24529,41 @@
         <f t="shared" si="7"/>
         <v>4536</v>
       </c>
+      <c r="NX18" s="6">
+        <f t="shared" si="7"/>
+        <v>4539</v>
+      </c>
+      <c r="NY18" s="6">
+        <f t="shared" si="7"/>
+        <v>4543</v>
+      </c>
+      <c r="NZ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4544</v>
+      </c>
+      <c r="OA18" s="6">
+        <f t="shared" si="7"/>
+        <v>4532</v>
+      </c>
+      <c r="OB18" s="6">
+        <f t="shared" si="7"/>
+        <v>4527</v>
+      </c>
+      <c r="OC18" s="6">
+        <f t="shared" si="7"/>
+        <v>4523</v>
+      </c>
+      <c r="OD18" s="6">
+        <f t="shared" si="7"/>
+        <v>4525</v>
+      </c>
     </row>
-    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -24176,12 +24581,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NZ34"/>
+  <dimension ref="A1:OD34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NR1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NU1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NX1" sqref="NX1:NZ1"/>
+      <selection pane="topRight" activeCell="NX21" sqref="NX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24201,7 +24606,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -25363,11 +25768,29 @@
       <c r="NW1" s="8">
         <v>44320</v>
       </c>
-      <c r="NX1" s="8"/>
-      <c r="NY1" s="8"/>
-      <c r="NZ1" s="8"/>
+      <c r="NX1" s="8">
+        <v>44321</v>
+      </c>
+      <c r="NY1" s="8">
+        <v>44322</v>
+      </c>
+      <c r="NZ1" s="8">
+        <v>44323</v>
+      </c>
+      <c r="OA1" s="8">
+        <v>44324</v>
+      </c>
+      <c r="OB1" s="8">
+        <v>44325</v>
+      </c>
+      <c r="OC1" s="8">
+        <v>44326</v>
+      </c>
+      <c r="OD1" s="8">
+        <v>44327</v>
+      </c>
     </row>
-    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26529,8 +26952,29 @@
       <c r="NW2">
         <v>31</v>
       </c>
+      <c r="NX2">
+        <v>28</v>
+      </c>
+      <c r="NY2">
+        <v>30</v>
+      </c>
+      <c r="NZ2">
+        <v>30</v>
+      </c>
+      <c r="OA2">
+        <v>29</v>
+      </c>
+      <c r="OB2">
+        <v>31</v>
+      </c>
+      <c r="OC2">
+        <v>33</v>
+      </c>
+      <c r="OD2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -27692,8 +28136,29 @@
       <c r="NW3">
         <v>55</v>
       </c>
+      <c r="NX3">
+        <v>56</v>
+      </c>
+      <c r="NY3">
+        <v>57</v>
+      </c>
+      <c r="NZ3">
+        <v>54</v>
+      </c>
+      <c r="OA3">
+        <v>54</v>
+      </c>
+      <c r="OB3">
+        <v>54</v>
+      </c>
+      <c r="OC3">
+        <v>51</v>
+      </c>
+      <c r="OD3">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -28855,8 +29320,29 @@
       <c r="NW4">
         <v>105</v>
       </c>
+      <c r="NX4">
+        <v>101</v>
+      </c>
+      <c r="NY4">
+        <v>93</v>
+      </c>
+      <c r="NZ4">
+        <v>93</v>
+      </c>
+      <c r="OA4">
+        <v>90</v>
+      </c>
+      <c r="OB4">
+        <v>89</v>
+      </c>
+      <c r="OC4">
+        <v>88</v>
+      </c>
+      <c r="OD4">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -30018,8 +30504,29 @@
       <c r="NW5">
         <v>24</v>
       </c>
+      <c r="NX5">
+        <v>22</v>
+      </c>
+      <c r="NY5">
+        <v>20</v>
+      </c>
+      <c r="NZ5">
+        <v>20</v>
+      </c>
+      <c r="OA5">
+        <v>20</v>
+      </c>
+      <c r="OB5">
+        <v>18</v>
+      </c>
+      <c r="OC5">
+        <v>19</v>
+      </c>
+      <c r="OD5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -31181,8 +31688,29 @@
       <c r="NW6">
         <v>103</v>
       </c>
+      <c r="NX6">
+        <v>95</v>
+      </c>
+      <c r="NY6">
+        <v>97</v>
+      </c>
+      <c r="NZ6">
+        <v>96</v>
+      </c>
+      <c r="OA6">
+        <v>97</v>
+      </c>
+      <c r="OB6">
+        <v>100</v>
+      </c>
+      <c r="OC6">
+        <v>98</v>
+      </c>
+      <c r="OD6">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -32344,8 +32872,29 @@
       <c r="NW7">
         <v>266</v>
       </c>
+      <c r="NX7">
+        <v>263</v>
+      </c>
+      <c r="NY7">
+        <v>256</v>
+      </c>
+      <c r="NZ7">
+        <v>250</v>
+      </c>
+      <c r="OA7">
+        <v>249</v>
+      </c>
+      <c r="OB7">
+        <v>244</v>
+      </c>
+      <c r="OC7">
+        <v>248</v>
+      </c>
+      <c r="OD7">
+        <v>245</v>
+      </c>
     </row>
-    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -33507,8 +34056,29 @@
       <c r="NW8">
         <v>1913</v>
       </c>
+      <c r="NX8">
+        <v>1898</v>
+      </c>
+      <c r="NY8">
+        <v>1851</v>
+      </c>
+      <c r="NZ8">
+        <v>1850</v>
+      </c>
+      <c r="OA8">
+        <v>1842</v>
+      </c>
+      <c r="OB8">
+        <v>1840</v>
+      </c>
+      <c r="OC8">
+        <v>1835</v>
+      </c>
+      <c r="OD8">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -34670,8 +35240,29 @@
       <c r="NW9">
         <v>149</v>
       </c>
+      <c r="NX9">
+        <v>149</v>
+      </c>
+      <c r="NY9">
+        <v>140</v>
+      </c>
+      <c r="NZ9">
+        <v>136</v>
+      </c>
+      <c r="OA9">
+        <v>135</v>
+      </c>
+      <c r="OB9">
+        <v>136</v>
+      </c>
+      <c r="OC9">
+        <v>131</v>
+      </c>
+      <c r="OD9">
+        <v>122</v>
+      </c>
     </row>
-    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -35833,8 +36424,29 @@
       <c r="NW10">
         <v>135</v>
       </c>
+      <c r="NX10">
+        <v>135</v>
+      </c>
+      <c r="NY10">
+        <v>137</v>
+      </c>
+      <c r="NZ10">
+        <v>137</v>
+      </c>
+      <c r="OA10">
+        <v>134</v>
+      </c>
+      <c r="OB10">
+        <v>137</v>
+      </c>
+      <c r="OC10">
+        <v>137</v>
+      </c>
+      <c r="OD10">
+        <v>134</v>
+      </c>
     </row>
-    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -36996,8 +37608,29 @@
       <c r="NW11">
         <v>53</v>
       </c>
+      <c r="NX11">
+        <v>52</v>
+      </c>
+      <c r="NY11">
+        <v>52</v>
+      </c>
+      <c r="NZ11">
+        <v>52</v>
+      </c>
+      <c r="OA11">
+        <v>51</v>
+      </c>
+      <c r="OB11">
+        <v>49</v>
+      </c>
+      <c r="OC11">
+        <v>46</v>
+      </c>
+      <c r="OD11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -38159,8 +38792,29 @@
       <c r="NW12">
         <v>218</v>
       </c>
+      <c r="NX12">
+        <v>210</v>
+      </c>
+      <c r="NY12">
+        <v>205</v>
+      </c>
+      <c r="NZ12">
+        <v>204</v>
+      </c>
+      <c r="OA12">
+        <v>197</v>
+      </c>
+      <c r="OB12">
+        <v>200</v>
+      </c>
+      <c r="OC12">
+        <v>199</v>
+      </c>
+      <c r="OD12">
+        <v>195</v>
+      </c>
     </row>
-    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -39322,8 +39976,29 @@
       <c r="NW13">
         <v>106</v>
       </c>
+      <c r="NX13">
+        <v>106</v>
+      </c>
+      <c r="NY13">
+        <v>107</v>
+      </c>
+      <c r="NZ13">
+        <v>110</v>
+      </c>
+      <c r="OA13">
+        <v>106</v>
+      </c>
+      <c r="OB13">
+        <v>110</v>
+      </c>
+      <c r="OC13">
+        <v>115</v>
+      </c>
+      <c r="OD13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -40485,8 +41160,29 @@
       <c r="NW14">
         <v>27</v>
       </c>
+      <c r="NX14">
+        <v>23</v>
+      </c>
+      <c r="NY14">
+        <v>23</v>
+      </c>
+      <c r="NZ14">
+        <v>25</v>
+      </c>
+      <c r="OA14">
+        <v>24</v>
+      </c>
+      <c r="OB14">
+        <v>25</v>
+      </c>
+      <c r="OC14">
+        <v>23</v>
+      </c>
+      <c r="OD14">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -41648,8 +42344,29 @@
       <c r="NW15">
         <v>83</v>
       </c>
+      <c r="NX15">
+        <v>84</v>
+      </c>
+      <c r="NY15">
+        <v>83</v>
+      </c>
+      <c r="NZ15">
+        <v>82</v>
+      </c>
+      <c r="OA15">
+        <v>77</v>
+      </c>
+      <c r="OB15">
+        <v>82</v>
+      </c>
+      <c r="OC15">
+        <v>82</v>
+      </c>
+      <c r="OD15">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -42811,8 +43528,29 @@
       <c r="NW16">
         <v>7</v>
       </c>
+      <c r="NX16">
+        <v>7</v>
+      </c>
+      <c r="NY16">
+        <v>7</v>
+      </c>
+      <c r="NZ16">
+        <v>6</v>
+      </c>
+      <c r="OA16">
+        <v>5</v>
+      </c>
+      <c r="OB16">
+        <v>5</v>
+      </c>
+      <c r="OC16">
+        <v>5</v>
+      </c>
+      <c r="OD16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -43974,8 +44712,29 @@
       <c r="NW17">
         <v>28</v>
       </c>
+      <c r="NX17">
+        <v>31</v>
+      </c>
+      <c r="NY17">
+        <v>30</v>
+      </c>
+      <c r="NZ17">
+        <v>31</v>
+      </c>
+      <c r="OA17">
+        <v>28</v>
+      </c>
+      <c r="OB17">
+        <v>27</v>
+      </c>
+      <c r="OC17">
+        <v>27</v>
+      </c>
+      <c r="OD17">
+        <v>25</v>
+      </c>
     </row>
-    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -45112,7 +45871,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:NW18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:OD18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -45235,50 +45994,78 @@
         <f t="shared" si="1"/>
         <v>3303</v>
       </c>
+      <c r="NX18" s="6">
+        <f t="shared" si="1"/>
+        <v>3260</v>
+      </c>
+      <c r="NY18" s="6">
+        <f t="shared" si="1"/>
+        <v>3188</v>
+      </c>
+      <c r="NZ18" s="6">
+        <f t="shared" si="1"/>
+        <v>3176</v>
+      </c>
+      <c r="OA18" s="6">
+        <f t="shared" si="1"/>
+        <v>3138</v>
+      </c>
+      <c r="OB18" s="6">
+        <f t="shared" si="1"/>
+        <v>3147</v>
+      </c>
+      <c r="OC18" s="6">
+        <f t="shared" si="1"/>
+        <v>3137</v>
+      </c>
+      <c r="OD18" s="6">
+        <f t="shared" si="1"/>
+        <v>3102</v>
+      </c>
     </row>
-    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:394" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:394" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -45298,10 +46085,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:NZ34"/>
+  <dimension ref="A1:OD34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NP1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="NT1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
       <selection pane="topRight" activeCell="NW18" sqref="NW18"/>
     </sheetView>
@@ -45320,7 +46107,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -46482,11 +47269,29 @@
       <c r="NW1" s="8">
         <v>44320</v>
       </c>
-      <c r="NX1" s="8"/>
-      <c r="NY1" s="8"/>
-      <c r="NZ1" s="8"/>
+      <c r="NX1" s="8">
+        <v>44321</v>
+      </c>
+      <c r="NY1" s="8">
+        <v>44322</v>
+      </c>
+      <c r="NZ1" s="8">
+        <v>44323</v>
+      </c>
+      <c r="OA1" s="8">
+        <v>44324</v>
+      </c>
+      <c r="OB1" s="8">
+        <v>44325</v>
+      </c>
+      <c r="OC1" s="8">
+        <v>44326</v>
+      </c>
+      <c r="OD1" s="8">
+        <v>44327</v>
+      </c>
     </row>
-    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -47648,8 +48453,29 @@
       <c r="NW2">
         <v>6</v>
       </c>
+      <c r="NX2">
+        <v>7</v>
+      </c>
+      <c r="NY2">
+        <v>8</v>
+      </c>
+      <c r="NZ2">
+        <v>5</v>
+      </c>
+      <c r="OA2">
+        <v>6</v>
+      </c>
+      <c r="OB2">
+        <v>6</v>
+      </c>
+      <c r="OC2">
+        <v>5</v>
+      </c>
+      <c r="OD2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -48811,8 +49637,29 @@
       <c r="NW3">
         <v>4</v>
       </c>
+      <c r="NX3">
+        <v>3</v>
+      </c>
+      <c r="NY3">
+        <v>3</v>
+      </c>
+      <c r="NZ3">
+        <v>1</v>
+      </c>
+      <c r="OA3">
+        <v>2</v>
+      </c>
+      <c r="OB3">
+        <v>2</v>
+      </c>
+      <c r="OC3">
+        <v>2</v>
+      </c>
+      <c r="OD3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -49974,8 +50821,29 @@
       <c r="NW4">
         <v>55</v>
       </c>
+      <c r="NX4">
+        <v>55</v>
+      </c>
+      <c r="NY4">
+        <v>62</v>
+      </c>
+      <c r="NZ4">
+        <v>53</v>
+      </c>
+      <c r="OA4">
+        <v>58</v>
+      </c>
+      <c r="OB4">
+        <v>55</v>
+      </c>
+      <c r="OC4">
+        <v>61</v>
+      </c>
+      <c r="OD4">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -51137,8 +52005,29 @@
       <c r="NW5">
         <v>8</v>
       </c>
+      <c r="NX5">
+        <v>8</v>
+      </c>
+      <c r="NY5">
+        <v>10</v>
+      </c>
+      <c r="NZ5">
+        <v>11</v>
+      </c>
+      <c r="OA5">
+        <v>10</v>
+      </c>
+      <c r="OB5">
+        <v>9</v>
+      </c>
+      <c r="OC5">
+        <v>11</v>
+      </c>
+      <c r="OD5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -52300,8 +53189,29 @@
       <c r="NW6">
         <v>30</v>
       </c>
+      <c r="NX6">
+        <v>30</v>
+      </c>
+      <c r="NY6">
+        <v>29</v>
+      </c>
+      <c r="NZ6">
+        <v>31</v>
+      </c>
+      <c r="OA6">
+        <v>30</v>
+      </c>
+      <c r="OB6">
+        <v>32</v>
+      </c>
+      <c r="OC6">
+        <v>29</v>
+      </c>
+      <c r="OD6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -53463,8 +54373,29 @@
       <c r="NW7">
         <v>63</v>
       </c>
+      <c r="NX7">
+        <v>71</v>
+      </c>
+      <c r="NY7">
+        <v>73</v>
+      </c>
+      <c r="NZ7">
+        <v>79</v>
+      </c>
+      <c r="OA7">
+        <v>78</v>
+      </c>
+      <c r="OB7">
+        <v>84</v>
+      </c>
+      <c r="OC7">
+        <v>82</v>
+      </c>
+      <c r="OD7">
+        <v>83</v>
+      </c>
     </row>
-    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -54626,8 +55557,29 @@
       <c r="NW8">
         <v>609</v>
       </c>
+      <c r="NX8">
+        <v>628</v>
+      </c>
+      <c r="NY8">
+        <v>654</v>
+      </c>
+      <c r="NZ8">
+        <v>650</v>
+      </c>
+      <c r="OA8">
+        <v>656</v>
+      </c>
+      <c r="OB8">
+        <v>646</v>
+      </c>
+      <c r="OC8">
+        <v>653</v>
+      </c>
+      <c r="OD8">
+        <v>664</v>
+      </c>
     </row>
-    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -55789,8 +56741,29 @@
       <c r="NW9">
         <v>22</v>
       </c>
+      <c r="NX9">
+        <v>21</v>
+      </c>
+      <c r="NY9">
+        <v>25</v>
+      </c>
+      <c r="NZ9">
+        <v>31</v>
+      </c>
+      <c r="OA9">
+        <v>31</v>
+      </c>
+      <c r="OB9">
+        <v>31</v>
+      </c>
+      <c r="OC9">
+        <v>39</v>
+      </c>
+      <c r="OD9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -56952,8 +57925,29 @@
       <c r="NW10">
         <v>20</v>
       </c>
+      <c r="NX10">
+        <v>18</v>
+      </c>
+      <c r="NY10">
+        <v>22</v>
+      </c>
+      <c r="NZ10">
+        <v>24</v>
+      </c>
+      <c r="OA10">
+        <v>21</v>
+      </c>
+      <c r="OB10">
+        <v>23</v>
+      </c>
+      <c r="OC10">
+        <v>24</v>
+      </c>
+      <c r="OD10">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -58115,8 +59109,29 @@
       <c r="NW11">
         <v>16</v>
       </c>
+      <c r="NX11">
+        <v>16</v>
+      </c>
+      <c r="NY11">
+        <v>17</v>
+      </c>
+      <c r="NZ11">
+        <v>15</v>
+      </c>
+      <c r="OA11">
+        <v>15</v>
+      </c>
+      <c r="OB11">
+        <v>17</v>
+      </c>
+      <c r="OC11">
+        <v>15</v>
+      </c>
+      <c r="OD11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -59278,8 +60293,29 @@
       <c r="NW12">
         <v>70</v>
       </c>
+      <c r="NX12">
+        <v>76</v>
+      </c>
+      <c r="NY12">
+        <v>78</v>
+      </c>
+      <c r="NZ12">
+        <v>82</v>
+      </c>
+      <c r="OA12">
+        <v>81</v>
+      </c>
+      <c r="OB12">
+        <v>88</v>
+      </c>
+      <c r="OC12">
+        <v>85</v>
+      </c>
+      <c r="OD12">
+        <v>85</v>
+      </c>
     </row>
-    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -60441,8 +61477,29 @@
       <c r="NW13">
         <v>33</v>
       </c>
+      <c r="NX13">
+        <v>29</v>
+      </c>
+      <c r="NY13">
+        <v>28</v>
+      </c>
+      <c r="NZ13">
+        <v>32</v>
+      </c>
+      <c r="OA13">
+        <v>36</v>
+      </c>
+      <c r="OB13">
+        <v>29</v>
+      </c>
+      <c r="OC13">
+        <v>26</v>
+      </c>
+      <c r="OD13">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -61604,8 +62661,29 @@
       <c r="NW14">
         <v>16</v>
       </c>
+      <c r="NX14">
+        <v>20</v>
+      </c>
+      <c r="NY14">
+        <v>17</v>
+      </c>
+      <c r="NZ14">
+        <v>18</v>
+      </c>
+      <c r="OA14">
+        <v>14</v>
+      </c>
+      <c r="OB14">
+        <v>12</v>
+      </c>
+      <c r="OC14">
+        <v>14</v>
+      </c>
+      <c r="OD14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -62767,8 +63845,29 @@
       <c r="NW15">
         <v>37</v>
       </c>
+      <c r="NX15">
+        <v>34</v>
+      </c>
+      <c r="NY15">
+        <v>38</v>
+      </c>
+      <c r="NZ15">
+        <v>36</v>
+      </c>
+      <c r="OA15">
+        <v>34</v>
+      </c>
+      <c r="OB15">
+        <v>31</v>
+      </c>
+      <c r="OC15">
+        <v>28</v>
+      </c>
+      <c r="OD15">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -63930,8 +65029,29 @@
       <c r="NW16">
         <v>3</v>
       </c>
+      <c r="NX16">
+        <v>2</v>
+      </c>
+      <c r="NY16">
+        <v>3</v>
+      </c>
+      <c r="NZ16">
+        <v>2</v>
+      </c>
+      <c r="OA16">
+        <v>2</v>
+      </c>
+      <c r="OB16">
+        <v>2</v>
+      </c>
+      <c r="OC16">
+        <v>3</v>
+      </c>
+      <c r="OD16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -65093,8 +66213,29 @@
       <c r="NW17">
         <v>10</v>
       </c>
+      <c r="NX17">
+        <v>8</v>
+      </c>
+      <c r="NY17">
+        <v>5</v>
+      </c>
+      <c r="NZ17">
+        <v>4</v>
+      </c>
+      <c r="OA17">
+        <v>9</v>
+      </c>
+      <c r="OB17">
+        <v>9</v>
+      </c>
+      <c r="OC17">
+        <v>10</v>
+      </c>
+      <c r="OD17">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -66256,48 +67397,69 @@
       <c r="NW18" s="20">
         <v>1002</v>
       </c>
+      <c r="NX18" s="20">
+        <v>1026</v>
+      </c>
+      <c r="NY18" s="20">
+        <v>1072</v>
+      </c>
+      <c r="NZ18" s="20">
+        <v>1074</v>
+      </c>
+      <c r="OA18" s="20">
+        <v>1083</v>
+      </c>
+      <c r="OB18" s="20">
+        <v>1076</v>
+      </c>
+      <c r="OC18" s="20">
+        <v>1087</v>
+      </c>
+      <c r="OD18" s="20">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="19" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:394" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -66308,1177 +67470,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="250" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="249" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="248" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="247" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="246" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="245" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="244" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="243" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="242" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="241" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="240" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="239" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="238" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="237" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="236" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="235" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="234" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="233" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="232" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="231" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="230" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="229" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="228" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="227" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="226" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="225" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="224" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="223" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="222" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="221" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="220" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="219" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="218" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="217" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="216" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="215" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="214" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="213" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="212" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="211" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="210" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="209" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="208" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="207" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="206" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="205" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="204" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="203" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="202" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="201" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="200" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="199" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="198" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="197" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="196" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="195" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="194" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="193" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="192" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="191" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="190" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="189" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="188" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="187" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="186" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="185" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="184" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="183" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="182" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="181" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="180" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="179" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="178" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="177" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="176" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="175" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="174" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="173" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="172" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="171" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="170" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="169" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="168" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="167" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="166" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="165" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="164" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="163" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="162" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="161" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="160" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="159" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="158" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="157" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="156" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="155" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="154" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="153" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="152" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="151" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="150" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="149" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="148" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="147" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="146" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="145" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="144" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="143" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="142" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="141" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="140" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="139" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="138" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="137" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="136" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="135" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="134" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="133" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="132" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="131" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="130" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="129" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="128" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="127" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="126" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="125" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="124" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="123" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="122" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="121" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="120" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="119" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="118" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="117" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="116" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="115" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="114" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="113" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="112" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="111" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="110" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="109" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="108" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="107" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="106" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="105" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="104" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="103" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="102" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="101" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="100" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="99" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="98" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="97" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="96" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="95" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="94" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="93" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="92" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="91" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="90" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="89" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="88" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="87" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="86" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="85" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="84" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="83" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="82" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="81" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="80" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="79" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="78" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="77" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="76" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="75" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="74" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="73" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="72" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="71" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="70" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="69" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="68" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="67" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="66" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="64" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="63" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="62" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="61" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="59" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="58" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="56" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="54" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="53" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="51" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="44" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67489,10 +68651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NZ18"/>
+  <dimension ref="A1:OD18"/>
   <sheetViews>
     <sheetView topLeftCell="NP1" workbookViewId="0">
-      <selection activeCell="NS20" sqref="NS20"/>
+      <selection activeCell="NY22" sqref="NY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67500,7 +68662,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -68662,11 +69824,29 @@
       <c r="NW1" s="8">
         <v>44320</v>
       </c>
-      <c r="NX1" s="8"/>
-      <c r="NY1" s="8"/>
-      <c r="NZ1" s="8"/>
+      <c r="NX1" s="8">
+        <v>44321</v>
+      </c>
+      <c r="NY1" s="8">
+        <v>44322</v>
+      </c>
+      <c r="NZ1" s="8">
+        <v>44323</v>
+      </c>
+      <c r="OA1" s="8">
+        <v>44324</v>
+      </c>
+      <c r="OB1" s="8">
+        <v>44325</v>
+      </c>
+      <c r="OC1" s="8">
+        <v>44326</v>
+      </c>
+      <c r="OD1" s="8">
+        <v>44327</v>
+      </c>
     </row>
-    <row r="2" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -69828,8 +71008,29 @@
       <c r="NW2">
         <v>9</v>
       </c>
+      <c r="NX2">
+        <v>9</v>
+      </c>
+      <c r="NY2">
+        <v>9</v>
+      </c>
+      <c r="NZ2">
+        <v>9</v>
+      </c>
+      <c r="OA2">
+        <v>9</v>
+      </c>
+      <c r="OB2">
+        <v>9</v>
+      </c>
+      <c r="OC2">
+        <v>9</v>
+      </c>
+      <c r="OD2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -70991,8 +72192,29 @@
       <c r="NW3">
         <v>12</v>
       </c>
+      <c r="NX3">
+        <v>12</v>
+      </c>
+      <c r="NY3">
+        <v>12</v>
+      </c>
+      <c r="NZ3">
+        <v>12</v>
+      </c>
+      <c r="OA3">
+        <v>12</v>
+      </c>
+      <c r="OB3">
+        <v>12</v>
+      </c>
+      <c r="OC3">
+        <v>12</v>
+      </c>
+      <c r="OD3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -72154,8 +73376,29 @@
       <c r="NW4">
         <v>48</v>
       </c>
+      <c r="NX4">
+        <v>48</v>
+      </c>
+      <c r="NY4">
+        <v>48</v>
+      </c>
+      <c r="NZ4">
+        <v>48</v>
+      </c>
+      <c r="OA4">
+        <v>48</v>
+      </c>
+      <c r="OB4">
+        <v>48</v>
+      </c>
+      <c r="OC4">
+        <v>48</v>
+      </c>
+      <c r="OD4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -73317,8 +74560,29 @@
       <c r="NW5">
         <v>11</v>
       </c>
+      <c r="NX5">
+        <v>11</v>
+      </c>
+      <c r="NY5">
+        <v>11</v>
+      </c>
+      <c r="NZ5">
+        <v>11</v>
+      </c>
+      <c r="OA5">
+        <v>11</v>
+      </c>
+      <c r="OB5">
+        <v>11</v>
+      </c>
+      <c r="OC5">
+        <v>11</v>
+      </c>
+      <c r="OD5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -74480,8 +75744,29 @@
       <c r="NW6">
         <v>29</v>
       </c>
+      <c r="NX6">
+        <v>29</v>
+      </c>
+      <c r="NY6">
+        <v>29</v>
+      </c>
+      <c r="NZ6">
+        <v>29</v>
+      </c>
+      <c r="OA6">
+        <v>29</v>
+      </c>
+      <c r="OB6">
+        <v>29</v>
+      </c>
+      <c r="OC6">
+        <v>29</v>
+      </c>
+      <c r="OD6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -75643,8 +76928,29 @@
       <c r="NW7">
         <v>125</v>
       </c>
+      <c r="NX7">
+        <v>125</v>
+      </c>
+      <c r="NY7">
+        <v>125</v>
+      </c>
+      <c r="NZ7">
+        <v>125</v>
+      </c>
+      <c r="OA7">
+        <v>125</v>
+      </c>
+      <c r="OB7">
+        <v>125</v>
+      </c>
+      <c r="OC7">
+        <v>125</v>
+      </c>
+      <c r="OD7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -76806,8 +78112,29 @@
       <c r="NW8">
         <v>745</v>
       </c>
+      <c r="NX8">
+        <v>745</v>
+      </c>
+      <c r="NY8">
+        <v>745</v>
+      </c>
+      <c r="NZ8">
+        <v>745</v>
+      </c>
+      <c r="OA8">
+        <v>745</v>
+      </c>
+      <c r="OB8">
+        <v>745</v>
+      </c>
+      <c r="OC8">
+        <v>745</v>
+      </c>
+      <c r="OD8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -77969,8 +79296,29 @@
       <c r="NW9">
         <v>61</v>
       </c>
+      <c r="NX9">
+        <v>61</v>
+      </c>
+      <c r="NY9">
+        <v>61</v>
+      </c>
+      <c r="NZ9">
+        <v>61</v>
+      </c>
+      <c r="OA9">
+        <v>61</v>
+      </c>
+      <c r="OB9">
+        <v>61</v>
+      </c>
+      <c r="OC9">
+        <v>61</v>
+      </c>
+      <c r="OD9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -79132,8 +80480,29 @@
       <c r="NW10">
         <v>45</v>
       </c>
+      <c r="NX10">
+        <v>45</v>
+      </c>
+      <c r="NY10">
+        <v>45</v>
+      </c>
+      <c r="NZ10">
+        <v>45</v>
+      </c>
+      <c r="OA10">
+        <v>45</v>
+      </c>
+      <c r="OB10">
+        <v>45</v>
+      </c>
+      <c r="OC10">
+        <v>45</v>
+      </c>
+      <c r="OD10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -80295,8 +81664,29 @@
       <c r="NW11">
         <v>16</v>
       </c>
+      <c r="NX11">
+        <v>16</v>
+      </c>
+      <c r="NY11">
+        <v>16</v>
+      </c>
+      <c r="NZ11">
+        <v>16</v>
+      </c>
+      <c r="OA11">
+        <v>16</v>
+      </c>
+      <c r="OB11">
+        <v>16</v>
+      </c>
+      <c r="OC11">
+        <v>16</v>
+      </c>
+      <c r="OD11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -81458,8 +82848,29 @@
       <c r="NW12">
         <v>97</v>
       </c>
+      <c r="NX12">
+        <v>97</v>
+      </c>
+      <c r="NY12">
+        <v>97</v>
+      </c>
+      <c r="NZ12">
+        <v>97</v>
+      </c>
+      <c r="OA12">
+        <v>97</v>
+      </c>
+      <c r="OB12">
+        <v>97</v>
+      </c>
+      <c r="OC12">
+        <v>97</v>
+      </c>
+      <c r="OD12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -82621,8 +84032,29 @@
       <c r="NW13">
         <v>49</v>
       </c>
+      <c r="NX13">
+        <v>49</v>
+      </c>
+      <c r="NY13">
+        <v>49</v>
+      </c>
+      <c r="NZ13">
+        <v>49</v>
+      </c>
+      <c r="OA13">
+        <v>49</v>
+      </c>
+      <c r="OB13">
+        <v>49</v>
+      </c>
+      <c r="OC13">
+        <v>49</v>
+      </c>
+      <c r="OD13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -83784,8 +85216,29 @@
       <c r="NW14">
         <v>13</v>
       </c>
+      <c r="NX14">
+        <v>13</v>
+      </c>
+      <c r="NY14">
+        <v>13</v>
+      </c>
+      <c r="NZ14">
+        <v>13</v>
+      </c>
+      <c r="OA14">
+        <v>13</v>
+      </c>
+      <c r="OB14">
+        <v>13</v>
+      </c>
+      <c r="OC14">
+        <v>13</v>
+      </c>
+      <c r="OD14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -84947,8 +86400,29 @@
       <c r="NW15">
         <v>49</v>
       </c>
+      <c r="NX15">
+        <v>49</v>
+      </c>
+      <c r="NY15">
+        <v>49</v>
+      </c>
+      <c r="NZ15">
+        <v>49</v>
+      </c>
+      <c r="OA15">
+        <v>49</v>
+      </c>
+      <c r="OB15">
+        <v>49</v>
+      </c>
+      <c r="OC15">
+        <v>49</v>
+      </c>
+      <c r="OD15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:390" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -86110,8 +87584,29 @@
       <c r="NW16">
         <v>8</v>
       </c>
+      <c r="NX16">
+        <v>8</v>
+      </c>
+      <c r="NY16">
+        <v>8</v>
+      </c>
+      <c r="NZ16">
+        <v>8</v>
+      </c>
+      <c r="OA16">
+        <v>8</v>
+      </c>
+      <c r="OB16">
+        <v>8</v>
+      </c>
+      <c r="OC16">
+        <v>8</v>
+      </c>
+      <c r="OD16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -87273,8 +88768,29 @@
       <c r="NW17">
         <v>14</v>
       </c>
+      <c r="NX17">
+        <v>14</v>
+      </c>
+      <c r="NY17">
+        <v>14</v>
+      </c>
+      <c r="NZ17">
+        <v>14</v>
+      </c>
+      <c r="OA17">
+        <v>14</v>
+      </c>
+      <c r="OB17">
+        <v>14</v>
+      </c>
+      <c r="OC17">
+        <v>14</v>
+      </c>
+      <c r="OD17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:387" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -88822,85 +90338,118 @@
         <f t="shared" si="12"/>
         <v>1331</v>
       </c>
+      <c r="NX18" s="6">
+        <f t="shared" ref="NX18:OD18" si="13">SUM(NX2:NX17)</f>
+        <v>1331</v>
+      </c>
+      <c r="NY18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
+      <c r="NZ18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
+      <c r="OA18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
+      <c r="OB18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
+      <c r="OC18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
+      <c r="OD18" s="6">
+        <f t="shared" si="13"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="15" priority="248" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="249" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="14" priority="246" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="247" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="13" priority="245" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="246" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV18:NB18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NC18:NI18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NJ18:NP18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NQ18:NW18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="NX18:OD18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="254">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3100,12 +3110,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OD20"/>
+  <dimension ref="A1:OK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NV1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OB1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OF6" sqref="OF6"/>
+      <selection pane="topRight" activeCell="OE18" sqref="OE18:OK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,7 +3136,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4309,8 +4319,29 @@
       <c r="OD1" s="8">
         <v>44327</v>
       </c>
+      <c r="OE1" s="8">
+        <v>44328</v>
+      </c>
+      <c r="OF1" s="8">
+        <v>44329</v>
+      </c>
+      <c r="OG1" s="8">
+        <v>44330</v>
+      </c>
+      <c r="OH1" s="8">
+        <v>44331</v>
+      </c>
+      <c r="OI1" s="8">
+        <v>44332</v>
+      </c>
+      <c r="OJ1" s="8">
+        <v>44333</v>
+      </c>
+      <c r="OK1" s="8">
+        <v>44334</v>
+      </c>
     </row>
-    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5493,8 +5524,29 @@
       <c r="OD2" s="11">
         <v>40</v>
       </c>
+      <c r="OE2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OF2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OG2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OH2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OI2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OJ2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OK2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6677,8 +6729,29 @@
       <c r="OD3" s="11">
         <v>62</v>
       </c>
+      <c r="OE3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OF3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OG3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OH3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OI3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OJ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OK3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7861,8 +7934,29 @@
       <c r="OD4" s="11">
         <v>165</v>
       </c>
+      <c r="OE4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OF4" s="11">
+        <v>161</v>
+      </c>
+      <c r="OG4" s="11">
+        <v>161</v>
+      </c>
+      <c r="OH4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OI4" s="11">
+        <v>166</v>
+      </c>
+      <c r="OJ4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OK4" s="11">
+        <v>163</v>
+      </c>
     </row>
-    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9045,8 +9139,29 @@
       <c r="OD5" s="11">
         <v>34</v>
       </c>
+      <c r="OE5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OF5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OG5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OH5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OI5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OJ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OK5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10229,8 +10344,29 @@
       <c r="OD6" s="11">
         <v>140</v>
       </c>
+      <c r="OE6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OF6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OG6" s="11">
+        <v>140</v>
+      </c>
+      <c r="OH6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OI6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OJ6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OK6" s="11">
+        <v>134</v>
+      </c>
     </row>
-    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11413,8 +11549,29 @@
       <c r="OD7" s="11">
         <v>342</v>
       </c>
+      <c r="OE7" s="11">
+        <v>340</v>
+      </c>
+      <c r="OF7" s="11">
+        <v>340</v>
+      </c>
+      <c r="OG7" s="11">
+        <v>338</v>
+      </c>
+      <c r="OH7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OI7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OJ7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OK7" s="11">
+        <v>334</v>
+      </c>
     </row>
-    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12597,8 +12754,29 @@
       <c r="OD8" s="11">
         <v>2607</v>
       </c>
+      <c r="OE8" s="11">
+        <v>2602</v>
+      </c>
+      <c r="OF8" s="11">
+        <v>2598</v>
+      </c>
+      <c r="OG8" s="11">
+        <v>2597</v>
+      </c>
+      <c r="OH8" s="11">
+        <v>2595</v>
+      </c>
+      <c r="OI8" s="11">
+        <v>2595</v>
+      </c>
+      <c r="OJ8" s="11">
+        <v>2594</v>
+      </c>
+      <c r="OK8" s="11">
+        <v>2593</v>
+      </c>
     </row>
-    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -13781,8 +13959,29 @@
       <c r="OD9" s="11">
         <v>206</v>
       </c>
+      <c r="OE9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OF9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OG9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OH9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OI9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OJ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OK9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -14965,8 +15164,29 @@
       <c r="OD10" s="11">
         <v>166</v>
       </c>
+      <c r="OE10" s="11">
+        <v>157</v>
+      </c>
+      <c r="OF10" s="11">
+        <v>163</v>
+      </c>
+      <c r="OG10" s="11">
+        <v>162</v>
+      </c>
+      <c r="OH10" s="11">
+        <v>162</v>
+      </c>
+      <c r="OI10" s="11">
+        <v>156</v>
+      </c>
+      <c r="OJ10" s="11">
+        <v>162</v>
+      </c>
+      <c r="OK10" s="11">
+        <v>162</v>
+      </c>
     </row>
-    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -16149,8 +16369,29 @@
       <c r="OD11" s="11">
         <v>73</v>
       </c>
+      <c r="OE11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OF11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OG11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OH11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OI11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OJ11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OK11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -17333,8 +17574,29 @@
       <c r="OD12" s="11">
         <v>316</v>
       </c>
+      <c r="OE12" s="11">
+        <v>316</v>
+      </c>
+      <c r="OF12" s="11">
+        <v>316</v>
+      </c>
+      <c r="OG12" s="11">
+        <v>311</v>
+      </c>
+      <c r="OH12" s="11">
+        <v>311</v>
+      </c>
+      <c r="OI12" s="11">
+        <v>310</v>
+      </c>
+      <c r="OJ12" s="11">
+        <v>310</v>
+      </c>
+      <c r="OK12" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -18517,8 +18779,29 @@
       <c r="OD13" s="11">
         <v>151</v>
       </c>
+      <c r="OE13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OF13" s="11">
+        <v>149</v>
+      </c>
+      <c r="OG13" s="11">
+        <v>148</v>
+      </c>
+      <c r="OH13" s="11">
+        <v>145</v>
+      </c>
+      <c r="OI13" s="11">
+        <v>145</v>
+      </c>
+      <c r="OJ13" s="11">
+        <v>145</v>
+      </c>
+      <c r="OK13" s="11">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -19701,8 +19984,29 @@
       <c r="OD14" s="11">
         <v>41</v>
       </c>
+      <c r="OE14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OF14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OG14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OH14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OI14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OJ14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OK14" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -20885,8 +21189,29 @@
       <c r="OD15" s="11">
         <v>128</v>
       </c>
+      <c r="OE15" s="11">
+        <v>128</v>
+      </c>
+      <c r="OF15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OG15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OH15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OI15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OJ15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OK15" s="11">
+        <v>126</v>
+      </c>
     </row>
-    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -22069,8 +22394,29 @@
       <c r="OD16" s="11">
         <v>10</v>
       </c>
+      <c r="OE16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OF16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OG16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OH16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OI16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OJ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OK16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -23253,8 +23599,29 @@
       <c r="OD17" s="11">
         <v>44</v>
       </c>
+      <c r="OE17" s="11">
+        <v>43</v>
+      </c>
+      <c r="OF17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OG17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OH17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OI17" s="11">
+        <v>48</v>
+      </c>
+      <c r="OJ17" s="11">
+        <v>48</v>
+      </c>
+      <c r="OK17" s="11">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -24414,7 +24781,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:OD18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:OK18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -24557,13 +24924,41 @@
         <f t="shared" si="7"/>
         <v>4525</v>
       </c>
+      <c r="OE18" s="6">
+        <f t="shared" si="7"/>
+        <v>4505</v>
+      </c>
+      <c r="OF18" s="6">
+        <f t="shared" si="7"/>
+        <v>4506</v>
+      </c>
+      <c r="OG18" s="6">
+        <f t="shared" si="7"/>
+        <v>4496</v>
+      </c>
+      <c r="OH18" s="6">
+        <f t="shared" si="7"/>
+        <v>4484</v>
+      </c>
+      <c r="OI18" s="6">
+        <f t="shared" si="7"/>
+        <v>4480</v>
+      </c>
+      <c r="OJ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4483</v>
+      </c>
+      <c r="OK18" s="6">
+        <f t="shared" si="7"/>
+        <v>4481</v>
+      </c>
     </row>
-    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -24581,12 +24976,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OD34"/>
+  <dimension ref="A1:OK34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NU1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="OA1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="NX21" sqref="NX21"/>
+      <selection pane="topRight" activeCell="OF22" sqref="OF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24606,7 +25001,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -25789,8 +26184,29 @@
       <c r="OD1" s="8">
         <v>44327</v>
       </c>
+      <c r="OE1" s="8">
+        <v>44328</v>
+      </c>
+      <c r="OF1" s="8">
+        <v>44329</v>
+      </c>
+      <c r="OG1" s="8">
+        <v>44330</v>
+      </c>
+      <c r="OH1" s="8">
+        <v>44331</v>
+      </c>
+      <c r="OI1" s="8">
+        <v>44332</v>
+      </c>
+      <c r="OJ1" s="8">
+        <v>44333</v>
+      </c>
+      <c r="OK1" s="8">
+        <v>44334</v>
+      </c>
     </row>
-    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26973,8 +27389,29 @@
       <c r="OD2">
         <v>30</v>
       </c>
+      <c r="OE2">
+        <v>29</v>
+      </c>
+      <c r="OF2">
+        <v>28</v>
+      </c>
+      <c r="OG2">
+        <v>28</v>
+      </c>
+      <c r="OH2">
+        <v>26</v>
+      </c>
+      <c r="OI2">
+        <v>24</v>
+      </c>
+      <c r="OJ2">
+        <v>27</v>
+      </c>
+      <c r="OK2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -28157,8 +28594,29 @@
       <c r="OD3">
         <v>53</v>
       </c>
+      <c r="OE3">
+        <v>50</v>
+      </c>
+      <c r="OF3">
+        <v>47</v>
+      </c>
+      <c r="OG3">
+        <v>51</v>
+      </c>
+      <c r="OH3">
+        <v>49</v>
+      </c>
+      <c r="OI3">
+        <v>48</v>
+      </c>
+      <c r="OJ3">
+        <v>48</v>
+      </c>
+      <c r="OK3">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -29341,8 +29799,29 @@
       <c r="OD4">
         <v>92</v>
       </c>
+      <c r="OE4">
+        <v>90</v>
+      </c>
+      <c r="OF4">
+        <v>86</v>
+      </c>
+      <c r="OG4">
+        <v>84</v>
+      </c>
+      <c r="OH4">
+        <v>88</v>
+      </c>
+      <c r="OI4">
+        <v>88</v>
+      </c>
+      <c r="OJ4">
+        <v>90</v>
+      </c>
+      <c r="OK4">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -30525,8 +31004,29 @@
       <c r="OD5">
         <v>19</v>
       </c>
+      <c r="OE5">
+        <v>23</v>
+      </c>
+      <c r="OF5">
+        <v>20</v>
+      </c>
+      <c r="OG5">
+        <v>22</v>
+      </c>
+      <c r="OH5">
+        <v>20</v>
+      </c>
+      <c r="OI5">
+        <v>23</v>
+      </c>
+      <c r="OJ5">
+        <v>23</v>
+      </c>
+      <c r="OK5">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -31709,8 +32209,29 @@
       <c r="OD6">
         <v>95</v>
       </c>
+      <c r="OE6">
+        <v>89</v>
+      </c>
+      <c r="OF6">
+        <v>91</v>
+      </c>
+      <c r="OG6">
+        <v>92</v>
+      </c>
+      <c r="OH6">
+        <v>92</v>
+      </c>
+      <c r="OI6">
+        <v>91</v>
+      </c>
+      <c r="OJ6">
+        <v>93</v>
+      </c>
+      <c r="OK6">
+        <v>94</v>
+      </c>
     </row>
-    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -32893,8 +33414,29 @@
       <c r="OD7">
         <v>245</v>
       </c>
+      <c r="OE7">
+        <v>234</v>
+      </c>
+      <c r="OF7">
+        <v>232</v>
+      </c>
+      <c r="OG7">
+        <v>220</v>
+      </c>
+      <c r="OH7">
+        <v>218</v>
+      </c>
+      <c r="OI7">
+        <v>225</v>
+      </c>
+      <c r="OJ7">
+        <v>225</v>
+      </c>
+      <c r="OK7">
+        <v>222</v>
+      </c>
     </row>
-    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -34077,8 +34619,29 @@
       <c r="OD8">
         <v>1834</v>
       </c>
+      <c r="OE8">
+        <v>1805</v>
+      </c>
+      <c r="OF8">
+        <v>1759</v>
+      </c>
+      <c r="OG8">
+        <v>1769</v>
+      </c>
+      <c r="OH8">
+        <v>1768</v>
+      </c>
+      <c r="OI8">
+        <v>1765</v>
+      </c>
+      <c r="OJ8">
+        <v>1772</v>
+      </c>
+      <c r="OK8">
+        <v>1787</v>
+      </c>
     </row>
-    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -35261,8 +35824,29 @@
       <c r="OD9">
         <v>122</v>
       </c>
+      <c r="OE9">
+        <v>123</v>
+      </c>
+      <c r="OF9">
+        <v>127</v>
+      </c>
+      <c r="OG9">
+        <v>120</v>
+      </c>
+      <c r="OH9">
+        <v>116</v>
+      </c>
+      <c r="OI9">
+        <v>117</v>
+      </c>
+      <c r="OJ9">
+        <v>118</v>
+      </c>
+      <c r="OK9">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -36445,8 +37029,29 @@
       <c r="OD10">
         <v>134</v>
       </c>
+      <c r="OE10">
+        <v>124</v>
+      </c>
+      <c r="OF10">
+        <v>121</v>
+      </c>
+      <c r="OG10">
+        <v>121</v>
+      </c>
+      <c r="OH10">
+        <v>113</v>
+      </c>
+      <c r="OI10">
+        <v>110</v>
+      </c>
+      <c r="OJ10">
+        <v>106</v>
+      </c>
+      <c r="OK10">
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -37629,8 +38234,29 @@
       <c r="OD11">
         <v>45</v>
       </c>
+      <c r="OE11">
+        <v>42</v>
+      </c>
+      <c r="OF11">
+        <v>44</v>
+      </c>
+      <c r="OG11">
+        <v>44</v>
+      </c>
+      <c r="OH11">
+        <v>45</v>
+      </c>
+      <c r="OI11">
+        <v>47</v>
+      </c>
+      <c r="OJ11">
+        <v>48</v>
+      </c>
+      <c r="OK11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -38813,8 +39439,29 @@
       <c r="OD12">
         <v>195</v>
       </c>
+      <c r="OE12">
+        <v>194</v>
+      </c>
+      <c r="OF12">
+        <v>190</v>
+      </c>
+      <c r="OG12">
+        <v>190</v>
+      </c>
+      <c r="OH12">
+        <v>181</v>
+      </c>
+      <c r="OI12">
+        <v>186</v>
+      </c>
+      <c r="OJ12">
+        <v>185</v>
+      </c>
+      <c r="OK12">
+        <v>185</v>
+      </c>
     </row>
-    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -39997,8 +40644,29 @@
       <c r="OD13">
         <v>109</v>
       </c>
+      <c r="OE13">
+        <v>110</v>
+      </c>
+      <c r="OF13">
+        <v>103</v>
+      </c>
+      <c r="OG13">
+        <v>108</v>
+      </c>
+      <c r="OH13">
+        <v>108</v>
+      </c>
+      <c r="OI13">
+        <v>103</v>
+      </c>
+      <c r="OJ13">
+        <v>104</v>
+      </c>
+      <c r="OK13">
+        <v>99</v>
+      </c>
     </row>
-    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -41181,8 +41849,29 @@
       <c r="OD14">
         <v>22</v>
       </c>
+      <c r="OE14">
+        <v>22</v>
+      </c>
+      <c r="OF14">
+        <v>24</v>
+      </c>
+      <c r="OG14">
+        <v>22</v>
+      </c>
+      <c r="OH14">
+        <v>22</v>
+      </c>
+      <c r="OI14">
+        <v>20</v>
+      </c>
+      <c r="OJ14">
+        <v>20</v>
+      </c>
+      <c r="OK14">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -42365,8 +43054,29 @@
       <c r="OD15">
         <v>77</v>
       </c>
+      <c r="OE15">
+        <v>70</v>
+      </c>
+      <c r="OF15">
+        <v>69</v>
+      </c>
+      <c r="OG15">
+        <v>70</v>
+      </c>
+      <c r="OH15">
+        <v>70</v>
+      </c>
+      <c r="OI15">
+        <v>71</v>
+      </c>
+      <c r="OJ15">
+        <v>74</v>
+      </c>
+      <c r="OK15">
+        <v>74</v>
+      </c>
     </row>
-    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -43549,8 +44259,29 @@
       <c r="OD16">
         <v>5</v>
       </c>
+      <c r="OE16">
+        <v>5</v>
+      </c>
+      <c r="OF16">
+        <v>5</v>
+      </c>
+      <c r="OG16">
+        <v>6</v>
+      </c>
+      <c r="OH16">
+        <v>6</v>
+      </c>
+      <c r="OI16">
+        <v>5</v>
+      </c>
+      <c r="OJ16">
+        <v>5</v>
+      </c>
+      <c r="OK16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -44733,8 +45464,29 @@
       <c r="OD17">
         <v>25</v>
       </c>
+      <c r="OE17">
+        <v>26</v>
+      </c>
+      <c r="OF17">
+        <v>30</v>
+      </c>
+      <c r="OG17">
+        <v>29</v>
+      </c>
+      <c r="OH17">
+        <v>31</v>
+      </c>
+      <c r="OI17">
+        <v>31</v>
+      </c>
+      <c r="OJ17">
+        <v>31</v>
+      </c>
+      <c r="OK17">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -45871,7 +46623,7 @@
         <v>2867</v>
       </c>
       <c r="MS18" s="6">
-        <f t="shared" ref="MS18:OD18" si="1">SUM(MS2:MS17)</f>
+        <f t="shared" ref="MS18:OK18" si="1">SUM(MS2:MS17)</f>
         <v>2884</v>
       </c>
       <c r="MT18" s="6">
@@ -46022,50 +46774,78 @@
         <f t="shared" si="1"/>
         <v>3102</v>
       </c>
+      <c r="OE18" s="6">
+        <f t="shared" si="1"/>
+        <v>3036</v>
+      </c>
+      <c r="OF18" s="6">
+        <f t="shared" si="1"/>
+        <v>2976</v>
+      </c>
+      <c r="OG18" s="6">
+        <f t="shared" si="1"/>
+        <v>2976</v>
+      </c>
+      <c r="OH18" s="6">
+        <f t="shared" si="1"/>
+        <v>2953</v>
+      </c>
+      <c r="OI18" s="6">
+        <f t="shared" si="1"/>
+        <v>2954</v>
+      </c>
+      <c r="OJ18" s="6">
+        <f t="shared" si="1"/>
+        <v>2969</v>
+      </c>
+      <c r="OK18" s="6">
+        <f t="shared" si="1"/>
+        <v>2979</v>
+      </c>
     </row>
-    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:401" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:401" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:401" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -46085,12 +46865,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:OD34"/>
+  <dimension ref="A1:OK34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NT1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OC1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="NW18" sqref="NW18"/>
+      <selection pane="topRight" activeCell="OM20" sqref="OM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46107,7 +46887,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -47290,8 +48070,29 @@
       <c r="OD1" s="8">
         <v>44327</v>
       </c>
+      <c r="OE1" s="8">
+        <v>44328</v>
+      </c>
+      <c r="OF1" s="8">
+        <v>44329</v>
+      </c>
+      <c r="OG1" s="8">
+        <v>44330</v>
+      </c>
+      <c r="OH1" s="8">
+        <v>44331</v>
+      </c>
+      <c r="OI1" s="8">
+        <v>44332</v>
+      </c>
+      <c r="OJ1" s="8">
+        <v>44333</v>
+      </c>
+      <c r="OK1" s="8">
+        <v>44334</v>
+      </c>
     </row>
-    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -48474,8 +49275,29 @@
       <c r="OD2">
         <v>6</v>
       </c>
+      <c r="OE2">
+        <v>8</v>
+      </c>
+      <c r="OF2">
+        <v>6</v>
+      </c>
+      <c r="OG2">
+        <v>6</v>
+      </c>
+      <c r="OH2">
+        <v>8</v>
+      </c>
+      <c r="OI2">
+        <v>9</v>
+      </c>
+      <c r="OJ2">
+        <v>8</v>
+      </c>
+      <c r="OK2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -49658,8 +50480,29 @@
       <c r="OD3">
         <v>3</v>
       </c>
+      <c r="OE3">
+        <v>4</v>
+      </c>
+      <c r="OF3">
+        <v>3</v>
+      </c>
+      <c r="OG3">
+        <v>2</v>
+      </c>
+      <c r="OH3">
+        <v>2</v>
+      </c>
+      <c r="OI3">
+        <v>1</v>
+      </c>
+      <c r="OJ3">
+        <v>6</v>
+      </c>
+      <c r="OK3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -50842,8 +51685,29 @@
       <c r="OD4">
         <v>57</v>
       </c>
+      <c r="OE4">
+        <v>52</v>
+      </c>
+      <c r="OF4">
+        <v>64</v>
+      </c>
+      <c r="OG4">
+        <v>56</v>
+      </c>
+      <c r="OH4">
+        <v>67</v>
+      </c>
+      <c r="OI4">
+        <v>65</v>
+      </c>
+      <c r="OJ4">
+        <v>64</v>
+      </c>
+      <c r="OK4">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -52026,8 +52890,29 @@
       <c r="OD5">
         <v>11</v>
       </c>
+      <c r="OE5">
+        <v>9</v>
+      </c>
+      <c r="OF5">
+        <v>11</v>
+      </c>
+      <c r="OG5">
+        <v>9</v>
+      </c>
+      <c r="OH5">
+        <v>9</v>
+      </c>
+      <c r="OI5">
+        <v>6</v>
+      </c>
+      <c r="OJ5">
+        <v>5</v>
+      </c>
+      <c r="OK5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -53210,8 +54095,29 @@
       <c r="OD6">
         <v>31</v>
       </c>
+      <c r="OE6">
+        <v>33</v>
+      </c>
+      <c r="OF6">
+        <v>34</v>
+      </c>
+      <c r="OG6">
+        <v>30</v>
+      </c>
+      <c r="OH6">
+        <v>32</v>
+      </c>
+      <c r="OI6">
+        <v>30</v>
+      </c>
+      <c r="OJ6">
+        <v>32</v>
+      </c>
+      <c r="OK6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -54394,8 +55300,29 @@
       <c r="OD7">
         <v>83</v>
       </c>
+      <c r="OE7">
+        <v>79</v>
+      </c>
+      <c r="OF7">
+        <v>88</v>
+      </c>
+      <c r="OG7">
+        <v>102</v>
+      </c>
+      <c r="OH7">
+        <v>100</v>
+      </c>
+      <c r="OI7">
+        <v>95</v>
+      </c>
+      <c r="OJ7">
+        <v>96</v>
+      </c>
+      <c r="OK7">
+        <v>92</v>
+      </c>
     </row>
-    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -55578,8 +56505,29 @@
       <c r="OD8">
         <v>664</v>
       </c>
+      <c r="OE8">
+        <v>671</v>
+      </c>
+      <c r="OF8">
+        <v>688</v>
+      </c>
+      <c r="OG8">
+        <v>704</v>
+      </c>
+      <c r="OH8">
+        <v>694</v>
+      </c>
+      <c r="OI8">
+        <v>705</v>
+      </c>
+      <c r="OJ8">
+        <v>699</v>
+      </c>
+      <c r="OK8">
+        <v>701</v>
+      </c>
     </row>
-    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -56762,8 +57710,29 @@
       <c r="OD9">
         <v>42</v>
       </c>
+      <c r="OE9">
+        <v>37</v>
+      </c>
+      <c r="OF9">
+        <v>32</v>
+      </c>
+      <c r="OG9">
+        <v>44</v>
+      </c>
+      <c r="OH9">
+        <v>48</v>
+      </c>
+      <c r="OI9">
+        <v>40</v>
+      </c>
+      <c r="OJ9">
+        <v>44</v>
+      </c>
+      <c r="OK9">
+        <v>47</v>
+      </c>
     </row>
-    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -57946,8 +58915,29 @@
       <c r="OD10">
         <v>24</v>
       </c>
+      <c r="OE10">
+        <v>24</v>
+      </c>
+      <c r="OF10">
+        <v>24</v>
+      </c>
+      <c r="OG10">
+        <v>25</v>
+      </c>
+      <c r="OH10">
+        <v>24</v>
+      </c>
+      <c r="OI10">
+        <v>23</v>
+      </c>
+      <c r="OJ10">
+        <v>26</v>
+      </c>
+      <c r="OK10">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -59130,8 +60120,29 @@
       <c r="OD11">
         <v>14</v>
       </c>
+      <c r="OE11">
+        <v>15</v>
+      </c>
+      <c r="OF11">
+        <v>15</v>
+      </c>
+      <c r="OG11">
+        <v>12</v>
+      </c>
+      <c r="OH11">
+        <v>11</v>
+      </c>
+      <c r="OI11">
+        <v>13</v>
+      </c>
+      <c r="OJ11">
+        <v>12</v>
+      </c>
+      <c r="OK11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -60314,8 +61325,29 @@
       <c r="OD12">
         <v>85</v>
       </c>
+      <c r="OE12">
+        <v>90</v>
+      </c>
+      <c r="OF12">
+        <v>92</v>
+      </c>
+      <c r="OG12">
+        <v>91</v>
+      </c>
+      <c r="OH12">
+        <v>90</v>
+      </c>
+      <c r="OI12">
+        <v>88</v>
+      </c>
+      <c r="OJ12">
+        <v>88</v>
+      </c>
+      <c r="OK12">
+        <v>90</v>
+      </c>
     </row>
-    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -61498,8 +62530,29 @@
       <c r="OD13">
         <v>33</v>
       </c>
+      <c r="OE13">
+        <v>33</v>
+      </c>
+      <c r="OF13">
+        <v>35</v>
+      </c>
+      <c r="OG13">
+        <v>31</v>
+      </c>
+      <c r="OH13">
+        <v>31</v>
+      </c>
+      <c r="OI13">
+        <v>31</v>
+      </c>
+      <c r="OJ13">
+        <v>34</v>
+      </c>
+      <c r="OK13">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -62682,8 +63735,29 @@
       <c r="OD14">
         <v>12</v>
       </c>
+      <c r="OE14">
+        <v>12</v>
+      </c>
+      <c r="OF14">
+        <v>15</v>
+      </c>
+      <c r="OG14">
+        <v>16</v>
+      </c>
+      <c r="OH14">
+        <v>17</v>
+      </c>
+      <c r="OI14">
+        <v>18</v>
+      </c>
+      <c r="OJ14">
+        <v>19</v>
+      </c>
+      <c r="OK14">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -63866,8 +64940,29 @@
       <c r="OD15">
         <v>35</v>
       </c>
+      <c r="OE15">
+        <v>42</v>
+      </c>
+      <c r="OF15">
+        <v>43</v>
+      </c>
+      <c r="OG15">
+        <v>48</v>
+      </c>
+      <c r="OH15">
+        <v>47</v>
+      </c>
+      <c r="OI15">
+        <v>46</v>
+      </c>
+      <c r="OJ15">
+        <v>44</v>
+      </c>
+      <c r="OK15">
+        <v>43</v>
+      </c>
     </row>
-    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -65050,8 +66145,29 @@
       <c r="OD16">
         <v>1</v>
       </c>
+      <c r="OE16">
+        <v>3</v>
+      </c>
+      <c r="OF16">
+        <v>3</v>
+      </c>
+      <c r="OG16">
+        <v>4</v>
+      </c>
+      <c r="OH16">
+        <v>4</v>
+      </c>
+      <c r="OI16">
+        <v>4</v>
+      </c>
+      <c r="OJ16">
+        <v>4</v>
+      </c>
+      <c r="OK16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -66234,8 +67350,29 @@
       <c r="OD17">
         <v>9</v>
       </c>
+      <c r="OE17">
+        <v>10</v>
+      </c>
+      <c r="OF17">
+        <v>9</v>
+      </c>
+      <c r="OG17">
+        <v>8</v>
+      </c>
+      <c r="OH17">
+        <v>10</v>
+      </c>
+      <c r="OI17">
+        <v>11</v>
+      </c>
+      <c r="OJ17">
+        <v>10</v>
+      </c>
+      <c r="OK17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -67418,48 +68555,69 @@
       <c r="OD18" s="20">
         <v>1110</v>
       </c>
+      <c r="OE18" s="20">
+        <v>1122</v>
+      </c>
+      <c r="OF18" s="20">
+        <v>1162</v>
+      </c>
+      <c r="OG18" s="20">
+        <v>1188</v>
+      </c>
+      <c r="OH18" s="20">
+        <v>1194</v>
+      </c>
+      <c r="OI18" s="20">
+        <v>1185</v>
+      </c>
+      <c r="OJ18" s="20">
+        <v>1191</v>
+      </c>
+      <c r="OK18" s="20">
+        <v>1187</v>
+      </c>
     </row>
-    <row r="19" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:401" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -67470,1177 +68628,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="252" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="251" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="250" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="249" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="248" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="247" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="246" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="245" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="244" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="243" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="242" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="241" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="240" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="239" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="238" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="237" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="236" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="235" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="234" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="233" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="232" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="231" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="230" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="229" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="228" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="227" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="226" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="225" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="224" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="223" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="222" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="221" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="220" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="219" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="218" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="217" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="216" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="215" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="214" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="213" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="212" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="211" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="210" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="209" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="208" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="207" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="206" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="205" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="204" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="203" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="202" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="201" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="200" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="199" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="198" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="197" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="196" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="195" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="194" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="193" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="192" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="191" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="190" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="189" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="188" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="187" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="186" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="185" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="184" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="183" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="182" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="181" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="180" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="179" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="178" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="177" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="176" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="175" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="174" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="173" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="172" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="171" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="170" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="169" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="168" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="167" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="166" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="165" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="164" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="163" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="162" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="161" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="160" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="159" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="158" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="157" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="156" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="155" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="154" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="153" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="152" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="151" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="150" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="149" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="148" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="147" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="146" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="145" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="144" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="143" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="142" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="141" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="140" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="139" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="138" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="137" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="136" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="135" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="134" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="133" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="132" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="131" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="130" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="129" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="128" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="127" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="126" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="125" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="124" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="123" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="122" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="121" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="120" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="119" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="118" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="117" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="116" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="115" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="114" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="113" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="112" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="111" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="110" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="109" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="108" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="107" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="106" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="105" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="104" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="103" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="102" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="101" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="100" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="99" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="98" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="97" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="96" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="95" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="94" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="93" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="92" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="91" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="90" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="89" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="88" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="86" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="84" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="83" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="82" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="81" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="80" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="79" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="78" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="77" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="76" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="75" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="74" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="73" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="72" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="71" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="70" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="69" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="68" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="67" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="66" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="65" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="64" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="63" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="62" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="61" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="59" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="57" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68651,10 +69809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OD18"/>
+  <dimension ref="A1:OK18"/>
   <sheetViews>
-    <sheetView topLeftCell="NP1" workbookViewId="0">
-      <selection activeCell="NY22" sqref="NY22"/>
+    <sheetView topLeftCell="NY1" workbookViewId="0">
+      <selection activeCell="OE2" sqref="OE2:OK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68662,7 +69820,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -69845,8 +71003,29 @@
       <c r="OD1" s="8">
         <v>44327</v>
       </c>
+      <c r="OE1" s="8">
+        <v>44328</v>
+      </c>
+      <c r="OF1" s="8">
+        <v>44329</v>
+      </c>
+      <c r="OG1" s="8">
+        <v>44330</v>
+      </c>
+      <c r="OH1" s="8">
+        <v>44331</v>
+      </c>
+      <c r="OI1" s="8">
+        <v>44332</v>
+      </c>
+      <c r="OJ1" s="8">
+        <v>44333</v>
+      </c>
+      <c r="OK1" s="8">
+        <v>44334</v>
+      </c>
     </row>
-    <row r="2" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -71029,8 +72208,29 @@
       <c r="OD2">
         <v>9</v>
       </c>
+      <c r="OE2">
+        <v>9</v>
+      </c>
+      <c r="OF2">
+        <v>9</v>
+      </c>
+      <c r="OG2">
+        <v>9</v>
+      </c>
+      <c r="OH2">
+        <v>9</v>
+      </c>
+      <c r="OI2">
+        <v>9</v>
+      </c>
+      <c r="OJ2">
+        <v>9</v>
+      </c>
+      <c r="OK2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -72213,8 +73413,29 @@
       <c r="OD3">
         <v>12</v>
       </c>
+      <c r="OE3">
+        <v>12</v>
+      </c>
+      <c r="OF3">
+        <v>12</v>
+      </c>
+      <c r="OG3">
+        <v>12</v>
+      </c>
+      <c r="OH3">
+        <v>12</v>
+      </c>
+      <c r="OI3">
+        <v>12</v>
+      </c>
+      <c r="OJ3">
+        <v>12</v>
+      </c>
+      <c r="OK3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -73397,8 +74618,29 @@
       <c r="OD4">
         <v>48</v>
       </c>
+      <c r="OE4">
+        <v>48</v>
+      </c>
+      <c r="OF4">
+        <v>48</v>
+      </c>
+      <c r="OG4">
+        <v>48</v>
+      </c>
+      <c r="OH4">
+        <v>48</v>
+      </c>
+      <c r="OI4">
+        <v>48</v>
+      </c>
+      <c r="OJ4">
+        <v>48</v>
+      </c>
+      <c r="OK4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -74581,8 +75823,29 @@
       <c r="OD5">
         <v>11</v>
       </c>
+      <c r="OE5">
+        <v>11</v>
+      </c>
+      <c r="OF5">
+        <v>11</v>
+      </c>
+      <c r="OG5">
+        <v>11</v>
+      </c>
+      <c r="OH5">
+        <v>11</v>
+      </c>
+      <c r="OI5">
+        <v>11</v>
+      </c>
+      <c r="OJ5">
+        <v>11</v>
+      </c>
+      <c r="OK5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -75765,8 +77028,29 @@
       <c r="OD6">
         <v>29</v>
       </c>
+      <c r="OE6">
+        <v>29</v>
+      </c>
+      <c r="OF6">
+        <v>29</v>
+      </c>
+      <c r="OG6">
+        <v>29</v>
+      </c>
+      <c r="OH6">
+        <v>29</v>
+      </c>
+      <c r="OI6">
+        <v>29</v>
+      </c>
+      <c r="OJ6">
+        <v>29</v>
+      </c>
+      <c r="OK6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -76949,8 +78233,29 @@
       <c r="OD7">
         <v>125</v>
       </c>
+      <c r="OE7">
+        <v>125</v>
+      </c>
+      <c r="OF7">
+        <v>125</v>
+      </c>
+      <c r="OG7">
+        <v>125</v>
+      </c>
+      <c r="OH7">
+        <v>125</v>
+      </c>
+      <c r="OI7">
+        <v>125</v>
+      </c>
+      <c r="OJ7">
+        <v>125</v>
+      </c>
+      <c r="OK7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -78133,8 +79438,29 @@
       <c r="OD8">
         <v>745</v>
       </c>
+      <c r="OE8">
+        <v>745</v>
+      </c>
+      <c r="OF8">
+        <v>745</v>
+      </c>
+      <c r="OG8">
+        <v>745</v>
+      </c>
+      <c r="OH8">
+        <v>745</v>
+      </c>
+      <c r="OI8">
+        <v>745</v>
+      </c>
+      <c r="OJ8">
+        <v>745</v>
+      </c>
+      <c r="OK8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -79317,8 +80643,29 @@
       <c r="OD9">
         <v>61</v>
       </c>
+      <c r="OE9">
+        <v>61</v>
+      </c>
+      <c r="OF9">
+        <v>61</v>
+      </c>
+      <c r="OG9">
+        <v>61</v>
+      </c>
+      <c r="OH9">
+        <v>61</v>
+      </c>
+      <c r="OI9">
+        <v>61</v>
+      </c>
+      <c r="OJ9">
+        <v>61</v>
+      </c>
+      <c r="OK9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -80501,8 +81848,29 @@
       <c r="OD10">
         <v>45</v>
       </c>
+      <c r="OE10">
+        <v>45</v>
+      </c>
+      <c r="OF10">
+        <v>45</v>
+      </c>
+      <c r="OG10">
+        <v>45</v>
+      </c>
+      <c r="OH10">
+        <v>45</v>
+      </c>
+      <c r="OI10">
+        <v>45</v>
+      </c>
+      <c r="OJ10">
+        <v>45</v>
+      </c>
+      <c r="OK10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -81685,8 +83053,29 @@
       <c r="OD11">
         <v>16</v>
       </c>
+      <c r="OE11">
+        <v>16</v>
+      </c>
+      <c r="OF11">
+        <v>16</v>
+      </c>
+      <c r="OG11">
+        <v>16</v>
+      </c>
+      <c r="OH11">
+        <v>16</v>
+      </c>
+      <c r="OI11">
+        <v>16</v>
+      </c>
+      <c r="OJ11">
+        <v>16</v>
+      </c>
+      <c r="OK11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -82869,8 +84258,29 @@
       <c r="OD12">
         <v>97</v>
       </c>
+      <c r="OE12">
+        <v>97</v>
+      </c>
+      <c r="OF12">
+        <v>97</v>
+      </c>
+      <c r="OG12">
+        <v>97</v>
+      </c>
+      <c r="OH12">
+        <v>97</v>
+      </c>
+      <c r="OI12">
+        <v>97</v>
+      </c>
+      <c r="OJ12">
+        <v>97</v>
+      </c>
+      <c r="OK12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -84053,8 +85463,29 @@
       <c r="OD13">
         <v>49</v>
       </c>
+      <c r="OE13">
+        <v>49</v>
+      </c>
+      <c r="OF13">
+        <v>49</v>
+      </c>
+      <c r="OG13">
+        <v>49</v>
+      </c>
+      <c r="OH13">
+        <v>49</v>
+      </c>
+      <c r="OI13">
+        <v>49</v>
+      </c>
+      <c r="OJ13">
+        <v>49</v>
+      </c>
+      <c r="OK13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -85237,8 +86668,29 @@
       <c r="OD14">
         <v>13</v>
       </c>
+      <c r="OE14">
+        <v>13</v>
+      </c>
+      <c r="OF14">
+        <v>13</v>
+      </c>
+      <c r="OG14">
+        <v>13</v>
+      </c>
+      <c r="OH14">
+        <v>13</v>
+      </c>
+      <c r="OI14">
+        <v>13</v>
+      </c>
+      <c r="OJ14">
+        <v>13</v>
+      </c>
+      <c r="OK14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -86421,8 +87873,29 @@
       <c r="OD15">
         <v>49</v>
       </c>
+      <c r="OE15">
+        <v>49</v>
+      </c>
+      <c r="OF15">
+        <v>49</v>
+      </c>
+      <c r="OG15">
+        <v>49</v>
+      </c>
+      <c r="OH15">
+        <v>49</v>
+      </c>
+      <c r="OI15">
+        <v>49</v>
+      </c>
+      <c r="OJ15">
+        <v>49</v>
+      </c>
+      <c r="OK15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -87605,8 +89078,29 @@
       <c r="OD16">
         <v>8</v>
       </c>
+      <c r="OE16">
+        <v>8</v>
+      </c>
+      <c r="OF16">
+        <v>8</v>
+      </c>
+      <c r="OG16">
+        <v>8</v>
+      </c>
+      <c r="OH16">
+        <v>8</v>
+      </c>
+      <c r="OI16">
+        <v>8</v>
+      </c>
+      <c r="OJ16">
+        <v>8</v>
+      </c>
+      <c r="OK16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -88789,8 +90283,29 @@
       <c r="OD17">
         <v>14</v>
       </c>
+      <c r="OE17">
+        <v>14</v>
+      </c>
+      <c r="OF17">
+        <v>14</v>
+      </c>
+      <c r="OG17">
+        <v>14</v>
+      </c>
+      <c r="OH17">
+        <v>14</v>
+      </c>
+      <c r="OI17">
+        <v>14</v>
+      </c>
+      <c r="OJ17">
+        <v>14</v>
+      </c>
+      <c r="OK17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:394" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -90366,89 +91881,122 @@
         <f t="shared" si="13"/>
         <v>1331</v>
       </c>
+      <c r="OE18" s="6">
+        <f t="shared" ref="OE18:OK18" si="14">SUM(OE2:OE17)</f>
+        <v>1331</v>
+      </c>
+      <c r="OF18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
+      <c r="OG18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
+      <c r="OH18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
+      <c r="OI18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
+      <c r="OJ18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
+      <c r="OK18" s="6">
+        <f t="shared" si="14"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="17" priority="249" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="250" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="17" priority="248" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="16" priority="247" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="15" priority="246" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NJ18:NP18">
+  <conditionalFormatting sqref="NQ18:NW18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NQ18:NW18">
+  <conditionalFormatting sqref="NX18:OD18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NX18:OD18">
+  <conditionalFormatting sqref="OE18:OK18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="254">
+  <dxfs count="255">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3110,12 +3120,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OK20"/>
+  <dimension ref="A1:OR20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OB1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OE18" sqref="OE18:OK18"/>
+      <selection pane="topRight" activeCell="OL18" sqref="OL18:OR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3146,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4340,8 +4350,29 @@
       <c r="OK1" s="8">
         <v>44334</v>
       </c>
+      <c r="OL1" s="8">
+        <v>44335</v>
+      </c>
+      <c r="OM1" s="8">
+        <v>44336</v>
+      </c>
+      <c r="ON1" s="8">
+        <v>44337</v>
+      </c>
+      <c r="OO1" s="8">
+        <v>44338</v>
+      </c>
+      <c r="OP1" s="8">
+        <v>44339</v>
+      </c>
+      <c r="OQ1" s="8">
+        <v>44340</v>
+      </c>
+      <c r="OR1" s="8">
+        <v>44341</v>
+      </c>
     </row>
-    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5545,8 +5576,29 @@
       <c r="OK2" s="11">
         <v>40</v>
       </c>
+      <c r="OL2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OM2" s="11">
+        <v>40</v>
+      </c>
+      <c r="ON2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OO2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OP2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OQ2" s="11">
+        <v>40</v>
+      </c>
+      <c r="OR2" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6750,8 +6802,29 @@
       <c r="OK3" s="11">
         <v>62</v>
       </c>
+      <c r="OL3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OM3" s="11">
+        <v>62</v>
+      </c>
+      <c r="ON3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OO3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OP3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OQ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="OR3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -7955,8 +8028,29 @@
       <c r="OK4" s="11">
         <v>163</v>
       </c>
+      <c r="OL4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OM4" s="11">
+        <v>163</v>
+      </c>
+      <c r="ON4" s="11">
+        <v>163</v>
+      </c>
+      <c r="OO4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OP4" s="11">
+        <v>165</v>
+      </c>
+      <c r="OQ4" s="11">
+        <v>164</v>
+      </c>
+      <c r="OR4" s="11">
+        <v>164</v>
+      </c>
     </row>
-    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9160,8 +9254,29 @@
       <c r="OK5" s="11">
         <v>34</v>
       </c>
+      <c r="OL5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OM5" s="11">
+        <v>34</v>
+      </c>
+      <c r="ON5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OO5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OP5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OQ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="OR5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10365,8 +10480,29 @@
       <c r="OK6" s="11">
         <v>134</v>
       </c>
+      <c r="OL6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OM6" s="11">
+        <v>134</v>
+      </c>
+      <c r="ON6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OO6" s="11">
+        <v>134</v>
+      </c>
+      <c r="OP6" s="11">
+        <v>133</v>
+      </c>
+      <c r="OQ6" s="11">
+        <v>133</v>
+      </c>
+      <c r="OR6" s="11">
+        <v>132</v>
+      </c>
     </row>
-    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11570,8 +11706,29 @@
       <c r="OK7" s="11">
         <v>334</v>
       </c>
+      <c r="OL7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OM7" s="11">
+        <v>334</v>
+      </c>
+      <c r="ON7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OO7" s="11">
+        <v>334</v>
+      </c>
+      <c r="OP7" s="11">
+        <v>332</v>
+      </c>
+      <c r="OQ7" s="11">
+        <v>330</v>
+      </c>
+      <c r="OR7" s="11">
+        <v>329</v>
+      </c>
     </row>
-    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -12775,8 +12932,29 @@
       <c r="OK8" s="11">
         <v>2593</v>
       </c>
+      <c r="OL8" s="11">
+        <v>2589</v>
+      </c>
+      <c r="OM8" s="11">
+        <v>2591</v>
+      </c>
+      <c r="ON8" s="11">
+        <v>2588</v>
+      </c>
+      <c r="OO8" s="11">
+        <v>2580</v>
+      </c>
+      <c r="OP8" s="11">
+        <v>2577</v>
+      </c>
+      <c r="OQ8" s="11">
+        <v>2576</v>
+      </c>
+      <c r="OR8" s="11">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -13980,8 +14158,29 @@
       <c r="OK9" s="11">
         <v>206</v>
       </c>
+      <c r="OL9" s="11">
+        <v>203</v>
+      </c>
+      <c r="OM9" s="11">
+        <v>206</v>
+      </c>
+      <c r="ON9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OO9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OP9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OQ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="OR9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -15185,8 +15384,29 @@
       <c r="OK10" s="11">
         <v>162</v>
       </c>
+      <c r="OL10" s="11">
+        <v>142</v>
+      </c>
+      <c r="OM10" s="11">
+        <v>142</v>
+      </c>
+      <c r="ON10" s="11">
+        <v>147</v>
+      </c>
+      <c r="OO10" s="11">
+        <v>146</v>
+      </c>
+      <c r="OP10" s="11">
+        <v>137</v>
+      </c>
+      <c r="OQ10" s="11">
+        <v>138</v>
+      </c>
+      <c r="OR10" s="11">
+        <v>138</v>
+      </c>
     </row>
-    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -16390,8 +16610,29 @@
       <c r="OK11" s="11">
         <v>73</v>
       </c>
+      <c r="OL11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OM11" s="11">
+        <v>73</v>
+      </c>
+      <c r="ON11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OO11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OP11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OQ11" s="11">
+        <v>73</v>
+      </c>
+      <c r="OR11" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -17595,8 +17836,29 @@
       <c r="OK12" s="11">
         <v>310</v>
       </c>
+      <c r="OL12" s="11">
+        <v>310</v>
+      </c>
+      <c r="OM12" s="11">
+        <v>310</v>
+      </c>
+      <c r="ON12" s="11">
+        <v>304</v>
+      </c>
+      <c r="OO12" s="11">
+        <v>307</v>
+      </c>
+      <c r="OP12" s="11">
+        <v>307</v>
+      </c>
+      <c r="OQ12" s="11">
+        <v>307</v>
+      </c>
+      <c r="OR12" s="11">
+        <v>306</v>
+      </c>
     </row>
-    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -18800,8 +19062,29 @@
       <c r="OK13" s="11">
         <v>145</v>
       </c>
+      <c r="OL13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OM13" s="11">
+        <v>150</v>
+      </c>
+      <c r="ON13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OO13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OP13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OQ13" s="11">
+        <v>150</v>
+      </c>
+      <c r="OR13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -20005,8 +20288,29 @@
       <c r="OK14" s="11">
         <v>41</v>
       </c>
+      <c r="OL14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OM14" s="11">
+        <v>41</v>
+      </c>
+      <c r="ON14" s="11">
+        <v>41</v>
+      </c>
+      <c r="OO14" s="11">
+        <v>39</v>
+      </c>
+      <c r="OP14" s="11">
+        <v>39</v>
+      </c>
+      <c r="OQ14" s="11">
+        <v>39</v>
+      </c>
+      <c r="OR14" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -21210,8 +21514,29 @@
       <c r="OK15" s="11">
         <v>126</v>
       </c>
+      <c r="OL15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OM15" s="11">
+        <v>126</v>
+      </c>
+      <c r="ON15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OO15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OP15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OQ15" s="11">
+        <v>126</v>
+      </c>
+      <c r="OR15" s="11">
+        <v>126</v>
+      </c>
     </row>
-    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -22415,8 +22740,29 @@
       <c r="OK16" s="11">
         <v>10</v>
       </c>
+      <c r="OL16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OM16" s="11">
+        <v>10</v>
+      </c>
+      <c r="ON16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OO16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OP16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OQ16" s="11">
+        <v>10</v>
+      </c>
+      <c r="OR16" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -23620,8 +23966,29 @@
       <c r="OK17" s="11">
         <v>48</v>
       </c>
+      <c r="OL17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OM17" s="11">
+        <v>47</v>
+      </c>
+      <c r="ON17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OO17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OP17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OQ17" s="11">
+        <v>47</v>
+      </c>
+      <c r="OR17" s="11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -24781,7 +25148,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:OK18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:OR18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -24952,13 +25319,41 @@
         <f t="shared" si="7"/>
         <v>4481</v>
       </c>
+      <c r="OL18" s="6">
+        <f t="shared" si="7"/>
+        <v>4459</v>
+      </c>
+      <c r="OM18" s="6">
+        <f t="shared" si="7"/>
+        <v>4463</v>
+      </c>
+      <c r="ON18" s="6">
+        <f t="shared" si="7"/>
+        <v>4459</v>
+      </c>
+      <c r="OO18" s="6">
+        <f t="shared" si="7"/>
+        <v>4453</v>
+      </c>
+      <c r="OP18" s="6">
+        <f t="shared" si="7"/>
+        <v>4438</v>
+      </c>
+      <c r="OQ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4435</v>
+      </c>
+      <c r="OR18" s="6">
+        <f t="shared" si="7"/>
+        <v>4435</v>
+      </c>
     </row>
-    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -24976,12 +25371,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OK34"/>
+  <dimension ref="A1:OR34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="OE1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OF22" sqref="OF22"/>
+      <selection pane="topRight" activeCell="OL2" sqref="OL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25001,7 +25396,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -26205,8 +26600,29 @@
       <c r="OK1" s="8">
         <v>44334</v>
       </c>
+      <c r="OL1" s="8">
+        <v>44335</v>
+      </c>
+      <c r="OM1" s="8">
+        <v>44336</v>
+      </c>
+      <c r="ON1" s="8">
+        <v>44337</v>
+      </c>
+      <c r="OO1" s="8">
+        <v>44338</v>
+      </c>
+      <c r="OP1" s="8">
+        <v>44339</v>
+      </c>
+      <c r="OQ1" s="8">
+        <v>44340</v>
+      </c>
+      <c r="OR1" s="8">
+        <v>44341</v>
+      </c>
     </row>
-    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27410,8 +27826,29 @@
       <c r="OK2">
         <v>27</v>
       </c>
+      <c r="OL2">
+        <v>29</v>
+      </c>
+      <c r="OM2">
+        <v>29</v>
+      </c>
+      <c r="ON2">
+        <v>29</v>
+      </c>
+      <c r="OO2">
+        <v>30</v>
+      </c>
+      <c r="OP2">
+        <v>29</v>
+      </c>
+      <c r="OQ2">
+        <v>29</v>
+      </c>
+      <c r="OR2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -28615,8 +29052,29 @@
       <c r="OK3">
         <v>52</v>
       </c>
+      <c r="OL3">
+        <v>49</v>
+      </c>
+      <c r="OM3">
+        <v>48</v>
+      </c>
+      <c r="ON3">
+        <v>48</v>
+      </c>
+      <c r="OO3">
+        <v>49</v>
+      </c>
+      <c r="OP3">
+        <v>51</v>
+      </c>
+      <c r="OQ3">
+        <v>54</v>
+      </c>
+      <c r="OR3">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -29820,8 +30278,29 @@
       <c r="OK4">
         <v>92</v>
       </c>
+      <c r="OL4">
+        <v>93</v>
+      </c>
+      <c r="OM4">
+        <v>94</v>
+      </c>
+      <c r="ON4">
+        <v>90</v>
+      </c>
+      <c r="OO4">
+        <v>92</v>
+      </c>
+      <c r="OP4">
+        <v>91</v>
+      </c>
+      <c r="OQ4">
+        <v>92</v>
+      </c>
+      <c r="OR4">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -31025,8 +31504,29 @@
       <c r="OK5">
         <v>22</v>
       </c>
+      <c r="OL5">
+        <v>24</v>
+      </c>
+      <c r="OM5">
+        <v>24</v>
+      </c>
+      <c r="ON5">
+        <v>25</v>
+      </c>
+      <c r="OO5">
+        <v>25</v>
+      </c>
+      <c r="OP5">
+        <v>24</v>
+      </c>
+      <c r="OQ5">
+        <v>23</v>
+      </c>
+      <c r="OR5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -32230,8 +32730,29 @@
       <c r="OK6">
         <v>94</v>
       </c>
+      <c r="OL6">
+        <v>97</v>
+      </c>
+      <c r="OM6">
+        <v>94</v>
+      </c>
+      <c r="ON6">
+        <v>95</v>
+      </c>
+      <c r="OO6">
+        <v>94</v>
+      </c>
+      <c r="OP6">
+        <v>94</v>
+      </c>
+      <c r="OQ6">
+        <v>92</v>
+      </c>
+      <c r="OR6">
+        <v>92</v>
+      </c>
     </row>
-    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -33435,8 +33956,29 @@
       <c r="OK7">
         <v>222</v>
       </c>
+      <c r="OL7">
+        <v>226</v>
+      </c>
+      <c r="OM7">
+        <v>216</v>
+      </c>
+      <c r="ON7">
+        <v>224</v>
+      </c>
+      <c r="OO7">
+        <v>219</v>
+      </c>
+      <c r="OP7">
+        <v>214</v>
+      </c>
+      <c r="OQ7">
+        <v>211</v>
+      </c>
+      <c r="OR7">
+        <v>211</v>
+      </c>
     </row>
-    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -34640,8 +35182,29 @@
       <c r="OK8">
         <v>1787</v>
       </c>
+      <c r="OL8">
+        <v>1783</v>
+      </c>
+      <c r="OM8">
+        <v>1768</v>
+      </c>
+      <c r="ON8">
+        <v>1796</v>
+      </c>
+      <c r="OO8">
+        <v>1772</v>
+      </c>
+      <c r="OP8">
+        <v>1788</v>
+      </c>
+      <c r="OQ8">
+        <v>1832</v>
+      </c>
+      <c r="OR8">
+        <v>1805</v>
+      </c>
     </row>
-    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -35845,8 +36408,29 @@
       <c r="OK9">
         <v>115</v>
       </c>
+      <c r="OL9">
+        <v>114</v>
+      </c>
+      <c r="OM9">
+        <v>115</v>
+      </c>
+      <c r="ON9">
+        <v>125</v>
+      </c>
+      <c r="OO9">
+        <v>122</v>
+      </c>
+      <c r="OP9">
+        <v>121</v>
+      </c>
+      <c r="OQ9">
+        <v>128</v>
+      </c>
+      <c r="OR9">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -37050,8 +37634,29 @@
       <c r="OK10">
         <v>107</v>
       </c>
+      <c r="OL10">
+        <v>100</v>
+      </c>
+      <c r="OM10">
+        <v>99</v>
+      </c>
+      <c r="ON10">
+        <v>101</v>
+      </c>
+      <c r="OO10">
+        <v>103</v>
+      </c>
+      <c r="OP10">
+        <v>107</v>
+      </c>
+      <c r="OQ10">
+        <v>109</v>
+      </c>
+      <c r="OR10">
+        <v>109</v>
+      </c>
     </row>
-    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -38255,8 +38860,29 @@
       <c r="OK11">
         <v>47</v>
       </c>
+      <c r="OL11">
+        <v>50</v>
+      </c>
+      <c r="OM11">
+        <v>46</v>
+      </c>
+      <c r="ON11">
+        <v>49</v>
+      </c>
+      <c r="OO11">
+        <v>50</v>
+      </c>
+      <c r="OP11">
+        <v>50</v>
+      </c>
+      <c r="OQ11">
+        <v>51</v>
+      </c>
+      <c r="OR11">
+        <v>53</v>
+      </c>
     </row>
-    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -39460,8 +40086,29 @@
       <c r="OK12">
         <v>185</v>
       </c>
+      <c r="OL12">
+        <v>178</v>
+      </c>
+      <c r="OM12">
+        <v>176</v>
+      </c>
+      <c r="ON12">
+        <v>174</v>
+      </c>
+      <c r="OO12">
+        <v>178</v>
+      </c>
+      <c r="OP12">
+        <v>175</v>
+      </c>
+      <c r="OQ12">
+        <v>178</v>
+      </c>
+      <c r="OR12">
+        <v>184</v>
+      </c>
     </row>
-    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -40665,8 +41312,29 @@
       <c r="OK13">
         <v>99</v>
       </c>
+      <c r="OL13">
+        <v>97</v>
+      </c>
+      <c r="OM13">
+        <v>94</v>
+      </c>
+      <c r="ON13">
+        <v>93</v>
+      </c>
+      <c r="OO13">
+        <v>97</v>
+      </c>
+      <c r="OP13">
+        <v>96</v>
+      </c>
+      <c r="OQ13">
+        <v>99</v>
+      </c>
+      <c r="OR13">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -41870,8 +42538,29 @@
       <c r="OK14">
         <v>22</v>
       </c>
+      <c r="OL14">
+        <v>22</v>
+      </c>
+      <c r="OM14">
+        <v>18</v>
+      </c>
+      <c r="ON14">
+        <v>18</v>
+      </c>
+      <c r="OO14">
+        <v>22</v>
+      </c>
+      <c r="OP14">
+        <v>23</v>
+      </c>
+      <c r="OQ14">
+        <v>25</v>
+      </c>
+      <c r="OR14">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -43075,8 +43764,29 @@
       <c r="OK15">
         <v>74</v>
       </c>
+      <c r="OL15">
+        <v>73</v>
+      </c>
+      <c r="OM15">
+        <v>74</v>
+      </c>
+      <c r="ON15">
+        <v>82</v>
+      </c>
+      <c r="OO15">
+        <v>83</v>
+      </c>
+      <c r="OP15">
+        <v>80</v>
+      </c>
+      <c r="OQ15">
+        <v>79</v>
+      </c>
+      <c r="OR15">
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -44280,8 +44990,29 @@
       <c r="OK16">
         <v>5</v>
       </c>
+      <c r="OL16">
+        <v>6</v>
+      </c>
+      <c r="OM16">
+        <v>9</v>
+      </c>
+      <c r="ON16">
+        <v>9</v>
+      </c>
+      <c r="OO16">
+        <v>10</v>
+      </c>
+      <c r="OP16">
+        <v>10</v>
+      </c>
+      <c r="OQ16">
+        <v>10</v>
+      </c>
+      <c r="OR16">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -45485,8 +46216,29 @@
       <c r="OK17">
         <v>29</v>
       </c>
+      <c r="OL17">
+        <v>31</v>
+      </c>
+      <c r="OM17">
+        <v>31</v>
+      </c>
+      <c r="ON17">
+        <v>33</v>
+      </c>
+      <c r="OO17">
+        <v>28</v>
+      </c>
+      <c r="OP17">
+        <v>27</v>
+      </c>
+      <c r="OQ17">
+        <v>25</v>
+      </c>
+      <c r="OR17">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -46802,50 +47554,78 @@
         <f t="shared" si="1"/>
         <v>2979</v>
       </c>
+      <c r="OL18" s="6">
+        <f t="shared" ref="OL18:OR18" si="2">SUM(OL2:OL17)</f>
+        <v>2972</v>
+      </c>
+      <c r="OM18" s="6">
+        <f t="shared" si="2"/>
+        <v>2935</v>
+      </c>
+      <c r="ON18" s="6">
+        <f t="shared" si="2"/>
+        <v>2991</v>
+      </c>
+      <c r="OO18" s="6">
+        <f t="shared" si="2"/>
+        <v>2974</v>
+      </c>
+      <c r="OP18" s="6">
+        <f t="shared" si="2"/>
+        <v>2980</v>
+      </c>
+      <c r="OQ18" s="6">
+        <f t="shared" si="2"/>
+        <v>3037</v>
+      </c>
+      <c r="OR18" s="6">
+        <f t="shared" si="2"/>
+        <v>3026</v>
+      </c>
     </row>
-    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:408" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:408" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:408" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -46865,12 +47645,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:OK34"/>
+  <dimension ref="A1:OR34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OC1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="OM20" sqref="OM20"/>
+      <selection pane="topRight" activeCell="OL15" sqref="OL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46887,7 +47667,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -48091,8 +48871,29 @@
       <c r="OK1" s="8">
         <v>44334</v>
       </c>
+      <c r="OL1" s="8">
+        <v>44335</v>
+      </c>
+      <c r="OM1" s="8">
+        <v>44336</v>
+      </c>
+      <c r="ON1" s="8">
+        <v>44337</v>
+      </c>
+      <c r="OO1" s="8">
+        <v>44338</v>
+      </c>
+      <c r="OP1" s="8">
+        <v>44339</v>
+      </c>
+      <c r="OQ1" s="8">
+        <v>44340</v>
+      </c>
+      <c r="OR1" s="8">
+        <v>44341</v>
+      </c>
     </row>
-    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -49296,8 +50097,29 @@
       <c r="OK2">
         <v>7</v>
       </c>
+      <c r="OL2">
+        <v>6</v>
+      </c>
+      <c r="OM2">
+        <v>5</v>
+      </c>
+      <c r="ON2">
+        <v>7</v>
+      </c>
+      <c r="OO2">
+        <v>5</v>
+      </c>
+      <c r="OP2">
+        <v>5</v>
+      </c>
+      <c r="OQ2">
+        <v>6</v>
+      </c>
+      <c r="OR2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -50501,8 +51323,29 @@
       <c r="OK3">
         <v>4</v>
       </c>
+      <c r="OL3">
+        <v>5</v>
+      </c>
+      <c r="OM3">
+        <v>4</v>
+      </c>
+      <c r="ON3">
+        <v>4</v>
+      </c>
+      <c r="OO3">
+        <v>5</v>
+      </c>
+      <c r="OP3">
+        <v>3</v>
+      </c>
+      <c r="OQ3">
+        <v>5</v>
+      </c>
+      <c r="OR3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -51706,8 +52549,29 @@
       <c r="OK4">
         <v>60</v>
       </c>
+      <c r="OL4">
+        <v>61</v>
+      </c>
+      <c r="OM4">
+        <v>60</v>
+      </c>
+      <c r="ON4">
+        <v>64</v>
+      </c>
+      <c r="OO4">
+        <v>60</v>
+      </c>
+      <c r="OP4">
+        <v>63</v>
+      </c>
+      <c r="OQ4">
+        <v>62</v>
+      </c>
+      <c r="OR4">
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -52911,8 +53775,29 @@
       <c r="OK5">
         <v>8</v>
       </c>
+      <c r="OL5">
+        <v>6</v>
+      </c>
+      <c r="OM5">
+        <v>5</v>
+      </c>
+      <c r="ON5">
+        <v>4</v>
+      </c>
+      <c r="OO5">
+        <v>6</v>
+      </c>
+      <c r="OP5">
+        <v>6</v>
+      </c>
+      <c r="OQ5">
+        <v>5</v>
+      </c>
+      <c r="OR5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -54116,8 +55001,29 @@
       <c r="OK6">
         <v>31</v>
       </c>
+      <c r="OL6">
+        <v>34</v>
+      </c>
+      <c r="OM6">
+        <v>32</v>
+      </c>
+      <c r="ON6">
+        <v>29</v>
+      </c>
+      <c r="OO6">
+        <v>34</v>
+      </c>
+      <c r="OP6">
+        <v>36</v>
+      </c>
+      <c r="OQ6">
+        <v>38</v>
+      </c>
+      <c r="OR6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -55321,8 +56227,29 @@
       <c r="OK7">
         <v>92</v>
       </c>
+      <c r="OL7">
+        <v>92</v>
+      </c>
+      <c r="OM7">
+        <v>94</v>
+      </c>
+      <c r="ON7">
+        <v>89</v>
+      </c>
+      <c r="OO7">
+        <v>94</v>
+      </c>
+      <c r="OP7">
+        <v>98</v>
+      </c>
+      <c r="OQ7">
+        <v>106</v>
+      </c>
+      <c r="OR7">
+        <v>110</v>
+      </c>
     </row>
-    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -56526,8 +57453,29 @@
       <c r="OK8">
         <v>701</v>
       </c>
+      <c r="OL8">
+        <v>695</v>
+      </c>
+      <c r="OM8">
+        <v>715</v>
+      </c>
+      <c r="ON8">
+        <v>691</v>
+      </c>
+      <c r="OO8">
+        <v>717</v>
+      </c>
+      <c r="OP8">
+        <v>720</v>
+      </c>
+      <c r="OQ8">
+        <v>686</v>
+      </c>
+      <c r="OR8">
+        <v>713</v>
+      </c>
     </row>
-    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -57731,8 +58679,29 @@
       <c r="OK9">
         <v>47</v>
       </c>
+      <c r="OL9">
+        <v>50</v>
+      </c>
+      <c r="OM9">
+        <v>52</v>
+      </c>
+      <c r="ON9">
+        <v>44</v>
+      </c>
+      <c r="OO9">
+        <v>42</v>
+      </c>
+      <c r="OP9">
+        <v>50</v>
+      </c>
+      <c r="OQ9">
+        <v>41</v>
+      </c>
+      <c r="OR9">
+        <v>47</v>
+      </c>
     </row>
-    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -58936,8 +59905,29 @@
       <c r="OK10">
         <v>25</v>
       </c>
+      <c r="OL10">
+        <v>26</v>
+      </c>
+      <c r="OM10">
+        <v>31</v>
+      </c>
+      <c r="ON10">
+        <v>30</v>
+      </c>
+      <c r="OO10">
+        <v>34</v>
+      </c>
+      <c r="OP10">
+        <v>26</v>
+      </c>
+      <c r="OQ10">
+        <v>26</v>
+      </c>
+      <c r="OR10">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -60141,8 +61131,29 @@
       <c r="OK11">
         <v>14</v>
       </c>
+      <c r="OL11">
+        <v>14</v>
+      </c>
+      <c r="OM11">
+        <v>12</v>
+      </c>
+      <c r="ON11">
+        <v>13</v>
+      </c>
+      <c r="OO11">
+        <v>11</v>
+      </c>
+      <c r="OP11">
+        <v>13</v>
+      </c>
+      <c r="OQ11">
+        <v>14</v>
+      </c>
+      <c r="OR11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -61346,8 +62357,29 @@
       <c r="OK12">
         <v>90</v>
       </c>
+      <c r="OL12">
+        <v>101</v>
+      </c>
+      <c r="OM12">
+        <v>96</v>
+      </c>
+      <c r="ON12">
+        <v>98</v>
+      </c>
+      <c r="OO12">
+        <v>97</v>
+      </c>
+      <c r="OP12">
+        <v>94</v>
+      </c>
+      <c r="OQ12">
+        <v>95</v>
+      </c>
+      <c r="OR12">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -62551,8 +63583,29 @@
       <c r="OK13">
         <v>34</v>
       </c>
+      <c r="OL13">
+        <v>37</v>
+      </c>
+      <c r="OM13">
+        <v>38</v>
+      </c>
+      <c r="ON13">
+        <v>39</v>
+      </c>
+      <c r="OO13">
+        <v>36</v>
+      </c>
+      <c r="OP13">
+        <v>36</v>
+      </c>
+      <c r="OQ13">
+        <v>34</v>
+      </c>
+      <c r="OR13">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -63756,8 +64809,29 @@
       <c r="OK14">
         <v>18</v>
       </c>
+      <c r="OL14">
+        <v>18</v>
+      </c>
+      <c r="OM14">
+        <v>19</v>
+      </c>
+      <c r="ON14">
+        <v>16</v>
+      </c>
+      <c r="OO14">
+        <v>16</v>
+      </c>
+      <c r="OP14">
+        <v>14</v>
+      </c>
+      <c r="OQ14">
+        <v>13</v>
+      </c>
+      <c r="OR14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -64961,8 +66035,29 @@
       <c r="OK15">
         <v>43</v>
       </c>
+      <c r="OL15">
+        <v>48</v>
+      </c>
+      <c r="OM15">
+        <v>46</v>
+      </c>
+      <c r="ON15">
+        <v>38</v>
+      </c>
+      <c r="OO15">
+        <v>35</v>
+      </c>
+      <c r="OP15">
+        <v>36</v>
+      </c>
+      <c r="OQ15">
+        <v>38</v>
+      </c>
+      <c r="OR15">
+        <v>41</v>
+      </c>
     </row>
-    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -66166,8 +67261,29 @@
       <c r="OK16">
         <v>5</v>
       </c>
+      <c r="OL16">
+        <v>4</v>
+      </c>
+      <c r="OM16">
+        <v>1</v>
+      </c>
+      <c r="ON16">
+        <v>1</v>
+      </c>
+      <c r="OO16">
+        <v>0</v>
+      </c>
+      <c r="OP16">
+        <v>0</v>
+      </c>
+      <c r="OQ16">
+        <v>0</v>
+      </c>
+      <c r="OR16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -67371,8 +68487,29 @@
       <c r="OK17">
         <v>8</v>
       </c>
+      <c r="OL17">
+        <v>8</v>
+      </c>
+      <c r="OM17">
+        <v>10</v>
+      </c>
+      <c r="ON17">
+        <v>10</v>
+      </c>
+      <c r="OO17">
+        <v>9</v>
+      </c>
+      <c r="OP17">
+        <v>10</v>
+      </c>
+      <c r="OQ17">
+        <v>11</v>
+      </c>
+      <c r="OR17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -68576,48 +69713,69 @@
       <c r="OK18" s="20">
         <v>1187</v>
       </c>
+      <c r="OL18" s="20">
+        <v>1205</v>
+      </c>
+      <c r="OM18" s="20">
+        <v>1220</v>
+      </c>
+      <c r="ON18" s="20">
+        <v>1177</v>
+      </c>
+      <c r="OO18" s="20">
+        <v>1201</v>
+      </c>
+      <c r="OP18" s="20">
+        <v>1210</v>
+      </c>
+      <c r="OQ18" s="20">
+        <v>1180</v>
+      </c>
+      <c r="OR18" s="20">
+        <v>1228</v>
+      </c>
     </row>
-    <row r="19" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:408" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -68628,1177 +69786,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="253" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="252" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="251" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="250" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="249" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="248" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="247" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="246" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="245" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="244" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="243" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="242" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="241" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="240" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="239" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="238" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="237" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="236" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="235" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="234" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="233" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="232" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="231" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="230" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="229" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="228" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="227" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="226" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="225" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="224" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="223" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="222" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="221" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="220" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="219" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="218" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="217" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="216" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="215" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="214" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="213" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="212" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="211" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="210" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="209" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="208" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="207" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="206" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="205" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="204" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="203" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="202" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="201" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="200" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="199" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="198" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="197" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="196" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="195" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="194" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="193" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="192" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="191" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="190" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="189" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="188" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="187" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="186" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="185" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="184" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="183" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="182" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="181" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="180" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="179" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="178" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="177" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="176" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="175" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="174" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="173" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="172" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="171" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="170" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="169" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="168" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="167" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="166" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="165" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="164" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="163" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="162" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="161" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="160" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="159" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="158" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="157" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="156" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="155" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="154" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="153" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="152" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="151" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="150" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="149" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="148" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="147" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="146" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="145" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="144" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="143" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="142" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="141" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="140" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="139" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="138" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="137" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="136" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="135" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="134" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="133" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="132" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="131" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="130" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="129" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="128" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="127" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="126" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="125" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="124" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="123" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="122" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="121" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="120" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="119" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="118" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="117" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="116" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="115" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="114" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="113" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="112" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="111" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="110" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="109" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="108" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="107" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="106" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="105" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="104" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="103" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="102" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="101" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="100" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="99" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="98" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="97" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="96" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="95" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="94" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="93" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="92" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="91" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="90" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="89" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="88" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="86" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="85" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="84" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="83" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="81" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="80" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="78" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="77" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="76" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="75" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="73" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="71" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="70" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="69" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="67" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="66" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="64" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -69809,10 +70967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OK18"/>
+  <dimension ref="A1:OR18"/>
   <sheetViews>
-    <sheetView topLeftCell="NY1" workbookViewId="0">
-      <selection activeCell="OE2" sqref="OE2:OK18"/>
+    <sheetView topLeftCell="OG1" workbookViewId="0">
+      <selection activeCell="OL2" sqref="OL2:OR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69820,7 +70978,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -71024,8 +72182,29 @@
       <c r="OK1" s="8">
         <v>44334</v>
       </c>
+      <c r="OL1" s="8">
+        <v>44335</v>
+      </c>
+      <c r="OM1" s="8">
+        <v>44336</v>
+      </c>
+      <c r="ON1" s="8">
+        <v>44337</v>
+      </c>
+      <c r="OO1" s="8">
+        <v>44338</v>
+      </c>
+      <c r="OP1" s="8">
+        <v>44339</v>
+      </c>
+      <c r="OQ1" s="8">
+        <v>44340</v>
+      </c>
+      <c r="OR1" s="8">
+        <v>44341</v>
+      </c>
     </row>
-    <row r="2" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -72229,8 +73408,29 @@
       <c r="OK2">
         <v>9</v>
       </c>
+      <c r="OL2">
+        <v>9</v>
+      </c>
+      <c r="OM2">
+        <v>9</v>
+      </c>
+      <c r="ON2">
+        <v>9</v>
+      </c>
+      <c r="OO2">
+        <v>9</v>
+      </c>
+      <c r="OP2">
+        <v>9</v>
+      </c>
+      <c r="OQ2">
+        <v>9</v>
+      </c>
+      <c r="OR2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -73434,8 +74634,29 @@
       <c r="OK3">
         <v>12</v>
       </c>
+      <c r="OL3">
+        <v>12</v>
+      </c>
+      <c r="OM3">
+        <v>12</v>
+      </c>
+      <c r="ON3">
+        <v>12</v>
+      </c>
+      <c r="OO3">
+        <v>12</v>
+      </c>
+      <c r="OP3">
+        <v>12</v>
+      </c>
+      <c r="OQ3">
+        <v>12</v>
+      </c>
+      <c r="OR3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -74639,8 +75860,29 @@
       <c r="OK4">
         <v>48</v>
       </c>
+      <c r="OL4">
+        <v>48</v>
+      </c>
+      <c r="OM4">
+        <v>48</v>
+      </c>
+      <c r="ON4">
+        <v>48</v>
+      </c>
+      <c r="OO4">
+        <v>48</v>
+      </c>
+      <c r="OP4">
+        <v>48</v>
+      </c>
+      <c r="OQ4">
+        <v>48</v>
+      </c>
+      <c r="OR4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -75844,8 +77086,29 @@
       <c r="OK5">
         <v>11</v>
       </c>
+      <c r="OL5">
+        <v>11</v>
+      </c>
+      <c r="OM5">
+        <v>11</v>
+      </c>
+      <c r="ON5">
+        <v>11</v>
+      </c>
+      <c r="OO5">
+        <v>11</v>
+      </c>
+      <c r="OP5">
+        <v>11</v>
+      </c>
+      <c r="OQ5">
+        <v>11</v>
+      </c>
+      <c r="OR5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -77049,8 +78312,29 @@
       <c r="OK6">
         <v>29</v>
       </c>
+      <c r="OL6">
+        <v>29</v>
+      </c>
+      <c r="OM6">
+        <v>29</v>
+      </c>
+      <c r="ON6">
+        <v>29</v>
+      </c>
+      <c r="OO6">
+        <v>29</v>
+      </c>
+      <c r="OP6">
+        <v>29</v>
+      </c>
+      <c r="OQ6">
+        <v>29</v>
+      </c>
+      <c r="OR6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -78254,8 +79538,29 @@
       <c r="OK7">
         <v>125</v>
       </c>
+      <c r="OL7">
+        <v>125</v>
+      </c>
+      <c r="OM7">
+        <v>125</v>
+      </c>
+      <c r="ON7">
+        <v>125</v>
+      </c>
+      <c r="OO7">
+        <v>125</v>
+      </c>
+      <c r="OP7">
+        <v>125</v>
+      </c>
+      <c r="OQ7">
+        <v>125</v>
+      </c>
+      <c r="OR7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -79459,8 +80764,29 @@
       <c r="OK8">
         <v>745</v>
       </c>
+      <c r="OL8">
+        <v>745</v>
+      </c>
+      <c r="OM8">
+        <v>745</v>
+      </c>
+      <c r="ON8">
+        <v>745</v>
+      </c>
+      <c r="OO8">
+        <v>745</v>
+      </c>
+      <c r="OP8">
+        <v>745</v>
+      </c>
+      <c r="OQ8">
+        <v>745</v>
+      </c>
+      <c r="OR8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -80664,8 +81990,29 @@
       <c r="OK9">
         <v>61</v>
       </c>
+      <c r="OL9">
+        <v>61</v>
+      </c>
+      <c r="OM9">
+        <v>61</v>
+      </c>
+      <c r="ON9">
+        <v>61</v>
+      </c>
+      <c r="OO9">
+        <v>61</v>
+      </c>
+      <c r="OP9">
+        <v>61</v>
+      </c>
+      <c r="OQ9">
+        <v>61</v>
+      </c>
+      <c r="OR9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -81869,8 +83216,29 @@
       <c r="OK10">
         <v>45</v>
       </c>
+      <c r="OL10">
+        <v>45</v>
+      </c>
+      <c r="OM10">
+        <v>45</v>
+      </c>
+      <c r="ON10">
+        <v>45</v>
+      </c>
+      <c r="OO10">
+        <v>45</v>
+      </c>
+      <c r="OP10">
+        <v>45</v>
+      </c>
+      <c r="OQ10">
+        <v>45</v>
+      </c>
+      <c r="OR10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -83074,8 +84442,29 @@
       <c r="OK11">
         <v>16</v>
       </c>
+      <c r="OL11">
+        <v>16</v>
+      </c>
+      <c r="OM11">
+        <v>16</v>
+      </c>
+      <c r="ON11">
+        <v>16</v>
+      </c>
+      <c r="OO11">
+        <v>16</v>
+      </c>
+      <c r="OP11">
+        <v>16</v>
+      </c>
+      <c r="OQ11">
+        <v>16</v>
+      </c>
+      <c r="OR11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -84279,8 +85668,29 @@
       <c r="OK12">
         <v>97</v>
       </c>
+      <c r="OL12">
+        <v>97</v>
+      </c>
+      <c r="OM12">
+        <v>97</v>
+      </c>
+      <c r="ON12">
+        <v>97</v>
+      </c>
+      <c r="OO12">
+        <v>97</v>
+      </c>
+      <c r="OP12">
+        <v>97</v>
+      </c>
+      <c r="OQ12">
+        <v>97</v>
+      </c>
+      <c r="OR12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -85484,8 +86894,29 @@
       <c r="OK13">
         <v>49</v>
       </c>
+      <c r="OL13">
+        <v>49</v>
+      </c>
+      <c r="OM13">
+        <v>49</v>
+      </c>
+      <c r="ON13">
+        <v>49</v>
+      </c>
+      <c r="OO13">
+        <v>49</v>
+      </c>
+      <c r="OP13">
+        <v>49</v>
+      </c>
+      <c r="OQ13">
+        <v>49</v>
+      </c>
+      <c r="OR13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -86689,8 +88120,29 @@
       <c r="OK14">
         <v>13</v>
       </c>
+      <c r="OL14">
+        <v>13</v>
+      </c>
+      <c r="OM14">
+        <v>13</v>
+      </c>
+      <c r="ON14">
+        <v>13</v>
+      </c>
+      <c r="OO14">
+        <v>13</v>
+      </c>
+      <c r="OP14">
+        <v>13</v>
+      </c>
+      <c r="OQ14">
+        <v>13</v>
+      </c>
+      <c r="OR14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -87894,8 +89346,29 @@
       <c r="OK15">
         <v>49</v>
       </c>
+      <c r="OL15">
+        <v>49</v>
+      </c>
+      <c r="OM15">
+        <v>49</v>
+      </c>
+      <c r="ON15">
+        <v>49</v>
+      </c>
+      <c r="OO15">
+        <v>49</v>
+      </c>
+      <c r="OP15">
+        <v>49</v>
+      </c>
+      <c r="OQ15">
+        <v>49</v>
+      </c>
+      <c r="OR15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -89099,8 +90572,29 @@
       <c r="OK16">
         <v>8</v>
       </c>
+      <c r="OL16">
+        <v>8</v>
+      </c>
+      <c r="OM16">
+        <v>8</v>
+      </c>
+      <c r="ON16">
+        <v>8</v>
+      </c>
+      <c r="OO16">
+        <v>8</v>
+      </c>
+      <c r="OP16">
+        <v>8</v>
+      </c>
+      <c r="OQ16">
+        <v>8</v>
+      </c>
+      <c r="OR16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -90304,8 +91798,29 @@
       <c r="OK17">
         <v>14</v>
       </c>
+      <c r="OL17">
+        <v>14</v>
+      </c>
+      <c r="OM17">
+        <v>14</v>
+      </c>
+      <c r="ON17">
+        <v>14</v>
+      </c>
+      <c r="OO17">
+        <v>14</v>
+      </c>
+      <c r="OP17">
+        <v>14</v>
+      </c>
+      <c r="OQ17">
+        <v>14</v>
+      </c>
+      <c r="OR17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -91909,94 +93424,127 @@
         <f t="shared" si="14"/>
         <v>1331</v>
       </c>
+      <c r="OL18" s="6">
+        <f t="shared" ref="OL18:OR18" si="15">SUM(OL2:OL17)</f>
+        <v>1331</v>
+      </c>
+      <c r="OM18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
+      <c r="ON18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
+      <c r="OO18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
+      <c r="OP18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
+      <c r="OQ18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
+      <c r="OR18" s="6">
+        <f t="shared" si="15"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="18" priority="250" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="251" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="18" priority="249" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="17" priority="248" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="16" priority="247" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NJ18:NP18">
+  <conditionalFormatting sqref="NQ18:NW18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NQ18:NW18">
+  <conditionalFormatting sqref="NX18:OD18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NX18:OD18">
+  <conditionalFormatting sqref="OE18:OK18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OE18:OK18">
+  <conditionalFormatting sqref="OL18:OR18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -3130,12 +3130,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OY20"/>
+  <dimension ref="A1:PF20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OO1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OV1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OS18" sqref="OS18:OY18"/>
+      <selection pane="topRight" activeCell="PB22" sqref="PB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3156,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4402,8 +4402,29 @@
       <c r="OY1" s="8">
         <v>44348</v>
       </c>
+      <c r="OZ1" s="8">
+        <v>44349</v>
+      </c>
+      <c r="PA1" s="8">
+        <v>44350</v>
+      </c>
+      <c r="PB1" s="8">
+        <v>44351</v>
+      </c>
+      <c r="PC1" s="8">
+        <v>44352</v>
+      </c>
+      <c r="PD1" s="8">
+        <v>44353</v>
+      </c>
+      <c r="PE1" s="8">
+        <v>44354</v>
+      </c>
+      <c r="PF1" s="8">
+        <v>44355</v>
+      </c>
     </row>
-    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5649,8 +5670,29 @@
       <c r="OY2" s="11">
         <v>34</v>
       </c>
+      <c r="OZ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PA2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PB2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PC2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PD2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PE2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PF2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6896,8 +6938,29 @@
       <c r="OY3" s="11">
         <v>62</v>
       </c>
+      <c r="OZ3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PA3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PB3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PC3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PD3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PE3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PF3" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -8143,8 +8206,29 @@
       <c r="OY4" s="11">
         <v>166</v>
       </c>
+      <c r="OZ4" s="11">
+        <v>164</v>
+      </c>
+      <c r="PA4" s="11">
+        <v>165</v>
+      </c>
+      <c r="PB4" s="11">
+        <v>165</v>
+      </c>
+      <c r="PC4" s="11">
+        <v>166</v>
+      </c>
+      <c r="PD4" s="11">
+        <v>164</v>
+      </c>
+      <c r="PE4" s="11">
+        <v>166</v>
+      </c>
+      <c r="PF4" s="11">
+        <v>165</v>
+      </c>
     </row>
-    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9390,8 +9474,29 @@
       <c r="OY5" s="11">
         <v>34</v>
       </c>
+      <c r="OZ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PA5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PB5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PC5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PD5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PE5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PF5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10637,8 +10742,29 @@
       <c r="OY6" s="11">
         <v>132</v>
       </c>
+      <c r="OZ6" s="11">
+        <v>132</v>
+      </c>
+      <c r="PA6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PB6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PC6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PD6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PE6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PF6" s="11">
+        <v>135</v>
+      </c>
     </row>
-    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11884,8 +12010,29 @@
       <c r="OY7" s="11">
         <v>332</v>
       </c>
+      <c r="OZ7" s="11">
+        <v>333</v>
+      </c>
+      <c r="PA7" s="11">
+        <v>333</v>
+      </c>
+      <c r="PB7" s="11">
+        <v>333</v>
+      </c>
+      <c r="PC7" s="11">
+        <v>332</v>
+      </c>
+      <c r="PD7" s="11">
+        <v>332</v>
+      </c>
+      <c r="PE7" s="11">
+        <v>330</v>
+      </c>
+      <c r="PF7" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -13131,8 +13278,29 @@
       <c r="OY8" s="11">
         <v>2571</v>
       </c>
+      <c r="OZ8" s="11">
+        <v>2574</v>
+      </c>
+      <c r="PA8" s="11">
+        <v>2579</v>
+      </c>
+      <c r="PB8" s="11">
+        <v>2584</v>
+      </c>
+      <c r="PC8" s="11">
+        <v>2584</v>
+      </c>
+      <c r="PD8" s="11">
+        <v>2597</v>
+      </c>
+      <c r="PE8" s="11">
+        <v>2596</v>
+      </c>
+      <c r="PF8" s="11">
+        <v>2599</v>
+      </c>
     </row>
-    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -14378,8 +14546,29 @@
       <c r="OY9" s="11">
         <v>206</v>
       </c>
+      <c r="OZ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PA9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PB9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PC9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PD9" s="11">
+        <v>205</v>
+      </c>
+      <c r="PE9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PF9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -15625,8 +15814,29 @@
       <c r="OY10" s="11">
         <v>157</v>
       </c>
+      <c r="OZ10" s="11">
+        <v>157</v>
+      </c>
+      <c r="PA10" s="11">
+        <v>156</v>
+      </c>
+      <c r="PB10" s="11">
+        <v>155</v>
+      </c>
+      <c r="PC10" s="11">
+        <v>156</v>
+      </c>
+      <c r="PD10" s="11">
+        <v>156</v>
+      </c>
+      <c r="PE10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PF10" s="11">
+        <v>158</v>
+      </c>
     </row>
-    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -16872,8 +17082,29 @@
       <c r="OY11" s="11">
         <v>73</v>
       </c>
+      <c r="OZ11" s="11">
+        <v>73</v>
+      </c>
+      <c r="PA11" s="11">
+        <v>73</v>
+      </c>
+      <c r="PB11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PC11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PD11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PE11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PF11" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -18119,8 +18350,29 @@
       <c r="OY12" s="11">
         <v>310</v>
       </c>
+      <c r="OZ12" s="11">
+        <v>309</v>
+      </c>
+      <c r="PA12" s="11">
+        <v>309</v>
+      </c>
+      <c r="PB12" s="11">
+        <v>309</v>
+      </c>
+      <c r="PC12" s="11">
+        <v>309</v>
+      </c>
+      <c r="PD12" s="11">
+        <v>310</v>
+      </c>
+      <c r="PE12" s="11">
+        <v>310</v>
+      </c>
+      <c r="PF12" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -19366,8 +19618,29 @@
       <c r="OY13" s="11">
         <v>150</v>
       </c>
+      <c r="OZ13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PA13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PB13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PC13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PD13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PE13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PF13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -20613,8 +20886,29 @@
       <c r="OY14" s="11">
         <v>41</v>
       </c>
+      <c r="OZ14" s="11">
+        <v>41</v>
+      </c>
+      <c r="PA14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PB14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PC14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PD14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PE14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PF14" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -21860,8 +22154,29 @@
       <c r="OY15" s="11">
         <v>129</v>
       </c>
+      <c r="OZ15" s="11">
+        <v>130</v>
+      </c>
+      <c r="PA15" s="11">
+        <v>130</v>
+      </c>
+      <c r="PB15" s="11">
+        <v>132</v>
+      </c>
+      <c r="PC15" s="11">
+        <v>132</v>
+      </c>
+      <c r="PD15" s="11">
+        <v>132</v>
+      </c>
+      <c r="PE15" s="11">
+        <v>132</v>
+      </c>
+      <c r="PF15" s="11">
+        <v>134</v>
+      </c>
     </row>
-    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -23107,8 +23422,29 @@
       <c r="OY16" s="11">
         <v>10</v>
       </c>
+      <c r="OZ16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PA16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PB16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PC16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PD16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PE16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PF16" s="11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -24354,8 +24690,29 @@
       <c r="OY17" s="11">
         <v>43</v>
       </c>
+      <c r="OZ17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PA17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PB17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PC17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PD17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PE17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PF17" s="11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -25515,7 +25872,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:OY18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:PF18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -25742,13 +26099,41 @@
         <f t="shared" si="7"/>
         <v>4450</v>
       </c>
+      <c r="OZ18" s="6">
+        <f t="shared" si="7"/>
+        <v>4458</v>
+      </c>
+      <c r="PA18" s="6">
+        <f t="shared" si="7"/>
+        <v>4469</v>
+      </c>
+      <c r="PB18" s="6">
+        <f t="shared" si="7"/>
+        <v>4472</v>
+      </c>
+      <c r="PC18" s="6">
+        <f t="shared" si="7"/>
+        <v>4473</v>
+      </c>
+      <c r="PD18" s="6">
+        <f t="shared" si="7"/>
+        <v>4484</v>
+      </c>
+      <c r="PE18" s="6">
+        <f t="shared" si="7"/>
+        <v>4486</v>
+      </c>
+      <c r="PF18" s="6">
+        <f t="shared" si="7"/>
+        <v>4490</v>
+      </c>
     </row>
-    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -25766,12 +26151,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OY34"/>
+  <dimension ref="A1:PF34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OQ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="OW1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="OS18" sqref="OS18:OY18"/>
+      <selection pane="topRight" activeCell="PC21" sqref="PC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25791,7 +26176,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -27037,8 +27422,29 @@
       <c r="OY1" s="8">
         <v>44348</v>
       </c>
+      <c r="OZ1" s="8">
+        <v>44349</v>
+      </c>
+      <c r="PA1" s="8">
+        <v>44350</v>
+      </c>
+      <c r="PB1" s="8">
+        <v>44351</v>
+      </c>
+      <c r="PC1" s="8">
+        <v>44352</v>
+      </c>
+      <c r="PD1" s="8">
+        <v>44353</v>
+      </c>
+      <c r="PE1" s="8">
+        <v>44354</v>
+      </c>
+      <c r="PF1" s="8">
+        <v>44355</v>
+      </c>
     </row>
-    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -28284,8 +28690,29 @@
       <c r="OY2">
         <v>25</v>
       </c>
+      <c r="OZ2">
+        <v>25</v>
+      </c>
+      <c r="PA2">
+        <v>26</v>
+      </c>
+      <c r="PB2">
+        <v>26</v>
+      </c>
+      <c r="PC2">
+        <v>25</v>
+      </c>
+      <c r="PD2">
+        <v>24</v>
+      </c>
+      <c r="PE2">
+        <v>24</v>
+      </c>
+      <c r="PF2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -29531,8 +29958,29 @@
       <c r="OY3">
         <v>55</v>
       </c>
+      <c r="OZ3">
+        <v>55</v>
+      </c>
+      <c r="PA3">
+        <v>52</v>
+      </c>
+      <c r="PB3">
+        <v>55</v>
+      </c>
+      <c r="PC3">
+        <v>54</v>
+      </c>
+      <c r="PD3">
+        <v>54</v>
+      </c>
+      <c r="PE3">
+        <v>56</v>
+      </c>
+      <c r="PF3">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -30778,8 +31226,29 @@
       <c r="OY4">
         <v>90</v>
       </c>
+      <c r="OZ4">
+        <v>88</v>
+      </c>
+      <c r="PA4">
+        <v>92</v>
+      </c>
+      <c r="PB4">
+        <v>86</v>
+      </c>
+      <c r="PC4">
+        <v>87</v>
+      </c>
+      <c r="PD4">
+        <v>85</v>
+      </c>
+      <c r="PE4">
+        <v>84</v>
+      </c>
+      <c r="PF4">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -32025,8 +32494,29 @@
       <c r="OY5">
         <v>23</v>
       </c>
+      <c r="OZ5">
+        <v>22</v>
+      </c>
+      <c r="PA5">
+        <v>22</v>
+      </c>
+      <c r="PB5">
+        <v>20</v>
+      </c>
+      <c r="PC5">
+        <v>20</v>
+      </c>
+      <c r="PD5">
+        <v>19</v>
+      </c>
+      <c r="PE5">
+        <v>20</v>
+      </c>
+      <c r="PF5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -33272,8 +33762,29 @@
       <c r="OY6">
         <v>95</v>
       </c>
+      <c r="OZ6">
+        <v>96</v>
+      </c>
+      <c r="PA6">
+        <v>98</v>
+      </c>
+      <c r="PB6">
+        <v>100</v>
+      </c>
+      <c r="PC6">
+        <v>101</v>
+      </c>
+      <c r="PD6">
+        <v>104</v>
+      </c>
+      <c r="PE6">
+        <v>103</v>
+      </c>
+      <c r="PF6">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -34519,8 +35030,29 @@
       <c r="OY7">
         <v>217</v>
       </c>
+      <c r="OZ7">
+        <v>214</v>
+      </c>
+      <c r="PA7">
+        <v>217</v>
+      </c>
+      <c r="PB7">
+        <v>216</v>
+      </c>
+      <c r="PC7">
+        <v>212</v>
+      </c>
+      <c r="PD7">
+        <v>212</v>
+      </c>
+      <c r="PE7">
+        <v>211</v>
+      </c>
+      <c r="PF7">
+        <v>213</v>
+      </c>
     </row>
-    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -35766,8 +36298,29 @@
       <c r="OY8">
         <v>1908</v>
       </c>
+      <c r="OZ8">
+        <v>1886</v>
+      </c>
+      <c r="PA8">
+        <v>1930</v>
+      </c>
+      <c r="PB8">
+        <v>1936</v>
+      </c>
+      <c r="PC8">
+        <v>1934</v>
+      </c>
+      <c r="PD8">
+        <v>1957</v>
+      </c>
+      <c r="PE8">
+        <v>1966</v>
+      </c>
+      <c r="PF8">
+        <v>1971</v>
+      </c>
     </row>
-    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -37013,8 +37566,29 @@
       <c r="OY9">
         <v>155</v>
       </c>
+      <c r="OZ9">
+        <v>151</v>
+      </c>
+      <c r="PA9">
+        <v>151</v>
+      </c>
+      <c r="PB9">
+        <v>149</v>
+      </c>
+      <c r="PC9">
+        <v>153</v>
+      </c>
+      <c r="PD9">
+        <v>153</v>
+      </c>
+      <c r="PE9">
+        <v>151</v>
+      </c>
+      <c r="PF9">
+        <v>156</v>
+      </c>
     </row>
-    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -38260,8 +38834,29 @@
       <c r="OY10">
         <v>111</v>
       </c>
+      <c r="OZ10">
+        <v>110</v>
+      </c>
+      <c r="PA10">
+        <v>109</v>
+      </c>
+      <c r="PB10">
+        <v>108</v>
+      </c>
+      <c r="PC10">
+        <v>109</v>
+      </c>
+      <c r="PD10">
+        <v>110</v>
+      </c>
+      <c r="PE10">
+        <v>111</v>
+      </c>
+      <c r="PF10">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -39507,8 +40102,29 @@
       <c r="OY11">
         <v>52</v>
       </c>
+      <c r="OZ11">
+        <v>54</v>
+      </c>
+      <c r="PA11">
+        <v>53</v>
+      </c>
+      <c r="PB11">
+        <v>48</v>
+      </c>
+      <c r="PC11">
+        <v>46</v>
+      </c>
+      <c r="PD11">
+        <v>46</v>
+      </c>
+      <c r="PE11">
+        <v>47</v>
+      </c>
+      <c r="PF11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -40754,8 +41370,29 @@
       <c r="OY12">
         <v>196</v>
       </c>
+      <c r="OZ12">
+        <v>194</v>
+      </c>
+      <c r="PA12">
+        <v>192</v>
+      </c>
+      <c r="PB12">
+        <v>193</v>
+      </c>
+      <c r="PC12">
+        <v>194</v>
+      </c>
+      <c r="PD12">
+        <v>189</v>
+      </c>
+      <c r="PE12">
+        <v>194</v>
+      </c>
+      <c r="PF12">
+        <v>198</v>
+      </c>
     </row>
-    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -42001,8 +42638,29 @@
       <c r="OY13">
         <v>105</v>
       </c>
+      <c r="OZ13">
+        <v>105</v>
+      </c>
+      <c r="PA13">
+        <v>107</v>
+      </c>
+      <c r="PB13">
+        <v>107</v>
+      </c>
+      <c r="PC13">
+        <v>108</v>
+      </c>
+      <c r="PD13">
+        <v>117</v>
+      </c>
+      <c r="PE13">
+        <v>109</v>
+      </c>
+      <c r="PF13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -43248,8 +43906,29 @@
       <c r="OY14">
         <v>30</v>
       </c>
+      <c r="OZ14">
+        <v>31</v>
+      </c>
+      <c r="PA14">
+        <v>27</v>
+      </c>
+      <c r="PB14">
+        <v>30</v>
+      </c>
+      <c r="PC14">
+        <v>29</v>
+      </c>
+      <c r="PD14">
+        <v>31</v>
+      </c>
+      <c r="PE14">
+        <v>31</v>
+      </c>
+      <c r="PF14">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -44495,8 +45174,29 @@
       <c r="OY15">
         <v>92</v>
       </c>
+      <c r="OZ15">
+        <v>98</v>
+      </c>
+      <c r="PA15">
+        <v>102</v>
+      </c>
+      <c r="PB15">
+        <v>103</v>
+      </c>
+      <c r="PC15">
+        <v>103</v>
+      </c>
+      <c r="PD15">
+        <v>102</v>
+      </c>
+      <c r="PE15">
+        <v>102</v>
+      </c>
+      <c r="PF15">
+        <v>107</v>
+      </c>
     </row>
-    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -45742,8 +46442,29 @@
       <c r="OY16">
         <v>10</v>
       </c>
+      <c r="OZ16">
+        <v>13</v>
+      </c>
+      <c r="PA16">
+        <v>12</v>
+      </c>
+      <c r="PB16">
+        <v>10</v>
+      </c>
+      <c r="PC16">
+        <v>11</v>
+      </c>
+      <c r="PD16">
+        <v>11</v>
+      </c>
+      <c r="PE16">
+        <v>10</v>
+      </c>
+      <c r="PF16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -46989,8 +47710,29 @@
       <c r="OY17">
         <v>29</v>
       </c>
+      <c r="OZ17">
+        <v>28</v>
+      </c>
+      <c r="PA17">
+        <v>29</v>
+      </c>
+      <c r="PB17">
+        <v>29</v>
+      </c>
+      <c r="PC17">
+        <v>27</v>
+      </c>
+      <c r="PD17">
+        <v>28</v>
+      </c>
+      <c r="PE17">
+        <v>28</v>
+      </c>
+      <c r="PF17">
+        <v>28</v>
+      </c>
     </row>
-    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -48307,7 +49049,7 @@
         <v>2979</v>
       </c>
       <c r="OL18" s="6">
-        <f t="shared" ref="OL18:OY18" si="2">SUM(OL2:OL17)</f>
+        <f t="shared" ref="OL18:PF18" si="2">SUM(OL2:OL17)</f>
         <v>2972</v>
       </c>
       <c r="OM18" s="6">
@@ -48362,50 +49104,78 @@
         <f t="shared" si="2"/>
         <v>3193</v>
       </c>
+      <c r="OZ18" s="6">
+        <f t="shared" si="2"/>
+        <v>3170</v>
+      </c>
+      <c r="PA18" s="6">
+        <f t="shared" si="2"/>
+        <v>3219</v>
+      </c>
+      <c r="PB18" s="6">
+        <f t="shared" si="2"/>
+        <v>3216</v>
+      </c>
+      <c r="PC18" s="6">
+        <f t="shared" si="2"/>
+        <v>3213</v>
+      </c>
+      <c r="PD18" s="6">
+        <f t="shared" si="2"/>
+        <v>3242</v>
+      </c>
+      <c r="PE18" s="6">
+        <f t="shared" si="2"/>
+        <v>3247</v>
+      </c>
+      <c r="PF18" s="6">
+        <f t="shared" si="2"/>
+        <v>3265</v>
+      </c>
     </row>
-    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:422" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:422" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:422" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -48425,12 +49195,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:OY34"/>
+  <dimension ref="A1:PF34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OP1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OV1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="OW21" sqref="OW21"/>
+      <selection pane="topRight" activeCell="PF22" sqref="PF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48447,7 +49217,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -49693,8 +50463,29 @@
       <c r="OY1" s="8">
         <v>44348</v>
       </c>
+      <c r="OZ1" s="8">
+        <v>44349</v>
+      </c>
+      <c r="PA1" s="8">
+        <v>44350</v>
+      </c>
+      <c r="PB1" s="8">
+        <v>44351</v>
+      </c>
+      <c r="PC1" s="8">
+        <v>44352</v>
+      </c>
+      <c r="PD1" s="8">
+        <v>44353</v>
+      </c>
+      <c r="PE1" s="8">
+        <v>44354</v>
+      </c>
+      <c r="PF1" s="8">
+        <v>44355</v>
+      </c>
     </row>
-    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -50940,8 +51731,29 @@
       <c r="OY2">
         <v>3</v>
       </c>
+      <c r="OZ2">
+        <v>5</v>
+      </c>
+      <c r="PA2">
+        <v>5</v>
+      </c>
+      <c r="PB2">
+        <v>5</v>
+      </c>
+      <c r="PC2">
+        <v>5</v>
+      </c>
+      <c r="PD2">
+        <v>6</v>
+      </c>
+      <c r="PE2">
+        <v>7</v>
+      </c>
+      <c r="PF2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -52187,8 +52999,29 @@
       <c r="OY3">
         <v>6</v>
       </c>
+      <c r="OZ3">
+        <v>6</v>
+      </c>
+      <c r="PA3">
+        <v>6</v>
+      </c>
+      <c r="PB3">
+        <v>5</v>
+      </c>
+      <c r="PC3">
+        <v>6</v>
+      </c>
+      <c r="PD3">
+        <v>6</v>
+      </c>
+      <c r="PE3">
+        <v>6</v>
+      </c>
+      <c r="PF3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -53434,8 +54267,29 @@
       <c r="OY4">
         <v>63</v>
       </c>
+      <c r="OZ4">
+        <v>70</v>
+      </c>
+      <c r="PA4">
+        <v>60</v>
+      </c>
+      <c r="PB4">
+        <v>65</v>
+      </c>
+      <c r="PC4">
+        <v>64</v>
+      </c>
+      <c r="PD4">
+        <v>63</v>
+      </c>
+      <c r="PE4">
+        <v>65</v>
+      </c>
+      <c r="PF4">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -54681,8 +55535,29 @@
       <c r="OY5">
         <v>7</v>
       </c>
+      <c r="OZ5">
+        <v>9</v>
+      </c>
+      <c r="PA5">
+        <v>8</v>
+      </c>
+      <c r="PB5">
+        <v>9</v>
+      </c>
+      <c r="PC5">
+        <v>9</v>
+      </c>
+      <c r="PD5">
+        <v>10</v>
+      </c>
+      <c r="PE5">
+        <v>9</v>
+      </c>
+      <c r="PF5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -55928,8 +56803,29 @@
       <c r="OY6">
         <v>35</v>
       </c>
+      <c r="OZ6">
+        <v>34</v>
+      </c>
+      <c r="PA6">
+        <v>32</v>
+      </c>
+      <c r="PB6">
+        <v>33</v>
+      </c>
+      <c r="PC6">
+        <v>34</v>
+      </c>
+      <c r="PD6">
+        <v>29</v>
+      </c>
+      <c r="PE6">
+        <v>26</v>
+      </c>
+      <c r="PF6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -57175,8 +58071,29 @@
       <c r="OY7">
         <v>106</v>
       </c>
+      <c r="OZ7">
+        <v>109</v>
+      </c>
+      <c r="PA7">
+        <v>110</v>
+      </c>
+      <c r="PB7">
+        <v>110</v>
+      </c>
+      <c r="PC7">
+        <v>109</v>
+      </c>
+      <c r="PD7">
+        <v>103</v>
+      </c>
+      <c r="PE7">
+        <v>104</v>
+      </c>
+      <c r="PF7">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -58422,8 +59339,29 @@
       <c r="OY8">
         <v>628</v>
       </c>
+      <c r="OZ8">
+        <v>653</v>
+      </c>
+      <c r="PA8">
+        <v>613</v>
+      </c>
+      <c r="PB8">
+        <v>611</v>
+      </c>
+      <c r="PC8">
+        <v>620</v>
+      </c>
+      <c r="PD8">
+        <v>608</v>
+      </c>
+      <c r="PE8">
+        <v>591</v>
+      </c>
+      <c r="PF8">
+        <v>598</v>
+      </c>
     </row>
-    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -59669,8 +60607,29 @@
       <c r="OY9">
         <v>36</v>
       </c>
+      <c r="OZ9">
+        <v>34</v>
+      </c>
+      <c r="PA9">
+        <v>34</v>
+      </c>
+      <c r="PB9">
+        <v>35</v>
+      </c>
+      <c r="PC9">
+        <v>29</v>
+      </c>
+      <c r="PD9">
+        <v>33</v>
+      </c>
+      <c r="PE9">
+        <v>47</v>
+      </c>
+      <c r="PF9">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -60916,8 +61875,29 @@
       <c r="OY10">
         <v>26</v>
       </c>
+      <c r="OZ10">
+        <v>28</v>
+      </c>
+      <c r="PA10">
+        <v>30</v>
+      </c>
+      <c r="PB10">
+        <v>30</v>
+      </c>
+      <c r="PC10">
+        <v>23</v>
+      </c>
+      <c r="PD10">
+        <v>23</v>
+      </c>
+      <c r="PE10">
+        <v>25</v>
+      </c>
+      <c r="PF10">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -62163,8 +63143,29 @@
       <c r="OY11">
         <v>16</v>
       </c>
+      <c r="OZ11">
+        <v>17</v>
+      </c>
+      <c r="PA11">
+        <v>16</v>
+      </c>
+      <c r="PB11">
+        <v>17</v>
+      </c>
+      <c r="PC11">
+        <v>15</v>
+      </c>
+      <c r="PD11">
+        <v>16</v>
+      </c>
+      <c r="PE11">
+        <v>17</v>
+      </c>
+      <c r="PF11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -63410,8 +64411,29 @@
       <c r="OY12">
         <v>93</v>
       </c>
+      <c r="OZ12">
+        <v>95</v>
+      </c>
+      <c r="PA12">
+        <v>101</v>
+      </c>
+      <c r="PB12">
+        <v>97</v>
+      </c>
+      <c r="PC12">
+        <v>97</v>
+      </c>
+      <c r="PD12">
+        <v>98</v>
+      </c>
+      <c r="PE12">
+        <v>94</v>
+      </c>
+      <c r="PF12">
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -64657,8 +65679,29 @@
       <c r="OY13">
         <v>36</v>
       </c>
+      <c r="OZ13">
+        <v>36</v>
+      </c>
+      <c r="PA13">
+        <v>37</v>
+      </c>
+      <c r="PB13">
+        <v>34</v>
+      </c>
+      <c r="PC13">
+        <v>38</v>
+      </c>
+      <c r="PD13">
+        <v>28</v>
+      </c>
+      <c r="PE13">
+        <v>32</v>
+      </c>
+      <c r="PF13">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -65904,8 +66947,29 @@
       <c r="OY14">
         <v>10</v>
       </c>
+      <c r="OZ14">
+        <v>9</v>
+      </c>
+      <c r="PA14">
+        <v>10</v>
+      </c>
+      <c r="PB14">
+        <v>11</v>
+      </c>
+      <c r="PC14">
+        <v>10</v>
+      </c>
+      <c r="PD14">
+        <v>10</v>
+      </c>
+      <c r="PE14">
+        <v>9</v>
+      </c>
+      <c r="PF14">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -67151,8 +68215,29 @@
       <c r="OY15">
         <v>35</v>
       </c>
+      <c r="OZ15">
+        <v>25</v>
+      </c>
+      <c r="PA15">
+        <v>26</v>
+      </c>
+      <c r="PB15">
+        <v>27</v>
+      </c>
+      <c r="PC15">
+        <v>23</v>
+      </c>
+      <c r="PD15">
+        <v>25</v>
+      </c>
+      <c r="PE15">
+        <v>25</v>
+      </c>
+      <c r="PF15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -68398,8 +69483,29 @@
       <c r="OY16">
         <v>0</v>
       </c>
+      <c r="OZ16">
+        <v>0</v>
+      </c>
+      <c r="PA16">
+        <v>1</v>
+      </c>
+      <c r="PB16">
+        <v>1</v>
+      </c>
+      <c r="PC16">
+        <v>1</v>
+      </c>
+      <c r="PD16">
+        <v>0</v>
+      </c>
+      <c r="PE16">
+        <v>3</v>
+      </c>
+      <c r="PF16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -69645,8 +70751,29 @@
       <c r="OY17">
         <v>10</v>
       </c>
+      <c r="OZ17">
+        <v>12</v>
+      </c>
+      <c r="PA17">
+        <v>12</v>
+      </c>
+      <c r="PB17">
+        <v>9</v>
+      </c>
+      <c r="PC17">
+        <v>10</v>
+      </c>
+      <c r="PD17">
+        <v>8</v>
+      </c>
+      <c r="PE17">
+        <v>13</v>
+      </c>
+      <c r="PF17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -70892,48 +72019,69 @@
       <c r="OY18" s="20">
         <v>1110</v>
       </c>
+      <c r="OZ18" s="20">
+        <v>1142</v>
+      </c>
+      <c r="PA18" s="20">
+        <v>1101</v>
+      </c>
+      <c r="PB18" s="20">
+        <v>1099</v>
+      </c>
+      <c r="PC18" s="20">
+        <v>1093</v>
+      </c>
+      <c r="PD18" s="20">
+        <v>1066</v>
+      </c>
+      <c r="PE18" s="20">
+        <v>1073</v>
+      </c>
+      <c r="PF18" s="20">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="19" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:422" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -72125,10 +73273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OY18"/>
+  <dimension ref="A1:PF18"/>
   <sheetViews>
     <sheetView topLeftCell="OR1" workbookViewId="0">
-      <selection activeCell="OS2" sqref="OS2:OY18"/>
+      <selection activeCell="PD21" sqref="PD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72136,7 +73284,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -73382,8 +74530,29 @@
       <c r="OY1" s="8">
         <v>44348</v>
       </c>
+      <c r="OZ1" s="8">
+        <v>44349</v>
+      </c>
+      <c r="PA1" s="8">
+        <v>44350</v>
+      </c>
+      <c r="PB1" s="8">
+        <v>44351</v>
+      </c>
+      <c r="PC1" s="8">
+        <v>44352</v>
+      </c>
+      <c r="PD1" s="8">
+        <v>44353</v>
+      </c>
+      <c r="PE1" s="8">
+        <v>44354</v>
+      </c>
+      <c r="PF1" s="8">
+        <v>44355</v>
+      </c>
     </row>
-    <row r="2" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -74629,8 +75798,29 @@
       <c r="OY2">
         <v>9</v>
       </c>
+      <c r="OZ2">
+        <v>9</v>
+      </c>
+      <c r="PA2">
+        <v>9</v>
+      </c>
+      <c r="PB2">
+        <v>9</v>
+      </c>
+      <c r="PC2">
+        <v>9</v>
+      </c>
+      <c r="PD2">
+        <v>9</v>
+      </c>
+      <c r="PE2">
+        <v>9</v>
+      </c>
+      <c r="PF2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -75876,8 +77066,29 @@
       <c r="OY3">
         <v>12</v>
       </c>
+      <c r="OZ3">
+        <v>12</v>
+      </c>
+      <c r="PA3">
+        <v>12</v>
+      </c>
+      <c r="PB3">
+        <v>12</v>
+      </c>
+      <c r="PC3">
+        <v>12</v>
+      </c>
+      <c r="PD3">
+        <v>12</v>
+      </c>
+      <c r="PE3">
+        <v>12</v>
+      </c>
+      <c r="PF3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -77123,8 +78334,29 @@
       <c r="OY4">
         <v>48</v>
       </c>
+      <c r="OZ4">
+        <v>48</v>
+      </c>
+      <c r="PA4">
+        <v>48</v>
+      </c>
+      <c r="PB4">
+        <v>48</v>
+      </c>
+      <c r="PC4">
+        <v>48</v>
+      </c>
+      <c r="PD4">
+        <v>48</v>
+      </c>
+      <c r="PE4">
+        <v>48</v>
+      </c>
+      <c r="PF4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -78370,8 +79602,29 @@
       <c r="OY5">
         <v>11</v>
       </c>
+      <c r="OZ5">
+        <v>11</v>
+      </c>
+      <c r="PA5">
+        <v>11</v>
+      </c>
+      <c r="PB5">
+        <v>11</v>
+      </c>
+      <c r="PC5">
+        <v>11</v>
+      </c>
+      <c r="PD5">
+        <v>11</v>
+      </c>
+      <c r="PE5">
+        <v>11</v>
+      </c>
+      <c r="PF5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -79617,8 +80870,29 @@
       <c r="OY6">
         <v>29</v>
       </c>
+      <c r="OZ6">
+        <v>29</v>
+      </c>
+      <c r="PA6">
+        <v>29</v>
+      </c>
+      <c r="PB6">
+        <v>29</v>
+      </c>
+      <c r="PC6">
+        <v>29</v>
+      </c>
+      <c r="PD6">
+        <v>29</v>
+      </c>
+      <c r="PE6">
+        <v>29</v>
+      </c>
+      <c r="PF6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -80864,8 +82138,29 @@
       <c r="OY7">
         <v>125</v>
       </c>
+      <c r="OZ7">
+        <v>125</v>
+      </c>
+      <c r="PA7">
+        <v>125</v>
+      </c>
+      <c r="PB7">
+        <v>125</v>
+      </c>
+      <c r="PC7">
+        <v>125</v>
+      </c>
+      <c r="PD7">
+        <v>125</v>
+      </c>
+      <c r="PE7">
+        <v>125</v>
+      </c>
+      <c r="PF7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -82111,8 +83406,29 @@
       <c r="OY8">
         <v>745</v>
       </c>
+      <c r="OZ8">
+        <v>745</v>
+      </c>
+      <c r="PA8">
+        <v>745</v>
+      </c>
+      <c r="PB8">
+        <v>745</v>
+      </c>
+      <c r="PC8">
+        <v>745</v>
+      </c>
+      <c r="PD8">
+        <v>745</v>
+      </c>
+      <c r="PE8">
+        <v>745</v>
+      </c>
+      <c r="PF8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -83358,8 +84674,29 @@
       <c r="OY9">
         <v>61</v>
       </c>
+      <c r="OZ9">
+        <v>61</v>
+      </c>
+      <c r="PA9">
+        <v>61</v>
+      </c>
+      <c r="PB9">
+        <v>61</v>
+      </c>
+      <c r="PC9">
+        <v>61</v>
+      </c>
+      <c r="PD9">
+        <v>61</v>
+      </c>
+      <c r="PE9">
+        <v>61</v>
+      </c>
+      <c r="PF9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -84605,8 +85942,29 @@
       <c r="OY10">
         <v>45</v>
       </c>
+      <c r="OZ10">
+        <v>45</v>
+      </c>
+      <c r="PA10">
+        <v>45</v>
+      </c>
+      <c r="PB10">
+        <v>45</v>
+      </c>
+      <c r="PC10">
+        <v>45</v>
+      </c>
+      <c r="PD10">
+        <v>45</v>
+      </c>
+      <c r="PE10">
+        <v>45</v>
+      </c>
+      <c r="PF10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -85852,8 +87210,29 @@
       <c r="OY11">
         <v>16</v>
       </c>
+      <c r="OZ11">
+        <v>16</v>
+      </c>
+      <c r="PA11">
+        <v>16</v>
+      </c>
+      <c r="PB11">
+        <v>16</v>
+      </c>
+      <c r="PC11">
+        <v>16</v>
+      </c>
+      <c r="PD11">
+        <v>16</v>
+      </c>
+      <c r="PE11">
+        <v>16</v>
+      </c>
+      <c r="PF11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -87099,8 +88478,29 @@
       <c r="OY12">
         <v>97</v>
       </c>
+      <c r="OZ12">
+        <v>97</v>
+      </c>
+      <c r="PA12">
+        <v>97</v>
+      </c>
+      <c r="PB12">
+        <v>97</v>
+      </c>
+      <c r="PC12">
+        <v>97</v>
+      </c>
+      <c r="PD12">
+        <v>97</v>
+      </c>
+      <c r="PE12">
+        <v>97</v>
+      </c>
+      <c r="PF12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -88346,8 +89746,29 @@
       <c r="OY13">
         <v>49</v>
       </c>
+      <c r="OZ13">
+        <v>49</v>
+      </c>
+      <c r="PA13">
+        <v>49</v>
+      </c>
+      <c r="PB13">
+        <v>49</v>
+      </c>
+      <c r="PC13">
+        <v>49</v>
+      </c>
+      <c r="PD13">
+        <v>49</v>
+      </c>
+      <c r="PE13">
+        <v>49</v>
+      </c>
+      <c r="PF13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -89593,8 +91014,29 @@
       <c r="OY14">
         <v>13</v>
       </c>
+      <c r="OZ14">
+        <v>13</v>
+      </c>
+      <c r="PA14">
+        <v>13</v>
+      </c>
+      <c r="PB14">
+        <v>13</v>
+      </c>
+      <c r="PC14">
+        <v>13</v>
+      </c>
+      <c r="PD14">
+        <v>13</v>
+      </c>
+      <c r="PE14">
+        <v>13</v>
+      </c>
+      <c r="PF14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -90840,8 +92282,29 @@
       <c r="OY15">
         <v>49</v>
       </c>
+      <c r="OZ15">
+        <v>49</v>
+      </c>
+      <c r="PA15">
+        <v>49</v>
+      </c>
+      <c r="PB15">
+        <v>49</v>
+      </c>
+      <c r="PC15">
+        <v>49</v>
+      </c>
+      <c r="PD15">
+        <v>49</v>
+      </c>
+      <c r="PE15">
+        <v>49</v>
+      </c>
+      <c r="PF15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -92087,8 +93550,29 @@
       <c r="OY16">
         <v>8</v>
       </c>
+      <c r="OZ16">
+        <v>8</v>
+      </c>
+      <c r="PA16">
+        <v>8</v>
+      </c>
+      <c r="PB16">
+        <v>8</v>
+      </c>
+      <c r="PC16">
+        <v>8</v>
+      </c>
+      <c r="PD16">
+        <v>8</v>
+      </c>
+      <c r="PE16">
+        <v>8</v>
+      </c>
+      <c r="PF16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -93334,8 +94818,29 @@
       <c r="OY17">
         <v>14</v>
       </c>
+      <c r="OZ17">
+        <v>14</v>
+      </c>
+      <c r="PA17">
+        <v>14</v>
+      </c>
+      <c r="PB17">
+        <v>14</v>
+      </c>
+      <c r="PC17">
+        <v>14</v>
+      </c>
+      <c r="PD17">
+        <v>14</v>
+      </c>
+      <c r="PE17">
+        <v>14</v>
+      </c>
+      <c r="PF17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:415" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -94995,105 +96500,138 @@
         <f t="shared" si="16"/>
         <v>1331</v>
       </c>
+      <c r="OZ18" s="6">
+        <f t="shared" ref="OZ18:PF18" si="17">SUM(OZ2:OZ17)</f>
+        <v>1331</v>
+      </c>
+      <c r="PA18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
+      <c r="PB18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
+      <c r="PC18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
+      <c r="PD18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
+      <c r="PE18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
+      <c r="PF18" s="6">
+        <f t="shared" si="17"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="20" priority="252" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="253" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="19" priority="250" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="251" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="18" priority="249" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="250" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV18:NB18">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NC18:NI18">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NJ18:NP18">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NQ18:NW18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NX18:OD18">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OE18:OK18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OL18:OR18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OS18:OY18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="OZ18:PF18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,27 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="258">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3130,12 +3150,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PF20"/>
+  <dimension ref="A1:PM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OV1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="PC1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PB22" sqref="PB22"/>
+      <selection pane="topRight" activeCell="PJ22" sqref="PJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3176,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4423,8 +4443,29 @@
       <c r="PF1" s="8">
         <v>44355</v>
       </c>
+      <c r="PG1" s="8">
+        <v>44356</v>
+      </c>
+      <c r="PH1" s="8">
+        <v>44357</v>
+      </c>
+      <c r="PI1" s="8">
+        <v>44358</v>
+      </c>
+      <c r="PJ1" s="8">
+        <v>44359</v>
+      </c>
+      <c r="PK1" s="8">
+        <v>44360</v>
+      </c>
+      <c r="PL1" s="8">
+        <v>44361</v>
+      </c>
+      <c r="PM1" s="8">
+        <v>44362</v>
+      </c>
     </row>
-    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5691,8 +5732,29 @@
       <c r="PF2" s="11">
         <v>33</v>
       </c>
+      <c r="PG2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PH2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PI2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PJ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PK2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PL2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PM2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -6959,8 +7021,29 @@
       <c r="PF3" s="11">
         <v>62</v>
       </c>
+      <c r="PG3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PH3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PI3" s="11">
+        <v>62</v>
+      </c>
+      <c r="PJ3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PK3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PL3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PM3" s="11">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -8227,8 +8310,29 @@
       <c r="PF4" s="11">
         <v>165</v>
       </c>
+      <c r="PG4" s="11">
+        <v>166</v>
+      </c>
+      <c r="PH4" s="11">
+        <v>164</v>
+      </c>
+      <c r="PI4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PJ4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PK4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PL4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PM4" s="11">
+        <v>163</v>
+      </c>
     </row>
-    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9495,8 +9599,29 @@
       <c r="PF5" s="11">
         <v>34</v>
       </c>
+      <c r="PG5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PH5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PI5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PJ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PK5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PL5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PM5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10763,8 +10888,29 @@
       <c r="PF6" s="11">
         <v>135</v>
       </c>
+      <c r="PG6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PH6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PI6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PJ6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PK6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PL6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PM6" s="11">
+        <v>136</v>
+      </c>
     </row>
-    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -12031,8 +12177,29 @@
       <c r="PF7" s="11">
         <v>330</v>
       </c>
+      <c r="PG7" s="11">
+        <v>334</v>
+      </c>
+      <c r="PH7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PI7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PJ7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PK7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PL7" s="11">
+        <v>335</v>
+      </c>
+      <c r="PM7" s="11">
+        <v>335</v>
+      </c>
     </row>
-    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -13299,8 +13466,29 @@
       <c r="PF8" s="11">
         <v>2599</v>
       </c>
+      <c r="PG8" s="11">
+        <v>2602</v>
+      </c>
+      <c r="PH8" s="11">
+        <v>2613</v>
+      </c>
+      <c r="PI8" s="11">
+        <v>2621</v>
+      </c>
+      <c r="PJ8" s="11">
+        <v>2623</v>
+      </c>
+      <c r="PK8" s="11">
+        <v>2619</v>
+      </c>
+      <c r="PL8" s="11">
+        <v>2621</v>
+      </c>
+      <c r="PM8" s="11">
+        <v>2621</v>
+      </c>
     </row>
-    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -14567,8 +14755,29 @@
       <c r="PF9" s="11">
         <v>206</v>
       </c>
+      <c r="PG9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PH9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PI9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PJ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PK9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PL9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PM9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -15835,8 +16044,29 @@
       <c r="PF10" s="11">
         <v>158</v>
       </c>
+      <c r="PG10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PH10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PI10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PJ10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PK10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PL10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PM10" s="11">
+        <v>158</v>
+      </c>
     </row>
-    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -17103,8 +17333,29 @@
       <c r="PF11" s="11">
         <v>70</v>
       </c>
+      <c r="PG11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PH11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PI11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PJ11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PK11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PL11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PM11" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -18371,8 +18622,29 @@
       <c r="PF12" s="11">
         <v>310</v>
       </c>
+      <c r="PG12" s="11">
+        <v>310</v>
+      </c>
+      <c r="PH12" s="11">
+        <v>310</v>
+      </c>
+      <c r="PI12" s="11">
+        <v>310</v>
+      </c>
+      <c r="PJ12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PK12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PL12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PM12" s="11">
+        <v>311</v>
+      </c>
     </row>
-    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -19639,8 +19911,29 @@
       <c r="PF13" s="11">
         <v>150</v>
       </c>
+      <c r="PG13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PH13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PI13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PJ13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PK13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PL13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PM13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -20907,8 +21200,29 @@
       <c r="PF14" s="11">
         <v>44</v>
       </c>
+      <c r="PG14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PH14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PI14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PJ14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PK14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PL14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PM14" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -22175,8 +22489,29 @@
       <c r="PF15" s="11">
         <v>134</v>
       </c>
+      <c r="PG15" s="11">
+        <v>134</v>
+      </c>
+      <c r="PH15" s="11">
+        <v>134</v>
+      </c>
+      <c r="PI15" s="11">
+        <v>134</v>
+      </c>
+      <c r="PJ15" s="11">
+        <v>134</v>
+      </c>
+      <c r="PK15" s="11">
+        <v>137</v>
+      </c>
+      <c r="PL15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PM15" s="11">
+        <v>139</v>
+      </c>
     </row>
-    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -23443,8 +23778,29 @@
       <c r="PF16" s="11">
         <v>13</v>
       </c>
+      <c r="PG16" s="11">
+        <v>13</v>
+      </c>
+      <c r="PH16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PI16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PJ16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PK16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PL16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PM16" s="11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -24711,8 +25067,29 @@
       <c r="PF17" s="11">
         <v>47</v>
       </c>
+      <c r="PG17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PH17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PI17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PJ17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PK17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PL17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PM17" s="11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -25872,7 +26249,7 @@
         <v>3931</v>
       </c>
       <c r="MU18" s="6">
-        <f t="shared" ref="MU18:PF18" si="7">SUM(MU2:MU17)</f>
+        <f t="shared" ref="MU18:PG18" si="7">SUM(MU2:MU17)</f>
         <v>3954</v>
       </c>
       <c r="MV18" s="6">
@@ -26127,13 +26504,41 @@
         <f t="shared" si="7"/>
         <v>4490</v>
       </c>
+      <c r="PG18" s="6">
+        <f t="shared" si="7"/>
+        <v>4498</v>
+      </c>
+      <c r="PH18" s="6">
+        <f t="shared" ref="PH18:PM18" si="8">SUM(PH2:PH17)</f>
+        <v>4513</v>
+      </c>
+      <c r="PI18" s="6">
+        <f t="shared" si="8"/>
+        <v>4516</v>
+      </c>
+      <c r="PJ18" s="6">
+        <f t="shared" si="8"/>
+        <v>4523</v>
+      </c>
+      <c r="PK18" s="6">
+        <f t="shared" si="8"/>
+        <v>4522</v>
+      </c>
+      <c r="PL18" s="6">
+        <f t="shared" si="8"/>
+        <v>4525</v>
+      </c>
+      <c r="PM18" s="6">
+        <f t="shared" si="8"/>
+        <v>4525</v>
+      </c>
     </row>
-    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -26151,12 +26556,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PF34"/>
+  <dimension ref="A1:PM34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="PD1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PC21" sqref="PC21"/>
+      <selection pane="topRight" activeCell="PG18" sqref="PG18:PM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26176,7 +26581,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -27443,8 +27848,29 @@
       <c r="PF1" s="8">
         <v>44355</v>
       </c>
+      <c r="PG1" s="8">
+        <v>44356</v>
+      </c>
+      <c r="PH1" s="8">
+        <v>44357</v>
+      </c>
+      <c r="PI1" s="8">
+        <v>44358</v>
+      </c>
+      <c r="PJ1" s="8">
+        <v>44359</v>
+      </c>
+      <c r="PK1" s="8">
+        <v>44360</v>
+      </c>
+      <c r="PL1" s="8">
+        <v>44361</v>
+      </c>
+      <c r="PM1" s="8">
+        <v>44362</v>
+      </c>
     </row>
-    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -28711,8 +29137,29 @@
       <c r="PF2">
         <v>22</v>
       </c>
+      <c r="PG2">
+        <v>22</v>
+      </c>
+      <c r="PH2">
+        <v>23</v>
+      </c>
+      <c r="PI2">
+        <v>23</v>
+      </c>
+      <c r="PJ2">
+        <v>23</v>
+      </c>
+      <c r="PK2">
+        <v>23</v>
+      </c>
+      <c r="PL2">
+        <v>26</v>
+      </c>
+      <c r="PM2">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -29979,8 +30426,29 @@
       <c r="PF3">
         <v>54</v>
       </c>
+      <c r="PG3">
+        <v>54</v>
+      </c>
+      <c r="PH3">
+        <v>50</v>
+      </c>
+      <c r="PI3">
+        <v>52</v>
+      </c>
+      <c r="PJ3">
+        <v>53</v>
+      </c>
+      <c r="PK3">
+        <v>54</v>
+      </c>
+      <c r="PL3">
+        <v>55</v>
+      </c>
+      <c r="PM3">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -31247,8 +31715,29 @@
       <c r="PF4">
         <v>84</v>
       </c>
+      <c r="PG4">
+        <v>84</v>
+      </c>
+      <c r="PH4">
+        <v>91</v>
+      </c>
+      <c r="PI4">
+        <v>88</v>
+      </c>
+      <c r="PJ4">
+        <v>87</v>
+      </c>
+      <c r="PK4">
+        <v>88</v>
+      </c>
+      <c r="PL4">
+        <v>94</v>
+      </c>
+      <c r="PM4">
+        <v>90</v>
+      </c>
     </row>
-    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -32515,8 +33004,29 @@
       <c r="PF5">
         <v>20</v>
       </c>
+      <c r="PG5">
+        <v>21</v>
+      </c>
+      <c r="PH5">
+        <v>20</v>
+      </c>
+      <c r="PI5">
+        <v>20</v>
+      </c>
+      <c r="PJ5">
+        <v>20</v>
+      </c>
+      <c r="PK5">
+        <v>20</v>
+      </c>
+      <c r="PL5">
+        <v>20</v>
+      </c>
+      <c r="PM5">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -33783,8 +34293,29 @@
       <c r="PF6">
         <v>104</v>
       </c>
+      <c r="PG6">
+        <v>105</v>
+      </c>
+      <c r="PH6">
+        <v>108</v>
+      </c>
+      <c r="PI6">
+        <v>106</v>
+      </c>
+      <c r="PJ6">
+        <v>105</v>
+      </c>
+      <c r="PK6">
+        <v>105</v>
+      </c>
+      <c r="PL6">
+        <v>101</v>
+      </c>
+      <c r="PM6">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -35051,8 +35582,29 @@
       <c r="PF7">
         <v>213</v>
       </c>
+      <c r="PG7">
+        <v>225</v>
+      </c>
+      <c r="PH7">
+        <v>233</v>
+      </c>
+      <c r="PI7">
+        <v>230</v>
+      </c>
+      <c r="PJ7">
+        <v>229</v>
+      </c>
+      <c r="PK7">
+        <v>234</v>
+      </c>
+      <c r="PL7">
+        <v>231</v>
+      </c>
+      <c r="PM7">
+        <v>223</v>
+      </c>
     </row>
-    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -36319,8 +36871,29 @@
       <c r="PF8">
         <v>1971</v>
       </c>
+      <c r="PG8">
+        <v>1979</v>
+      </c>
+      <c r="PH8">
+        <v>1959</v>
+      </c>
+      <c r="PI8">
+        <v>2015</v>
+      </c>
+      <c r="PJ8">
+        <v>1989</v>
+      </c>
+      <c r="PK8">
+        <v>1975</v>
+      </c>
+      <c r="PL8">
+        <v>1970</v>
+      </c>
+      <c r="PM8">
+        <v>1974</v>
+      </c>
     </row>
-    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -37587,8 +38160,29 @@
       <c r="PF9">
         <v>156</v>
       </c>
+      <c r="PG9">
+        <v>156</v>
+      </c>
+      <c r="PH9">
+        <v>150</v>
+      </c>
+      <c r="PI9">
+        <v>153</v>
+      </c>
+      <c r="PJ9">
+        <v>151</v>
+      </c>
+      <c r="PK9">
+        <v>151</v>
+      </c>
+      <c r="PL9">
+        <v>151</v>
+      </c>
+      <c r="PM9">
+        <v>151</v>
+      </c>
     </row>
-    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -38855,8 +39449,29 @@
       <c r="PF10">
         <v>110</v>
       </c>
+      <c r="PG10">
+        <v>106</v>
+      </c>
+      <c r="PH10">
+        <v>109</v>
+      </c>
+      <c r="PI10">
+        <v>103</v>
+      </c>
+      <c r="PJ10">
+        <v>108</v>
+      </c>
+      <c r="PK10">
+        <v>113</v>
+      </c>
+      <c r="PL10">
+        <v>113</v>
+      </c>
+      <c r="PM10">
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -40123,8 +40738,29 @@
       <c r="PF11">
         <v>45</v>
       </c>
+      <c r="PG11">
+        <v>47</v>
+      </c>
+      <c r="PH11">
+        <v>47</v>
+      </c>
+      <c r="PI11">
+        <v>45</v>
+      </c>
+      <c r="PJ11">
+        <v>46</v>
+      </c>
+      <c r="PK11">
+        <v>45</v>
+      </c>
+      <c r="PL11">
+        <v>47</v>
+      </c>
+      <c r="PM11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -41391,8 +42027,29 @@
       <c r="PF12">
         <v>198</v>
       </c>
+      <c r="PG12">
+        <v>194</v>
+      </c>
+      <c r="PH12">
+        <v>196</v>
+      </c>
+      <c r="PI12">
+        <v>196</v>
+      </c>
+      <c r="PJ12">
+        <v>200</v>
+      </c>
+      <c r="PK12">
+        <v>202</v>
+      </c>
+      <c r="PL12">
+        <v>202</v>
+      </c>
+      <c r="PM12">
+        <v>200</v>
+      </c>
     </row>
-    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -42659,8 +43316,29 @@
       <c r="PF13">
         <v>109</v>
       </c>
+      <c r="PG13">
+        <v>109</v>
+      </c>
+      <c r="PH13">
+        <v>108</v>
+      </c>
+      <c r="PI13">
+        <v>108</v>
+      </c>
+      <c r="PJ13">
+        <v>102</v>
+      </c>
+      <c r="PK13">
+        <v>107</v>
+      </c>
+      <c r="PL13">
+        <v>107</v>
+      </c>
+      <c r="PM13">
+        <v>103</v>
+      </c>
     </row>
-    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -43927,8 +44605,29 @@
       <c r="PF14">
         <v>33</v>
       </c>
+      <c r="PG14">
+        <v>32</v>
+      </c>
+      <c r="PH14">
+        <v>30</v>
+      </c>
+      <c r="PI14">
+        <v>29</v>
+      </c>
+      <c r="PJ14">
+        <v>29</v>
+      </c>
+      <c r="PK14">
+        <v>27</v>
+      </c>
+      <c r="PL14">
+        <v>26</v>
+      </c>
+      <c r="PM14">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -45195,8 +45894,29 @@
       <c r="PF15">
         <v>107</v>
       </c>
+      <c r="PG15">
+        <v>106</v>
+      </c>
+      <c r="PH15">
+        <v>103</v>
+      </c>
+      <c r="PI15">
+        <v>102</v>
+      </c>
+      <c r="PJ15">
+        <v>105</v>
+      </c>
+      <c r="PK15">
+        <v>106</v>
+      </c>
+      <c r="PL15">
+        <v>104</v>
+      </c>
+      <c r="PM15">
+        <v>103</v>
+      </c>
     </row>
-    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -46463,8 +47183,29 @@
       <c r="PF16">
         <v>11</v>
       </c>
+      <c r="PG16">
+        <v>10</v>
+      </c>
+      <c r="PH16">
+        <v>11</v>
+      </c>
+      <c r="PI16">
+        <v>13</v>
+      </c>
+      <c r="PJ16">
+        <v>11</v>
+      </c>
+      <c r="PK16">
+        <v>12</v>
+      </c>
+      <c r="PL16">
+        <v>13</v>
+      </c>
+      <c r="PM16">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -47731,8 +48472,29 @@
       <c r="PF17">
         <v>28</v>
       </c>
+      <c r="PG17">
+        <v>29</v>
+      </c>
+      <c r="PH17">
+        <v>28</v>
+      </c>
+      <c r="PI17">
+        <v>29</v>
+      </c>
+      <c r="PJ17">
+        <v>29</v>
+      </c>
+      <c r="PK17">
+        <v>30</v>
+      </c>
+      <c r="PL17">
+        <v>30</v>
+      </c>
+      <c r="PM17">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -49049,7 +49811,7 @@
         <v>2979</v>
       </c>
       <c r="OL18" s="6">
-        <f t="shared" ref="OL18:PF18" si="2">SUM(OL2:OL17)</f>
+        <f t="shared" ref="OL18:PM18" si="2">SUM(OL2:OL17)</f>
         <v>2972</v>
       </c>
       <c r="OM18" s="6">
@@ -49132,50 +49894,78 @@
         <f t="shared" si="2"/>
         <v>3265</v>
       </c>
+      <c r="PG18" s="6">
+        <f t="shared" si="2"/>
+        <v>3279</v>
+      </c>
+      <c r="PH18" s="6">
+        <f t="shared" si="2"/>
+        <v>3266</v>
+      </c>
+      <c r="PI18" s="6">
+        <f t="shared" si="2"/>
+        <v>3312</v>
+      </c>
+      <c r="PJ18" s="6">
+        <f t="shared" si="2"/>
+        <v>3287</v>
+      </c>
+      <c r="PK18" s="6">
+        <f t="shared" si="2"/>
+        <v>3292</v>
+      </c>
+      <c r="PL18" s="6">
+        <f t="shared" si="2"/>
+        <v>3290</v>
+      </c>
+      <c r="PM18" s="6">
+        <f t="shared" si="2"/>
+        <v>3275</v>
+      </c>
     </row>
-    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:429" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:429" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:429" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -49195,12 +49985,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:PF34"/>
+  <dimension ref="A1:PM34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OV1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="PC1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="PF22" sqref="PF22"/>
+      <selection pane="topRight" activeCell="PM22" sqref="PM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49217,7 +50007,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -50484,8 +51274,29 @@
       <c r="PF1" s="8">
         <v>44355</v>
       </c>
+      <c r="PG1" s="8">
+        <v>44356</v>
+      </c>
+      <c r="PH1" s="8">
+        <v>44357</v>
+      </c>
+      <c r="PI1" s="8">
+        <v>44358</v>
+      </c>
+      <c r="PJ1" s="8">
+        <v>44359</v>
+      </c>
+      <c r="PK1" s="8">
+        <v>44360</v>
+      </c>
+      <c r="PL1" s="8">
+        <v>44361</v>
+      </c>
+      <c r="PM1" s="8">
+        <v>44362</v>
+      </c>
     </row>
-    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -51752,8 +52563,29 @@
       <c r="PF2">
         <v>8</v>
       </c>
+      <c r="PG2">
+        <v>8</v>
+      </c>
+      <c r="PH2">
+        <v>6</v>
+      </c>
+      <c r="PI2">
+        <v>7</v>
+      </c>
+      <c r="PJ2">
+        <v>7</v>
+      </c>
+      <c r="PK2">
+        <v>7</v>
+      </c>
+      <c r="PL2">
+        <v>4</v>
+      </c>
+      <c r="PM2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -53020,8 +53852,29 @@
       <c r="PF3">
         <v>5</v>
       </c>
+      <c r="PG3">
+        <v>4</v>
+      </c>
+      <c r="PH3">
+        <v>4</v>
+      </c>
+      <c r="PI3">
+        <v>4</v>
+      </c>
+      <c r="PJ3">
+        <v>5</v>
+      </c>
+      <c r="PK3">
+        <v>5</v>
+      </c>
+      <c r="PL3">
+        <v>5</v>
+      </c>
+      <c r="PM3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -54288,8 +55141,29 @@
       <c r="PF4">
         <v>72</v>
       </c>
+      <c r="PG4">
+        <v>72</v>
+      </c>
+      <c r="PH4">
+        <v>62</v>
+      </c>
+      <c r="PI4">
+        <v>66</v>
+      </c>
+      <c r="PJ4">
+        <v>66</v>
+      </c>
+      <c r="PK4">
+        <v>64</v>
+      </c>
+      <c r="PL4">
+        <v>68</v>
+      </c>
+      <c r="PM4">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -55556,8 +56430,29 @@
       <c r="PF5">
         <v>10</v>
       </c>
+      <c r="PG5">
+        <v>11</v>
+      </c>
+      <c r="PH5">
+        <v>12</v>
+      </c>
+      <c r="PI5">
+        <v>10</v>
+      </c>
+      <c r="PJ5">
+        <v>10</v>
+      </c>
+      <c r="PK5">
+        <v>10</v>
+      </c>
+      <c r="PL5">
+        <v>7</v>
+      </c>
+      <c r="PM5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -56824,8 +57719,29 @@
       <c r="PF6">
         <v>28</v>
       </c>
+      <c r="PG6">
+        <v>25</v>
+      </c>
+      <c r="PH6">
+        <v>23</v>
+      </c>
+      <c r="PI6">
+        <v>24</v>
+      </c>
+      <c r="PJ6">
+        <v>27</v>
+      </c>
+      <c r="PK6">
+        <v>26</v>
+      </c>
+      <c r="PL6">
+        <v>33</v>
+      </c>
+      <c r="PM6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -58092,8 +59008,29 @@
       <c r="PF7">
         <v>103</v>
       </c>
+      <c r="PG7">
+        <v>105</v>
+      </c>
+      <c r="PH7">
+        <v>93</v>
+      </c>
+      <c r="PI7">
+        <v>98</v>
+      </c>
+      <c r="PJ7">
+        <v>101</v>
+      </c>
+      <c r="PK7">
+        <v>93</v>
+      </c>
+      <c r="PL7">
+        <v>97</v>
+      </c>
+      <c r="PM7">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -59360,8 +60297,29 @@
       <c r="PF8">
         <v>598</v>
       </c>
+      <c r="PG8">
+        <v>588</v>
+      </c>
+      <c r="PH8">
+        <v>614</v>
+      </c>
+      <c r="PI8">
+        <v>564</v>
+      </c>
+      <c r="PJ8">
+        <v>593</v>
+      </c>
+      <c r="PK8">
+        <v>607</v>
+      </c>
+      <c r="PL8">
+        <v>608</v>
+      </c>
+      <c r="PM8">
+        <v>612</v>
+      </c>
     </row>
-    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -60628,8 +61586,29 @@
       <c r="PF9">
         <v>37</v>
       </c>
+      <c r="PG9">
+        <v>35</v>
+      </c>
+      <c r="PH9">
+        <v>35</v>
+      </c>
+      <c r="PI9">
+        <v>26</v>
+      </c>
+      <c r="PJ9">
+        <v>28</v>
+      </c>
+      <c r="PK9">
+        <v>27</v>
+      </c>
+      <c r="PL9">
+        <v>27</v>
+      </c>
+      <c r="PM9">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -61896,8 +62875,29 @@
       <c r="PF10">
         <v>23</v>
       </c>
+      <c r="PG10">
+        <v>27</v>
+      </c>
+      <c r="PH10">
+        <v>25</v>
+      </c>
+      <c r="PI10">
+        <v>28</v>
+      </c>
+      <c r="PJ10">
+        <v>24</v>
+      </c>
+      <c r="PK10">
+        <v>23</v>
+      </c>
+      <c r="PL10">
+        <v>28</v>
+      </c>
+      <c r="PM10">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -63164,8 +64164,29 @@
       <c r="PF11">
         <v>18</v>
       </c>
+      <c r="PG11">
+        <v>17</v>
+      </c>
+      <c r="PH11">
+        <v>15</v>
+      </c>
+      <c r="PI11">
+        <v>12</v>
+      </c>
+      <c r="PJ11">
+        <v>13</v>
+      </c>
+      <c r="PK11">
+        <v>12</v>
+      </c>
+      <c r="PL11">
+        <v>13</v>
+      </c>
+      <c r="PM11">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -64432,8 +65453,29 @@
       <c r="PF12">
         <v>95</v>
       </c>
+      <c r="PG12">
+        <v>90</v>
+      </c>
+      <c r="PH12">
+        <v>90</v>
+      </c>
+      <c r="PI12">
+        <v>90</v>
+      </c>
+      <c r="PJ12">
+        <v>88</v>
+      </c>
+      <c r="PK12">
+        <v>86</v>
+      </c>
+      <c r="PL12">
+        <v>92</v>
+      </c>
+      <c r="PM12">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -65700,8 +66742,29 @@
       <c r="PF13">
         <v>37</v>
       </c>
+      <c r="PG13">
+        <v>36</v>
+      </c>
+      <c r="PH13">
+        <v>34</v>
+      </c>
+      <c r="PI13">
+        <v>36</v>
+      </c>
+      <c r="PJ13">
+        <v>40</v>
+      </c>
+      <c r="PK13">
+        <v>37</v>
+      </c>
+      <c r="PL13">
+        <v>40</v>
+      </c>
+      <c r="PM13">
+        <v>44</v>
+      </c>
     </row>
-    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -66968,8 +68031,29 @@
       <c r="PF14">
         <v>7</v>
       </c>
+      <c r="PG14">
+        <v>12</v>
+      </c>
+      <c r="PH14">
+        <v>11</v>
+      </c>
+      <c r="PI14">
+        <v>10</v>
+      </c>
+      <c r="PJ14">
+        <v>13</v>
+      </c>
+      <c r="PK14">
+        <v>12</v>
+      </c>
+      <c r="PL14">
+        <v>12</v>
+      </c>
+      <c r="PM14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -68236,8 +69320,29 @@
       <c r="PF15">
         <v>25</v>
       </c>
+      <c r="PG15">
+        <v>27</v>
+      </c>
+      <c r="PH15">
+        <v>28</v>
+      </c>
+      <c r="PI15">
+        <v>24</v>
+      </c>
+      <c r="PJ15">
+        <v>28</v>
+      </c>
+      <c r="PK15">
+        <v>28</v>
+      </c>
+      <c r="PL15">
+        <v>29</v>
+      </c>
+      <c r="PM15">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -69504,8 +70609,29 @@
       <c r="PF16">
         <v>2</v>
       </c>
+      <c r="PG16">
+        <v>2</v>
+      </c>
+      <c r="PH16">
+        <v>2</v>
+      </c>
+      <c r="PI16">
+        <v>1</v>
+      </c>
+      <c r="PJ16">
+        <v>1</v>
+      </c>
+      <c r="PK16">
+        <v>1</v>
+      </c>
+      <c r="PL16">
+        <v>1</v>
+      </c>
+      <c r="PM16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -70772,8 +71898,29 @@
       <c r="PF17">
         <v>12</v>
       </c>
+      <c r="PG17">
+        <v>11</v>
+      </c>
+      <c r="PH17">
+        <v>11</v>
+      </c>
+      <c r="PI17">
+        <v>9</v>
+      </c>
+      <c r="PJ17">
+        <v>12</v>
+      </c>
+      <c r="PK17">
+        <v>12</v>
+      </c>
+      <c r="PL17">
+        <v>11</v>
+      </c>
+      <c r="PM17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -72040,48 +73187,69 @@
       <c r="PF18" s="20">
         <v>1080</v>
       </c>
+      <c r="PG18" s="20">
+        <v>1070</v>
+      </c>
+      <c r="PH18" s="20">
+        <v>1065</v>
+      </c>
+      <c r="PI18" s="20">
+        <v>1009</v>
+      </c>
+      <c r="PJ18" s="20">
+        <v>1056</v>
+      </c>
+      <c r="PK18" s="20">
+        <v>1050</v>
+      </c>
+      <c r="PL18" s="20">
+        <v>1075</v>
+      </c>
+      <c r="PM18" s="20">
+        <v>1083</v>
+      </c>
     </row>
-    <row r="19" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:429" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -72092,1177 +73260,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="255" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="254" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="253" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="252" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="251" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="250" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="249" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="248" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="247" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="246" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="245" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="244" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="243" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="242" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="241" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="240" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="239" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="238" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="237" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="236" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="235" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="234" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="233" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="232" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="231" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="230" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="229" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="228" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="227" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="226" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="225" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="224" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="223" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="222" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="221" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="220" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="219" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="218" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="217" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="216" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="215" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="214" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="213" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="212" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="211" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="210" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="209" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="208" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="207" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="206" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="205" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="204" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="203" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="202" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="201" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="200" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="199" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="198" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="197" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="196" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="195" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="194" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="193" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="192" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="191" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="190" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="189" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="188" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="187" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="186" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="185" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="184" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="183" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="182" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="181" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="180" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="179" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="178" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="177" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="176" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="175" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="174" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="173" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="172" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="171" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="170" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="169" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="168" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="167" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="166" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="165" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="164" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="163" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="162" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="161" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="160" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="159" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="158" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="157" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="156" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="155" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="154" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="153" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="152" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="151" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="150" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="149" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="148" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="147" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="146" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="145" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="144" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="143" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="142" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="141" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="140" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="139" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="138" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="137" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="136" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="135" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="134" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="133" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="132" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="131" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="130" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="129" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="128" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="127" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="126" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="125" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="124" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="123" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="122" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="121" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="120" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="119" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="118" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="117" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="116" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="115" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="114" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="113" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="112" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="111" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="110" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="109" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="108" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="107" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="105" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="103" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="102" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="101" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="100" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="99" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="98" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="97" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="96" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="95" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="94" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="93" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="92" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="91" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="90" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="89" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="87" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="85" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="84" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="83" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="82" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="81" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="80" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="79" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="77" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="76" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="73" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="72" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="71" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="69" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="68" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="67" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="66" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="65" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="63" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="60" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="58" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -73273,10 +74441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PF18"/>
+  <dimension ref="A1:PM18"/>
   <sheetViews>
-    <sheetView topLeftCell="OR1" workbookViewId="0">
-      <selection activeCell="PD21" sqref="PD21"/>
+    <sheetView topLeftCell="PC1" workbookViewId="0">
+      <selection activeCell="PO14" sqref="PO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73284,7 +74452,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -74551,8 +75719,29 @@
       <c r="PF1" s="8">
         <v>44355</v>
       </c>
+      <c r="PG1" s="8">
+        <v>44356</v>
+      </c>
+      <c r="PH1" s="8">
+        <v>44357</v>
+      </c>
+      <c r="PI1" s="8">
+        <v>44358</v>
+      </c>
+      <c r="PJ1" s="8">
+        <v>44359</v>
+      </c>
+      <c r="PK1" s="8">
+        <v>44360</v>
+      </c>
+      <c r="PL1" s="8">
+        <v>44361</v>
+      </c>
+      <c r="PM1" s="8">
+        <v>44362</v>
+      </c>
     </row>
-    <row r="2" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -75819,8 +77008,29 @@
       <c r="PF2">
         <v>9</v>
       </c>
+      <c r="PG2">
+        <v>9</v>
+      </c>
+      <c r="PH2">
+        <v>9</v>
+      </c>
+      <c r="PI2">
+        <v>9</v>
+      </c>
+      <c r="PJ2">
+        <v>9</v>
+      </c>
+      <c r="PK2">
+        <v>9</v>
+      </c>
+      <c r="PL2">
+        <v>9</v>
+      </c>
+      <c r="PM2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -77087,8 +78297,29 @@
       <c r="PF3">
         <v>12</v>
       </c>
+      <c r="PG3">
+        <v>12</v>
+      </c>
+      <c r="PH3">
+        <v>12</v>
+      </c>
+      <c r="PI3">
+        <v>12</v>
+      </c>
+      <c r="PJ3">
+        <v>12</v>
+      </c>
+      <c r="PK3">
+        <v>12</v>
+      </c>
+      <c r="PL3">
+        <v>12</v>
+      </c>
+      <c r="PM3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -78355,8 +79586,29 @@
       <c r="PF4">
         <v>48</v>
       </c>
+      <c r="PG4">
+        <v>48</v>
+      </c>
+      <c r="PH4">
+        <v>48</v>
+      </c>
+      <c r="PI4">
+        <v>48</v>
+      </c>
+      <c r="PJ4">
+        <v>48</v>
+      </c>
+      <c r="PK4">
+        <v>48</v>
+      </c>
+      <c r="PL4">
+        <v>48</v>
+      </c>
+      <c r="PM4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -79623,8 +80875,29 @@
       <c r="PF5">
         <v>11</v>
       </c>
+      <c r="PG5">
+        <v>11</v>
+      </c>
+      <c r="PH5">
+        <v>11</v>
+      </c>
+      <c r="PI5">
+        <v>11</v>
+      </c>
+      <c r="PJ5">
+        <v>11</v>
+      </c>
+      <c r="PK5">
+        <v>11</v>
+      </c>
+      <c r="PL5">
+        <v>11</v>
+      </c>
+      <c r="PM5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -80891,8 +82164,29 @@
       <c r="PF6">
         <v>29</v>
       </c>
+      <c r="PG6">
+        <v>29</v>
+      </c>
+      <c r="PH6">
+        <v>29</v>
+      </c>
+      <c r="PI6">
+        <v>29</v>
+      </c>
+      <c r="PJ6">
+        <v>29</v>
+      </c>
+      <c r="PK6">
+        <v>29</v>
+      </c>
+      <c r="PL6">
+        <v>29</v>
+      </c>
+      <c r="PM6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -82159,8 +83453,29 @@
       <c r="PF7">
         <v>125</v>
       </c>
+      <c r="PG7">
+        <v>125</v>
+      </c>
+      <c r="PH7">
+        <v>125</v>
+      </c>
+      <c r="PI7">
+        <v>125</v>
+      </c>
+      <c r="PJ7">
+        <v>125</v>
+      </c>
+      <c r="PK7">
+        <v>125</v>
+      </c>
+      <c r="PL7">
+        <v>125</v>
+      </c>
+      <c r="PM7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -83427,8 +84742,29 @@
       <c r="PF8">
         <v>745</v>
       </c>
+      <c r="PG8">
+        <v>745</v>
+      </c>
+      <c r="PH8">
+        <v>745</v>
+      </c>
+      <c r="PI8">
+        <v>745</v>
+      </c>
+      <c r="PJ8">
+        <v>745</v>
+      </c>
+      <c r="PK8">
+        <v>745</v>
+      </c>
+      <c r="PL8">
+        <v>745</v>
+      </c>
+      <c r="PM8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -84695,8 +86031,29 @@
       <c r="PF9">
         <v>61</v>
       </c>
+      <c r="PG9">
+        <v>61</v>
+      </c>
+      <c r="PH9">
+        <v>61</v>
+      </c>
+      <c r="PI9">
+        <v>61</v>
+      </c>
+      <c r="PJ9">
+        <v>61</v>
+      </c>
+      <c r="PK9">
+        <v>61</v>
+      </c>
+      <c r="PL9">
+        <v>61</v>
+      </c>
+      <c r="PM9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -85963,8 +87320,29 @@
       <c r="PF10">
         <v>45</v>
       </c>
+      <c r="PG10">
+        <v>45</v>
+      </c>
+      <c r="PH10">
+        <v>45</v>
+      </c>
+      <c r="PI10">
+        <v>45</v>
+      </c>
+      <c r="PJ10">
+        <v>45</v>
+      </c>
+      <c r="PK10">
+        <v>45</v>
+      </c>
+      <c r="PL10">
+        <v>45</v>
+      </c>
+      <c r="PM10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -87231,8 +88609,29 @@
       <c r="PF11">
         <v>16</v>
       </c>
+      <c r="PG11">
+        <v>16</v>
+      </c>
+      <c r="PH11">
+        <v>16</v>
+      </c>
+      <c r="PI11">
+        <v>16</v>
+      </c>
+      <c r="PJ11">
+        <v>16</v>
+      </c>
+      <c r="PK11">
+        <v>16</v>
+      </c>
+      <c r="PL11">
+        <v>16</v>
+      </c>
+      <c r="PM11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -88499,8 +89898,29 @@
       <c r="PF12">
         <v>97</v>
       </c>
+      <c r="PG12">
+        <v>97</v>
+      </c>
+      <c r="PH12">
+        <v>97</v>
+      </c>
+      <c r="PI12">
+        <v>97</v>
+      </c>
+      <c r="PJ12">
+        <v>97</v>
+      </c>
+      <c r="PK12">
+        <v>97</v>
+      </c>
+      <c r="PL12">
+        <v>97</v>
+      </c>
+      <c r="PM12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -89767,8 +91187,29 @@
       <c r="PF13">
         <v>49</v>
       </c>
+      <c r="PG13">
+        <v>49</v>
+      </c>
+      <c r="PH13">
+        <v>49</v>
+      </c>
+      <c r="PI13">
+        <v>49</v>
+      </c>
+      <c r="PJ13">
+        <v>49</v>
+      </c>
+      <c r="PK13">
+        <v>49</v>
+      </c>
+      <c r="PL13">
+        <v>49</v>
+      </c>
+      <c r="PM13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -91035,8 +92476,29 @@
       <c r="PF14">
         <v>13</v>
       </c>
+      <c r="PG14">
+        <v>13</v>
+      </c>
+      <c r="PH14">
+        <v>13</v>
+      </c>
+      <c r="PI14">
+        <v>13</v>
+      </c>
+      <c r="PJ14">
+        <v>13</v>
+      </c>
+      <c r="PK14">
+        <v>13</v>
+      </c>
+      <c r="PL14">
+        <v>13</v>
+      </c>
+      <c r="PM14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -92303,8 +93765,29 @@
       <c r="PF15">
         <v>49</v>
       </c>
+      <c r="PG15">
+        <v>49</v>
+      </c>
+      <c r="PH15">
+        <v>49</v>
+      </c>
+      <c r="PI15">
+        <v>49</v>
+      </c>
+      <c r="PJ15">
+        <v>49</v>
+      </c>
+      <c r="PK15">
+        <v>49</v>
+      </c>
+      <c r="PL15">
+        <v>49</v>
+      </c>
+      <c r="PM15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -93571,8 +95054,29 @@
       <c r="PF16">
         <v>8</v>
       </c>
+      <c r="PG16">
+        <v>8</v>
+      </c>
+      <c r="PH16">
+        <v>8</v>
+      </c>
+      <c r="PI16">
+        <v>8</v>
+      </c>
+      <c r="PJ16">
+        <v>8</v>
+      </c>
+      <c r="PK16">
+        <v>8</v>
+      </c>
+      <c r="PL16">
+        <v>8</v>
+      </c>
+      <c r="PM16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -94839,8 +96343,29 @@
       <c r="PF17">
         <v>14</v>
       </c>
+      <c r="PG17">
+        <v>14</v>
+      </c>
+      <c r="PH17">
+        <v>14</v>
+      </c>
+      <c r="PI17">
+        <v>14</v>
+      </c>
+      <c r="PJ17">
+        <v>14</v>
+      </c>
+      <c r="PK17">
+        <v>14</v>
+      </c>
+      <c r="PL17">
+        <v>14</v>
+      </c>
+      <c r="PM17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:422" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -96528,110 +98053,143 @@
         <f t="shared" si="17"/>
         <v>1331</v>
       </c>
+      <c r="PG18" s="6">
+        <f t="shared" ref="PG18:PM18" si="18">SUM(PG2:PG17)</f>
+        <v>1331</v>
+      </c>
+      <c r="PH18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
+      <c r="PI18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
+      <c r="PJ18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
+      <c r="PK18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
+      <c r="PL18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
+      <c r="PM18" s="6">
+        <f t="shared" si="18"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="20" priority="253" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="254" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
-    <cfRule type="cellIs" dxfId="19" priority="251" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="252" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="18" priority="250" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="251" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:MF18">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG3:MG18">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG2:MG17">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MH18">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI18:MN18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO18:MU18">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MV18:NB18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NC18:NI18">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NJ18:NP18">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NQ18:NW18">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NX18:OD18">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OE18:OK18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OL18:OR18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OS18:OY18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OZ18:PF18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="PG18:PM18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -259,7 +259,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="258">
+  <dxfs count="259">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3150,12 +3160,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PM20"/>
+  <dimension ref="A1:PT20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="PK1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PJ22" sqref="PJ22"/>
+      <selection pane="topRight" activeCell="PN18" sqref="PN18:PT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3186,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4464,8 +4474,29 @@
       <c r="PM1" s="8">
         <v>44362</v>
       </c>
+      <c r="PN1" s="8">
+        <v>44363</v>
+      </c>
+      <c r="PO1" s="8">
+        <v>44364</v>
+      </c>
+      <c r="PP1" s="8">
+        <v>44365</v>
+      </c>
+      <c r="PQ1" s="8">
+        <v>44366</v>
+      </c>
+      <c r="PR1" s="8">
+        <v>44367</v>
+      </c>
+      <c r="PS1" s="8">
+        <v>44368</v>
+      </c>
+      <c r="PT1" s="8">
+        <v>44369</v>
+      </c>
     </row>
-    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5753,8 +5784,29 @@
       <c r="PM2" s="11">
         <v>33</v>
       </c>
+      <c r="PN2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PO2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PP2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PQ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PR2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PS2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PT2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -7042,8 +7094,29 @@
       <c r="PM3" s="11">
         <v>61</v>
       </c>
+      <c r="PN3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PO3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PP3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PQ3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PR3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PS3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PT3" s="11">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -8331,8 +8404,29 @@
       <c r="PM4" s="11">
         <v>163</v>
       </c>
+      <c r="PN4" s="11">
+        <v>164</v>
+      </c>
+      <c r="PO4" s="11">
+        <v>164</v>
+      </c>
+      <c r="PP4" s="11">
+        <v>162</v>
+      </c>
+      <c r="PQ4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PR4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PS4" s="11">
+        <v>163</v>
+      </c>
+      <c r="PT4" s="11">
+        <v>164</v>
+      </c>
     </row>
-    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9620,8 +9714,29 @@
       <c r="PM5" s="11">
         <v>34</v>
       </c>
+      <c r="PN5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PO5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PP5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PQ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PR5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PS5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PT5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -10909,8 +11024,29 @@
       <c r="PM6" s="11">
         <v>136</v>
       </c>
+      <c r="PN6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PO6" s="11">
+        <v>134</v>
+      </c>
+      <c r="PP6" s="11">
+        <v>136</v>
+      </c>
+      <c r="PQ6" s="11">
+        <v>136</v>
+      </c>
+      <c r="PR6" s="11">
+        <v>136</v>
+      </c>
+      <c r="PS6" s="11">
+        <v>136</v>
+      </c>
+      <c r="PT6" s="11">
+        <v>135</v>
+      </c>
     </row>
-    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -12198,8 +12334,29 @@
       <c r="PM7" s="11">
         <v>335</v>
       </c>
+      <c r="PN7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PO7" s="11">
+        <v>336</v>
+      </c>
+      <c r="PP7" s="11">
+        <v>335</v>
+      </c>
+      <c r="PQ7" s="11">
+        <v>335</v>
+      </c>
+      <c r="PR7" s="11">
+        <v>333</v>
+      </c>
+      <c r="PS7" s="11">
+        <v>334</v>
+      </c>
+      <c r="PT7" s="11">
+        <v>332</v>
+      </c>
     </row>
-    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -13487,8 +13644,29 @@
       <c r="PM8" s="11">
         <v>2621</v>
       </c>
+      <c r="PN8" s="11">
+        <v>2619</v>
+      </c>
+      <c r="PO8" s="11">
+        <v>2614</v>
+      </c>
+      <c r="PP8" s="11">
+        <v>2615</v>
+      </c>
+      <c r="PQ8" s="11">
+        <v>2614</v>
+      </c>
+      <c r="PR8" s="11">
+        <v>2611</v>
+      </c>
+      <c r="PS8" s="11">
+        <v>2615</v>
+      </c>
+      <c r="PT8" s="11">
+        <v>2613</v>
+      </c>
     </row>
-    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -14776,8 +14954,29 @@
       <c r="PM9" s="11">
         <v>206</v>
       </c>
+      <c r="PN9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PO9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PP9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PQ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PR9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PS9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PT9" s="11">
+        <v>206</v>
+      </c>
     </row>
-    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -16065,8 +16264,29 @@
       <c r="PM10" s="11">
         <v>158</v>
       </c>
+      <c r="PN10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PO10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PP10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PQ10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PR10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PS10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PT10" s="11">
+        <v>158</v>
+      </c>
     </row>
-    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -17354,8 +17574,29 @@
       <c r="PM11" s="11">
         <v>70</v>
       </c>
+      <c r="PN11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PO11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PP11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PQ11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PR11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PS11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PT11" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -18643,8 +18884,29 @@
       <c r="PM12" s="11">
         <v>311</v>
       </c>
+      <c r="PN12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PO12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PP12" s="11">
+        <v>312</v>
+      </c>
+      <c r="PQ12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PR12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PS12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PT12" s="11">
+        <v>311</v>
+      </c>
     </row>
-    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -19932,8 +20194,29 @@
       <c r="PM13" s="11">
         <v>150</v>
       </c>
+      <c r="PN13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PO13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PP13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PQ13" s="11">
+        <v>148</v>
+      </c>
+      <c r="PR13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PS13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PT13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -21221,8 +21504,29 @@
       <c r="PM14" s="11">
         <v>44</v>
       </c>
+      <c r="PN14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PO14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PP14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PQ14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PR14" s="11">
+        <v>44</v>
+      </c>
+      <c r="PS14" s="11">
+        <v>41</v>
+      </c>
+      <c r="PT14" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -22510,8 +22814,29 @@
       <c r="PM15" s="11">
         <v>139</v>
       </c>
+      <c r="PN15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PO15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PP15" s="11">
+        <v>140</v>
+      </c>
+      <c r="PQ15" s="11">
+        <v>140</v>
+      </c>
+      <c r="PR15" s="11">
+        <v>141</v>
+      </c>
+      <c r="PS15" s="11">
+        <v>141</v>
+      </c>
+      <c r="PT15" s="11">
+        <v>141</v>
+      </c>
     </row>
-    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -23799,8 +24124,29 @@
       <c r="PM16" s="11">
         <v>17</v>
       </c>
+      <c r="PN16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PO16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PP16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PQ16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PR16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PS16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PT16" s="11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -25088,8 +25434,29 @@
       <c r="PM17" s="11">
         <v>47</v>
       </c>
+      <c r="PN17" s="11">
+        <v>47</v>
+      </c>
+      <c r="PO17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PP17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PQ17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PR17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PS17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PT17" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -26509,7 +26876,7 @@
         <v>4498</v>
       </c>
       <c r="PH18" s="6">
-        <f t="shared" ref="PH18:PM18" si="8">SUM(PH2:PH17)</f>
+        <f t="shared" ref="PH18:PT18" si="8">SUM(PH2:PH17)</f>
         <v>4513</v>
       </c>
       <c r="PI18" s="6">
@@ -26532,13 +26899,41 @@
         <f t="shared" si="8"/>
         <v>4525</v>
       </c>
+      <c r="PN18" s="6">
+        <f t="shared" si="8"/>
+        <v>4525</v>
+      </c>
+      <c r="PO18" s="6">
+        <f t="shared" si="8"/>
+        <v>4515</v>
+      </c>
+      <c r="PP18" s="6">
+        <f t="shared" si="8"/>
+        <v>4516</v>
+      </c>
+      <c r="PQ18" s="6">
+        <f t="shared" si="8"/>
+        <v>4513</v>
+      </c>
+      <c r="PR18" s="6">
+        <f t="shared" si="8"/>
+        <v>4511</v>
+      </c>
+      <c r="PS18" s="6">
+        <f t="shared" si="8"/>
+        <v>4513</v>
+      </c>
+      <c r="PT18" s="6">
+        <f t="shared" si="8"/>
+        <v>4509</v>
+      </c>
     </row>
-    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -26556,12 +26951,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PM34"/>
+  <dimension ref="A1:PT34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="PJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PG18" sqref="PG18:PM18"/>
+      <selection pane="topRight" activeCell="PU13" sqref="PU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26581,7 +26976,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -27869,8 +28264,29 @@
       <c r="PM1" s="8">
         <v>44362</v>
       </c>
+      <c r="PN1" s="8">
+        <v>44363</v>
+      </c>
+      <c r="PO1" s="8">
+        <v>44364</v>
+      </c>
+      <c r="PP1" s="8">
+        <v>44365</v>
+      </c>
+      <c r="PQ1" s="8">
+        <v>44366</v>
+      </c>
+      <c r="PR1" s="8">
+        <v>44367</v>
+      </c>
+      <c r="PS1" s="8">
+        <v>44368</v>
+      </c>
+      <c r="PT1" s="8">
+        <v>44369</v>
+      </c>
     </row>
-    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29158,8 +29574,29 @@
       <c r="PM2">
         <v>25</v>
       </c>
+      <c r="PN2">
+        <v>27</v>
+      </c>
+      <c r="PO2">
+        <v>26</v>
+      </c>
+      <c r="PP2">
+        <v>26</v>
+      </c>
+      <c r="PQ2">
+        <v>26</v>
+      </c>
+      <c r="PR2">
+        <v>26</v>
+      </c>
+      <c r="PS2">
+        <v>28</v>
+      </c>
+      <c r="PT2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -30447,8 +30884,29 @@
       <c r="PM3">
         <v>53</v>
       </c>
+      <c r="PN3">
+        <v>55</v>
+      </c>
+      <c r="PO3">
+        <v>54</v>
+      </c>
+      <c r="PP3">
+        <v>54</v>
+      </c>
+      <c r="PQ3">
+        <v>53</v>
+      </c>
+      <c r="PR3">
+        <v>52</v>
+      </c>
+      <c r="PS3">
+        <v>58</v>
+      </c>
+      <c r="PT3">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -31736,8 +32194,29 @@
       <c r="PM4">
         <v>90</v>
       </c>
+      <c r="PN4">
+        <v>90</v>
+      </c>
+      <c r="PO4">
+        <v>88</v>
+      </c>
+      <c r="PP4">
+        <v>89</v>
+      </c>
+      <c r="PQ4">
+        <v>91</v>
+      </c>
+      <c r="PR4">
+        <v>89</v>
+      </c>
+      <c r="PS4">
+        <v>96</v>
+      </c>
+      <c r="PT4">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -33025,8 +33504,29 @@
       <c r="PM5">
         <v>24</v>
       </c>
+      <c r="PN5">
+        <v>26</v>
+      </c>
+      <c r="PO5">
+        <v>25</v>
+      </c>
+      <c r="PP5">
+        <v>25</v>
+      </c>
+      <c r="PQ5">
+        <v>26</v>
+      </c>
+      <c r="PR5">
+        <v>28</v>
+      </c>
+      <c r="PS5">
+        <v>27</v>
+      </c>
+      <c r="PT5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -34314,8 +34814,29 @@
       <c r="PM6">
         <v>104</v>
       </c>
+      <c r="PN6">
+        <v>103</v>
+      </c>
+      <c r="PO6">
+        <v>103</v>
+      </c>
+      <c r="PP6">
+        <v>104</v>
+      </c>
+      <c r="PQ6">
+        <v>105</v>
+      </c>
+      <c r="PR6">
+        <v>101</v>
+      </c>
+      <c r="PS6">
+        <v>102</v>
+      </c>
+      <c r="PT6">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -35603,8 +36124,29 @@
       <c r="PM7">
         <v>223</v>
       </c>
+      <c r="PN7">
+        <v>222</v>
+      </c>
+      <c r="PO7">
+        <v>222</v>
+      </c>
+      <c r="PP7">
+        <v>226</v>
+      </c>
+      <c r="PQ7">
+        <v>223</v>
+      </c>
+      <c r="PR7">
+        <v>216</v>
+      </c>
+      <c r="PS7">
+        <v>216</v>
+      </c>
+      <c r="PT7">
+        <v>210</v>
+      </c>
     </row>
-    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -36892,8 +37434,29 @@
       <c r="PM8">
         <v>1974</v>
       </c>
+      <c r="PN8">
+        <v>1992</v>
+      </c>
+      <c r="PO8">
+        <v>1985</v>
+      </c>
+      <c r="PP8">
+        <v>1975</v>
+      </c>
+      <c r="PQ8">
+        <v>1971</v>
+      </c>
+      <c r="PR8">
+        <v>1948</v>
+      </c>
+      <c r="PS8">
+        <v>1942</v>
+      </c>
+      <c r="PT8">
+        <v>1950</v>
+      </c>
     </row>
-    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -38181,8 +38744,29 @@
       <c r="PM9">
         <v>151</v>
       </c>
+      <c r="PN9">
+        <v>157</v>
+      </c>
+      <c r="PO9">
+        <v>165</v>
+      </c>
+      <c r="PP9">
+        <v>159</v>
+      </c>
+      <c r="PQ9">
+        <v>160</v>
+      </c>
+      <c r="PR9">
+        <v>160</v>
+      </c>
+      <c r="PS9">
+        <v>162</v>
+      </c>
+      <c r="PT9">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -39470,8 +40054,29 @@
       <c r="PM10">
         <v>108</v>
       </c>
+      <c r="PN10">
+        <v>111</v>
+      </c>
+      <c r="PO10">
+        <v>111</v>
+      </c>
+      <c r="PP10">
+        <v>113</v>
+      </c>
+      <c r="PQ10">
+        <v>113</v>
+      </c>
+      <c r="PR10">
+        <v>109</v>
+      </c>
+      <c r="PS10">
+        <v>109</v>
+      </c>
+      <c r="PT10">
+        <v>116</v>
+      </c>
     </row>
-    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -40759,8 +41364,29 @@
       <c r="PM11">
         <v>46</v>
       </c>
+      <c r="PN11">
+        <v>47</v>
+      </c>
+      <c r="PO11">
+        <v>49</v>
+      </c>
+      <c r="PP11">
+        <v>46</v>
+      </c>
+      <c r="PQ11">
+        <v>45</v>
+      </c>
+      <c r="PR11">
+        <v>46</v>
+      </c>
+      <c r="PS11">
+        <v>44</v>
+      </c>
+      <c r="PT11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -42048,8 +42674,29 @@
       <c r="PM12">
         <v>200</v>
       </c>
+      <c r="PN12">
+        <v>196</v>
+      </c>
+      <c r="PO12">
+        <v>198</v>
+      </c>
+      <c r="PP12">
+        <v>196</v>
+      </c>
+      <c r="PQ12">
+        <v>193</v>
+      </c>
+      <c r="PR12">
+        <v>186</v>
+      </c>
+      <c r="PS12">
+        <v>186</v>
+      </c>
+      <c r="PT12">
+        <v>183</v>
+      </c>
     </row>
-    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -43337,8 +43984,29 @@
       <c r="PM13">
         <v>103</v>
       </c>
+      <c r="PN13">
+        <v>106</v>
+      </c>
+      <c r="PO13">
+        <v>107</v>
+      </c>
+      <c r="PP13">
+        <v>107</v>
+      </c>
+      <c r="PQ13">
+        <v>105</v>
+      </c>
+      <c r="PR13">
+        <v>106</v>
+      </c>
+      <c r="PS13">
+        <v>105</v>
+      </c>
+      <c r="PT13">
+        <v>105</v>
+      </c>
     </row>
-    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -44626,8 +45294,29 @@
       <c r="PM14">
         <v>29</v>
       </c>
+      <c r="PN14">
+        <v>27</v>
+      </c>
+      <c r="PO14">
+        <v>26</v>
+      </c>
+      <c r="PP14">
+        <v>26</v>
+      </c>
+      <c r="PQ14">
+        <v>24</v>
+      </c>
+      <c r="PR14">
+        <v>26</v>
+      </c>
+      <c r="PS14">
+        <v>24</v>
+      </c>
+      <c r="PT14">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -45915,8 +46604,29 @@
       <c r="PM15">
         <v>103</v>
       </c>
+      <c r="PN15">
+        <v>101</v>
+      </c>
+      <c r="PO15">
+        <v>103</v>
+      </c>
+      <c r="PP15">
+        <v>103</v>
+      </c>
+      <c r="PQ15">
+        <v>100</v>
+      </c>
+      <c r="PR15">
+        <v>99</v>
+      </c>
+      <c r="PS15">
+        <v>101</v>
+      </c>
+      <c r="PT15">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -47204,8 +47914,29 @@
       <c r="PM16">
         <v>13</v>
       </c>
+      <c r="PN16">
+        <v>13</v>
+      </c>
+      <c r="PO16">
+        <v>11</v>
+      </c>
+      <c r="PP16">
+        <v>10</v>
+      </c>
+      <c r="PQ16">
+        <v>13</v>
+      </c>
+      <c r="PR16">
+        <v>12</v>
+      </c>
+      <c r="PS16">
+        <v>12</v>
+      </c>
+      <c r="PT16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -48493,8 +49224,29 @@
       <c r="PM17">
         <v>29</v>
       </c>
+      <c r="PN17">
+        <v>28</v>
+      </c>
+      <c r="PO17">
+        <v>29</v>
+      </c>
+      <c r="PP17">
+        <v>27</v>
+      </c>
+      <c r="PQ17">
+        <v>27</v>
+      </c>
+      <c r="PR17">
+        <v>26</v>
+      </c>
+      <c r="PS17">
+        <v>24</v>
+      </c>
+      <c r="PT17">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -49922,50 +50674,71 @@
         <f t="shared" si="2"/>
         <v>3275</v>
       </c>
+      <c r="PN18" s="6">
+        <v>3301</v>
+      </c>
+      <c r="PO18" s="6">
+        <v>3302</v>
+      </c>
+      <c r="PP18" s="6">
+        <v>3286</v>
+      </c>
+      <c r="PQ18" s="6">
+        <v>3275</v>
+      </c>
+      <c r="PR18" s="6">
+        <v>3230</v>
+      </c>
+      <c r="PS18" s="6">
+        <v>3236</v>
+      </c>
+      <c r="PT18" s="6">
+        <v>3232</v>
+      </c>
     </row>
-    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:436" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:436" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:436" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -49985,12 +50758,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:PM34"/>
+  <dimension ref="A1:PT34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="PJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="PM22" sqref="PM22"/>
+      <selection pane="topRight" activeCell="PN18" sqref="PN18:PT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50007,7 +50780,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -51295,8 +52068,29 @@
       <c r="PM1" s="8">
         <v>44362</v>
       </c>
+      <c r="PN1" s="8">
+        <v>44363</v>
+      </c>
+      <c r="PO1" s="8">
+        <v>44364</v>
+      </c>
+      <c r="PP1" s="8">
+        <v>44365</v>
+      </c>
+      <c r="PQ1" s="8">
+        <v>44366</v>
+      </c>
+      <c r="PR1" s="8">
+        <v>44367</v>
+      </c>
+      <c r="PS1" s="8">
+        <v>44368</v>
+      </c>
+      <c r="PT1" s="8">
+        <v>44369</v>
+      </c>
     </row>
-    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -52584,8 +53378,29 @@
       <c r="PM2">
         <v>3</v>
       </c>
+      <c r="PN2">
+        <v>3</v>
+      </c>
+      <c r="PO2">
+        <v>3</v>
+      </c>
+      <c r="PP2">
+        <v>3</v>
+      </c>
+      <c r="PQ2">
+        <v>3</v>
+      </c>
+      <c r="PR2">
+        <v>3</v>
+      </c>
+      <c r="PS2">
+        <v>3</v>
+      </c>
+      <c r="PT2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -53873,8 +54688,29 @@
       <c r="PM3">
         <v>7</v>
       </c>
+      <c r="PN3">
+        <v>5</v>
+      </c>
+      <c r="PO3">
+        <v>6</v>
+      </c>
+      <c r="PP3">
+        <v>5</v>
+      </c>
+      <c r="PQ3">
+        <v>7</v>
+      </c>
+      <c r="PR3">
+        <v>8</v>
+      </c>
+      <c r="PS3">
+        <v>1</v>
+      </c>
+      <c r="PT3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -55162,8 +55998,29 @@
       <c r="PM4">
         <v>66</v>
       </c>
+      <c r="PN4">
+        <v>63</v>
+      </c>
+      <c r="PO4">
+        <v>62</v>
+      </c>
+      <c r="PP4">
+        <v>62</v>
+      </c>
+      <c r="PQ4">
+        <v>56</v>
+      </c>
+      <c r="PR4">
+        <v>61</v>
+      </c>
+      <c r="PS4">
+        <v>58</v>
+      </c>
+      <c r="PT4">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -56451,8 +57308,29 @@
       <c r="PM5">
         <v>5</v>
       </c>
+      <c r="PN5">
+        <v>5</v>
+      </c>
+      <c r="PO5">
+        <v>5</v>
+      </c>
+      <c r="PP5">
+        <v>5</v>
+      </c>
+      <c r="PQ5">
+        <v>6</v>
+      </c>
+      <c r="PR5">
+        <v>4</v>
+      </c>
+      <c r="PS5">
+        <v>5</v>
+      </c>
+      <c r="PT5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -57740,8 +58618,29 @@
       <c r="PM6">
         <v>30</v>
       </c>
+      <c r="PN6">
+        <v>25</v>
+      </c>
+      <c r="PO6">
+        <v>24</v>
+      </c>
+      <c r="PP6">
+        <v>27</v>
+      </c>
+      <c r="PQ6">
+        <v>28</v>
+      </c>
+      <c r="PR6">
+        <v>30</v>
+      </c>
+      <c r="PS6">
+        <v>28</v>
+      </c>
+      <c r="PT6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -59029,8 +59928,29 @@
       <c r="PM7">
         <v>99</v>
       </c>
+      <c r="PN7">
+        <v>104</v>
+      </c>
+      <c r="PO7">
+        <v>106</v>
+      </c>
+      <c r="PP7">
+        <v>103</v>
+      </c>
+      <c r="PQ7">
+        <v>103</v>
+      </c>
+      <c r="PR7">
+        <v>109</v>
+      </c>
+      <c r="PS7">
+        <v>100</v>
+      </c>
+      <c r="PT7">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -60318,8 +61238,29 @@
       <c r="PM8">
         <v>612</v>
       </c>
+      <c r="PN8">
+        <v>591</v>
+      </c>
+      <c r="PO8">
+        <v>594</v>
+      </c>
+      <c r="PP8">
+        <v>585</v>
+      </c>
+      <c r="PQ8">
+        <v>592</v>
+      </c>
+      <c r="PR8">
+        <v>600</v>
+      </c>
+      <c r="PS8">
+        <v>611</v>
+      </c>
+      <c r="PT8">
+        <v>606</v>
+      </c>
     </row>
-    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -61607,8 +62548,29 @@
       <c r="PM9">
         <v>34</v>
       </c>
+      <c r="PN9">
+        <v>24</v>
+      </c>
+      <c r="PO9">
+        <v>19</v>
+      </c>
+      <c r="PP9">
+        <v>28</v>
+      </c>
+      <c r="PQ9">
+        <v>24</v>
+      </c>
+      <c r="PR9">
+        <v>27</v>
+      </c>
+      <c r="PS9">
+        <v>21</v>
+      </c>
+      <c r="PT9">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -62896,8 +63858,29 @@
       <c r="PM10">
         <v>26</v>
       </c>
+      <c r="PN10">
+        <v>24</v>
+      </c>
+      <c r="PO10">
+        <v>26</v>
+      </c>
+      <c r="PP10">
+        <v>23</v>
+      </c>
+      <c r="PQ10">
+        <v>25</v>
+      </c>
+      <c r="PR10">
+        <v>26</v>
+      </c>
+      <c r="PS10">
+        <v>22</v>
+      </c>
+      <c r="PT10">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -64185,8 +65168,29 @@
       <c r="PM11">
         <v>14</v>
       </c>
+      <c r="PN11">
+        <v>14</v>
+      </c>
+      <c r="PO11">
+        <v>16</v>
+      </c>
+      <c r="PP11">
+        <v>17</v>
+      </c>
+      <c r="PQ11">
+        <v>16</v>
+      </c>
+      <c r="PR11">
+        <v>17</v>
+      </c>
+      <c r="PS11">
+        <v>15</v>
+      </c>
+      <c r="PT11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -65474,8 +66478,29 @@
       <c r="PM12">
         <v>94</v>
       </c>
+      <c r="PN12">
+        <v>94</v>
+      </c>
+      <c r="PO12">
+        <v>92</v>
+      </c>
+      <c r="PP12">
+        <v>97</v>
+      </c>
+      <c r="PQ12">
+        <v>94</v>
+      </c>
+      <c r="PR12">
+        <v>91</v>
+      </c>
+      <c r="PS12">
+        <v>98</v>
+      </c>
+      <c r="PT12">
+        <v>103</v>
+      </c>
     </row>
-    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -66763,8 +67788,29 @@
       <c r="PM13">
         <v>44</v>
       </c>
+      <c r="PN13">
+        <v>37</v>
+      </c>
+      <c r="PO13">
+        <v>34</v>
+      </c>
+      <c r="PP13">
+        <v>35</v>
+      </c>
+      <c r="PQ13">
+        <v>36</v>
+      </c>
+      <c r="PR13">
+        <v>30</v>
+      </c>
+      <c r="PS13">
+        <v>31</v>
+      </c>
+      <c r="PT13">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -68052,8 +69098,29 @@
       <c r="PM14">
         <v>10</v>
       </c>
+      <c r="PN14">
+        <v>16</v>
+      </c>
+      <c r="PO14">
+        <v>15</v>
+      </c>
+      <c r="PP14">
+        <v>15</v>
+      </c>
+      <c r="PQ14">
+        <v>15</v>
+      </c>
+      <c r="PR14">
+        <v>16</v>
+      </c>
+      <c r="PS14">
+        <v>15</v>
+      </c>
+      <c r="PT14">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -69341,8 +70408,29 @@
       <c r="PM15">
         <v>30</v>
       </c>
+      <c r="PN15">
+        <v>28</v>
+      </c>
+      <c r="PO15">
+        <v>29</v>
+      </c>
+      <c r="PP15">
+        <v>29</v>
+      </c>
+      <c r="PQ15">
+        <v>35</v>
+      </c>
+      <c r="PR15">
+        <v>32</v>
+      </c>
+      <c r="PS15">
+        <v>33</v>
+      </c>
+      <c r="PT15">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -70630,8 +71718,29 @@
       <c r="PM16">
         <v>1</v>
       </c>
+      <c r="PN16">
+        <v>1</v>
+      </c>
+      <c r="PO16">
+        <v>1</v>
+      </c>
+      <c r="PP16">
+        <v>1</v>
+      </c>
+      <c r="PQ16">
+        <v>1</v>
+      </c>
+      <c r="PR16">
+        <v>1</v>
+      </c>
+      <c r="PS16">
+        <v>1</v>
+      </c>
+      <c r="PT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -71919,8 +73028,29 @@
       <c r="PM17">
         <v>8</v>
       </c>
+      <c r="PN17">
+        <v>7</v>
+      </c>
+      <c r="PO17">
+        <v>6</v>
+      </c>
+      <c r="PP17">
+        <v>7</v>
+      </c>
+      <c r="PQ17">
+        <v>6</v>
+      </c>
+      <c r="PR17">
+        <v>6</v>
+      </c>
+      <c r="PS17">
+        <v>8</v>
+      </c>
+      <c r="PT17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -73208,48 +74338,69 @@
       <c r="PM18" s="20">
         <v>1083</v>
       </c>
+      <c r="PN18" s="20">
+        <v>1041</v>
+      </c>
+      <c r="PO18" s="20">
+        <v>1038</v>
+      </c>
+      <c r="PP18" s="20">
+        <v>1042</v>
+      </c>
+      <c r="PQ18" s="20">
+        <v>1047</v>
+      </c>
+      <c r="PR18" s="20">
+        <v>1061</v>
+      </c>
+      <c r="PS18" s="20">
+        <v>1050</v>
+      </c>
+      <c r="PT18" s="20">
+        <v>1067</v>
+      </c>
     </row>
-    <row r="19" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:436" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -73260,1177 +74411,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="257" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="256" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="255" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="254" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="253" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="252" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="251" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="250" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="249" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="248" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="247" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="246" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="245" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="244" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="243" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="242" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="241" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="240" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="239" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="238" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="237" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="236" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="235" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="234" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="233" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="232" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="231" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="230" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="229" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="228" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="227" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="226" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="225" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="224" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="223" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="222" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="221" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="220" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="219" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="218" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="217" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="216" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="215" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="214" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="213" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="212" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="211" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="210" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="209" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="208" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="207" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="206" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="205" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="204" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="203" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="202" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="201" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="200" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="199" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="198" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="197" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="196" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="195" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="194" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="193" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="192" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="191" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="190" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="189" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="188" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="187" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="186" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="185" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="184" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="183" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="182" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="181" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="180" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="179" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="178" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="177" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="176" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="175" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="174" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="173" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="172" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="171" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="170" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="169" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="168" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="167" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="166" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="165" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="164" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="163" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="162" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="161" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="160" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="159" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="158" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="157" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="156" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="155" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="154" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="153" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="152" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="151" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="150" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="149" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="148" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="147" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="146" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="145" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="144" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="143" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="142" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="141" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="140" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="139" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="138" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="137" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="136" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="135" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="134" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="133" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="132" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="131" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="130" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="129" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="128" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="127" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="126" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="125" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="124" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="123" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="122" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="121" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="120" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="119" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="118" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="117" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="116" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="115" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="114" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="113" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="112" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="111" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="110" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="109" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="108" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="107" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="106" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="105" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="104" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="103" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="102" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="101" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="100" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="99" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="98" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="97" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="96" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="95" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="94" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="93" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="92" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="91" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="90" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="88" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="87" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="86" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="85" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="84" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="83" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="82" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="81" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="80" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="79" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="78" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="77" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="74" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="73" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="72" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="71" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="70" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="69" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="68" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="66" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="65" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="64" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="62" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="61" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="60" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="57" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="55" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74441,10 +75592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PM18"/>
+  <dimension ref="A1:PT18"/>
   <sheetViews>
-    <sheetView topLeftCell="PC1" workbookViewId="0">
-      <selection activeCell="PO14" sqref="PO14"/>
+    <sheetView topLeftCell="PF1" workbookViewId="0">
+      <selection activeCell="PU11" sqref="PU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74452,7 +75603,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -75740,8 +76891,29 @@
       <c r="PM1" s="8">
         <v>44362</v>
       </c>
+      <c r="PN1" s="8">
+        <v>44363</v>
+      </c>
+      <c r="PO1" s="8">
+        <v>44364</v>
+      </c>
+      <c r="PP1" s="8">
+        <v>44365</v>
+      </c>
+      <c r="PQ1" s="8">
+        <v>44366</v>
+      </c>
+      <c r="PR1" s="8">
+        <v>44367</v>
+      </c>
+      <c r="PS1" s="8">
+        <v>44368</v>
+      </c>
+      <c r="PT1" s="8">
+        <v>44369</v>
+      </c>
     </row>
-    <row r="2" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -77029,8 +78201,29 @@
       <c r="PM2">
         <v>9</v>
       </c>
+      <c r="PN2">
+        <v>9</v>
+      </c>
+      <c r="PO2">
+        <v>9</v>
+      </c>
+      <c r="PP2">
+        <v>9</v>
+      </c>
+      <c r="PQ2">
+        <v>9</v>
+      </c>
+      <c r="PR2">
+        <v>9</v>
+      </c>
+      <c r="PS2">
+        <v>9</v>
+      </c>
+      <c r="PT2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -78318,8 +79511,29 @@
       <c r="PM3">
         <v>12</v>
       </c>
+      <c r="PN3">
+        <v>12</v>
+      </c>
+      <c r="PO3">
+        <v>12</v>
+      </c>
+      <c r="PP3">
+        <v>12</v>
+      </c>
+      <c r="PQ3">
+        <v>12</v>
+      </c>
+      <c r="PR3">
+        <v>12</v>
+      </c>
+      <c r="PS3">
+        <v>12</v>
+      </c>
+      <c r="PT3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -79607,8 +80821,29 @@
       <c r="PM4">
         <v>48</v>
       </c>
+      <c r="PN4">
+        <v>48</v>
+      </c>
+      <c r="PO4">
+        <v>48</v>
+      </c>
+      <c r="PP4">
+        <v>48</v>
+      </c>
+      <c r="PQ4">
+        <v>48</v>
+      </c>
+      <c r="PR4">
+        <v>48</v>
+      </c>
+      <c r="PS4">
+        <v>48</v>
+      </c>
+      <c r="PT4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -80896,8 +82131,29 @@
       <c r="PM5">
         <v>11</v>
       </c>
+      <c r="PN5">
+        <v>11</v>
+      </c>
+      <c r="PO5">
+        <v>11</v>
+      </c>
+      <c r="PP5">
+        <v>11</v>
+      </c>
+      <c r="PQ5">
+        <v>11</v>
+      </c>
+      <c r="PR5">
+        <v>11</v>
+      </c>
+      <c r="PS5">
+        <v>11</v>
+      </c>
+      <c r="PT5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -82185,8 +83441,29 @@
       <c r="PM6">
         <v>29</v>
       </c>
+      <c r="PN6">
+        <v>29</v>
+      </c>
+      <c r="PO6">
+        <v>29</v>
+      </c>
+      <c r="PP6">
+        <v>29</v>
+      </c>
+      <c r="PQ6">
+        <v>29</v>
+      </c>
+      <c r="PR6">
+        <v>29</v>
+      </c>
+      <c r="PS6">
+        <v>29</v>
+      </c>
+      <c r="PT6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -83474,8 +84751,29 @@
       <c r="PM7">
         <v>125</v>
       </c>
+      <c r="PN7">
+        <v>125</v>
+      </c>
+      <c r="PO7">
+        <v>125</v>
+      </c>
+      <c r="PP7">
+        <v>125</v>
+      </c>
+      <c r="PQ7">
+        <v>125</v>
+      </c>
+      <c r="PR7">
+        <v>125</v>
+      </c>
+      <c r="PS7">
+        <v>125</v>
+      </c>
+      <c r="PT7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -84763,8 +86061,29 @@
       <c r="PM8">
         <v>745</v>
       </c>
+      <c r="PN8">
+        <v>745</v>
+      </c>
+      <c r="PO8">
+        <v>745</v>
+      </c>
+      <c r="PP8">
+        <v>745</v>
+      </c>
+      <c r="PQ8">
+        <v>745</v>
+      </c>
+      <c r="PR8">
+        <v>745</v>
+      </c>
+      <c r="PS8">
+        <v>745</v>
+      </c>
+      <c r="PT8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -86052,8 +87371,29 @@
       <c r="PM9">
         <v>61</v>
       </c>
+      <c r="PN9">
+        <v>61</v>
+      </c>
+      <c r="PO9">
+        <v>61</v>
+      </c>
+      <c r="PP9">
+        <v>61</v>
+      </c>
+      <c r="PQ9">
+        <v>61</v>
+      </c>
+      <c r="PR9">
+        <v>61</v>
+      </c>
+      <c r="PS9">
+        <v>61</v>
+      </c>
+      <c r="PT9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -87341,8 +88681,29 @@
       <c r="PM10">
         <v>45</v>
       </c>
+      <c r="PN10">
+        <v>45</v>
+      </c>
+      <c r="PO10">
+        <v>45</v>
+      </c>
+      <c r="PP10">
+        <v>45</v>
+      </c>
+      <c r="PQ10">
+        <v>45</v>
+      </c>
+      <c r="PR10">
+        <v>45</v>
+      </c>
+      <c r="PS10">
+        <v>45</v>
+      </c>
+      <c r="PT10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -88630,8 +89991,29 @@
       <c r="PM11">
         <v>16</v>
       </c>
+      <c r="PN11">
+        <v>16</v>
+      </c>
+      <c r="PO11">
+        <v>16</v>
+      </c>
+      <c r="PP11">
+        <v>16</v>
+      </c>
+      <c r="PQ11">
+        <v>16</v>
+      </c>
+      <c r="PR11">
+        <v>16</v>
+      </c>
+      <c r="PS11">
+        <v>16</v>
+      </c>
+      <c r="PT11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -89919,8 +91301,29 @@
       <c r="PM12">
         <v>97</v>
       </c>
+      <c r="PN12">
+        <v>97</v>
+      </c>
+      <c r="PO12">
+        <v>97</v>
+      </c>
+      <c r="PP12">
+        <v>97</v>
+      </c>
+      <c r="PQ12">
+        <v>97</v>
+      </c>
+      <c r="PR12">
+        <v>97</v>
+      </c>
+      <c r="PS12">
+        <v>97</v>
+      </c>
+      <c r="PT12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -91208,8 +92611,29 @@
       <c r="PM13">
         <v>49</v>
       </c>
+      <c r="PN13">
+        <v>49</v>
+      </c>
+      <c r="PO13">
+        <v>49</v>
+      </c>
+      <c r="PP13">
+        <v>49</v>
+      </c>
+      <c r="PQ13">
+        <v>49</v>
+      </c>
+      <c r="PR13">
+        <v>49</v>
+      </c>
+      <c r="PS13">
+        <v>49</v>
+      </c>
+      <c r="PT13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -92497,8 +93921,29 @@
       <c r="PM14">
         <v>13</v>
       </c>
+      <c r="PN14">
+        <v>13</v>
+      </c>
+      <c r="PO14">
+        <v>13</v>
+      </c>
+      <c r="PP14">
+        <v>13</v>
+      </c>
+      <c r="PQ14">
+        <v>13</v>
+      </c>
+      <c r="PR14">
+        <v>13</v>
+      </c>
+      <c r="PS14">
+        <v>13</v>
+      </c>
+      <c r="PT14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -93786,8 +95231,29 @@
       <c r="PM15">
         <v>49</v>
       </c>
+      <c r="PN15">
+        <v>49</v>
+      </c>
+      <c r="PO15">
+        <v>49</v>
+      </c>
+      <c r="PP15">
+        <v>49</v>
+      </c>
+      <c r="PQ15">
+        <v>49</v>
+      </c>
+      <c r="PR15">
+        <v>49</v>
+      </c>
+      <c r="PS15">
+        <v>49</v>
+      </c>
+      <c r="PT15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -95075,8 +96541,29 @@
       <c r="PM16">
         <v>8</v>
       </c>
+      <c r="PN16">
+        <v>8</v>
+      </c>
+      <c r="PO16">
+        <v>8</v>
+      </c>
+      <c r="PP16">
+        <v>8</v>
+      </c>
+      <c r="PQ16">
+        <v>8</v>
+      </c>
+      <c r="PR16">
+        <v>8</v>
+      </c>
+      <c r="PS16">
+        <v>8</v>
+      </c>
+      <c r="PT16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -96364,8 +97851,29 @@
       <c r="PM17">
         <v>14</v>
       </c>
+      <c r="PN17">
+        <v>14</v>
+      </c>
+      <c r="PO17">
+        <v>14</v>
+      </c>
+      <c r="PP17">
+        <v>14</v>
+      </c>
+      <c r="PQ17">
+        <v>14</v>
+      </c>
+      <c r="PR17">
+        <v>14</v>
+      </c>
+      <c r="PS17">
+        <v>14</v>
+      </c>
+      <c r="PT17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:429" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -98081,114 +99589,147 @@
         <f t="shared" si="18"/>
         <v>1331</v>
       </c>
+      <c r="PN18" s="6">
+        <f t="shared" ref="PN18:PT18" si="19">SUM(PN2:PN17)</f>
+        <v>1331</v>
+      </c>
+      <c r="PO18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
+      <c r="PP18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
+      <c r="PQ18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
+      <c r="PR18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
+      <c r="PS18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
+      <c r="PT18" s="6">
+        <f t="shared" si="19"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="22" priority="254" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="255" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="22" priority="253" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="21" priority="252" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="20" priority="251" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NJ18:NP18">
+  <conditionalFormatting sqref="NQ18:NW18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NQ18:NW18">
+  <conditionalFormatting sqref="NX18:OD18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NX18:OD18">
+  <conditionalFormatting sqref="OE18:OK18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OE18:OK18">
+  <conditionalFormatting sqref="OL18:OR18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OL18:OR18">
+  <conditionalFormatting sqref="OS18:OY18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OS18:OY18">
+  <conditionalFormatting sqref="OZ18:PF18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OZ18:PF18">
+  <conditionalFormatting sqref="PG18:PM18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="PG18:PM18">
+  <conditionalFormatting sqref="PN18:PT18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/input/Camas_uci/last_uci_diario.xlsx
+++ b/input/Camas_uci/last_uci_diario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="UCI HABILITADA" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,17 @@
     <cellStyle name="Millares [0] 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="259">
+  <dxfs count="260">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3160,12 +3170,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PT20"/>
+  <dimension ref="A1:QA20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PK1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="PT1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PN18" sqref="PN18:PT18"/>
+      <selection pane="topRight" activeCell="QC11" sqref="QC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3196,7 @@
     <col min="276" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -4495,8 +4505,29 @@
       <c r="PT1" s="8">
         <v>44369</v>
       </c>
+      <c r="PU1" s="8">
+        <v>44370</v>
+      </c>
+      <c r="PV1" s="8">
+        <v>44371</v>
+      </c>
+      <c r="PW1" s="8">
+        <v>44372</v>
+      </c>
+      <c r="PX1" s="8">
+        <v>44373</v>
+      </c>
+      <c r="PY1" s="8">
+        <v>44374</v>
+      </c>
+      <c r="PZ1" s="8">
+        <v>44375</v>
+      </c>
+      <c r="QA1" s="8">
+        <v>44376</v>
+      </c>
     </row>
-    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5805,8 +5836,29 @@
       <c r="PT2" s="11">
         <v>33</v>
       </c>
+      <c r="PU2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PV2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PW2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PX2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PY2" s="11">
+        <v>33</v>
+      </c>
+      <c r="PZ2" s="11">
+        <v>33</v>
+      </c>
+      <c r="QA2" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -7115,8 +7167,29 @@
       <c r="PT3" s="11">
         <v>61</v>
       </c>
+      <c r="PU3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PV3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PW3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PX3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PY3" s="11">
+        <v>61</v>
+      </c>
+      <c r="PZ3" s="11">
+        <v>61</v>
+      </c>
+      <c r="QA3" s="11">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -8425,8 +8498,29 @@
       <c r="PT4" s="11">
         <v>164</v>
       </c>
+      <c r="PU4" s="11">
+        <v>170</v>
+      </c>
+      <c r="PV4" s="11">
+        <v>170</v>
+      </c>
+      <c r="PW4" s="11">
+        <v>170</v>
+      </c>
+      <c r="PX4" s="11">
+        <v>170</v>
+      </c>
+      <c r="PY4" s="11">
+        <v>170</v>
+      </c>
+      <c r="PZ4" s="11">
+        <v>170</v>
+      </c>
+      <c r="QA4" s="11">
+        <v>171</v>
+      </c>
     </row>
-    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -9735,8 +9829,29 @@
       <c r="PT5" s="11">
         <v>34</v>
       </c>
+      <c r="PU5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PV5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PW5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PX5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PY5" s="11">
+        <v>34</v>
+      </c>
+      <c r="PZ5" s="11">
+        <v>34</v>
+      </c>
+      <c r="QA5" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -11045,8 +11160,29 @@
       <c r="PT6" s="11">
         <v>135</v>
       </c>
+      <c r="PU6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PV6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PW6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PX6" s="11">
+        <v>134</v>
+      </c>
+      <c r="PY6" s="11">
+        <v>135</v>
+      </c>
+      <c r="PZ6" s="11">
+        <v>136</v>
+      </c>
+      <c r="QA6" s="11">
+        <v>136</v>
+      </c>
     </row>
-    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -12355,8 +12491,29 @@
       <c r="PT7" s="11">
         <v>332</v>
       </c>
+      <c r="PU7" s="11">
+        <v>333</v>
+      </c>
+      <c r="PV7" s="11">
+        <v>329</v>
+      </c>
+      <c r="PW7" s="11">
+        <v>331</v>
+      </c>
+      <c r="PX7" s="11">
+        <v>330</v>
+      </c>
+      <c r="PY7" s="11">
+        <v>328</v>
+      </c>
+      <c r="PZ7" s="11">
+        <v>326</v>
+      </c>
+      <c r="QA7" s="11">
+        <v>326</v>
+      </c>
     </row>
-    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -13665,8 +13822,29 @@
       <c r="PT8" s="11">
         <v>2613</v>
       </c>
+      <c r="PU8" s="11">
+        <v>2616</v>
+      </c>
+      <c r="PV8" s="11">
+        <v>2605</v>
+      </c>
+      <c r="PW8" s="11">
+        <v>2602</v>
+      </c>
+      <c r="PX8" s="11">
+        <v>2600</v>
+      </c>
+      <c r="PY8" s="11">
+        <v>2597</v>
+      </c>
+      <c r="PZ8" s="11">
+        <v>2596</v>
+      </c>
+      <c r="QA8" s="11">
+        <v>2596</v>
+      </c>
     </row>
-    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -14975,8 +15153,29 @@
       <c r="PT9" s="11">
         <v>206</v>
       </c>
+      <c r="PU9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PV9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PW9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PX9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PY9" s="11">
+        <v>206</v>
+      </c>
+      <c r="PZ9" s="11">
+        <v>206</v>
+      </c>
+      <c r="QA9" s="11">
+        <v>198</v>
+      </c>
     </row>
-    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -16285,8 +16484,29 @@
       <c r="PT10" s="11">
         <v>158</v>
       </c>
+      <c r="PU10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PV10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PW10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PX10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PY10" s="11">
+        <v>158</v>
+      </c>
+      <c r="PZ10" s="11">
+        <v>158</v>
+      </c>
+      <c r="QA10" s="11">
+        <v>158</v>
+      </c>
     </row>
-    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -17595,8 +17815,29 @@
       <c r="PT11" s="11">
         <v>70</v>
       </c>
+      <c r="PU11" s="11">
+        <v>70</v>
+      </c>
+      <c r="PV11" s="11">
+        <v>76</v>
+      </c>
+      <c r="PW11" s="11">
+        <v>76</v>
+      </c>
+      <c r="PX11" s="11">
+        <v>76</v>
+      </c>
+      <c r="PY11" s="11">
+        <v>76</v>
+      </c>
+      <c r="PZ11" s="11">
+        <v>76</v>
+      </c>
+      <c r="QA11" s="11">
+        <v>76</v>
+      </c>
     </row>
-    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -18905,8 +19146,29 @@
       <c r="PT12" s="11">
         <v>311</v>
       </c>
+      <c r="PU12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PV12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PW12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PX12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PY12" s="11">
+        <v>311</v>
+      </c>
+      <c r="PZ12" s="11">
+        <v>311</v>
+      </c>
+      <c r="QA12" s="11">
+        <v>311</v>
+      </c>
     </row>
-    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -20215,8 +20477,29 @@
       <c r="PT13" s="11">
         <v>150</v>
       </c>
+      <c r="PU13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PV13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PW13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PX13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PY13" s="11">
+        <v>150</v>
+      </c>
+      <c r="PZ13" s="11">
+        <v>150</v>
+      </c>
+      <c r="QA13" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -21525,8 +21808,29 @@
       <c r="PT14" s="11">
         <v>41</v>
       </c>
+      <c r="PU14" s="11">
+        <v>41</v>
+      </c>
+      <c r="PV14" s="11">
+        <v>40</v>
+      </c>
+      <c r="PW14" s="11">
+        <v>42</v>
+      </c>
+      <c r="PX14" s="11">
+        <v>42</v>
+      </c>
+      <c r="PY14" s="11">
+        <v>37</v>
+      </c>
+      <c r="PZ14" s="11">
+        <v>38</v>
+      </c>
+      <c r="QA14" s="11">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -22835,8 +23139,29 @@
       <c r="PT15" s="11">
         <v>141</v>
       </c>
+      <c r="PU15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PV15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PW15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PX15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PY15" s="11">
+        <v>139</v>
+      </c>
+      <c r="PZ15" s="11">
+        <v>139</v>
+      </c>
+      <c r="QA15" s="11">
+        <v>136</v>
+      </c>
     </row>
-    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -24145,8 +24470,29 @@
       <c r="PT16" s="11">
         <v>17</v>
       </c>
+      <c r="PU16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PV16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PW16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PX16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PY16" s="11">
+        <v>17</v>
+      </c>
+      <c r="PZ16" s="11">
+        <v>17</v>
+      </c>
+      <c r="QA16" s="11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -25455,8 +25801,29 @@
       <c r="PT17" s="11">
         <v>43</v>
       </c>
+      <c r="PU17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PV17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PW17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PX17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PY17" s="11">
+        <v>43</v>
+      </c>
+      <c r="PZ17" s="11">
+        <v>43</v>
+      </c>
+      <c r="QA17" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -26876,7 +27243,7 @@
         <v>4498</v>
       </c>
       <c r="PH18" s="6">
-        <f t="shared" ref="PH18:PT18" si="8">SUM(PH2:PH17)</f>
+        <f t="shared" ref="PH18:QA18" si="8">SUM(PH2:PH17)</f>
         <v>4513</v>
       </c>
       <c r="PI18" s="6">
@@ -26927,13 +27294,41 @@
         <f t="shared" si="8"/>
         <v>4509</v>
       </c>
+      <c r="PU18" s="6">
+        <f t="shared" si="8"/>
+        <v>4517</v>
+      </c>
+      <c r="PV18" s="6">
+        <f t="shared" si="8"/>
+        <v>4507</v>
+      </c>
+      <c r="PW18" s="6">
+        <f t="shared" si="8"/>
+        <v>4508</v>
+      </c>
+      <c r="PX18" s="6">
+        <f t="shared" si="8"/>
+        <v>4504</v>
+      </c>
+      <c r="PY18" s="6">
+        <f t="shared" si="8"/>
+        <v>4495</v>
+      </c>
+      <c r="PZ18" s="6">
+        <f t="shared" si="8"/>
+        <v>4494</v>
+      </c>
+      <c r="QA18" s="6">
+        <f t="shared" si="8"/>
+        <v>4484</v>
+      </c>
     </row>
-    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:443" x14ac:dyDescent="0.25">
       <c r="HV19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:443" x14ac:dyDescent="0.25">
       <c r="JV20" s="19"/>
       <c r="JW20" s="19"/>
       <c r="JX20" s="19"/>
@@ -26951,12 +27346,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PT34"/>
+  <dimension ref="A1:QA34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="PS1" activePane="topRight" state="frozen"/>
       <selection activeCell="FM17" sqref="FM17"/>
-      <selection pane="topRight" activeCell="PU13" sqref="PU13"/>
+      <selection pane="topRight" activeCell="PU19" sqref="PU19:QA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26976,7 +27371,7 @@
     <col min="272" max="272" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -28285,8 +28680,29 @@
       <c r="PT1" s="8">
         <v>44369</v>
       </c>
+      <c r="PU1" s="8">
+        <v>44370</v>
+      </c>
+      <c r="PV1" s="8">
+        <v>44371</v>
+      </c>
+      <c r="PW1" s="8">
+        <v>44372</v>
+      </c>
+      <c r="PX1" s="8">
+        <v>44373</v>
+      </c>
+      <c r="PY1" s="8">
+        <v>44374</v>
+      </c>
+      <c r="PZ1" s="8">
+        <v>44375</v>
+      </c>
+      <c r="QA1" s="8">
+        <v>44376</v>
+      </c>
     </row>
-    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29595,8 +30011,29 @@
       <c r="PT2">
         <v>27</v>
       </c>
+      <c r="PU2">
+        <v>28</v>
+      </c>
+      <c r="PV2">
+        <v>27</v>
+      </c>
+      <c r="PW2">
+        <v>27</v>
+      </c>
+      <c r="PX2">
+        <v>26</v>
+      </c>
+      <c r="PY2">
+        <v>25</v>
+      </c>
+      <c r="PZ2">
+        <v>26</v>
+      </c>
+      <c r="QA2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -30905,8 +31342,29 @@
       <c r="PT3">
         <v>53</v>
       </c>
+      <c r="PU3">
+        <v>53</v>
+      </c>
+      <c r="PV3">
+        <v>53</v>
+      </c>
+      <c r="PW3">
+        <v>53</v>
+      </c>
+      <c r="PX3">
+        <v>53</v>
+      </c>
+      <c r="PY3">
+        <v>53</v>
+      </c>
+      <c r="PZ3">
+        <v>54</v>
+      </c>
+      <c r="QA3">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -32215,8 +32673,29 @@
       <c r="PT4">
         <v>96</v>
       </c>
+      <c r="PU4">
+        <v>96</v>
+      </c>
+      <c r="PV4">
+        <v>93</v>
+      </c>
+      <c r="PW4">
+        <v>93</v>
+      </c>
+      <c r="PX4">
+        <v>92</v>
+      </c>
+      <c r="PY4">
+        <v>90</v>
+      </c>
+      <c r="PZ4">
+        <v>90</v>
+      </c>
+      <c r="QA4">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -33525,8 +34004,29 @@
       <c r="PT5">
         <v>28</v>
       </c>
+      <c r="PU5">
+        <v>28</v>
+      </c>
+      <c r="PV5">
+        <v>27</v>
+      </c>
+      <c r="PW5">
+        <v>26</v>
+      </c>
+      <c r="PX5">
+        <v>25</v>
+      </c>
+      <c r="PY5">
+        <v>25</v>
+      </c>
+      <c r="PZ5">
+        <v>25</v>
+      </c>
+      <c r="QA5">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -34835,8 +35335,29 @@
       <c r="PT6">
         <v>101</v>
       </c>
+      <c r="PU6">
+        <v>103</v>
+      </c>
+      <c r="PV6">
+        <v>102</v>
+      </c>
+      <c r="PW6">
+        <v>100</v>
+      </c>
+      <c r="PX6">
+        <v>100</v>
+      </c>
+      <c r="PY6">
+        <v>100</v>
+      </c>
+      <c r="PZ6">
+        <v>102</v>
+      </c>
+      <c r="QA6">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -36145,8 +36666,29 @@
       <c r="PT7">
         <v>210</v>
       </c>
+      <c r="PU7">
+        <v>217</v>
+      </c>
+      <c r="PV7">
+        <v>212</v>
+      </c>
+      <c r="PW7">
+        <v>204</v>
+      </c>
+      <c r="PX7">
+        <v>208</v>
+      </c>
+      <c r="PY7">
+        <v>203</v>
+      </c>
+      <c r="PZ7">
+        <v>205</v>
+      </c>
+      <c r="QA7">
+        <v>213</v>
+      </c>
     </row>
-    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -37455,8 +37997,29 @@
       <c r="PT8">
         <v>1950</v>
       </c>
+      <c r="PU8">
+        <v>1953</v>
+      </c>
+      <c r="PV8">
+        <v>1907</v>
+      </c>
+      <c r="PW8">
+        <v>1887</v>
+      </c>
+      <c r="PX8">
+        <v>1876</v>
+      </c>
+      <c r="PY8">
+        <v>1855</v>
+      </c>
+      <c r="PZ8">
+        <v>1850</v>
+      </c>
+      <c r="QA8">
+        <v>1832</v>
+      </c>
     </row>
-    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -38765,8 +39328,29 @@
       <c r="PT9">
         <v>161</v>
       </c>
+      <c r="PU9">
+        <v>158</v>
+      </c>
+      <c r="PV9">
+        <v>154</v>
+      </c>
+      <c r="PW9">
+        <v>152</v>
+      </c>
+      <c r="PX9">
+        <v>148</v>
+      </c>
+      <c r="PY9">
+        <v>150</v>
+      </c>
+      <c r="PZ9">
+        <v>141</v>
+      </c>
+      <c r="QA9">
+        <v>139</v>
+      </c>
     </row>
-    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -40075,8 +40659,29 @@
       <c r="PT10">
         <v>116</v>
       </c>
+      <c r="PU10">
+        <v>109</v>
+      </c>
+      <c r="PV10">
+        <v>108</v>
+      </c>
+      <c r="PW10">
+        <v>109</v>
+      </c>
+      <c r="PX10">
+        <v>109</v>
+      </c>
+      <c r="PY10">
+        <v>107</v>
+      </c>
+      <c r="PZ10">
+        <v>107</v>
+      </c>
+      <c r="QA10">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -41385,8 +41990,29 @@
       <c r="PT11">
         <v>43</v>
       </c>
+      <c r="PU11">
+        <v>46</v>
+      </c>
+      <c r="PV11">
+        <v>46</v>
+      </c>
+      <c r="PW11">
+        <v>47</v>
+      </c>
+      <c r="PX11">
+        <v>47</v>
+      </c>
+      <c r="PY11">
+        <v>46</v>
+      </c>
+      <c r="PZ11">
+        <v>46</v>
+      </c>
+      <c r="QA11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -42695,8 +43321,29 @@
       <c r="PT12">
         <v>183</v>
       </c>
+      <c r="PU12">
+        <v>179</v>
+      </c>
+      <c r="PV12">
+        <v>178</v>
+      </c>
+      <c r="PW12">
+        <v>169</v>
+      </c>
+      <c r="PX12">
+        <v>171</v>
+      </c>
+      <c r="PY12">
+        <v>177</v>
+      </c>
+      <c r="PZ12">
+        <v>176</v>
+      </c>
+      <c r="QA12">
+        <v>167</v>
+      </c>
     </row>
-    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -44005,8 +44652,29 @@
       <c r="PT13">
         <v>105</v>
       </c>
+      <c r="PU13">
+        <v>100</v>
+      </c>
+      <c r="PV13">
+        <v>95</v>
+      </c>
+      <c r="PW13">
+        <v>96</v>
+      </c>
+      <c r="PX13">
+        <v>96</v>
+      </c>
+      <c r="PY13">
+        <v>96</v>
+      </c>
+      <c r="PZ13">
+        <v>94</v>
+      </c>
+      <c r="QA13">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -45315,8 +45983,29 @@
       <c r="PT14">
         <v>24</v>
       </c>
+      <c r="PU14">
+        <v>25</v>
+      </c>
+      <c r="PV14">
+        <v>26</v>
+      </c>
+      <c r="PW14">
+        <v>25</v>
+      </c>
+      <c r="PX14">
+        <v>23</v>
+      </c>
+      <c r="PY14">
+        <v>22</v>
+      </c>
+      <c r="PZ14">
+        <v>24</v>
+      </c>
+      <c r="QA14">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -46625,8 +47314,29 @@
       <c r="PT15">
         <v>100</v>
       </c>
+      <c r="PU15">
+        <v>98</v>
+      </c>
+      <c r="PV15">
+        <v>93</v>
+      </c>
+      <c r="PW15">
+        <v>87</v>
+      </c>
+      <c r="PX15">
+        <v>88</v>
+      </c>
+      <c r="PY15">
+        <v>86</v>
+      </c>
+      <c r="PZ15">
+        <v>83</v>
+      </c>
+      <c r="QA15">
+        <v>81</v>
+      </c>
     </row>
-    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -47935,8 +48645,29 @@
       <c r="PT16">
         <v>12</v>
       </c>
+      <c r="PU16">
+        <v>12</v>
+      </c>
+      <c r="PV16">
+        <v>10</v>
+      </c>
+      <c r="PW16">
+        <v>9</v>
+      </c>
+      <c r="PX16">
+        <v>10</v>
+      </c>
+      <c r="PY16">
+        <v>7</v>
+      </c>
+      <c r="PZ16">
+        <v>7</v>
+      </c>
+      <c r="QA16">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -49245,8 +49976,29 @@
       <c r="PT17">
         <v>23</v>
       </c>
+      <c r="PU17">
+        <v>24</v>
+      </c>
+      <c r="PV17">
+        <v>24</v>
+      </c>
+      <c r="PW17">
+        <v>21</v>
+      </c>
+      <c r="PX17">
+        <v>19</v>
+      </c>
+      <c r="PY17">
+        <v>19</v>
+      </c>
+      <c r="PZ17">
+        <v>20</v>
+      </c>
+      <c r="QA17">
+        <v>19</v>
+      </c>
     </row>
-    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -50563,7 +51315,7 @@
         <v>2979</v>
       </c>
       <c r="OL18" s="6">
-        <f t="shared" ref="OL18:PM18" si="2">SUM(OL2:OL17)</f>
+        <f t="shared" ref="OL18:QA18" si="2">SUM(OL2:OL17)</f>
         <v>2972</v>
       </c>
       <c r="OM18" s="6">
@@ -50675,70 +51427,105 @@
         <v>3275</v>
       </c>
       <c r="PN18" s="6">
+        <f t="shared" si="2"/>
         <v>3301</v>
       </c>
       <c r="PO18" s="6">
+        <f t="shared" si="2"/>
         <v>3302</v>
       </c>
       <c r="PP18" s="6">
+        <f t="shared" si="2"/>
         <v>3286</v>
       </c>
       <c r="PQ18" s="6">
+        <f t="shared" si="2"/>
         <v>3275</v>
       </c>
       <c r="PR18" s="6">
+        <f t="shared" si="2"/>
         <v>3230</v>
       </c>
       <c r="PS18" s="6">
+        <f t="shared" si="2"/>
         <v>3236</v>
       </c>
       <c r="PT18" s="6">
+        <f t="shared" si="2"/>
         <v>3232</v>
       </c>
+      <c r="PU18" s="6">
+        <f t="shared" si="2"/>
+        <v>3229</v>
+      </c>
+      <c r="PV18" s="6">
+        <f t="shared" si="2"/>
+        <v>3155</v>
+      </c>
+      <c r="PW18" s="6">
+        <f t="shared" si="2"/>
+        <v>3105</v>
+      </c>
+      <c r="PX18" s="6">
+        <f t="shared" si="2"/>
+        <v>3091</v>
+      </c>
+      <c r="PY18" s="6">
+        <f t="shared" si="2"/>
+        <v>3061</v>
+      </c>
+      <c r="PZ18" s="6">
+        <f t="shared" si="2"/>
+        <v>3050</v>
+      </c>
+      <c r="QA18" s="6">
+        <f t="shared" si="2"/>
+        <v>3017</v>
+      </c>
     </row>
-    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:443" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:443" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:443" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:443" x14ac:dyDescent="0.25">
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="52:52" x14ac:dyDescent="0.25">
@@ -50758,12 +51545,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:PT34"/>
+  <dimension ref="A1:QA34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PJ1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="PS1" activePane="topRight" state="frozen"/>
       <selection activeCell="FW2" sqref="FW2:FW18"/>
-      <selection pane="topRight" activeCell="PN18" sqref="PN18:PT18"/>
+      <selection pane="topRight" activeCell="QA21" sqref="QA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50780,7 +51567,7 @@
     <col min="262" max="274" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -52089,8 +52876,29 @@
       <c r="PT1" s="8">
         <v>44369</v>
       </c>
+      <c r="PU1" s="8">
+        <v>44370</v>
+      </c>
+      <c r="PV1" s="8">
+        <v>44371</v>
+      </c>
+      <c r="PW1" s="8">
+        <v>44372</v>
+      </c>
+      <c r="PX1" s="8">
+        <v>44373</v>
+      </c>
+      <c r="PY1" s="8">
+        <v>44374</v>
+      </c>
+      <c r="PZ1" s="8">
+        <v>44375</v>
+      </c>
+      <c r="QA1" s="8">
+        <v>44376</v>
+      </c>
     </row>
-    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -53399,8 +54207,29 @@
       <c r="PT2">
         <v>5</v>
       </c>
+      <c r="PU2">
+        <v>2</v>
+      </c>
+      <c r="PV2">
+        <v>2</v>
+      </c>
+      <c r="PW2">
+        <v>4</v>
+      </c>
+      <c r="PX2">
+        <v>3</v>
+      </c>
+      <c r="PY2">
+        <v>3</v>
+      </c>
+      <c r="PZ2">
+        <v>2</v>
+      </c>
+      <c r="QA2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -54709,8 +55538,29 @@
       <c r="PT3">
         <v>5</v>
       </c>
+      <c r="PU3">
+        <v>5</v>
+      </c>
+      <c r="PV3">
+        <v>5</v>
+      </c>
+      <c r="PW3">
+        <v>5</v>
+      </c>
+      <c r="PX3">
+        <v>3</v>
+      </c>
+      <c r="PY3">
+        <v>2</v>
+      </c>
+      <c r="PZ3">
+        <v>4</v>
+      </c>
+      <c r="QA3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -56019,8 +56869,29 @@
       <c r="PT4">
         <v>60</v>
       </c>
+      <c r="PU4">
+        <v>66</v>
+      </c>
+      <c r="PV4">
+        <v>69</v>
+      </c>
+      <c r="PW4">
+        <v>72</v>
+      </c>
+      <c r="PX4">
+        <v>72</v>
+      </c>
+      <c r="PY4">
+        <v>68</v>
+      </c>
+      <c r="PZ4">
+        <v>74</v>
+      </c>
+      <c r="QA4">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -57329,8 +58200,29 @@
       <c r="PT5">
         <v>5</v>
       </c>
+      <c r="PU5">
+        <v>4</v>
+      </c>
+      <c r="PV5">
+        <v>4</v>
+      </c>
+      <c r="PW5">
+        <v>6</v>
+      </c>
+      <c r="PX5">
+        <v>8</v>
+      </c>
+      <c r="PY5">
+        <v>8</v>
+      </c>
+      <c r="PZ5">
+        <v>7</v>
+      </c>
+      <c r="QA5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -58639,8 +59531,29 @@
       <c r="PT6">
         <v>30</v>
       </c>
+      <c r="PU6">
+        <v>29</v>
+      </c>
+      <c r="PV6">
+        <v>27</v>
+      </c>
+      <c r="PW6">
+        <v>27</v>
+      </c>
+      <c r="PX6">
+        <v>27</v>
+      </c>
+      <c r="PY6">
+        <v>25</v>
+      </c>
+      <c r="PZ6">
+        <v>28</v>
+      </c>
+      <c r="QA6">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -59949,8 +60862,29 @@
       <c r="PT7">
         <v>104</v>
       </c>
+      <c r="PU7">
+        <v>105</v>
+      </c>
+      <c r="PV7">
+        <v>104</v>
+      </c>
+      <c r="PW7">
+        <v>114</v>
+      </c>
+      <c r="PX7">
+        <v>109</v>
+      </c>
+      <c r="PY7">
+        <v>110</v>
+      </c>
+      <c r="PZ7">
+        <v>114</v>
+      </c>
+      <c r="QA7">
+        <v>109</v>
+      </c>
     </row>
-    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -61259,8 +62193,29 @@
       <c r="PT8">
         <v>606</v>
       </c>
+      <c r="PU8">
+        <v>623</v>
+      </c>
+      <c r="PV8">
+        <v>632</v>
+      </c>
+      <c r="PW8">
+        <v>632</v>
+      </c>
+      <c r="PX8">
+        <v>657</v>
+      </c>
+      <c r="PY8">
+        <v>660</v>
+      </c>
+      <c r="PZ8">
+        <v>662</v>
+      </c>
+      <c r="QA8">
+        <v>684</v>
+      </c>
     </row>
-    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -62569,8 +63524,29 @@
       <c r="PT9">
         <v>27</v>
       </c>
+      <c r="PU9">
+        <v>33</v>
+      </c>
+      <c r="PV9">
+        <v>28</v>
+      </c>
+      <c r="PW9">
+        <v>30</v>
+      </c>
+      <c r="PX9">
+        <v>34</v>
+      </c>
+      <c r="PY9">
+        <v>29</v>
+      </c>
+      <c r="PZ9">
+        <v>31</v>
+      </c>
+      <c r="QA9">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -63879,8 +64855,29 @@
       <c r="PT10">
         <v>17</v>
       </c>
+      <c r="PU10">
+        <v>23</v>
+      </c>
+      <c r="PV10">
+        <v>24</v>
+      </c>
+      <c r="PW10">
+        <v>22</v>
+      </c>
+      <c r="PX10">
+        <v>23</v>
+      </c>
+      <c r="PY10">
+        <v>25</v>
+      </c>
+      <c r="PZ10">
+        <v>25</v>
+      </c>
+      <c r="QA10">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -65189,8 +66186,29 @@
       <c r="PT11">
         <v>18</v>
       </c>
+      <c r="PU11">
+        <v>18</v>
+      </c>
+      <c r="PV11">
+        <v>17</v>
+      </c>
+      <c r="PW11">
+        <v>16</v>
+      </c>
+      <c r="PX11">
+        <v>17</v>
+      </c>
+      <c r="PY11">
+        <v>18</v>
+      </c>
+      <c r="PZ11">
+        <v>18</v>
+      </c>
+      <c r="QA11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -66499,8 +67517,29 @@
       <c r="PT12">
         <v>103</v>
       </c>
+      <c r="PU12">
+        <v>102</v>
+      </c>
+      <c r="PV12">
+        <v>107</v>
+      </c>
+      <c r="PW12">
+        <v>103</v>
+      </c>
+      <c r="PX12">
+        <v>101</v>
+      </c>
+      <c r="PY12">
+        <v>99</v>
+      </c>
+      <c r="PZ12">
+        <v>101</v>
+      </c>
+      <c r="QA12">
+        <v>110</v>
+      </c>
     </row>
-    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -67809,8 +68848,29 @@
       <c r="PT13">
         <v>32</v>
       </c>
+      <c r="PU13">
+        <v>34</v>
+      </c>
+      <c r="PV13">
+        <v>43</v>
+      </c>
+      <c r="PW13">
+        <v>44</v>
+      </c>
+      <c r="PX13">
+        <v>48</v>
+      </c>
+      <c r="PY13">
+        <v>45</v>
+      </c>
+      <c r="PZ13">
+        <v>44</v>
+      </c>
+      <c r="QA13">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -69119,8 +70179,29 @@
       <c r="PT14">
         <v>14</v>
       </c>
+      <c r="PU14">
+        <v>14</v>
+      </c>
+      <c r="PV14">
+        <v>13</v>
+      </c>
+      <c r="PW14">
+        <v>13</v>
+      </c>
+      <c r="PX14">
+        <v>12</v>
+      </c>
+      <c r="PY14">
+        <v>13</v>
+      </c>
+      <c r="PZ14">
+        <v>13</v>
+      </c>
+      <c r="QA14">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -70429,8 +71510,29 @@
       <c r="PT15">
         <v>33</v>
       </c>
+      <c r="PU15">
+        <v>32</v>
+      </c>
+      <c r="PV15">
+        <v>39</v>
+      </c>
+      <c r="PW15">
+        <v>42</v>
+      </c>
+      <c r="PX15">
+        <v>43</v>
+      </c>
+      <c r="PY15">
+        <v>39</v>
+      </c>
+      <c r="PZ15">
+        <v>44</v>
+      </c>
+      <c r="QA15">
+        <v>44</v>
+      </c>
     </row>
-    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -71739,8 +72841,29 @@
       <c r="PT16">
         <v>0</v>
       </c>
+      <c r="PU16">
+        <v>0</v>
+      </c>
+      <c r="PV16">
+        <v>0</v>
+      </c>
+      <c r="PW16">
+        <v>0</v>
+      </c>
+      <c r="PX16">
+        <v>0</v>
+      </c>
+      <c r="PY16">
+        <v>1</v>
+      </c>
+      <c r="PZ16">
+        <v>2</v>
+      </c>
+      <c r="QA16">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -73049,8 +74172,29 @@
       <c r="PT17">
         <v>8</v>
       </c>
+      <c r="PU17">
+        <v>10</v>
+      </c>
+      <c r="PV17">
+        <v>9</v>
+      </c>
+      <c r="PW17">
+        <v>10</v>
+      </c>
+      <c r="PX17">
+        <v>9</v>
+      </c>
+      <c r="PY17">
+        <v>10</v>
+      </c>
+      <c r="PZ17">
+        <v>9</v>
+      </c>
+      <c r="QA17">
+        <v>9</v>
+      </c>
     </row>
-    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -74359,48 +75503,69 @@
       <c r="PT18" s="20">
         <v>1067</v>
       </c>
+      <c r="PU18" s="20">
+        <v>1100</v>
+      </c>
+      <c r="PV18" s="20">
+        <v>1123</v>
+      </c>
+      <c r="PW18" s="20">
+        <v>1140</v>
+      </c>
+      <c r="PX18" s="20">
+        <v>1166</v>
+      </c>
+      <c r="PY18" s="20">
+        <v>1155</v>
+      </c>
+      <c r="PZ18" s="20">
+        <v>1178</v>
+      </c>
+      <c r="QA18" s="20">
+        <v>1193</v>
+      </c>
     </row>
-    <row r="19" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA19" s="1"/>
       <c r="KP19" s="9"/>
     </row>
-    <row r="20" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA20" s="1"/>
     </row>
-    <row r="21" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA21" s="1"/>
     </row>
-    <row r="22" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA22" s="1"/>
     </row>
-    <row r="23" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA23" s="1"/>
     </row>
-    <row r="24" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA25" s="1"/>
     </row>
-    <row r="26" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA26" s="1"/>
     </row>
-    <row r="27" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA27" s="1"/>
     </row>
-    <row r="28" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA28" s="1"/>
     </row>
-    <row r="29" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA29" s="1"/>
     </row>
-    <row r="30" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA30" s="1"/>
     </row>
-    <row r="31" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA31" s="1"/>
     </row>
-    <row r="32" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:443" x14ac:dyDescent="0.25">
       <c r="BA32" s="1"/>
     </row>
     <row r="33" spans="53:53" x14ac:dyDescent="0.25">
@@ -74411,1177 +75576,1177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="258" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="317" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE2:DH2">
-    <cfRule type="cellIs" dxfId="257" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="316" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="256" priority="236" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="236" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL2">
-    <cfRule type="cellIs" dxfId="255" priority="235" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="235" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:JP17 B18:JN18">
-    <cfRule type="cellIs" dxfId="254" priority="238" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:JP17">
-    <cfRule type="cellIs" dxfId="253" priority="237" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="237" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI3:DL18">
-    <cfRule type="cellIs" dxfId="252" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="234" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DI2:DL17">
-    <cfRule type="cellIs" dxfId="251" priority="233" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="233" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="250" priority="232" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="232" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE2">
-    <cfRule type="cellIs" dxfId="249" priority="231" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="231" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM3:FE18">
-    <cfRule type="cellIs" dxfId="248" priority="230" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="230" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM2:FE17">
-    <cfRule type="cellIs" dxfId="247" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="229" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="246" priority="228" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2">
-    <cfRule type="cellIs" dxfId="245" priority="227" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="227" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF3:FF18">
-    <cfRule type="cellIs" dxfId="244" priority="226" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="226" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF2:FF17">
-    <cfRule type="cellIs" dxfId="243" priority="225" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="225" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="242" priority="224" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="224" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2">
-    <cfRule type="cellIs" dxfId="241" priority="223" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="223" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG3:FG18">
-    <cfRule type="cellIs" dxfId="240" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="222" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG2:FG17">
-    <cfRule type="cellIs" dxfId="239" priority="221" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="221" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="238" priority="220" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="220" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2">
-    <cfRule type="cellIs" dxfId="237" priority="219" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="219" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH3:FH18">
-    <cfRule type="cellIs" dxfId="236" priority="218" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="218" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH2:FH17">
-    <cfRule type="cellIs" dxfId="235" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="217" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="234" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="216" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2">
-    <cfRule type="cellIs" dxfId="233" priority="215" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="215" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI3:FI18">
-    <cfRule type="cellIs" dxfId="232" priority="214" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="214" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI2:FI17">
-    <cfRule type="cellIs" dxfId="231" priority="213" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="213" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="230" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="212" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2">
-    <cfRule type="cellIs" dxfId="229" priority="211" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="211" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ3:FJ18">
-    <cfRule type="cellIs" dxfId="228" priority="210" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="210" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ2:FJ17">
-    <cfRule type="cellIs" dxfId="227" priority="209" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="226" priority="208" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="208" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2">
-    <cfRule type="cellIs" dxfId="225" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="207" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK3:FK18">
-    <cfRule type="cellIs" dxfId="224" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FK2:FK17">
-    <cfRule type="cellIs" dxfId="223" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="222" priority="204" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="204" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2">
-    <cfRule type="cellIs" dxfId="221" priority="203" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="203" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL3:FL18">
-    <cfRule type="cellIs" dxfId="220" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="202" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FL2:FL17">
-    <cfRule type="cellIs" dxfId="219" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="201" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="218" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="200" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2">
-    <cfRule type="cellIs" dxfId="217" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM3:FM18">
-    <cfRule type="cellIs" dxfId="216" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM2:FM17">
-    <cfRule type="cellIs" dxfId="215" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="214" priority="196" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="196" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2">
-    <cfRule type="cellIs" dxfId="213" priority="195" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="195" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN3:FN18">
-    <cfRule type="cellIs" dxfId="212" priority="194" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="194" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN2:FN17">
-    <cfRule type="cellIs" dxfId="211" priority="193" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="193" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="210" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="192" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2">
-    <cfRule type="cellIs" dxfId="209" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="191" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO3:FO18">
-    <cfRule type="cellIs" dxfId="208" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="190" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FO2:FO17">
-    <cfRule type="cellIs" dxfId="207" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="189" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP18:GB18">
-    <cfRule type="cellIs" dxfId="206" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="205" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="187" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB2">
-    <cfRule type="cellIs" dxfId="204" priority="186" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="186" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP3:GB17">
-    <cfRule type="cellIs" dxfId="203" priority="185" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="185" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP2:GB17">
-    <cfRule type="cellIs" dxfId="202" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="184" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC18:GL18">
-    <cfRule type="cellIs" dxfId="201" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="183" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="200" priority="182" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="182" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL2">
-    <cfRule type="cellIs" dxfId="199" priority="181" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="181" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC3:GL17">
-    <cfRule type="cellIs" dxfId="198" priority="180" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="180" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GC2:GL17">
-    <cfRule type="cellIs" dxfId="197" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="179" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM18">
-    <cfRule type="cellIs" dxfId="196" priority="178" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="178" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="195" priority="177" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="177" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2">
-    <cfRule type="cellIs" dxfId="194" priority="176" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="176" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM3:GM17">
-    <cfRule type="cellIs" dxfId="193" priority="175" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="175" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GM2:GM17">
-    <cfRule type="cellIs" dxfId="192" priority="174" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="174" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN18">
-    <cfRule type="cellIs" dxfId="191" priority="173" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="173" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="190" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="172" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2">
-    <cfRule type="cellIs" dxfId="189" priority="171" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="171" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN3:GN17">
-    <cfRule type="cellIs" dxfId="188" priority="170" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="170" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN2:GN17">
-    <cfRule type="cellIs" dxfId="187" priority="169" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="169" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO18">
-    <cfRule type="cellIs" dxfId="186" priority="168" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="168" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="185" priority="167" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="167" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2">
-    <cfRule type="cellIs" dxfId="184" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="166" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO3:GO17">
-    <cfRule type="cellIs" dxfId="183" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="165" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO2:GO17">
-    <cfRule type="cellIs" dxfId="182" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="164" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP18">
-    <cfRule type="cellIs" dxfId="181" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="163" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="180" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="162" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2">
-    <cfRule type="cellIs" dxfId="179" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="161" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP3:GP17">
-    <cfRule type="cellIs" dxfId="178" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="160" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP2:GP17">
-    <cfRule type="cellIs" dxfId="177" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="159" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ18:GV18">
-    <cfRule type="cellIs" dxfId="176" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="158" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="175" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="157" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV2">
-    <cfRule type="cellIs" dxfId="174" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="156" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ3:GV17">
-    <cfRule type="cellIs" dxfId="173" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="155" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ2:GV17">
-    <cfRule type="cellIs" dxfId="172" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="154" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW18">
-    <cfRule type="cellIs" dxfId="171" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="153" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="170" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="152" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2">
-    <cfRule type="cellIs" dxfId="169" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="151" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW3:GW17">
-    <cfRule type="cellIs" dxfId="168" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="150" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW2:GW17">
-    <cfRule type="cellIs" dxfId="167" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX18">
-    <cfRule type="cellIs" dxfId="166" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="148" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="165" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="147" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2">
-    <cfRule type="cellIs" dxfId="164" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX3:GX17">
-    <cfRule type="cellIs" dxfId="163" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GX2:GX17">
-    <cfRule type="cellIs" dxfId="162" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="144" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY18">
-    <cfRule type="cellIs" dxfId="161" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="143" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="160" priority="142" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="142" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2">
-    <cfRule type="cellIs" dxfId="159" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="141" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY3:GY17">
-    <cfRule type="cellIs" dxfId="158" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY2:GY17">
-    <cfRule type="cellIs" dxfId="157" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ18:HF18">
-    <cfRule type="cellIs" dxfId="156" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="155" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF2">
-    <cfRule type="cellIs" dxfId="154" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ3:HF17">
-    <cfRule type="cellIs" dxfId="153" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ2:HF17">
-    <cfRule type="cellIs" dxfId="152" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG18">
-    <cfRule type="cellIs" dxfId="151" priority="128" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="150" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2">
-    <cfRule type="cellIs" dxfId="149" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG3:HG17">
-    <cfRule type="cellIs" dxfId="148" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG2:HG17">
-    <cfRule type="cellIs" dxfId="147" priority="124" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH18">
-    <cfRule type="cellIs" dxfId="146" priority="123" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="123" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="145" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2">
-    <cfRule type="cellIs" dxfId="144" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH3:HH17">
-    <cfRule type="cellIs" dxfId="143" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HH2:HH17">
-    <cfRule type="cellIs" dxfId="142" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI18">
-    <cfRule type="cellIs" dxfId="141" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="140" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="117" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2">
-    <cfRule type="cellIs" dxfId="139" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="116" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI3:HI17">
-    <cfRule type="cellIs" dxfId="138" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="115" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HI2:HI17">
-    <cfRule type="cellIs" dxfId="137" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="114" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ18">
-    <cfRule type="cellIs" dxfId="136" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="113" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="135" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2">
-    <cfRule type="cellIs" dxfId="134" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ3:HJ17">
-    <cfRule type="cellIs" dxfId="133" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ2:HJ17">
-    <cfRule type="cellIs" dxfId="132" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK18">
-    <cfRule type="cellIs" dxfId="131" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="130" priority="107" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2">
-    <cfRule type="cellIs" dxfId="129" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK3:HK17">
-    <cfRule type="cellIs" dxfId="128" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK2:HK17">
-    <cfRule type="cellIs" dxfId="127" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL18">
-    <cfRule type="cellIs" dxfId="126" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="125" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="102" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2">
-    <cfRule type="cellIs" dxfId="124" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="101" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL3:HL17">
-    <cfRule type="cellIs" dxfId="123" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="100" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL2:HL17">
-    <cfRule type="cellIs" dxfId="122" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM18">
-    <cfRule type="cellIs" dxfId="121" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="98" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="120" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="97" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2">
-    <cfRule type="cellIs" dxfId="119" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM3:HM17">
-    <cfRule type="cellIs" dxfId="118" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM2:HM17">
-    <cfRule type="cellIs" dxfId="117" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN18">
-    <cfRule type="cellIs" dxfId="116" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="115" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2">
-    <cfRule type="cellIs" dxfId="114" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="91" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN3:HN17">
-    <cfRule type="cellIs" dxfId="113" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="90" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN2:HN17">
-    <cfRule type="cellIs" dxfId="112" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="89" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO18">
-    <cfRule type="cellIs" dxfId="111" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="88" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="110" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="87" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2">
-    <cfRule type="cellIs" dxfId="109" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="86" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO3:HO17">
-    <cfRule type="cellIs" dxfId="108" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="85" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HO2:HO17">
-    <cfRule type="cellIs" dxfId="107" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="84" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP18">
-    <cfRule type="cellIs" dxfId="106" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="105" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2">
-    <cfRule type="cellIs" dxfId="104" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP3:HP17">
-    <cfRule type="cellIs" dxfId="103" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HP2:HP17">
-    <cfRule type="cellIs" dxfId="102" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ18">
-    <cfRule type="cellIs" dxfId="101" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="78" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="100" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="77" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2">
-    <cfRule type="cellIs" dxfId="99" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="76" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ3:HQ17">
-    <cfRule type="cellIs" dxfId="98" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="75" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ2:HQ17">
-    <cfRule type="cellIs" dxfId="97" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR18:HZ18">
-    <cfRule type="cellIs" dxfId="96" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="95" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="72" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ2">
-    <cfRule type="cellIs" dxfId="94" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="71" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR3:HZ17">
-    <cfRule type="cellIs" dxfId="93" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR2:HZ17">
-    <cfRule type="cellIs" dxfId="92" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA18">
-    <cfRule type="cellIs" dxfId="91" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="90" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2">
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA3:IA17">
-    <cfRule type="cellIs" dxfId="88" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA2:IA17">
-    <cfRule type="cellIs" dxfId="87" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="64" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB18:IG18">
-    <cfRule type="cellIs" dxfId="86" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="85" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="62" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG2">
-    <cfRule type="cellIs" dxfId="84" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB3:IG17">
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="60" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB2:IG17">
-    <cfRule type="cellIs" dxfId="82" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH18:IL18">
-    <cfRule type="cellIs" dxfId="81" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="58" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="80" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL2">
-    <cfRule type="cellIs" dxfId="79" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH3:IL17">
-    <cfRule type="cellIs" dxfId="78" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH2:IL17">
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM18:IT18">
-    <cfRule type="cellIs" dxfId="76" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="75" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT2">
-    <cfRule type="cellIs" dxfId="74" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM3:IT17">
-    <cfRule type="cellIs" dxfId="73" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM2:IT17">
-    <cfRule type="cellIs" dxfId="72" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU18">
-    <cfRule type="cellIs" dxfId="71" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="70" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2">
-    <cfRule type="cellIs" dxfId="69" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU3:IU17">
-    <cfRule type="cellIs" dxfId="68" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IU2:IU17">
-    <cfRule type="cellIs" dxfId="67" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV18">
-    <cfRule type="cellIs" dxfId="66" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="65" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2">
-    <cfRule type="cellIs" dxfId="64" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV3:IV17">
-    <cfRule type="cellIs" dxfId="63" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV2:IV17">
-    <cfRule type="cellIs" dxfId="62" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW18">
-    <cfRule type="cellIs" dxfId="61" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="60" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2">
-    <cfRule type="cellIs" dxfId="59" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW3:IW17">
-    <cfRule type="cellIs" dxfId="58" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW2:IW17">
-    <cfRule type="cellIs" dxfId="57" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX18">
-    <cfRule type="cellIs" dxfId="56" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="55" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2">
-    <cfRule type="cellIs" dxfId="54" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX3:IX17">
-    <cfRule type="cellIs" dxfId="53" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IX2:IX17">
-    <cfRule type="cellIs" dxfId="52" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY18">
-    <cfRule type="cellIs" dxfId="51" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2">
-    <cfRule type="cellIs" dxfId="49" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY3:IY17">
-    <cfRule type="cellIs" dxfId="48" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY2:IY17">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ18">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2">
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ3:IZ17">
-    <cfRule type="cellIs" dxfId="43" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ2:IZ17">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA18">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA3:JA17">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA2:JA17">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO18:JU18">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ2:JQ17">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR2:JR17">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JS2:JS17">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JT2:JT17">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JU2:JU17">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV18:KC18">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KD18:KP18">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75592,10 +76757,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PT18"/>
+  <dimension ref="A1:QA18"/>
   <sheetViews>
-    <sheetView topLeftCell="PF1" workbookViewId="0">
-      <selection activeCell="PU11" sqref="PU11"/>
+    <sheetView topLeftCell="PL1" workbookViewId="0">
+      <selection activeCell="PW22" sqref="PW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75603,7 +76768,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -76912,8 +78077,29 @@
       <c r="PT1" s="8">
         <v>44369</v>
       </c>
+      <c r="PU1" s="8">
+        <v>44370</v>
+      </c>
+      <c r="PV1" s="8">
+        <v>44371</v>
+      </c>
+      <c r="PW1" s="8">
+        <v>44372</v>
+      </c>
+      <c r="PX1" s="8">
+        <v>44373</v>
+      </c>
+      <c r="PY1" s="8">
+        <v>44374</v>
+      </c>
+      <c r="PZ1" s="8">
+        <v>44375</v>
+      </c>
+      <c r="QA1" s="8">
+        <v>44376</v>
+      </c>
     </row>
-    <row r="2" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -78222,8 +79408,29 @@
       <c r="PT2">
         <v>9</v>
       </c>
+      <c r="PU2">
+        <v>9</v>
+      </c>
+      <c r="PV2">
+        <v>9</v>
+      </c>
+      <c r="PW2">
+        <v>9</v>
+      </c>
+      <c r="PX2">
+        <v>9</v>
+      </c>
+      <c r="PY2">
+        <v>9</v>
+      </c>
+      <c r="PZ2">
+        <v>9</v>
+      </c>
+      <c r="QA2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -79532,8 +80739,29 @@
       <c r="PT3">
         <v>12</v>
       </c>
+      <c r="PU3">
+        <v>12</v>
+      </c>
+      <c r="PV3">
+        <v>12</v>
+      </c>
+      <c r="PW3">
+        <v>12</v>
+      </c>
+      <c r="PX3">
+        <v>12</v>
+      </c>
+      <c r="PY3">
+        <v>12</v>
+      </c>
+      <c r="PZ3">
+        <v>12</v>
+      </c>
+      <c r="QA3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -80842,8 +82070,29 @@
       <c r="PT4">
         <v>48</v>
       </c>
+      <c r="PU4">
+        <v>48</v>
+      </c>
+      <c r="PV4">
+        <v>48</v>
+      </c>
+      <c r="PW4">
+        <v>48</v>
+      </c>
+      <c r="PX4">
+        <v>48</v>
+      </c>
+      <c r="PY4">
+        <v>48</v>
+      </c>
+      <c r="PZ4">
+        <v>48</v>
+      </c>
+      <c r="QA4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -82152,8 +83401,29 @@
       <c r="PT5">
         <v>11</v>
       </c>
+      <c r="PU5">
+        <v>11</v>
+      </c>
+      <c r="PV5">
+        <v>11</v>
+      </c>
+      <c r="PW5">
+        <v>11</v>
+      </c>
+      <c r="PX5">
+        <v>11</v>
+      </c>
+      <c r="PY5">
+        <v>11</v>
+      </c>
+      <c r="PZ5">
+        <v>11</v>
+      </c>
+      <c r="QA5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -83462,8 +84732,29 @@
       <c r="PT6">
         <v>29</v>
       </c>
+      <c r="PU6">
+        <v>29</v>
+      </c>
+      <c r="PV6">
+        <v>29</v>
+      </c>
+      <c r="PW6">
+        <v>29</v>
+      </c>
+      <c r="PX6">
+        <v>29</v>
+      </c>
+      <c r="PY6">
+        <v>29</v>
+      </c>
+      <c r="PZ6">
+        <v>29</v>
+      </c>
+      <c r="QA6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -84772,8 +86063,29 @@
       <c r="PT7">
         <v>125</v>
       </c>
+      <c r="PU7">
+        <v>125</v>
+      </c>
+      <c r="PV7">
+        <v>125</v>
+      </c>
+      <c r="PW7">
+        <v>125</v>
+      </c>
+      <c r="PX7">
+        <v>125</v>
+      </c>
+      <c r="PY7">
+        <v>125</v>
+      </c>
+      <c r="PZ7">
+        <v>125</v>
+      </c>
+      <c r="QA7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -86082,8 +87394,29 @@
       <c r="PT8">
         <v>745</v>
       </c>
+      <c r="PU8">
+        <v>745</v>
+      </c>
+      <c r="PV8">
+        <v>745</v>
+      </c>
+      <c r="PW8">
+        <v>745</v>
+      </c>
+      <c r="PX8">
+        <v>745</v>
+      </c>
+      <c r="PY8">
+        <v>745</v>
+      </c>
+      <c r="PZ8">
+        <v>745</v>
+      </c>
+      <c r="QA8">
+        <v>745</v>
+      </c>
     </row>
-    <row r="9" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -87392,8 +88725,29 @@
       <c r="PT9">
         <v>61</v>
       </c>
+      <c r="PU9">
+        <v>61</v>
+      </c>
+      <c r="PV9">
+        <v>61</v>
+      </c>
+      <c r="PW9">
+        <v>61</v>
+      </c>
+      <c r="PX9">
+        <v>61</v>
+      </c>
+      <c r="PY9">
+        <v>61</v>
+      </c>
+      <c r="PZ9">
+        <v>61</v>
+      </c>
+      <c r="QA9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -88702,8 +90056,29 @@
       <c r="PT10">
         <v>45</v>
       </c>
+      <c r="PU10">
+        <v>45</v>
+      </c>
+      <c r="PV10">
+        <v>45</v>
+      </c>
+      <c r="PW10">
+        <v>45</v>
+      </c>
+      <c r="PX10">
+        <v>45</v>
+      </c>
+      <c r="PY10">
+        <v>45</v>
+      </c>
+      <c r="PZ10">
+        <v>45</v>
+      </c>
+      <c r="QA10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -90012,8 +91387,29 @@
       <c r="PT11">
         <v>16</v>
       </c>
+      <c r="PU11">
+        <v>16</v>
+      </c>
+      <c r="PV11">
+        <v>16</v>
+      </c>
+      <c r="PW11">
+        <v>16</v>
+      </c>
+      <c r="PX11">
+        <v>16</v>
+      </c>
+      <c r="PY11">
+        <v>16</v>
+      </c>
+      <c r="PZ11">
+        <v>16</v>
+      </c>
+      <c r="QA11">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -91322,8 +92718,29 @@
       <c r="PT12">
         <v>97</v>
       </c>
+      <c r="PU12">
+        <v>97</v>
+      </c>
+      <c r="PV12">
+        <v>97</v>
+      </c>
+      <c r="PW12">
+        <v>97</v>
+      </c>
+      <c r="PX12">
+        <v>97</v>
+      </c>
+      <c r="PY12">
+        <v>97</v>
+      </c>
+      <c r="PZ12">
+        <v>97</v>
+      </c>
+      <c r="QA12">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -92632,8 +94049,29 @@
       <c r="PT13">
         <v>49</v>
       </c>
+      <c r="PU13">
+        <v>49</v>
+      </c>
+      <c r="PV13">
+        <v>49</v>
+      </c>
+      <c r="PW13">
+        <v>49</v>
+      </c>
+      <c r="PX13">
+        <v>49</v>
+      </c>
+      <c r="PY13">
+        <v>49</v>
+      </c>
+      <c r="PZ13">
+        <v>49</v>
+      </c>
+      <c r="QA13">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -93942,8 +95380,29 @@
       <c r="PT14">
         <v>13</v>
       </c>
+      <c r="PU14">
+        <v>13</v>
+      </c>
+      <c r="PV14">
+        <v>13</v>
+      </c>
+      <c r="PW14">
+        <v>13</v>
+      </c>
+      <c r="PX14">
+        <v>13</v>
+      </c>
+      <c r="PY14">
+        <v>13</v>
+      </c>
+      <c r="PZ14">
+        <v>13</v>
+      </c>
+      <c r="QA14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -95252,8 +96711,29 @@
       <c r="PT15">
         <v>49</v>
       </c>
+      <c r="PU15">
+        <v>49</v>
+      </c>
+      <c r="PV15">
+        <v>49</v>
+      </c>
+      <c r="PW15">
+        <v>49</v>
+      </c>
+      <c r="PX15">
+        <v>49</v>
+      </c>
+      <c r="PY15">
+        <v>49</v>
+      </c>
+      <c r="PZ15">
+        <v>49</v>
+      </c>
+      <c r="QA15">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -96562,8 +98042,29 @@
       <c r="PT16">
         <v>8</v>
       </c>
+      <c r="PU16">
+        <v>8</v>
+      </c>
+      <c r="PV16">
+        <v>8</v>
+      </c>
+      <c r="PW16">
+        <v>8</v>
+      </c>
+      <c r="PX16">
+        <v>8</v>
+      </c>
+      <c r="PY16">
+        <v>8</v>
+      </c>
+      <c r="PZ16">
+        <v>8</v>
+      </c>
+      <c r="QA16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -97872,8 +99373,29 @@
       <c r="PT17">
         <v>14</v>
       </c>
+      <c r="PU17">
+        <v>14</v>
+      </c>
+      <c r="PV17">
+        <v>14</v>
+      </c>
+      <c r="PW17">
+        <v>14</v>
+      </c>
+      <c r="PX17">
+        <v>14</v>
+      </c>
+      <c r="PY17">
+        <v>14</v>
+      </c>
+      <c r="PZ17">
+        <v>14</v>
+      </c>
+      <c r="QA17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:436" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:443" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -99617,119 +101139,152 @@
         <f t="shared" si="19"/>
         <v>1331</v>
       </c>
+      <c r="PU18" s="6">
+        <f t="shared" ref="PU18:QA18" si="20">SUM(PU2:PU17)</f>
+        <v>1331</v>
+      </c>
+      <c r="PV18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+      <c r="PW18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+      <c r="PX18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+      <c r="PY18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+      <c r="PZ18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+      <c r="QA18" s="6">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="23" priority="255" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="256" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B18">
+    <cfRule type="cellIs" dxfId="23" priority="254" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="cellIs" dxfId="22" priority="253" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="21" priority="252" operator="lessThan">
+  <conditionalFormatting sqref="C2:MF17">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:MF18">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:MF17">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:MF18">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:MF17">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MG3:MG18">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG3:MG18">
+  <conditionalFormatting sqref="MG2:MG17">
     <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MG2:MG17">
+  <conditionalFormatting sqref="MH18">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MH18">
+  <conditionalFormatting sqref="MI18:MN18">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MI18:MN18">
+  <conditionalFormatting sqref="MO18:MU18">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MO18:MU18">
+  <conditionalFormatting sqref="MV18:NB18">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MV18:NB18">
+  <conditionalFormatting sqref="NC18:NI18">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NC18:NI18">
+  <conditionalFormatting sqref="NJ18:NP18">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NJ18:NP18">
+  <conditionalFormatting sqref="NQ18:NW18">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NQ18:NW18">
+  <conditionalFormatting sqref="NX18:OD18">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="NX18:OD18">
+  <conditionalFormatting sqref="OE18:OK18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OE18:OK18">
+  <conditionalFormatting sqref="OL18:OR18">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OL18:OR18">
+  <conditionalFormatting sqref="OS18:OY18">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OS18:OY18">
+  <conditionalFormatting sqref="OZ18:PF18">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="OZ18:PF18">
+  <conditionalFormatting sqref="PG18:PM18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="PG18:PM18">
+  <conditionalFormatting sqref="PN18:PT18">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="PN18:PT18">
+  <conditionalFormatting sqref="PU18:QA18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
